--- a/model.xlsx
+++ b/model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="686">
   <si>
     <t>实体登记表</t>
   </si>
@@ -2004,6 +2004,78 @@
   </si>
   <si>
     <t>用于获取具体的录音对象</t>
+  </si>
+  <si>
+    <t>ImageWall</t>
+  </si>
+  <si>
+    <t>影像墙</t>
+  </si>
+  <si>
+    <t>/admin/imageWall</t>
+  </si>
+  <si>
+    <t>RLU</t>
+  </si>
+  <si>
+    <t>relationProId</t>
+  </si>
+  <si>
+    <t>关联产品ID</t>
+  </si>
+  <si>
+    <t>relationProTitle</t>
+  </si>
+  <si>
+    <t>关联产品标题</t>
+  </si>
+  <si>
+    <t>用户头像</t>
+  </si>
+  <si>
+    <t>fileType</t>
+  </si>
+  <si>
+    <t>文件类型</t>
+  </si>
+  <si>
+    <t>1-图片；2-视频</t>
+  </si>
+  <si>
+    <t>文件地址</t>
+  </si>
+  <si>
+    <t>commentCount=0</t>
+  </si>
+  <si>
+    <t>goodCount=0</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>0-隐藏（发布者可见）；1-显示</t>
+  </si>
+  <si>
+    <t>ImageComment</t>
+  </si>
+  <si>
+    <t>影像评论</t>
+  </si>
+  <si>
+    <t>/admin/imageComment</t>
+  </si>
+  <si>
+    <t>CustomImageRelation</t>
+  </si>
+  <si>
+    <t>用户影像关联</t>
+  </si>
+  <si>
+    <t>关系类型</t>
+  </si>
+  <si>
+    <t>1-可上传，但需要审核；2-可上传，无需审核</t>
   </si>
 </sst>
 </file>
@@ -2033,9 +2105,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2048,38 +2142,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2101,7 +2173,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2115,57 +2233,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2186,7 +2258,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2204,84 +2318,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2294,19 +2330,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2324,49 +2438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2391,21 +2463,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2458,6 +2515,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2469,15 +2550,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2500,10 +2572,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2512,133 +2584,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3025,10 +3097,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N438"/>
+  <dimension ref="A1:N473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="D212" sqref="D212"/>
+    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
+      <selection activeCell="E473" sqref="E473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -9860,72 +9932,635 @@
         <v>661</v>
       </c>
     </row>
+    <row r="439" spans="1:8">
+      <c r="A439" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F439" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G439" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="H439" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E441" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5">
+      <c r="A442" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
+      <c r="A450" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="E450" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D452" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D453" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D454" s="3" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E455" s="3" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8">
+      <c r="A456" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D456" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="E456" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F456" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G456" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="H456" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="E457" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
+      <c r="A458" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E459" s="3" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
+      <c r="A461" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E461" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D462" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D463" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D467" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
+      <c r="A473" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D473" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="E473" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="K2:N8"/>
   </mergeCells>
   <conditionalFormatting sqref="C202">
-    <cfRule type="expression" dxfId="0" priority="20">
+    <cfRule type="expression" dxfId="0" priority="29">
       <formula>AND($A203="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D202">
-    <cfRule type="expression" dxfId="1" priority="21">
+    <cfRule type="expression" dxfId="1" priority="30">
       <formula>AND($A203="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A43">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="字段">
+    <cfRule type="containsText" dxfId="2" priority="12" operator="between" text="字段">
       <formula>NOT(ISERROR(SEARCH("字段",A41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="between" text="类">
+    <cfRule type="containsText" dxfId="3" priority="13" operator="between" text="类">
       <formula>NOT(ISERROR(SEARCH("类",A41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A335:A340">
-    <cfRule type="containsText" dxfId="2" priority="7" operator="between" text="字段">
+    <cfRule type="containsText" dxfId="2" priority="16" operator="between" text="字段">
       <formula>NOT(ISERROR(SEARCH("字段",A335)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="8" operator="between" text="类">
+    <cfRule type="containsText" dxfId="3" priority="17" operator="between" text="类">
       <formula>NOT(ISERROR(SEARCH("类",A335)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A469:A472">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="between" text="类">
+      <formula>NOT(ISERROR(SEARCH("类",A469)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="字段">
+      <formula>NOT(ISERROR(SEARCH("字段",A469)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C41:C43">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="0" priority="11">
       <formula>AND($A41="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C335:C340">
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="0" priority="15">
       <formula>AND($A335="类")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C440:C442">
+    <cfRule type="expression" dxfId="0" priority="9">
+      <formula>AND($A440="类")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C457:C459">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>AND($A457="类")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C463:C467">
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>AND($A463="类")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C469:C472">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>AND($A469="类")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D41:D43">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>AND($A41="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D335:D340">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="1" priority="14">
       <formula>AND($A335="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A40 A44:A334 A341:A1048576">
-    <cfRule type="containsText" dxfId="2" priority="18" operator="between" text="字段">
+  <conditionalFormatting sqref="D457:D459">
+    <cfRule type="expression" dxfId="1" priority="8">
+      <formula>AND($A457="类")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D463:D467">
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>AND($A463="类")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D469:D472">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND($A469="类")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A40 A44:A334 A341:A468 A473:A1048576">
+    <cfRule type="containsText" dxfId="2" priority="27" operator="between" text="字段">
       <formula>NOT(ISERROR(SEARCH("字段",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="19" operator="between" text="类">
+    <cfRule type="containsText" dxfId="3" priority="28" operator="between" text="类">
       <formula>NOT(ISERROR(SEARCH("类",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C40 C44:C201 C204:C334 C341:C1048576">
-    <cfRule type="expression" dxfId="0" priority="13">
+  <conditionalFormatting sqref="C2:C40 C44:C201 C204:C334 C341:C439 C443:C456 C460:C462 C468 C473:C1048576">
+    <cfRule type="expression" dxfId="0" priority="22">
       <formula>AND($A2="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D40 D44:D201 D204:D334 D341:D1048576">
-    <cfRule type="expression" dxfId="1" priority="9">
+  <conditionalFormatting sqref="D2:D40 D44:D201 D204:D334 D341:D456 D460:D462 D468 D473:D1048576">
+    <cfRule type="expression" dxfId="1" priority="18">
       <formula>AND($A2="类")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model.xlsx
+++ b/model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="689">
   <si>
     <t>实体登记表</t>
   </si>
@@ -2016,6 +2016,15 @@
   </si>
   <si>
     <t>RLU</t>
+  </si>
+  <si>
+    <t>relationFlag="0"</t>
+  </si>
+  <si>
+    <t>关联标识</t>
+  </si>
+  <si>
+    <t>0-未关联；1-已关联</t>
   </si>
   <si>
     <t>relationProId</t>
@@ -2083,10 +2092,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2114,36 +2123,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2158,7 +2137,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2169,6 +2171,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2187,39 +2196,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2233,9 +2212,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2258,13 +2267,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2276,115 +2321,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2402,19 +2345,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2432,13 +2405,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2467,6 +2476,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2478,15 +2496,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2509,17 +2518,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2556,6 +2556,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2572,10 +2581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2587,130 +2596,130 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3097,10 +3106,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N473"/>
+  <dimension ref="A1:N474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
-      <selection activeCell="E473" sqref="E473"/>
+    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
+      <selection activeCell="C443" sqref="C443"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -10009,7 +10018,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:5">
       <c r="A443" s="1" t="s">
         <v>18</v>
       </c>
@@ -10017,24 +10026,27 @@
         <v>666</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D443" s="3" t="s">
         <v>667</v>
       </c>
+      <c r="E443" s="3" t="s">
+        <v>668</v>
+      </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -10042,24 +10054,27 @@
         <v>18</v>
       </c>
       <c r="B445" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B446" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C445" s="2" t="s">
+      <c r="C446" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D445" s="3" t="s">
+      <c r="D446" s="3" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3">
-      <c r="A446" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B446" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C446" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="447" spans="1:3">
@@ -10067,7 +10082,7 @@
         <v>18</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>20</v>
@@ -10078,55 +10093,52 @@
         <v>18</v>
       </c>
       <c r="B448" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B449" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C448" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4">
-      <c r="A449" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B449" s="2" t="s">
+      <c r="C449" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B450" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C449" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D449" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5">
-      <c r="A450" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B450" s="2" t="s">
-        <v>671</v>
-      </c>
       <c r="C450" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D450" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="E450" s="3" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:5">
       <c r="A451" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>129</v>
+        <v>674</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>674</v>
+        <v>675</v>
+      </c>
+      <c r="E451" s="3" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -10134,13 +10146,13 @@
         <v>18</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>675</v>
+        <v>129</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>32</v>
+        <v>677</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -10148,13 +10160,13 @@
         <v>18</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -10162,73 +10174,70 @@
         <v>18</v>
       </c>
       <c r="B454" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D454" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B455" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C454" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D454" s="3" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5">
-      <c r="A455" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B455" s="2" t="s">
+      <c r="C455" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5">
+      <c r="A456" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B456" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C455" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D455" s="3" t="s">
+      <c r="C456" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D456" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E455" s="3" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="456" spans="1:8">
-      <c r="A456" s="1" t="s">
+      <c r="E456" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8">
+      <c r="A457" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B456" s="2" t="s">
+      <c r="B457" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C456" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="D456" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="E456" s="3" t="s">
+      <c r="C457" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="E457" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F456" s="2" t="s">
+      <c r="F457" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G456" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="H456" s="2" t="s">
+      <c r="G457" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="H457" s="2" t="s">
         <v>665</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5">
-      <c r="A457" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B457" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C457" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D457" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="E457" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -10236,16 +10245,16 @@
         <v>18</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D458" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E458" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -10253,61 +10262,64 @@
         <v>18</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D459" s="3" t="s">
         <v>651</v>
       </c>
       <c r="E459" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="E460" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
-      <c r="A460" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B460" s="2" t="s">
+    <row r="461" spans="1:4">
+      <c r="A461" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B461" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C460" s="2" t="s">
+      <c r="C461" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D460" s="3" t="s">
+      <c r="D461" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
-      <c r="A461" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B461" s="2" t="s">
+    <row r="462" spans="1:5">
+      <c r="A462" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B462" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C461" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D461" s="3" t="s">
+      <c r="C462" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D462" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E461" s="3" t="s">
+      <c r="E462" s="3" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4">
-      <c r="A462" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B462" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C462" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D462" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -10315,24 +10327,27 @@
         <v>18</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>91</v>
+        <v>679</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D463" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D464" s="3" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3">
-      <c r="A464" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B464" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C464" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="465" spans="1:3">
@@ -10340,7 +10355,7 @@
         <v>18</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>20</v>
@@ -10351,66 +10366,66 @@
         <v>18</v>
       </c>
       <c r="B466" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B467" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C466" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4">
-      <c r="A467" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B467" s="2" t="s">
+      <c r="C467" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B468" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C467" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D467" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5">
-      <c r="A468" s="1" t="s">
+      <c r="C468" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B468" s="2" t="s">
+      <c r="B469" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C468" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="D468" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="E468" s="3" t="s">
+      <c r="C469" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="E469" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
-      <c r="A469" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B469" s="2" t="s">
+    <row r="470" spans="1:4">
+      <c r="A470" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B470" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C469" s="2" t="s">
+      <c r="C470" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D469" s="3" t="s">
+      <c r="D470" s="3" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3">
-      <c r="A470" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B470" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C470" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="471" spans="1:3">
@@ -10418,7 +10433,7 @@
         <v>18</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>20</v>
@@ -10429,27 +10444,38 @@
         <v>18</v>
       </c>
       <c r="B472" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B473" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C472" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5">
-      <c r="A473" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B473" s="2" t="s">
+      <c r="C473" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5">
+      <c r="A474" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B474" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="C473" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D473" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="E473" s="3" t="s">
-        <v>685</v>
+      <c r="C474" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D474" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="E474" s="3" t="s">
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -10483,12 +10509,12 @@
       <formula>NOT(ISERROR(SEARCH("类",A335)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A469:A472">
+  <conditionalFormatting sqref="A470:A473">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="字段">
+      <formula>NOT(ISERROR(SEARCH("字段",A470)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="3" priority="4" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A469)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A469)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A470)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C43">
@@ -10501,24 +10527,24 @@
       <formula>AND($A335="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C440:C442">
+  <conditionalFormatting sqref="C440:C443">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>AND($A440="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C457:C459">
+  <conditionalFormatting sqref="C458:C460">
     <cfRule type="expression" dxfId="0" priority="7">
-      <formula>AND($A457="类")</formula>
+      <formula>AND($A458="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C463:C467">
+  <conditionalFormatting sqref="C464:C468">
     <cfRule type="expression" dxfId="0" priority="6">
-      <formula>AND($A463="类")</formula>
+      <formula>AND($A464="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C469:C472">
+  <conditionalFormatting sqref="C470:C473">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND($A469="类")</formula>
+      <formula>AND($A470="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D43">
@@ -10531,22 +10557,22 @@
       <formula>AND($A335="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D457:D459">
+  <conditionalFormatting sqref="D458:D460">
     <cfRule type="expression" dxfId="1" priority="8">
-      <formula>AND($A457="类")</formula>
+      <formula>AND($A458="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D463:D467">
+  <conditionalFormatting sqref="D464:D468">
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>AND($A463="类")</formula>
+      <formula>AND($A464="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D469:D472">
+  <conditionalFormatting sqref="D470:D473">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND($A469="类")</formula>
+      <formula>AND($A470="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A40 A44:A334 A341:A468 A473:A1048576">
+  <conditionalFormatting sqref="A1:A40 A44:A334 A341:A469 A474:A1048576">
     <cfRule type="containsText" dxfId="2" priority="27" operator="between" text="字段">
       <formula>NOT(ISERROR(SEARCH("字段",A1)))</formula>
     </cfRule>
@@ -10554,12 +10580,12 @@
       <formula>NOT(ISERROR(SEARCH("类",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C40 C44:C201 C204:C334 C341:C439 C443:C456 C460:C462 C468 C473:C1048576">
+  <conditionalFormatting sqref="C2:C40 C44:C201 C204:C334 C341:C439 C444:C457 C461:C463 C469 C474:C1048576">
     <cfRule type="expression" dxfId="0" priority="22">
       <formula>AND($A2="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D40 D44:D201 D204:D334 D341:D456 D460:D462 D468 D473:D1048576">
+  <conditionalFormatting sqref="D2:D40 D44:D201 D204:D334 D341:D457 D461:D463 D469 D474:D1048576">
     <cfRule type="expression" dxfId="1" priority="18">
       <formula>AND($A2="类")</formula>
     </cfRule>

--- a/model.xlsx
+++ b/model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="717">
   <si>
     <t>实体登记表</t>
   </si>
@@ -947,6 +947,12 @@
     <t>上级AgentID</t>
   </si>
   <si>
+    <t>leaderOpenid</t>
+  </si>
+  <si>
+    <t>上级代理Openid</t>
+  </si>
+  <si>
     <t>leaderName</t>
   </si>
   <si>
@@ -1499,6 +1505,9 @@
     <t>订单编号</t>
   </si>
   <si>
+    <t>用户头像</t>
+  </si>
+  <si>
     <t>订单内总产品数量</t>
   </si>
   <si>
@@ -1664,6 +1673,9 @@
     <t>代理等级名称</t>
   </si>
   <si>
+    <t>产品照片</t>
+  </si>
+  <si>
     <t>产品原价</t>
   </si>
   <si>
@@ -1859,6 +1871,24 @@
     <t>手机号码</t>
   </si>
   <si>
+    <t>SessionKey</t>
+  </si>
+  <si>
+    <t>会话机制</t>
+  </si>
+  <si>
+    <t>sk</t>
+  </si>
+  <si>
+    <t>sessionKey</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>微信登陆code</t>
+  </si>
+  <si>
     <t>core.qiniu</t>
   </si>
   <si>
@@ -2039,9 +2069,6 @@
     <t>关联产品标题</t>
   </si>
   <si>
-    <t>用户头像</t>
-  </si>
-  <si>
     <t>fileType</t>
   </si>
   <si>
@@ -2085,6 +2112,63 @@
   </si>
   <si>
     <t>1-可上传，但需要审核；2-可上传，无需审核</t>
+  </si>
+  <si>
+    <t>SubscribeMessage</t>
+  </si>
+  <si>
+    <t>订阅消息</t>
+  </si>
+  <si>
+    <t>/admin/subscribeMessage</t>
+  </si>
+  <si>
+    <t>tempId</t>
+  </si>
+  <si>
+    <t>模板ID</t>
+  </si>
+  <si>
+    <t>方便了解模板用意</t>
+  </si>
+  <si>
+    <t>模板编号，好记，不能改，在程序中写死</t>
+  </si>
+  <si>
+    <t>消息内容</t>
+  </si>
+  <si>
+    <t>如：thing1_phrase2_date3_thing4_name5</t>
+  </si>
+  <si>
+    <t>消息内容对应备注</t>
+  </si>
+  <si>
+    <t>如：审核项目_审核状态_申请时间_备注信息_申请人</t>
+  </si>
+  <si>
+    <t>CustomSubscribe</t>
+  </si>
+  <si>
+    <t>客户消息订阅</t>
+  </si>
+  <si>
+    <t>/admin/customSubscribe</t>
+  </si>
+  <si>
+    <t>messageId</t>
+  </si>
+  <si>
+    <t>messageName</t>
+  </si>
+  <si>
+    <t>messageSn</t>
+  </si>
+  <si>
+    <t>订阅状态</t>
+  </si>
+  <si>
+    <t>0-未订阅；1-订阅</t>
   </si>
 </sst>
 </file>
@@ -2093,9 +2177,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2121,11 +2205,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2133,6 +2246,30 @@
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2144,17 +2281,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2166,23 +2303,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2197,62 +2327,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2267,7 +2351,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2279,55 +2513,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2339,115 +2531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2479,8 +2563,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2496,6 +2595,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2519,57 +2653,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2581,10 +2665,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2593,133 +2677,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3106,10 +3190,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N474"/>
+  <dimension ref="A1:N496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A435" workbookViewId="0">
-      <selection activeCell="C443" sqref="C443"/>
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="E319" sqref="E319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -5718,7 +5802,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
         <v>18</v>
       </c>
@@ -5726,26 +5810,26 @@
         <v>313</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="E162" s="3" t="s">
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D163" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E163" s="3" t="s">
         <v>317</v>
       </c>
     </row>
@@ -5813,42 +5897,42 @@
         <v>326</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:4">
       <c r="A169" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>11</v>
+        <v>328</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>328</v>
+        <v>20</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E169" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+    </row>
+    <row r="170" spans="1:5">
       <c r="A170" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>331</v>
       </c>
+      <c r="E170" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1" t="s">
@@ -5858,7 +5942,7 @@
         <v>332</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>333</v>
@@ -5872,7 +5956,7 @@
         <v>334</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>335</v>
@@ -5886,13 +5970,13 @@
         <v>336</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
         <v>18</v>
       </c>
@@ -5905,50 +5989,53 @@
       <c r="D174" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="E174" s="3" t="s">
-        <v>340</v>
-      </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B176" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C175" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E175" s="3" t="s">
+      <c r="C176" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E176" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C176" s="2" t="s">
+    <row r="177" spans="1:4">
+      <c r="A177" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D176" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>20</v>
+      <c r="D177" s="3" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -5956,27 +6043,24 @@
         <v>18</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="C179" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" s="1" t="s">
         <v>18</v>
       </c>
@@ -5989,9 +6073,6 @@
       <c r="D180" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="E180" s="3" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="1" t="s">
@@ -6007,10 +6088,10 @@
         <v>348</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
       <c r="A182" s="1" t="s">
         <v>18</v>
       </c>
@@ -6018,146 +6099,152 @@
         <v>349</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>350</v>
       </c>
+      <c r="E182" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C184" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D184" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E184" s="3" t="s">
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="A185" s="1" t="s">
+      <c r="C185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B186" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F185" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G185" s="3" t="s">
+      <c r="C186" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>358</v>
       </c>
       <c r="E186" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G186" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="G186" s="3" t="s">
+      <c r="H186" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D187" s="3" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B187" s="2" t="s">
+      <c r="E187" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D187" s="3" t="s">
+      <c r="G187" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B189" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E188" s="3" t="s">
+      <c r="C189" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E189" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C189" s="2" t="s">
+    <row r="190" spans="1:4">
+      <c r="A190" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D189" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>20</v>
+      <c r="D190" s="3" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -6165,55 +6252,52 @@
         <v>18</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="C192" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="E193" s="3" t="s">
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="E194" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -6221,13 +6305,13 @@
         <v>18</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -6238,7 +6322,7 @@
         <v>371</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>372</v>
@@ -6252,7 +6336,7 @@
         <v>373</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>374</v>
@@ -6266,13 +6350,13 @@
         <v>375</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:4">
       <c r="A199" s="1" t="s">
         <v>18</v>
       </c>
@@ -6280,30 +6364,27 @@
         <v>377</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="E199" s="3" t="s">
-        <v>379</v>
-      </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>108</v>
+        <v>379</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>380</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>110</v>
+        <v>381</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6311,16 +6392,16 @@
         <v>18</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6328,70 +6409,73 @@
         <v>18</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C203" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D202" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B203" s="2" t="s">
+      <c r="D203" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C203" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D203" s="3" t="s">
+      <c r="E203" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:4">
       <c r="A204" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>11</v>
+        <v>385</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>385</v>
+        <v>20</v>
       </c>
       <c r="D204" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="E204" s="3" t="s">
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E205" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F204" s="2" t="s">
+      <c r="F205" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G204" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="H204" s="2" t="s">
+      <c r="G205" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="H205" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -6402,10 +6486,10 @@
         <v>326</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -6413,13 +6497,13 @@
         <v>18</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>93</v>
+        <v>328</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>94</v>
+        <v>360</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -6427,13 +6511,13 @@
         <v>18</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6441,13 +6525,13 @@
         <v>18</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>388</v>
+        <v>95</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>389</v>
+        <v>96</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6458,13 +6542,13 @@
         <v>390</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D210" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:4">
       <c r="A211" s="1" t="s">
         <v>18</v>
       </c>
@@ -6472,67 +6556,67 @@
         <v>392</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="G211" s="3" t="s">
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>394</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D212" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="G212" s="3" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:4">
       <c r="A213" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>11</v>
+        <v>397</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>397</v>
+        <v>65</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E213" s="3" t="s">
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E214" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F213" s="2" t="s">
+      <c r="F214" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G213" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="H213" s="2" t="s">
+      <c r="G214" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="H214" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -6543,10 +6627,10 @@
         <v>326</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -6554,13 +6638,13 @@
         <v>18</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>392</v>
+        <v>328</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -6568,7 +6652,7 @@
         <v>18</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>65</v>
@@ -6577,43 +6661,43 @@
         <v>402</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:4">
       <c r="A218" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>11</v>
+        <v>403</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>403</v>
+        <v>65</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E218" s="3" t="s">
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E219" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F218" s="2" t="s">
+      <c r="F219" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G218" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="H218" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B219" s="2" t="s">
+      <c r="G219" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="C219" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D219" s="3" t="s">
+      <c r="H219" s="2" t="s">
         <v>408</v>
       </c>
     </row>
@@ -6625,50 +6709,50 @@
         <v>409</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D220" s="3" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:4">
       <c r="A221" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>11</v>
+        <v>411</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>411</v>
+        <v>65</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="E221" s="3" t="s">
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E222" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F221" s="2" t="s">
+      <c r="F222" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G221" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="H221" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>94</v>
+      <c r="G222" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="H222" s="2" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6676,13 +6760,13 @@
         <v>18</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -6690,13 +6774,13 @@
         <v>18</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -6704,13 +6788,13 @@
         <v>18</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>388</v>
+        <v>97</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>389</v>
+        <v>98</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -6721,7 +6805,7 @@
         <v>390</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D226" s="3" t="s">
         <v>391</v>
@@ -6735,10 +6819,10 @@
         <v>392</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6746,41 +6830,38 @@
         <v>18</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="230" spans="1:5">
+      <c r="D229" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
       <c r="A230" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D230" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="E230" s="3" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6788,16 +6869,16 @@
         <v>18</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6805,16 +6886,16 @@
         <v>18</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>382</v>
+        <v>107</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6822,16 +6903,16 @@
         <v>18</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>214</v>
+        <v>102</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>110</v>
+        <v>384</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6839,16 +6920,16 @@
         <v>18</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6856,27 +6937,33 @@
         <v>18</v>
       </c>
       <c r="B235" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C236" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D235" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="E235" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>20</v>
+      <c r="D236" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -6884,7 +6971,7 @@
         <v>18</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>20</v>
@@ -6895,7 +6982,7 @@
         <v>18</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>20</v>
@@ -6906,84 +6993,78 @@
         <v>18</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C240" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
-      <c r="A240" s="1" t="s">
+    <row r="241" spans="1:8">
+      <c r="A241" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B241" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D240" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E240" s="3" t="s">
+      <c r="C241" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E241" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F240" s="2" t="s">
+      <c r="F241" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G240" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="H240" s="2" t="s">
+      <c r="G241" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="H241" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
-      <c r="A241" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B241" s="2" t="s">
+    <row r="242" spans="1:7">
+      <c r="A242" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D241" s="3" t="s">
+      <c r="C242" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D242" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G241" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B242" s="2" t="s">
+      <c r="G242" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D242" s="3" t="s">
+      <c r="C243" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D243" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="E243" s="3" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -6991,16 +7072,16 @@
         <v>18</v>
       </c>
       <c r="B244" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D244" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D244" s="3" t="s">
+      <c r="E244" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="E244" s="3" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7008,7 +7089,7 @@
         <v>18</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>118</v>
+        <v>428</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>20</v>
@@ -7025,16 +7106,16 @@
         <v>18</v>
       </c>
       <c r="B246" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D246" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="C246" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D246" s="3" t="s">
+      <c r="E246" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="E246" s="3" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7042,7 +7123,7 @@
         <v>18</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>93</v>
+        <v>433</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>29</v>
@@ -7059,10 +7140,10 @@
         <v>18</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>436</v>
@@ -7076,38 +7157,41 @@
         <v>18</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D249" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="E249" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D249" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="E249" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>441</v>
       </c>
+      <c r="E250" s="3" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>442</v>
+        <v>33</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>29</v>
@@ -7116,44 +7200,44 @@
         <v>443</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:4">
       <c r="A252" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>11</v>
+        <v>444</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>444</v>
+        <v>29</v>
       </c>
       <c r="D252" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E252" s="3" t="s">
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E253" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F252" s="2" t="s">
+      <c r="F253" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G252" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="H252" s="2" t="s">
+      <c r="G253" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="H253" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D253" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -7161,13 +7245,13 @@
         <v>18</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>447</v>
+        <v>114</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>448</v>
+        <v>153</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -7178,7 +7262,7 @@
         <v>449</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>450</v>
@@ -7198,41 +7282,44 @@
         <v>452</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:4">
       <c r="A257" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>11</v>
+        <v>453</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="D257" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="E257" s="3" t="s">
+    </row>
+    <row r="258" spans="1:8">
+      <c r="A258" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="E258" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F257" s="2" t="s">
+      <c r="F258" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G257" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="H257" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3">
-      <c r="A258" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>20</v>
+      <c r="G258" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="H258" s="2" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -7240,7 +7327,7 @@
         <v>18</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>20</v>
@@ -7251,10 +7338,10 @@
         <v>18</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -7262,24 +7349,21 @@
         <v>18</v>
       </c>
       <c r="B261" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C261" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="C262" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D262" s="3" t="s">
-        <v>448</v>
+        <v>20</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -7290,7 +7374,7 @@
         <v>449</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D263" s="3" t="s">
         <v>450</v>
@@ -7301,30 +7385,27 @@
         <v>18</v>
       </c>
       <c r="B264" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="C265" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="E265" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7332,16 +7413,16 @@
         <v>18</v>
       </c>
       <c r="B266" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D266" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C266" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>427</v>
-      </c>
       <c r="E266" s="3" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7349,19 +7430,19 @@
         <v>18</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
       <c r="A268" s="1" t="s">
         <v>18</v>
       </c>
@@ -7369,13 +7450,16 @@
         <v>460</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="269" spans="1:5">
+      <c r="E268" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
       <c r="A269" s="1" t="s">
         <v>18</v>
       </c>
@@ -7383,12 +7467,9 @@
         <v>462</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E269" s="3" t="s">
         <v>463</v>
       </c>
     </row>
@@ -7397,16 +7478,16 @@
         <v>18</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>93</v>
+        <v>464</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>434</v>
+        <v>283</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7414,10 +7495,10 @@
         <v>18</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>436</v>
@@ -7431,16 +7512,16 @@
         <v>18</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>110</v>
+        <v>439</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7448,16 +7529,16 @@
         <v>18</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7465,38 +7546,41 @@
         <v>18</v>
       </c>
       <c r="B274" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="C275" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D274" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="E274" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D275" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="276" ht="28.8" spans="1:5">
+        <v>467</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
       <c r="A276" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>20</v>
@@ -7504,21 +7588,21 @@
       <c r="D276" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="E276" s="3" t="s">
+    </row>
+    <row r="277" ht="28.8" spans="1:5">
+      <c r="A277" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B277" s="2" t="s">
+      <c r="C277" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D277" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="C277" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D277" s="3" t="s">
+      <c r="E277" s="3" t="s">
         <v>471</v>
       </c>
     </row>
@@ -7527,50 +7611,53 @@
         <v>18</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="C278" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="C279" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D278" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
-      <c r="A279" s="1" t="s">
+      <c r="D279" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="B280" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C279" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="D279" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="E279" s="3" t="s">
+      <c r="C280" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E280" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F279" s="2" t="s">
+      <c r="F280" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G279" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="H279" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="280" spans="1:3">
-      <c r="A280" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>20</v>
+      <c r="G280" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="H280" s="2" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -7578,7 +7665,7 @@
         <v>18</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>20</v>
@@ -7589,10 +7676,10 @@
         <v>18</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -7600,154 +7687,148 @@
         <v>18</v>
       </c>
       <c r="B283" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C283" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7">
-      <c r="A284" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B284" s="2" t="s">
+      <c r="C284" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C284" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D284" s="3" t="s">
+      <c r="C285" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D285" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="G284" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B285" s="2" t="s">
+      <c r="G285" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C285" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D285" s="3" t="s">
+      <c r="C286" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D286" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
-      <c r="A286" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B286" s="2" t="s">
+    <row r="287" spans="1:7">
+      <c r="A287" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C286" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D286" s="3" t="s">
+      <c r="C287" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D287" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="G286" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B287" s="2" t="s">
+      <c r="G287" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C287" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D287" s="3" t="s">
+      <c r="C288" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D288" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
-      <c r="A288" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B288" s="2" t="s">
+    <row r="289" spans="1:7">
+      <c r="A289" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C288" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D288" s="3" t="s">
+      <c r="C289" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D289" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="G288" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B289" s="2" t="s">
+      <c r="G289" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C289" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="290" ht="28.8" spans="1:7">
-      <c r="A290" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B290" s="2" t="s">
+      <c r="C290" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="291" ht="28.8" spans="1:7">
+      <c r="A291" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B291" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C290" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D290" s="3" t="s">
+      <c r="C291" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D291" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="G290" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="291" ht="28.8" spans="1:5">
-      <c r="A291" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B291" s="2" t="s">
+      <c r="G291" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="292" ht="28.8" spans="1:5">
+      <c r="A292" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C291" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D291" s="3" t="s">
+      <c r="C292" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D292" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E291" s="3" t="s">
+      <c r="E292" s="3" t="s">
         <v>300</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
-      <c r="A292" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G292" s="3" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7755,33 +7836,36 @@
         <v>18</v>
       </c>
       <c r="B293" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="G293" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C293" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D293" s="3" t="s">
+      <c r="C294" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D294" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="G293" s="3" t="s">
+      <c r="G294" s="3" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
-      <c r="A294" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D294" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:4">
       <c r="A295" s="1" t="s">
         <v>18</v>
       </c>
@@ -7794,76 +7878,79 @@
       <c r="D295" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="E295" s="3" t="s">
-        <v>485</v>
-      </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B296" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D296" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="C296" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D296" s="3" t="s">
+      <c r="E296" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="E296" s="3" t="s">
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="297" spans="1:8">
-      <c r="A297" s="1" t="s">
+      <c r="C297" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B297" s="2" t="s">
+      <c r="B298" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C297" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="D297" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="E297" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F297" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G297" s="3" t="s">
+      <c r="C298" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="H297" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4">
-      <c r="A298" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D298" s="3" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="299" spans="1:3">
+      <c r="E298" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F298" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G298" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="H298" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
       <c r="A299" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -7871,24 +7958,21 @@
         <v>18</v>
       </c>
       <c r="B300" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C300" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4">
-      <c r="A301" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C301" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D301" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -7896,13 +7980,13 @@
         <v>18</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>92</v>
+        <v>495</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -7910,13 +7994,13 @@
         <v>18</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>407</v>
+        <v>101</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>493</v>
+        <v>213</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -7924,13 +8008,13 @@
         <v>18</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>409</v>
+        <v>91</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>494</v>
+        <v>92</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -7938,13 +8022,13 @@
         <v>18</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>39</v>
+        <v>409</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -7952,7 +8036,7 @@
         <v>18</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>496</v>
+        <v>411</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>65</v>
@@ -7961,100 +8045,94 @@
         <v>497</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:4">
       <c r="A307" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B307" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D307" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="C307" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D307" s="3" t="s">
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B308" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="E307" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
-      <c r="A308" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D308" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="E308" s="3" t="s">
+      <c r="C309" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D309" s="3" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="309" spans="1:4">
-      <c r="A309" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B309" s="2" t="s">
+      <c r="E309" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B310" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D309" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4">
-      <c r="A310" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D310" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B311" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="311" spans="1:5">
-      <c r="A311" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C311" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E311" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
+    </row>
+    <row r="312" spans="1:4">
       <c r="A312" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>105</v>
+        <v>508</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="E312" s="3" t="s">
-        <v>107</v>
+        <v>509</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8062,44 +8140,50 @@
         <v>18</v>
       </c>
       <c r="B313" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B315" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C313" s="2" t="s">
+      <c r="C315" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D313" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="E313" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4">
-      <c r="A314" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D314" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4">
-      <c r="A315" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B315" s="2" t="s">
+      <c r="D315" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="C315" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D315" s="3" t="s">
-        <v>512</v>
+      <c r="E315" s="3" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -8107,21 +8191,21 @@
         <v>18</v>
       </c>
       <c r="B316" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D316" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="C316" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D316" s="3" t="s">
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B317" s="2" t="s">
         <v>514</v>
-      </c>
-    </row>
-    <row r="317" ht="28.8" spans="1:5">
-      <c r="A317" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>20</v>
@@ -8129,53 +8213,53 @@
       <c r="D317" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="E317" s="3" t="s">
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B318" s="2" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="318" spans="1:5">
-      <c r="A318" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B318" s="2" t="s">
+      <c r="C318" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D318" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="C318" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D318" s="3" t="s">
+    </row>
+    <row r="319" ht="28.8" spans="1:5">
+      <c r="A319" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D319" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="E318" s="3" t="s">
+      <c r="E319" s="3" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
-      <c r="A319" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B319" s="2" t="s">
+    <row r="320" spans="1:5">
+      <c r="A320" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B320" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="C319" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D319" s="3" t="s">
+      <c r="C320" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D320" s="3" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="320" spans="1:4">
-      <c r="A320" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B320" s="2" t="s">
+      <c r="E320" s="3" t="s">
         <v>522</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -8183,13 +8267,13 @@
         <v>18</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>332</v>
+        <v>523</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>333</v>
+        <v>524</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -8197,61 +8281,58 @@
         <v>18</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
       <c r="A323" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>526</v>
+        <v>334</v>
       </c>
       <c r="C323" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C325" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D323" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="E323" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
-      <c r="A324" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D324" s="3" t="s">
+      <c r="D325" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="E324" s="3" t="s">
+      <c r="E325" s="3" t="s">
         <v>531</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4">
-      <c r="A325" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D325" s="3" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8259,92 +8340,98 @@
         <v>18</v>
       </c>
       <c r="B326" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E326" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="C326" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D326" s="3" t="s">
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B327" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E326" s="3" t="s">
+      <c r="C327" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D327" s="3" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
-      <c r="A327" s="1" t="s">
+    <row r="328" spans="1:5">
+      <c r="A328" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8">
+      <c r="A329" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B327" s="2" t="s">
+      <c r="B329" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C327" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D327" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="E327" s="3" t="s">
+      <c r="C329" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="E329" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F327" s="2" t="s">
+      <c r="F329" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G327" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="H327" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4">
-      <c r="A328" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B328" s="2" t="s">
+      <c r="G329" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="H329" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B330" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C328" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D328" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="329" spans="1:3">
-      <c r="A329" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B329" s="2" t="s">
+      <c r="C330" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B331" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C329" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="330" spans="1:3">
-      <c r="A330" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4">
-      <c r="A331" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C331" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D331" s="3" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="332" spans="1:3">
@@ -8352,52 +8439,46 @@
         <v>18</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>542</v>
+        <v>91</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="333" spans="1:3">
+    <row r="333" spans="1:4">
       <c r="A333" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>529</v>
+        <v>100</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="334" spans="1:4">
+      <c r="D333" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
       <c r="A334" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>190</v>
+        <v>545</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D334" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D335" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="E335" s="3" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -8405,16 +8486,16 @@
         <v>18</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>330</v>
+        <v>190</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
       <c r="A337" s="1" t="s">
         <v>18</v>
       </c>
@@ -8427,81 +8508,84 @@
       <c r="D337" s="3" t="s">
         <v>521</v>
       </c>
+      <c r="E337" s="3" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>522</v>
+        <v>332</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D338" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B339" s="2" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="339" spans="1:5">
-      <c r="A339" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>543</v>
-      </c>
       <c r="C339" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="E339" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
       <c r="A340" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B340" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B341" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="C340" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D340" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="E340" s="3" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4">
-      <c r="A341" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4">
+        <v>547</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
       <c r="A342" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>95</v>
+        <v>549</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>96</v>
+        <v>550</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -8509,13 +8593,13 @@
         <v>18</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>388</v>
+        <v>93</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>389</v>
+        <v>94</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -8523,13 +8607,13 @@
         <v>18</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>390</v>
+        <v>97</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>391</v>
+        <v>551</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -8537,13 +8621,13 @@
         <v>18</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>548</v>
+        <v>96</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -8551,13 +8635,13 @@
         <v>18</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>64</v>
+        <v>390</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>549</v>
+        <v>391</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -8568,18 +8652,18 @@
         <v>392</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
       <c r="A348" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>551</v>
+        <v>142</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>65</v>
@@ -8587,132 +8671,138 @@
       <c r="D348" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="E348" s="3" t="s">
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D349" s="3" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
-      <c r="A349" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B349" s="2" t="s">
+    <row r="350" spans="1:4">
+      <c r="A350" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B352" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C349" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D349" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="E349" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
-      <c r="A350" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B350" s="2" t="s">
+      <c r="C352" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B353" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C350" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D350" s="3" t="s">
+      <c r="C353" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D353" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E350" s="3" t="s">
+      <c r="E353" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
-      <c r="A351" s="1" t="s">
+    <row r="354" spans="1:8">
+      <c r="A354" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B351" s="2" t="s">
+      <c r="B354" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C351" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="D351" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="E351" s="3" t="s">
+      <c r="C354" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="E354" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F351" s="2" t="s">
+      <c r="F354" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G351" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="H351" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4">
-      <c r="A352" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C352" s="2" t="s">
+      <c r="G354" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="H354" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C355" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D352" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4">
-      <c r="A353" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="C353" s="2" t="s">
+      <c r="D355" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C356" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D353" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4">
-      <c r="A354" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D354" s="3" t="s">
+      <c r="D356" s="3" t="s">
         <v>450</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3">
-      <c r="A355" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B355" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="356" spans="1:3">
-      <c r="A356" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8720,27 +8810,24 @@
         <v>18</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>542</v>
+        <v>451</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>190</v>
+        <v>99</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D358" s="3" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="359" spans="1:3">
@@ -8748,61 +8835,49 @@
         <v>18</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>529</v>
+        <v>100</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:4">
       <c r="A360" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>562</v>
+        <v>545</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="E360" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
       <c r="A361" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>564</v>
+        <v>190</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="E361" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
       <c r="A362" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>566</v>
+        <v>532</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D362" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="E362" s="3" t="s">
-        <v>382</v>
+        <v>20</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -8810,81 +8885,96 @@
         <v>18</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>496</v>
+        <v>566</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D363" s="3" t="s">
         <v>567</v>
       </c>
       <c r="E363" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B364" s="2" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="364" spans="1:8">
-      <c r="A364" s="1" t="s">
+      <c r="C364" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
+      <c r="A367" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B364" s="2" t="s">
+      <c r="B367" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C364" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="D364" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="E364" s="3" t="s">
+      <c r="C367" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E367" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F364" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="G364" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="H364" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4">
-      <c r="A365" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C365" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D365" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3">
-      <c r="A366" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B366" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3">
-      <c r="A367" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B367" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C367" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3">
+      <c r="F367" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="G367" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="H367" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
       <c r="A368" s="1" t="s">
         <v>18</v>
       </c>
@@ -8892,7 +8982,10 @@
         <v>332</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="369" spans="1:3">
@@ -8900,52 +8993,43 @@
         <v>18</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D370" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>546</v>
+        <v>334</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D371" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
+    </row>
+    <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>388</v>
+        <v>527</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D372" s="3" t="s">
-        <v>573</v>
+        <v>20</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -8953,13 +9037,13 @@
         <v>18</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>390</v>
+        <v>546</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>135</v>
+        <v>327</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -8967,13 +9051,13 @@
         <v>18</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>575</v>
+        <v>329</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -8981,13 +9065,13 @@
         <v>18</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>93</v>
+        <v>390</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>94</v>
+        <v>577</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -8995,105 +9079,105 @@
         <v>18</v>
       </c>
       <c r="B376" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B379" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C376" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D376" s="3" t="s">
+      <c r="C379" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D379" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="377" ht="43.2" spans="1:5">
-      <c r="A377" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B377" s="2" t="s">
+    <row r="380" ht="43.2" spans="1:5">
+      <c r="A380" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B380" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C377" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D377" s="3" t="s">
+      <c r="C380" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D380" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E377" s="3" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="378" spans="1:3">
-      <c r="A378" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B378" s="2" t="s">
+      <c r="E380" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B381" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C378" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3">
-      <c r="A379" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B379" s="2" t="s">
+      <c r="C381" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B382" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C379" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3">
-      <c r="A380" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B380" s="2" t="s">
+      <c r="C382" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B383" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C380" s="2" t="s">
+      <c r="C383" s="2" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C381" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D381" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B382" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="C382" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D382" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B383" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C383" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D383" s="3" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -9101,13 +9185,13 @@
         <v>18</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>582</v>
+        <v>91</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -9115,13 +9199,13 @@
         <v>18</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>190</v>
+        <v>582</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>492</v>
+        <v>583</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -9129,13 +9213,13 @@
         <v>18</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>542</v>
+        <v>584</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>561</v>
+        <v>585</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -9143,39 +9227,27 @@
         <v>18</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>529</v>
+        <v>586</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
       <c r="A388" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>585</v>
+        <v>20</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="E388" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F388" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G388" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="H388" s="2" t="s">
-        <v>406</v>
+        <v>494</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -9183,13 +9255,13 @@
         <v>18</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -9197,35 +9269,53 @@
         <v>18</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>190</v>
+        <v>532</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8">
       <c r="A391" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3">
+        <v>589</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F391" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G391" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="H391" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
       <c r="A392" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>100</v>
+        <v>545</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -9233,137 +9323,128 @@
         <v>18</v>
       </c>
       <c r="B393" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B396" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C393" s="2" t="s">
+      <c r="C396" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D393" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
-      <c r="A394" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B394" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="C394" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D394" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="E394" s="3" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4">
-      <c r="A395" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B395" s="2" t="s">
+      <c r="D396" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="C395" s="2" t="s">
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="E397" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C398" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D395" s="3" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8">
-      <c r="A396" s="1" t="s">
+      <c r="D398" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8">
+      <c r="A399" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B396" s="2" t="s">
+      <c r="B399" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C396" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="D396" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="E396" s="3" t="s">
+      <c r="C399" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="E399" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F396" s="2" t="s">
+      <c r="F399" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G396" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="H396" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3">
-      <c r="A397" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B397" s="2" t="s">
+      <c r="G399" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="H399" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B400" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C397" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3">
-      <c r="A398" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B398" s="2" t="s">
+      <c r="C400" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B401" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C398" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4">
-      <c r="A399" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B399" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C399" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D399" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4">
-      <c r="A400" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B400" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C400" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D400" s="3" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
-      <c r="A401" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B401" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C401" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D401" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="E401" s="3" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -9371,13 +9452,13 @@
         <v>18</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>600</v>
+        <v>101</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>601</v>
+        <v>282</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -9385,27 +9466,30 @@
         <v>18</v>
       </c>
       <c r="B403" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D404" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="C403" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D403" s="3" t="s">
+      <c r="E404" s="3" t="s">
         <v>603</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4">
-      <c r="A404" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B404" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="C404" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D404" s="3" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -9413,13 +9497,13 @@
         <v>18</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -9427,13 +9511,13 @@
         <v>18</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -9441,13 +9525,13 @@
         <v>18</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -9455,30 +9539,27 @@
         <v>18</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>285</v>
+        <v>610</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D408" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B409" s="2" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="409" spans="1:5">
-      <c r="A409" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B409" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="C409" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E409" s="3" t="s">
-        <v>303</v>
+        <v>613</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -9486,13 +9567,13 @@
         <v>18</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>114</v>
+        <v>614</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>302</v>
+        <v>615</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -9500,124 +9581,100 @@
         <v>18</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="C411" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C414" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D411" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8">
-      <c r="A412" s="1" t="s">
+      <c r="D414" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B412" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="C412" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="D412" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="E412" s="3" t="s">
+      <c r="B415" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E415" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F412" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="G412" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="H412" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7">
-      <c r="A413" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B413" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="C413" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D413" s="3" t="s">
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B417" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="G413" s="3" t="s">
+      <c r="C417" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D417" s="3" t="s">
         <v>620</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7">
-      <c r="A414" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B414" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D414" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="G414" s="3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7">
-      <c r="A415" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B415" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D415" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="G415" s="3" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7">
-      <c r="A416" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B416" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="C416" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G416" s="3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="417" spans="1:8">
-      <c r="A417" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C417" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="D417" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="E417" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H417" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -9625,111 +9682,135 @@
         <v>18</v>
       </c>
       <c r="B418" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8">
+      <c r="A420" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="E420" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F420" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="G420" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="H420" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
+      <c r="A421" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D421" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="C418" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D418" s="3" t="s">
+      <c r="G421" s="3" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
-      <c r="A419" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B419" s="2" t="s">
+    <row r="422" spans="1:7">
+      <c r="A422" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B422" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="C419" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D419" s="3" t="s">
+      <c r="C422" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="G422" s="3" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
-      <c r="A420" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B420" s="2" t="s">
+    <row r="423" spans="1:7">
+      <c r="A423" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D423" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="C420" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D420" s="3" t="s">
+      <c r="G423" s="3" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
-      <c r="A421" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B421" s="2" t="s">
+    <row r="424" spans="1:7">
+      <c r="A424" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B424" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="C421" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D421" s="3" t="s">
+      <c r="C424" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G424" s="3" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="422" ht="28.8" spans="1:4">
-      <c r="A422" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B422" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D422" s="3" t="s">
+    <row r="425" spans="1:8">
+      <c r="A425" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C425" s="2" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="423" spans="1:4">
-      <c r="A423" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B423" s="2" t="s">
+      <c r="D425" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C423" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D423" s="3" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4">
-      <c r="A424" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B424" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C424" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D424" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4">
-      <c r="A425" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B425" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D425" s="3" t="s">
-        <v>642</v>
+      <c r="E425" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H425" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -9737,13 +9818,13 @@
         <v>18</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9751,90 +9832,69 @@
         <v>18</v>
       </c>
       <c r="B427" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B429" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="C427" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D427" s="3" t="s">
+      <c r="C429" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D429" s="3" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
-      <c r="A428" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B428" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C428" s="2" t="s">
+    <row r="430" ht="28.8" spans="1:4">
+      <c r="A430" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D430" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="D428" s="3" t="s">
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B431" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="E428" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F428" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G428" s="3" t="s">
+      <c r="C431" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D431" s="3" t="s">
         <v>649</v>
-      </c>
-      <c r="H428" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5">
-      <c r="A429" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B429" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C429" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D429" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="E429" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5">
-      <c r="A430" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B430" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C430" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D430" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="E430" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5">
-      <c r="A431" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B431" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D431" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="E431" s="3" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -9842,30 +9902,27 @@
         <v>18</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="433" ht="28.8" spans="1:5">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
       <c r="A433" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B433" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D433" s="3" t="s">
         <v>652</v>
-      </c>
-      <c r="C433" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D433" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="E433" s="3" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -9873,13 +9930,13 @@
         <v>18</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -9887,41 +9944,56 @@
         <v>18</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>99</v>
+        <v>655</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D435" s="3" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8">
+      <c r="A436" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C436" s="2" t="s">
         <v>657</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4">
-      <c r="A436" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B436" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C436" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D436" s="3" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="437" spans="1:4">
+      <c r="E436" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F436" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G436" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="H436" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5">
       <c r="A437" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
+      </c>
+      <c r="E437" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -9929,101 +10001,86 @@
         <v>18</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>638</v>
+        <v>105</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E438" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5">
+      <c r="A439" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D439" s="3" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="439" spans="1:8">
-      <c r="A439" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B439" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C439" s="2" t="s">
+      <c r="E439" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="441" ht="28.8" spans="1:5">
+      <c r="A441" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B441" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="D439" s="3" t="s">
+      <c r="C441" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D441" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="E439" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F439" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G439" s="3" t="s">
+      <c r="E441" s="3" t="s">
         <v>664</v>
       </c>
-      <c r="H439" s="2" t="s">
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B442" s="2" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="440" spans="1:5">
-      <c r="A440" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B440" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C440" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D440" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="E440" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5">
-      <c r="A441" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B441" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C441" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D441" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="E441" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5">
-      <c r="A442" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B442" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="C442" s="2" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="E442" s="3" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
       <c r="A443" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>666</v>
+        <v>99</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>20</v>
@@ -10031,22 +10088,19 @@
       <c r="D443" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="E443" s="3" t="s">
-        <v>668</v>
-      </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>669</v>
+        <v>101</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -10054,74 +10108,107 @@
         <v>18</v>
       </c>
       <c r="B445" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
+      <c r="A446" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="E446" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="C445" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D445" s="3" t="s">
+    </row>
+    <row r="447" spans="1:8">
+      <c r="A447" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C447" s="2" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="446" spans="1:4">
-      <c r="A446" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B446" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C446" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D446" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3">
-      <c r="A447" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B447" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C447" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="448" spans="1:3">
+      <c r="D447" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E447" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F447" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G447" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="H447" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5">
       <c r="A448" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>578</v>
+        <v>108</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="449" spans="1:3">
+      <c r="D448" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E448" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
       <c r="A449" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>582</v>
+        <v>105</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="450" spans="1:4">
+      <c r="D449" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E449" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5">
       <c r="A450" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D450" s="3" t="s">
-        <v>673</v>
+        <v>661</v>
+      </c>
+      <c r="E450" s="3" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -10129,16 +10216,16 @@
         <v>18</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="E451" s="3" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -10146,13 +10233,13 @@
         <v>18</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>129</v>
+        <v>679</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -10160,13 +10247,13 @@
         <v>18</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>32</v>
+        <v>682</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -10174,87 +10261,60 @@
         <v>18</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>679</v>
+        <v>91</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
       <c r="A455" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>19</v>
+        <v>584</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D455" s="3" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5">
+    </row>
+    <row r="456" spans="1:3">
       <c r="A456" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>36</v>
+        <v>582</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D456" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E456" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="457" spans="1:8">
+    </row>
+    <row r="457" spans="1:3">
       <c r="A457" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>253</v>
+        <v>586</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="D457" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="E457" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F457" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G457" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="H457" s="2" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
       <c r="A458" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D458" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="E458" s="3" t="s">
-        <v>110</v>
+        <v>495</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -10262,33 +10322,30 @@
         <v>18</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>651</v>
+        <v>684</v>
       </c>
       <c r="E459" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
       <c r="A460" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D460" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="E460" s="3" t="s">
-        <v>382</v>
+        <v>686</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -10296,30 +10353,27 @@
         <v>18</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>24</v>
+        <v>687</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
       <c r="A462" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>36</v>
+        <v>688</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E462" s="3" t="s">
-        <v>165</v>
+        <v>44</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -10327,127 +10381,166 @@
         <v>18</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>679</v>
+        <v>19</v>
       </c>
       <c r="C463" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D463" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E464" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8">
+      <c r="A465" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F465" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="G465" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="H465" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D466" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E466" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D467" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E467" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5">
+      <c r="A470" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E470" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="C471" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D463" s="3" t="s">
+      <c r="D471" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
-      <c r="A464" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B464" s="2" t="s">
+    <row r="472" spans="1:4">
+      <c r="A472" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B472" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C464" s="2" t="s">
+      <c r="C472" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D464" s="3" t="s">
+      <c r="D472" s="3" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3">
-      <c r="A465" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B465" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C465" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="466" spans="1:3">
-      <c r="A466" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B466" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="C466" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3">
-      <c r="A467" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B467" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C467" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4">
-      <c r="A468" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B468" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D468" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5">
-      <c r="A469" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B469" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C469" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="D469" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="E469" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4">
-      <c r="A470" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B470" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C470" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D470" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3">
-      <c r="A471" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B471" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C471" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3">
-      <c r="A472" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B472" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="C472" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -10455,27 +10548,344 @@
         <v>18</v>
       </c>
       <c r="B473" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B474" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C473" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5">
-      <c r="A474" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B474" s="2" t="s">
-        <v>633</v>
-      </c>
       <c r="C474" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D474" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="E474" s="3" t="s">
-        <v>688</v>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
+      <c r="A477" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="E477" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D482" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="E482" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8">
+      <c r="A483" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D483" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="E483" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F483" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G483" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="H483" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D485" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E485" s="3" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D486" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E486" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="E487" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="488" ht="28.8" spans="1:5">
+      <c r="A488" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E488" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8">
+      <c r="A489" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="E489" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F489" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G489" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="H489" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C494" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C495" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
+      <c r="A496" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D496" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="E496" s="3" t="s">
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -10483,14 +10893,14 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="K2:N8"/>
   </mergeCells>
-  <conditionalFormatting sqref="C202">
+  <conditionalFormatting sqref="C203">
     <cfRule type="expression" dxfId="0" priority="29">
-      <formula>AND($A203="类")</formula>
+      <formula>AND($A204="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D202">
+  <conditionalFormatting sqref="D203">
     <cfRule type="expression" dxfId="1" priority="30">
-      <formula>AND($A203="类")</formula>
+      <formula>AND($A204="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A43">
@@ -10501,20 +10911,20 @@
       <formula>NOT(ISERROR(SEARCH("类",A41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A335:A340">
+  <conditionalFormatting sqref="A337:A342">
     <cfRule type="containsText" dxfId="2" priority="16" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A335)))</formula>
+      <formula>NOT(ISERROR(SEARCH("字段",A337)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="17" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A335)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A337)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A470:A473">
+  <conditionalFormatting sqref="A478:A481">
     <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A470)))</formula>
+      <formula>NOT(ISERROR(SEARCH("字段",A478)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="4" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A470)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A478)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C43">
@@ -10522,29 +10932,29 @@
       <formula>AND($A41="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C335:C340">
+  <conditionalFormatting sqref="C337:C342">
     <cfRule type="expression" dxfId="0" priority="15">
-      <formula>AND($A335="类")</formula>
+      <formula>AND($A337="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C440:C443">
+  <conditionalFormatting sqref="C448:C451">
     <cfRule type="expression" dxfId="0" priority="9">
-      <formula>AND($A440="类")</formula>
+      <formula>AND($A448="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C458:C460">
+  <conditionalFormatting sqref="C466:C468">
     <cfRule type="expression" dxfId="0" priority="7">
-      <formula>AND($A458="类")</formula>
+      <formula>AND($A466="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C464:C468">
+  <conditionalFormatting sqref="C472:C476">
     <cfRule type="expression" dxfId="0" priority="6">
-      <formula>AND($A464="类")</formula>
+      <formula>AND($A472="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C470:C473">
+  <conditionalFormatting sqref="C478:C481">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND($A470="类")</formula>
+      <formula>AND($A478="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D43">
@@ -10552,27 +10962,27 @@
       <formula>AND($A41="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D335:D340">
+  <conditionalFormatting sqref="D337:D342">
     <cfRule type="expression" dxfId="1" priority="14">
-      <formula>AND($A335="类")</formula>
+      <formula>AND($A337="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D458:D460">
+  <conditionalFormatting sqref="D466:D468">
     <cfRule type="expression" dxfId="1" priority="8">
-      <formula>AND($A458="类")</formula>
+      <formula>AND($A466="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D464:D468">
+  <conditionalFormatting sqref="D472:D476">
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>AND($A464="类")</formula>
+      <formula>AND($A472="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D470:D473">
+  <conditionalFormatting sqref="D478:D481">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND($A470="类")</formula>
+      <formula>AND($A478="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A40 A44:A334 A341:A469 A474:A1048576">
+  <conditionalFormatting sqref="A1:A40 A44:A336 A343:A477 A482:A1048576">
     <cfRule type="containsText" dxfId="2" priority="27" operator="between" text="字段">
       <formula>NOT(ISERROR(SEARCH("字段",A1)))</formula>
     </cfRule>
@@ -10580,12 +10990,12 @@
       <formula>NOT(ISERROR(SEARCH("类",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C40 C44:C201 C204:C334 C341:C439 C444:C457 C461:C463 C469 C474:C1048576">
+  <conditionalFormatting sqref="C2:C40 C44:C202 C205:C336 C343:C447 C452:C465 C469:C471 C477 C482:C1048576">
     <cfRule type="expression" dxfId="0" priority="22">
       <formula>AND($A2="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D40 D44:D201 D204:D334 D341:D457 D461:D463 D469 D474:D1048576">
+  <conditionalFormatting sqref="D2:D40 D44:D202 D205:D336 D343:D465 D469:D471 D477 D482:D1048576">
     <cfRule type="expression" dxfId="1" priority="18">
       <formula>AND($A2="类")</formula>
     </cfRule>

--- a/model.xlsx
+++ b/model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2218" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="722">
   <si>
     <t>实体登记表</t>
   </si>
@@ -801,6 +801,21 @@
   </si>
   <si>
     <t>@NotBlank-appid不能为空</t>
+  </si>
+  <si>
+    <t>mchid</t>
+  </si>
+  <si>
+    <t>商户号id</t>
+  </si>
+  <si>
+    <t>微信支付</t>
+  </si>
+  <si>
+    <t>apiKey</t>
+  </si>
+  <si>
+    <t>Api密钥</t>
   </si>
   <si>
     <t>appSecret</t>
@@ -2176,10 +2191,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2212,6 +2227,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -2219,8 +2249,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2235,38 +2266,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2274,7 +2274,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2287,8 +2287,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2304,22 +2311,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2327,16 +2342,16 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2351,7 +2366,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2363,7 +2504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2375,31 +2516,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2411,31 +2534,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2447,91 +2546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2563,8 +2578,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2601,34 +2616,19 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2657,6 +2657,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2665,10 +2680,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2677,133 +2692,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3190,10 +3205,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N496"/>
+  <dimension ref="A1:N498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
-      <selection activeCell="E319" sqref="E319"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -5369,7 +5384,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:5">
       <c r="A133" s="1" t="s">
         <v>18</v>
       </c>
@@ -5382,14 +5397,11 @@
       <c r="D133" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="E133" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="134" spans="2:5">
       <c r="B134" s="2" t="s">
         <v>264</v>
       </c>
@@ -5399,8 +5411,11 @@
       <c r="D134" s="3" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="E134" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
         <v>18</v>
       </c>
@@ -5413,19 +5428,22 @@
       <c r="D135" s="3" t="s">
         <v>267</v>
       </c>
+      <c r="G135" s="3" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -5433,13 +5451,13 @@
         <v>18</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -5447,13 +5465,13 @@
         <v>18</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -5461,47 +5479,35 @@
         <v>18</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>11</v>
+        <v>277</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>276</v>
+        <v>20</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F140" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G140" s="3" t="s">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
-      <c r="A141" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>20</v>
@@ -5509,81 +5515,87 @@
       <c r="D141" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="G141" s="3" t="s">
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="E142" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B145" s="2" t="s">
+      <c r="C145" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D145" s="3" t="s">
+      <c r="E145" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="G145" s="3" t="s">
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>20</v>
@@ -5591,19 +5603,25 @@
       <c r="D146" s="3" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="G146" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>73</v>
+        <v>293</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -5611,13 +5629,13 @@
         <v>18</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -5625,13 +5643,13 @@
         <v>18</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5639,13 +5657,13 @@
         <v>18</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -5653,13 +5671,13 @@
         <v>18</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5667,33 +5685,30 @@
         <v>18</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>296</v>
+        <v>79</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="153" ht="28.8" spans="1:5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>298</v>
+        <v>85</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E153" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
         <v>18</v>
       </c>
@@ -5706,47 +5721,56 @@
       <c r="D154" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="E154" s="3" t="s">
+    </row>
+    <row r="155" ht="28.8" spans="1:5">
+      <c r="A155" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B155" s="2" t="s">
+      <c r="C155" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D155" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="C155" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D155" s="3" t="s">
+      <c r="E155" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="E155" s="3" t="s">
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C156" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>99</v>
+        <v>309</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -5754,38 +5778,32 @@
         <v>18</v>
       </c>
       <c r="B158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="C160" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -5793,13 +5811,13 @@
         <v>18</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5807,29 +5825,26 @@
         <v>18</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E163" s="3" t="s">
         <v>317</v>
       </c>
     </row>
@@ -5841,13 +5856,13 @@
         <v>318</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:5">
       <c r="A165" s="1" t="s">
         <v>18</v>
       </c>
@@ -5860,19 +5875,22 @@
       <c r="D165" s="3" t="s">
         <v>321</v>
       </c>
+      <c r="E165" s="3" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -5880,13 +5898,13 @@
         <v>18</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5894,13 +5912,13 @@
         <v>18</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -5908,30 +5926,27 @@
         <v>18</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>11</v>
+        <v>331</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>330</v>
+        <v>29</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>14</v>
+        <v>332</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -5939,27 +5954,30 @@
         <v>18</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
       <c r="A172" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>334</v>
+        <v>11</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>20</v>
+        <v>335</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -5967,13 +5985,13 @@
         <v>18</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -5981,210 +5999,195 @@
         <v>18</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E175" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:4">
       <c r="A176" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>11</v>
+        <v>343</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>343</v>
+        <v>20</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="E176" s="3" t="s">
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E178" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C177" s="2" t="s">
+    <row r="179" spans="1:4">
+      <c r="A179" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D177" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B178" s="2" t="s">
+      <c r="D179" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B179" s="2" t="s">
+      <c r="C180" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>347</v>
-      </c>
       <c r="C181" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D181" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="E181" s="3" t="s">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E183" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="E182" s="3" t="s">
+    <row r="184" spans="1:5">
+      <c r="A184" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E184" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C183" s="2" t="s">
+    <row r="185" spans="1:4">
+      <c r="A185" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D183" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B184" s="2" t="s">
+      <c r="D185" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C186" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="A186" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C186" s="2" t="s">
-        <v>357</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="E186" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F186" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G186" s="3" t="s">
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="H186" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7">
-      <c r="A187" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>20</v>
@@ -6195,109 +6198,121 @@
       <c r="E187" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="G187" s="3" t="s">
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B188" s="2" t="s">
+      <c r="D188" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D188" s="3" t="s">
+      <c r="E188" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G188" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="E188" s="3" t="s">
+      <c r="H188" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D189" s="3" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C189" s="2" t="s">
+      <c r="E189" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="D189" s="3" t="s">
+      <c r="G189" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="E189" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>369</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
       <c r="A191" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B192" s="2" t="s">
+      <c r="C193" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C192" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C194" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -6305,27 +6320,30 @@
         <v>18</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
       <c r="A196" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>371</v>
+        <v>11</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>29</v>
+        <v>374</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -6333,13 +6351,13 @@
         <v>18</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -6347,13 +6365,13 @@
         <v>18</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -6361,47 +6379,41 @@
         <v>18</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E200" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:4">
       <c r="A201" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>108</v>
+        <v>382</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>110</v>
+        <v>383</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6409,16 +6421,16 @@
         <v>18</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>105</v>
+        <v>384</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>107</v>
+        <v>386</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6426,56 +6438,50 @@
         <v>18</v>
       </c>
       <c r="B203" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C205" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
-      <c r="A205" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>388</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F205" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G205" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="H205" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -6483,27 +6489,39 @@
         <v>18</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>326</v>
+        <v>390</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>328</v>
+        <v>11</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>20</v>
+        <v>392</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>360</v>
+        <v>393</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -6511,13 +6529,13 @@
         <v>18</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>93</v>
+        <v>331</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>94</v>
+        <v>373</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6525,13 +6543,13 @@
         <v>18</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>95</v>
+        <v>333</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>96</v>
+        <v>365</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6539,13 +6557,13 @@
         <v>18</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>390</v>
+        <v>93</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>391</v>
+        <v>94</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -6553,29 +6571,26 @@
         <v>18</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>392</v>
+        <v>95</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="G212" s="3" t="s">
         <v>396</v>
       </c>
     </row>
@@ -6587,64 +6602,67 @@
         <v>397</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:7">
       <c r="A214" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>11</v>
+        <v>399</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>399</v>
+        <v>65</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="E214" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F214" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="G214" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="H214" s="2" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>326</v>
+        <v>402</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>328</v>
+        <v>11</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>20</v>
+        <v>404</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>360</v>
+        <v>405</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="H216" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -6652,13 +6670,13 @@
         <v>18</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>394</v>
+        <v>331</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>402</v>
+        <v>373</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6666,39 +6684,27 @@
         <v>18</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>403</v>
+        <v>333</v>
       </c>
       <c r="C218" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D218" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
-      <c r="A219" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="D219" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G219" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="H219" s="2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6706,53 +6712,53 @@
         <v>18</v>
       </c>
       <c r="B220" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D220" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C220" s="2" t="s">
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="H221" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C222" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D220" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
-      <c r="A222" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="D222" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="E222" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F222" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G222" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="H222" s="2" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -6760,27 +6766,39 @@
         <v>18</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>93</v>
+        <v>416</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>20</v>
+        <v>418</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>96</v>
+        <v>419</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="H224" s="2" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -6788,13 +6806,13 @@
         <v>18</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -6802,13 +6820,13 @@
         <v>18</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>390</v>
+        <v>95</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>391</v>
+        <v>96</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -6816,13 +6834,13 @@
         <v>18</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>392</v>
+        <v>97</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>393</v>
+        <v>98</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6830,13 +6848,13 @@
         <v>18</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6844,58 +6862,52 @@
         <v>18</v>
       </c>
       <c r="B229" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C231" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D229" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B230" s="2" t="s">
+      <c r="D231" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C232" s="2" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
-      <c r="A231" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="E231" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
-      <c r="A232" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="E232" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6903,16 +6915,16 @@
         <v>18</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>384</v>
+        <v>110</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6920,16 +6932,16 @@
         <v>18</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>214</v>
+        <v>105</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6937,16 +6949,16 @@
         <v>18</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>107</v>
+        <v>389</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6954,38 +6966,50 @@
         <v>18</v>
       </c>
       <c r="B236" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C238" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D236" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E236" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
-      <c r="A238" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>20</v>
+      <c r="D238" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -6993,7 +7017,7 @@
         <v>18</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>20</v>
@@ -7004,101 +7028,89 @@
         <v>18</v>
       </c>
       <c r="B240" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C242" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
-      <c r="A241" s="1" t="s">
+    <row r="243" spans="1:8">
+      <c r="A243" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B243" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C241" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D241" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E241" s="3" t="s">
+      <c r="C243" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E243" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F241" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G241" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="H241" s="2" t="s">
+      <c r="F243" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="H243" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
-      <c r="A242" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B242" s="2" t="s">
+    <row r="244" spans="1:7">
+      <c r="A244" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D242" s="3" t="s">
+      <c r="C244" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D244" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G242" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B243" s="2" t="s">
+      <c r="G244" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D243" s="3" t="s">
+      <c r="C245" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D245" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
-      <c r="A244" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D244" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="E244" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="E245" s="3" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7106,10 +7118,10 @@
         <v>18</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>118</v>
+        <v>430</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D246" s="3" t="s">
         <v>431</v>
@@ -7126,7 +7138,7 @@
         <v>433</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D247" s="3" t="s">
         <v>434</v>
@@ -7140,10 +7152,10 @@
         <v>18</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D248" s="3" t="s">
         <v>436</v>
@@ -7157,16 +7169,16 @@
         <v>18</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>95</v>
+        <v>438</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7174,10 +7186,10 @@
         <v>18</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>440</v>
+        <v>93</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D250" s="3" t="s">
         <v>441</v>
@@ -7186,58 +7198,52 @@
         <v>442</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:5">
       <c r="A251" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="252" spans="1:4">
+      <c r="E251" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
       <c r="A252" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C252" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D252" s="3" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
-      <c r="A253" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>446</v>
-      </c>
       <c r="D253" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="E253" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F253" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G253" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="H253" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -7245,27 +7251,39 @@
         <v>18</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>114</v>
+        <v>449</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8">
       <c r="A255" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>29</v>
+        <v>451</v>
       </c>
       <c r="D255" s="3" t="s">
-        <v>450</v>
+        <v>452</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="H255" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -7273,13 +7291,13 @@
         <v>18</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>451</v>
+        <v>114</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>452</v>
+        <v>153</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -7287,61 +7305,67 @@
         <v>18</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
       <c r="A258" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="A260" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B260" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C258" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D258" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="E258" s="3" t="s">
+      <c r="C260" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E260" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F258" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G258" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="H258" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>20</v>
+      <c r="F260" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="H260" s="2" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -7349,10 +7373,10 @@
         <v>18</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -7360,38 +7384,32 @@
         <v>18</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:3">
       <c r="A263" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>449</v>
+        <v>91</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D263" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4">
+    </row>
+    <row r="264" spans="1:3">
       <c r="A264" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>451</v>
+        <v>101</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D264" s="3" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -7399,47 +7417,41 @@
         <v>18</v>
       </c>
       <c r="B265" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C265" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="A266" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D266" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="E266" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
-      <c r="A267" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="C267" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="E267" s="3" t="s">
-        <v>430</v>
+        <v>463</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7447,30 +7459,33 @@
         <v>18</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
       <c r="A269" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>463</v>
+        <v>434</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7478,33 +7493,30 @@
         <v>18</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>283</v>
+        <v>466</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
       <c r="A271" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>93</v>
+        <v>467</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E271" s="3" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7512,16 +7524,16 @@
         <v>18</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>95</v>
+        <v>469</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>438</v>
+        <v>288</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7529,16 +7541,16 @@
         <v>18</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>110</v>
+        <v>442</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7546,16 +7558,16 @@
         <v>18</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D274" s="3" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>107</v>
+        <v>444</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7563,47 +7575,50 @@
         <v>18</v>
       </c>
       <c r="B275" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C275" s="2" t="s">
+      <c r="C277" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D275" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="E275" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D276" s="3" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="277" ht="28.8" spans="1:5">
-      <c r="A277" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D277" s="3" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>471</v>
+        <v>389</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -7611,7 +7626,7 @@
         <v>18</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>20</v>
@@ -7620,66 +7635,75 @@
         <v>473</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" ht="28.8" spans="1:5">
       <c r="A279" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="C279" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C281" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D279" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
-      <c r="A280" s="1" t="s">
+      <c r="D281" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8">
+      <c r="A282" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="B282" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C280" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D280" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="E280" s="3" t="s">
+      <c r="C282" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="E282" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F280" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G280" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="H280" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="281" spans="1:3">
-      <c r="A281" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="282" spans="1:3">
-      <c r="A282" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>20</v>
+      <c r="F282" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G282" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="H282" s="2" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -7687,10 +7711,10 @@
         <v>18</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -7698,41 +7722,32 @@
         <v>18</v>
       </c>
       <c r="B284" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C284" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7">
-      <c r="A285" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D285" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="G285" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C286" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -7740,16 +7755,16 @@
         <v>18</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G287" s="3" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -7757,13 +7772,13 @@
         <v>18</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7771,16 +7786,16 @@
         <v>18</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G289" s="3" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -7788,115 +7803,115 @@
         <v>18</v>
       </c>
       <c r="B290" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G291" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C290" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="291" ht="28.8" spans="1:7">
-      <c r="A291" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="G291" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="292" ht="28.8" spans="1:5">
-      <c r="A292" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="C292" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E292" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="293" ht="28.8" spans="1:7">
       <c r="A293" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B293" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G293" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="294" ht="28.8" spans="1:5">
+      <c r="A294" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C293" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D293" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="G293" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7">
-      <c r="A294" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B294" s="2" t="s">
+      <c r="C295" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D295" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C294" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D294" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G294" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4">
-      <c r="A295" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D295" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
+      <c r="G295" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>485</v>
+        <v>290</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="E296" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
+        <v>291</v>
+      </c>
+      <c r="G296" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
       <c r="A297" s="1" t="s">
         <v>18</v>
       </c>
@@ -7909,42 +7924,30 @@
       <c r="D297" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="E297" s="3" t="s">
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B298" s="2" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="298" spans="1:8">
-      <c r="A298" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C298" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D298" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="D298" s="3" t="s">
+      <c r="E298" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="E298" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G298" s="3" t="s">
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B299" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="H298" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4">
-      <c r="A299" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>20</v>
@@ -7952,55 +7955,70 @@
       <c r="D299" s="3" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="300" spans="1:3">
+      <c r="E299" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8">
       <c r="A300" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B300" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F300" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G300" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="H300" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C300" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="301" spans="1:3">
-      <c r="A301" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B301" s="2" t="s">
+      <c r="C302" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C301" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4">
-      <c r="A302" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D302" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4">
-      <c r="A303" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C303" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D303" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -8008,13 +8026,13 @@
         <v>18</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>92</v>
+        <v>500</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -8022,13 +8040,13 @@
         <v>18</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>409</v>
+        <v>101</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>496</v>
+        <v>213</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -8036,13 +8054,13 @@
         <v>18</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>411</v>
+        <v>91</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>497</v>
+        <v>92</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -8050,13 +8068,13 @@
         <v>18</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>39</v>
+        <v>414</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -8064,50 +8082,44 @@
         <v>18</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>499</v>
+        <v>416</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
       <c r="A309" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>501</v>
+        <v>39</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="E309" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
       <c r="A310" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D310" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="E310" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:5">
       <c r="A311" s="1" t="s">
         <v>18</v>
       </c>
@@ -8115,13 +8127,16 @@
         <v>506</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="312" spans="1:4">
+      <c r="E311" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
       <c r="A312" s="1" t="s">
         <v>18</v>
       </c>
@@ -8134,39 +8149,36 @@
       <c r="D312" s="3" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="313" spans="1:5">
+      <c r="E312" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
       <c r="A313" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>108</v>
+        <v>511</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="E313" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
       <c r="A314" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>105</v>
+        <v>513</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="E314" s="3" t="s">
-        <v>107</v>
+        <v>514</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8174,44 +8186,50 @@
         <v>18</v>
       </c>
       <c r="B315" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B317" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C315" s="2" t="s">
+      <c r="C317" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D315" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="E315" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4">
-      <c r="A316" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D316" s="3" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4">
-      <c r="A317" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D317" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -8219,64 +8237,61 @@
         <v>18</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C318" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C320" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D318" s="3" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="319" ht="28.8" spans="1:5">
-      <c r="A319" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B319" s="2" t="s">
+      <c r="D320" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="321" ht="28.8" spans="1:5">
+      <c r="A321" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B321" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C319" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D319" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="E319" s="3" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
-      <c r="A320" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="E320" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4">
-      <c r="A321" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B321" s="2" t="s">
+      <c r="C321" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D321" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="C321" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D321" s="3" t="s">
+      <c r="E321" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:5">
       <c r="A322" s="1" t="s">
         <v>18</v>
       </c>
@@ -8289,19 +8304,22 @@
       <c r="D322" s="3" t="s">
         <v>526</v>
       </c>
+      <c r="E322" s="3" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>334</v>
+        <v>528</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>335</v>
+        <v>529</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -8309,33 +8327,30 @@
         <v>18</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
       <c r="A325" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>529</v>
+        <v>339</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E325" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
       <c r="A326" s="1" t="s">
         <v>18</v>
       </c>
@@ -8348,21 +8363,21 @@
       <c r="D326" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="E326" s="3" t="s">
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B327" s="2" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="327" spans="1:4">
-      <c r="A327" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B327" s="2" t="s">
+      <c r="C327" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D327" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="C327" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D327" s="3" t="s">
+      <c r="E327" s="3" t="s">
         <v>536</v>
       </c>
     </row>
@@ -8383,38 +8398,26 @@
         <v>539</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:4">
       <c r="A329" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>11</v>
+        <v>540</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>540</v>
+        <v>29</v>
       </c>
       <c r="D329" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="E329" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F329" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G329" s="3" t="s">
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B330" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="H329" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4">
-      <c r="A330" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>20</v>
@@ -8422,41 +8425,59 @@
       <c r="D330" s="3" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="331" spans="1:3">
+      <c r="E330" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8">
       <c r="A331" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B331" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G331" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="H331" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B333" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C331" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3">
-      <c r="A332" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4">
-      <c r="A333" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C333" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D333" s="3" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="334" spans="1:3">
@@ -8464,52 +8485,46 @@
         <v>18</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>545</v>
+        <v>91</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="335" spans="1:3">
+    <row r="335" spans="1:4">
       <c r="A335" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>532</v>
+        <v>100</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="336" spans="1:4">
+      <c r="D335" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
       <c r="A336" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>190</v>
+        <v>550</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D336" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
       <c r="A337" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D337" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="E337" s="3" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -8517,27 +8532,30 @@
         <v>18</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>332</v>
+        <v>190</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
       <c r="A339" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>524</v>
+        <v>526</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -8545,75 +8563,75 @@
         <v>18</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>525</v>
+        <v>337</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
       <c r="A341" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="E341" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
       <c r="A342" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>549</v>
+        <v>530</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="E342" s="3" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
       <c r="A343" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>93</v>
+        <v>551</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4">
+        <v>552</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
       <c r="A344" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>97</v>
+        <v>554</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>551</v>
+        <v>555</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -8621,13 +8639,13 @@
         <v>18</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -8635,13 +8653,13 @@
         <v>18</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>390</v>
+        <v>97</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>391</v>
+        <v>556</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -8649,13 +8667,13 @@
         <v>18</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>392</v>
+        <v>95</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>393</v>
+        <v>96</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -8663,13 +8681,13 @@
         <v>18</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>142</v>
+        <v>395</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>552</v>
+        <v>396</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -8677,13 +8695,13 @@
         <v>18</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>64</v>
+        <v>397</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>553</v>
+        <v>398</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -8691,46 +8709,40 @@
         <v>18</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>394</v>
+        <v>142</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
       <c r="A351" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>555</v>
+        <v>64</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E351" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
       <c r="A352" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>58</v>
+        <v>399</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="E352" s="3" t="s">
         <v>559</v>
       </c>
     </row>
@@ -8739,70 +8751,76 @@
         <v>18</v>
       </c>
       <c r="B353" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B355" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C353" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D353" s="3" t="s">
+      <c r="C355" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D355" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E353" s="3" t="s">
+      <c r="E355" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
-      <c r="A354" s="1" t="s">
+    <row r="356" spans="1:8">
+      <c r="A356" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B354" s="2" t="s">
+      <c r="B356" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C354" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="D354" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="E354" s="3" t="s">
+      <c r="C356" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="E356" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F354" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G354" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="H354" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4">
-      <c r="A355" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B355" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D355" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4">
-      <c r="A356" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D356" s="3" t="s">
-        <v>450</v>
+      <c r="F356" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G356" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="H356" s="2" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8810,108 +8828,102 @@
         <v>18</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>451</v>
+        <v>568</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="358" spans="1:3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B358" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B360" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C358" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="359" spans="1:3">
-      <c r="A359" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B359" s="2" t="s">
+      <c r="C360" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B361" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C359" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4">
-      <c r="A360" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C360" s="2" t="s">
+      <c r="C361" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C362" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D360" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4">
-      <c r="A361" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B361" s="2" t="s">
+      <c r="D362" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B363" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C361" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D361" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3">
-      <c r="A362" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
-      <c r="A363" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>566</v>
-      </c>
       <c r="C363" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E363" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>568</v>
+        <v>537</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D364" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="E364" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -8919,16 +8931,16 @@
         <v>18</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>384</v>
+        <v>110</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -8936,78 +8948,90 @@
         <v>18</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>499</v>
+        <v>573</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
       <c r="A367" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>11</v>
+        <v>575</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>573</v>
+        <v>103</v>
       </c>
       <c r="D367" s="3" t="s">
         <v>574</v>
       </c>
       <c r="E367" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
+      <c r="A369" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E369" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F367" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="G367" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="H367" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B368" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C368" s="2" t="s">
+      <c r="F369" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="G369" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="H369" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C370" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D368" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3">
-      <c r="A369" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B369" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C369" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3">
-      <c r="A370" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C370" s="2" t="s">
-        <v>20</v>
+      <c r="D370" s="3" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -9015,7 +9039,7 @@
         <v>18</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>334</v>
+        <v>528</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>20</v>
@@ -9026,38 +9050,32 @@
         <v>18</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>546</v>
+        <v>339</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D373" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>549</v>
+        <v>532</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D374" s="3" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -9065,13 +9083,13 @@
         <v>18</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>390</v>
+        <v>551</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>577</v>
+        <v>332</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -9079,13 +9097,13 @@
         <v>18</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>392</v>
+        <v>554</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>135</v>
+        <v>334</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -9093,13 +9111,13 @@
         <v>18</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>578</v>
+        <v>395</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -9107,13 +9125,13 @@
         <v>18</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>93</v>
+        <v>397</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -9121,52 +9139,58 @@
         <v>18</v>
       </c>
       <c r="B379" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B381" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C379" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D379" s="3" t="s">
+      <c r="C381" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D381" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="380" ht="43.2" spans="1:5">
-      <c r="A380" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B380" s="2" t="s">
+    <row r="382" ht="43.2" spans="1:5">
+      <c r="A382" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B382" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C380" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D380" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="E380" s="3" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3">
-      <c r="A381" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C381" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3">
-      <c r="A382" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B382" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C382" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -9174,38 +9198,32 @@
         <v>18</v>
       </c>
       <c r="B383" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B385" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C383" s="2" t="s">
+      <c r="C385" s="2" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B384" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C384" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D384" s="3" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B385" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C385" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D385" s="3" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -9213,13 +9231,13 @@
         <v>18</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>584</v>
+        <v>91</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -9227,13 +9245,13 @@
         <v>18</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -9241,13 +9259,13 @@
         <v>18</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>190</v>
+        <v>589</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>494</v>
+        <v>590</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -9255,13 +9273,13 @@
         <v>18</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>545</v>
+        <v>591</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>565</v>
+        <v>592</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -9269,39 +9287,27 @@
         <v>18</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>532</v>
+        <v>190</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="391" spans="1:8">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
       <c r="A391" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>11</v>
+        <v>550</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>589</v>
+        <v>29</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="E391" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F391" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G391" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="H391" s="2" t="s">
-        <v>408</v>
+        <v>570</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -9309,80 +9315,89 @@
         <v>18</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C392" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
+      <c r="A393" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G393" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="H393" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C394" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D392" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4">
-      <c r="A393" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B393" s="2" t="s">
+      <c r="D394" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B395" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C393" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D393" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3">
-      <c r="A394" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B394" s="2" t="s">
+      <c r="C395" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B396" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C394" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3">
-      <c r="A395" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B395" s="2" t="s">
+      <c r="C396" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B397" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C395" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4">
-      <c r="A396" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B396" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C396" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D396" s="3" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5">
-      <c r="A397" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B397" s="2" t="s">
-        <v>593</v>
-      </c>
       <c r="C397" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D397" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="E397" s="3" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -9390,106 +9405,106 @@
         <v>18</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>596</v>
+        <v>24</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:5">
       <c r="A399" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>11</v>
+        <v>598</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>598</v>
+        <v>20</v>
       </c>
       <c r="D399" s="3" t="s">
         <v>599</v>
       </c>
       <c r="E399" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
+      <c r="A401" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="E401" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F399" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G399" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="H399" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3">
-      <c r="A400" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B400" s="2" t="s">
+      <c r="F401" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G401" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="H401" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B402" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C400" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3">
-      <c r="A401" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B401" s="2" t="s">
+      <c r="C402" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B403" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C401" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4">
-      <c r="A402" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B402" s="2" t="s">
+      <c r="C403" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B404" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C402" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D402" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4">
-      <c r="A403" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B403" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C403" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D403" s="3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
-      <c r="A404" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B404" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C404" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="E404" s="3" t="s">
-        <v>603</v>
+        <v>287</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -9497,21 +9512,21 @@
         <v>18</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>604</v>
+        <v>55</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
       <c r="A406" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>606</v>
+        <v>118</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>20</v>
@@ -9519,19 +9534,22 @@
       <c r="D406" s="3" t="s">
         <v>607</v>
       </c>
+      <c r="E406" s="3" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -9539,13 +9557,13 @@
         <v>18</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -9553,13 +9571,13 @@
         <v>18</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -9567,13 +9585,13 @@
         <v>18</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -9581,30 +9599,27 @@
         <v>18</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>285</v>
+        <v>617</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
       <c r="A412" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>301</v>
+        <v>619</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E412" s="3" t="s">
-        <v>303</v>
+        <v>620</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -9612,171 +9627,168 @@
         <v>18</v>
       </c>
       <c r="B413" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E414" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B415" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C413" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D413" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4">
-      <c r="A414" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B414" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C414" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D414" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
-      <c r="A415" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B415" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="C415" s="2" t="s">
-        <v>617</v>
+        <v>20</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="E415" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
       <c r="A416" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>91</v>
+        <v>337</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="417" spans="1:4">
+      <c r="D416" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5">
       <c r="A417" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>619</v>
+        <v>253</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>20</v>
+        <v>622</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4">
+        <v>623</v>
+      </c>
+      <c r="E417" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
       <c r="A418" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>621</v>
+        <v>91</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D418" s="3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="419" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
       <c r="A419" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B419" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B421" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C419" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8">
-      <c r="A420" s="1" t="s">
+      <c r="C421" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8">
+      <c r="A422" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B420" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="C420" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="D420" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E420" s="3" t="s">
+      <c r="B422" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="E422" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F420" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="G420" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="H420" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7">
-      <c r="A421" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B421" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="C421" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D421" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="G421" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7">
-      <c r="A422" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B422" s="2" t="s">
+      <c r="F422" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D422" s="3" t="s">
-        <v>629</v>
       </c>
       <c r="G422" s="3" t="s">
         <v>632</v>
       </c>
+      <c r="H422" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="423" spans="1:7">
       <c r="A423" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>129</v>
+        <v>633</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G423" s="3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -9784,61 +9796,67 @@
         <v>18</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D424" s="3" t="s">
+        <v>634</v>
+      </c>
       <c r="G424" s="3" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
       <c r="A425" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>637</v>
+        <v>20</v>
       </c>
       <c r="D425" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="E425" s="3" t="s">
+      <c r="G425" s="3" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
+      <c r="A426" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G426" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
+      <c r="A427" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="E427" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H425" s="2" t="s">
+      <c r="H427" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4">
-      <c r="A426" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B426" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="C426" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D426" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4">
-      <c r="A427" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B427" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="C427" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D427" s="3" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -9846,13 +9864,13 @@
         <v>18</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -9860,27 +9878,27 @@
         <v>18</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="430" ht="28.8" spans="1:4">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
       <c r="A430" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>117</v>
+        <v>648</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -9888,27 +9906,27 @@
         <v>18</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="432" ht="28.8" spans="1:4">
       <c r="A432" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -9916,13 +9934,13 @@
         <v>18</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D433" s="3" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -9930,13 +9948,13 @@
         <v>18</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>653</v>
+        <v>102</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D434" s="3" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -9944,73 +9962,67 @@
         <v>18</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="436" spans="1:8">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
       <c r="A436" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
+      <c r="A438" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B436" s="2" t="s">
+      <c r="B438" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C436" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="D436" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="E436" s="3" t="s">
+      <c r="C438" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E438" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F436" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G436" s="3" t="s">
-        <v>659</v>
-      </c>
-      <c r="H436" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5">
-      <c r="A437" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B437" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C437" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D437" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="E437" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5">
-      <c r="A438" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B438" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C438" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D438" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="E438" s="3" t="s">
-        <v>107</v>
+      <c r="F438" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G438" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="H438" s="2" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -10018,47 +10030,50 @@
         <v>18</v>
       </c>
       <c r="B439" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5">
+      <c r="A440" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5">
+      <c r="A441" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B441" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C439" s="2" t="s">
+      <c r="C441" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D439" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="E439" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4">
-      <c r="A440" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B440" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C440" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D440" s="3" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="441" ht="28.8" spans="1:5">
-      <c r="A441" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B441" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="C441" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D441" s="3" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="E441" s="3" t="s">
-        <v>664</v>
+        <v>389</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -10066,27 +10081,30 @@
         <v>18</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>665</v>
+        <v>190</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="443" ht="28.8" spans="1:5">
       <c r="A443" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>99</v>
+        <v>667</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
+      </c>
+      <c r="E443" s="3" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -10094,13 +10112,13 @@
         <v>18</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>101</v>
+        <v>670</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -10108,56 +10126,41 @@
         <v>18</v>
       </c>
       <c r="B445" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B447" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C445" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D445" s="3" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="446" spans="1:5">
-      <c r="A446" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B446" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="C446" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D446" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="E446" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="447" spans="1:8">
-      <c r="A447" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B447" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="C447" s="2" t="s">
-        <v>672</v>
+        <v>20</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="E447" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F447" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G447" s="3" t="s">
         <v>674</v>
-      </c>
-      <c r="H447" s="2" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -10165,33 +10168,42 @@
         <v>18</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>108</v>
+        <v>653</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="E448" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
       <c r="A449" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>105</v>
+        <v>253</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>20</v>
+        <v>677</v>
       </c>
       <c r="D449" s="3" t="s">
-        <v>661</v>
+        <v>678</v>
       </c>
       <c r="E449" s="3" t="s">
-        <v>107</v>
+        <v>14</v>
+      </c>
+      <c r="F449" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G449" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="H449" s="2" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -10199,16 +10211,16 @@
         <v>18</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D450" s="3" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="E450" s="3" t="s">
-        <v>384</v>
+        <v>110</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -10216,33 +10228,36 @@
         <v>18</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>676</v>
+        <v>105</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="E451" s="3" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
       <c r="A452" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>679</v>
+        <v>102</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4">
+        <v>666</v>
+      </c>
+      <c r="E452" s="3" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
       <c r="A453" s="1" t="s">
         <v>18</v>
       </c>
@@ -10255,41 +10270,50 @@
       <c r="D453" s="3" t="s">
         <v>682</v>
       </c>
+      <c r="E453" s="3" t="s">
+        <v>683</v>
+      </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>91</v>
+        <v>684</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D454" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D456" s="3" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3">
-      <c r="A455" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B455" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="C455" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3">
-      <c r="A456" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B456" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C456" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="457" spans="1:3">
@@ -10297,41 +10321,32 @@
         <v>18</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:3">
       <c r="A458" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>55</v>
+        <v>587</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D458" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5">
+    </row>
+    <row r="459" spans="1:3">
       <c r="A459" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>683</v>
+        <v>591</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D459" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="E459" s="3" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -10339,27 +10354,30 @@
         <v>18</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D460" s="3" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5">
       <c r="A461" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>32</v>
+        <v>689</v>
+      </c>
+      <c r="E461" s="3" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -10367,13 +10385,13 @@
         <v>18</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>688</v>
+        <v>129</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>44</v>
+        <v>691</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -10381,56 +10399,41 @@
         <v>18</v>
       </c>
       <c r="B463" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D463" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B465" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C463" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D463" s="3" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5">
-      <c r="A464" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B464" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C464" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D464" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E464" s="3" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8">
-      <c r="A465" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B465" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="C465" s="2" t="s">
-        <v>691</v>
+        <v>20</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="E465" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F465" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G465" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="H465" s="2" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -10438,33 +10441,42 @@
         <v>18</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D466" s="3" t="s">
-        <v>660</v>
+        <v>37</v>
       </c>
       <c r="E466" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8">
       <c r="A467" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>105</v>
+        <v>253</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>20</v>
+        <v>696</v>
       </c>
       <c r="D467" s="3" t="s">
-        <v>661</v>
+        <v>697</v>
       </c>
       <c r="E467" s="3" t="s">
-        <v>107</v>
+        <v>14</v>
+      </c>
+      <c r="F467" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G467" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="H467" s="2" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -10472,30 +10484,33 @@
         <v>18</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D468" s="3" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
       <c r="A469" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D469" s="3" t="s">
-        <v>178</v>
+        <v>666</v>
+      </c>
+      <c r="E469" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -10503,16 +10518,16 @@
         <v>18</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D470" s="3" t="s">
-        <v>37</v>
+        <v>666</v>
       </c>
       <c r="E470" s="3" t="s">
-        <v>165</v>
+        <v>389</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -10520,49 +10535,58 @@
         <v>18</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>688</v>
+        <v>24</v>
       </c>
       <c r="C471" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5">
+      <c r="A472" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D472" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E472" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C473" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D471" s="3" t="s">
+      <c r="D473" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
-      <c r="A472" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B472" s="2" t="s">
+    <row r="474" spans="1:4">
+      <c r="A474" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B474" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C472" s="2" t="s">
+      <c r="C474" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D472" s="3" t="s">
+      <c r="D474" s="3" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3">
-      <c r="A473" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B473" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="C473" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3">
-      <c r="A474" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B474" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C474" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="475" spans="1:3">
@@ -10570,41 +10594,32 @@
         <v>18</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:3">
       <c r="A476" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>55</v>
+        <v>587</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D476" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5">
+    </row>
+    <row r="477" spans="1:3">
       <c r="A477" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>253</v>
+        <v>591</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="D477" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="E477" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -10612,35 +10627,44 @@
         <v>18</v>
       </c>
       <c r="B478" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D479" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="E479" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B480" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C478" s="2" t="s">
+      <c r="C480" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D478" s="3" t="s">
+      <c r="D480" s="3" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3">
-      <c r="A479" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B479" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="C479" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3">
-      <c r="A480" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B480" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C480" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="481" spans="1:3">
@@ -10648,101 +10672,89 @@
         <v>18</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:3">
       <c r="A482" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>643</v>
+        <v>587</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D482" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="E482" s="3" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="483" spans="1:8">
+    </row>
+    <row r="483" spans="1:3">
       <c r="A483" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="E484" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
+      <c r="A485" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B483" s="2" t="s">
+      <c r="B485" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C483" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="D483" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="E483" s="3" t="s">
+      <c r="C485" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D485" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="E485" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F483" s="2" t="s">
+      <c r="F485" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G483" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="H483" s="2" t="s">
+      <c r="G485" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="H485" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
-      <c r="A484" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B484" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="C484" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D484" s="3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5">
-      <c r="A485" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B485" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C485" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D485" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E485" s="3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:4">
       <c r="A486" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>152</v>
+        <v>706</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E486" s="3" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -10750,81 +10762,93 @@
         <v>18</v>
       </c>
       <c r="B487" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E487" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E488" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5">
+      <c r="A489" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B489" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C487" s="2" t="s">
+      <c r="C489" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D487" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="E487" s="3" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="488" ht="28.8" spans="1:5">
-      <c r="A488" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B488" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C488" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D488" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="E488" s="3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="489" spans="1:8">
-      <c r="A489" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B489" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C489" s="2" t="s">
-        <v>709</v>
       </c>
       <c r="D489" s="3" t="s">
         <v>710</v>
       </c>
       <c r="E489" s="3" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="490" ht="28.8" spans="1:5">
+      <c r="A490" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D490" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="E490" s="3" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8">
+      <c r="A491" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="D491" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="E491" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F489" s="2" t="s">
+      <c r="F491" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G489" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="H489" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3">
-      <c r="A490" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B490" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C490" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3">
-      <c r="A491" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B491" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C491" s="2" t="s">
-        <v>20</v>
+      <c r="G491" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="H491" s="2" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -10832,10 +10856,10 @@
         <v>18</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>584</v>
+        <v>91</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -10843,10 +10867,10 @@
         <v>18</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>712</v>
+        <v>587</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="494" spans="1:3">
@@ -10854,7 +10878,7 @@
         <v>18</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>713</v>
+        <v>589</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>20</v>
@@ -10865,27 +10889,49 @@
         <v>18</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
       <c r="A496" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B496" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
+      <c r="A498" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B498" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C496" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D496" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="E496" s="3" t="s">
-        <v>716</v>
+      <c r="C498" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D498" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="E498" s="3" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>
@@ -10893,14 +10939,14 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="K2:N8"/>
   </mergeCells>
-  <conditionalFormatting sqref="C203">
+  <conditionalFormatting sqref="C205">
     <cfRule type="expression" dxfId="0" priority="29">
-      <formula>AND($A204="类")</formula>
+      <formula>AND($A206="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D203">
+  <conditionalFormatting sqref="D205">
     <cfRule type="expression" dxfId="1" priority="30">
-      <formula>AND($A204="类")</formula>
+      <formula>AND($A206="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A43">
@@ -10911,20 +10957,20 @@
       <formula>NOT(ISERROR(SEARCH("类",A41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A337:A342">
+  <conditionalFormatting sqref="A339:A344">
     <cfRule type="containsText" dxfId="2" priority="16" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A337)))</formula>
+      <formula>NOT(ISERROR(SEARCH("字段",A339)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="17" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A337)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A339)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A478:A481">
+  <conditionalFormatting sqref="A480:A483">
     <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A478)))</formula>
+      <formula>NOT(ISERROR(SEARCH("字段",A480)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="4" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A478)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A480)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C43">
@@ -10932,29 +10978,29 @@
       <formula>AND($A41="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C337:C342">
+  <conditionalFormatting sqref="C339:C344">
     <cfRule type="expression" dxfId="0" priority="15">
-      <formula>AND($A337="类")</formula>
+      <formula>AND($A339="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C448:C451">
+  <conditionalFormatting sqref="C450:C453">
     <cfRule type="expression" dxfId="0" priority="9">
-      <formula>AND($A448="类")</formula>
+      <formula>AND($A450="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C466:C468">
+  <conditionalFormatting sqref="C468:C470">
     <cfRule type="expression" dxfId="0" priority="7">
-      <formula>AND($A466="类")</formula>
+      <formula>AND($A468="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C472:C476">
+  <conditionalFormatting sqref="C474:C478">
     <cfRule type="expression" dxfId="0" priority="6">
-      <formula>AND($A472="类")</formula>
+      <formula>AND($A474="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C478:C481">
+  <conditionalFormatting sqref="C480:C483">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND($A478="类")</formula>
+      <formula>AND($A480="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D43">
@@ -10962,27 +11008,27 @@
       <formula>AND($A41="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D337:D342">
+  <conditionalFormatting sqref="D339:D344">
     <cfRule type="expression" dxfId="1" priority="14">
-      <formula>AND($A337="类")</formula>
+      <formula>AND($A339="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D466:D468">
+  <conditionalFormatting sqref="D468:D470">
     <cfRule type="expression" dxfId="1" priority="8">
-      <formula>AND($A466="类")</formula>
+      <formula>AND($A468="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D472:D476">
+  <conditionalFormatting sqref="D474:D478">
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>AND($A472="类")</formula>
+      <formula>AND($A474="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D478:D481">
+  <conditionalFormatting sqref="D480:D483">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND($A478="类")</formula>
+      <formula>AND($A480="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A40 A44:A336 A343:A477 A482:A1048576">
+  <conditionalFormatting sqref="A1:A40 A44:A338 A345:A479 A484:A1048576">
     <cfRule type="containsText" dxfId="2" priority="27" operator="between" text="字段">
       <formula>NOT(ISERROR(SEARCH("字段",A1)))</formula>
     </cfRule>
@@ -10990,12 +11036,12 @@
       <formula>NOT(ISERROR(SEARCH("类",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C40 C44:C202 C205:C336 C343:C447 C452:C465 C469:C471 C477 C482:C1048576">
+  <conditionalFormatting sqref="C2:C40 C44:C204 C207:C338 C345:C449 C454:C467 C471:C473 C479 C484:C1048576">
     <cfRule type="expression" dxfId="0" priority="22">
       <formula>AND($A2="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D40 D44:D202 D205:D336 D343:D465 D469:D471 D477 D482:D1048576">
+  <conditionalFormatting sqref="D2:D40 D44:D204 D207:D338 D345:D467 D471:D473 D479 D484:D1048576">
     <cfRule type="expression" dxfId="1" priority="18">
       <formula>AND($A2="类")</formula>
     </cfRule>

--- a/model.xlsx
+++ b/model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="729">
   <si>
     <t>实体登记表</t>
   </si>
@@ -818,6 +818,12 @@
     <t>Api密钥</t>
   </si>
   <si>
+    <t>payNotifyUrl</t>
+  </si>
+  <si>
+    <t>支付结果通知地址</t>
+  </si>
+  <si>
     <t>appSecret</t>
   </si>
   <si>
@@ -1655,6 +1661,27 @@
     <t>姓名,地址,电话</t>
   </si>
   <si>
+    <t>UnifiedOrder</t>
+  </si>
+  <si>
+    <t>统一订单</t>
+  </si>
+  <si>
+    <t>prepayId</t>
+  </si>
+  <si>
+    <t>支付ID</t>
+  </si>
+  <si>
+    <t>0-未支付；1-支付成功；2-支付失败</t>
+  </si>
+  <si>
+    <t>ordersId</t>
+  </si>
+  <si>
+    <t>订单ID</t>
+  </si>
+  <si>
     <t>OrdersProduct</t>
   </si>
   <si>
@@ -1670,9 +1697,6 @@
     <t>消费者Unionid</t>
   </si>
   <si>
-    <t>ordersId</t>
-  </si>
-  <si>
     <t>agentLevelId</t>
   </si>
   <si>
@@ -1728,9 +1752,6 @@
   </si>
   <si>
     <t>用户优惠券对应ID</t>
-  </si>
-  <si>
-    <t>订单ID</t>
   </si>
   <si>
     <t>usedDay</t>
@@ -2191,9 +2212,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -2213,92 +2234,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2317,14 +2257,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2335,6 +2267,88 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2350,8 +2364,15 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2363,6 +2384,36 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2378,7 +2429,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2390,19 +2441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2414,49 +2459,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2468,31 +2477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2510,13 +2495,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2528,25 +2525,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2571,30 +2592,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2630,6 +2627,30 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2680,10 +2701,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2692,133 +2713,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3205,10 +3226,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N498"/>
+  <dimension ref="A1:N508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="E134" sqref="E134"/>
+    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
+      <selection activeCell="D340" sqref="D340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -5401,7 +5422,10 @@
         <v>263</v>
       </c>
     </row>
-    <row r="134" spans="2:5">
+    <row r="134" spans="1:5">
+      <c r="A134" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="B134" s="2" t="s">
         <v>264</v>
       </c>
@@ -5415,7 +5439,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:5">
       <c r="A135" s="1" t="s">
         <v>18</v>
       </c>
@@ -5428,21 +5452,24 @@
       <c r="D135" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="G135" s="3" t="s">
+      <c r="E135" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B136" s="2" t="s">
+      <c r="C136" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D136" s="3" t="s">
+      <c r="G136" s="3" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5516,55 +5543,52 @@
         <v>280</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>11</v>
+        <v>281</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>281</v>
+        <v>20</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="E142" s="3" t="s">
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E143" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F142" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D143" s="3" t="s">
+      <c r="F143" s="2" t="s">
         <v>285</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="H143" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>20</v>
@@ -5572,39 +5596,39 @@
       <c r="D144" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="G144" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B145" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C145" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
-      <c r="A146" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B146" s="2" t="s">
+      <c r="C146" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="C146" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D146" s="3" t="s">
+      <c r="E146" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5612,24 +5636,24 @@
         <v>18</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D147" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D147" s="3" t="s">
+      <c r="G147" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="G147" s="3" t="s">
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>20</v>
@@ -5637,19 +5661,22 @@
       <c r="D148" s="3" t="s">
         <v>296</v>
       </c>
+      <c r="G148" s="3" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -5657,13 +5684,13 @@
         <v>18</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -5671,13 +5698,13 @@
         <v>18</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -5685,13 +5712,13 @@
         <v>18</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -5699,13 +5726,13 @@
         <v>18</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -5713,7 +5740,7 @@
         <v>18</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>301</v>
+        <v>85</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>20</v>
@@ -5722,7 +5749,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="155" ht="28.8" spans="1:5">
+    <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
         <v>18</v>
       </c>
@@ -5735,25 +5762,22 @@
       <c r="D155" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E155" s="3" t="s">
+    </row>
+    <row r="156" ht="28.8" spans="1:5">
+      <c r="A156" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B156" s="2" t="s">
+      <c r="C156" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C156" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D156" s="3" t="s">
+      <c r="E156" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5761,27 +5785,33 @@
         <v>18</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D157" s="3" t="s">
+      <c r="E157" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="E157" s="3" t="s">
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C158" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -5789,10 +5819,10 @@
         <v>18</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -5800,24 +5830,21 @@
         <v>18</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="C161" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>313</v>
+        <v>20</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -5828,7 +5855,7 @@
         <v>314</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>315</v>
@@ -5862,7 +5889,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
         <v>18</v>
       </c>
@@ -5870,26 +5897,26 @@
         <v>320</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E165" s="3" t="s">
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>322</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D166" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E166" s="3" t="s">
         <v>324</v>
       </c>
     </row>
@@ -5957,42 +5984,42 @@
         <v>333</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:4">
       <c r="A172" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>11</v>
+        <v>335</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>335</v>
+        <v>20</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="E172" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4">
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>338</v>
       </c>
+      <c r="E173" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1" t="s">
@@ -6002,7 +6029,7 @@
         <v>339</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>340</v>
@@ -6016,7 +6043,7 @@
         <v>341</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>342</v>
@@ -6030,13 +6057,13 @@
         <v>343</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:4">
       <c r="A177" s="1" t="s">
         <v>18</v>
       </c>
@@ -6049,50 +6076,53 @@
       <c r="D177" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="E177" s="3" t="s">
-        <v>347</v>
-      </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B179" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C178" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E178" s="3" t="s">
+      <c r="C179" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E179" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C179" s="2" t="s">
+    <row r="180" spans="1:4">
+      <c r="A180" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D179" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>20</v>
+      <c r="D180" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -6100,27 +6130,24 @@
         <v>18</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="C182" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D182" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" s="1" t="s">
         <v>18</v>
       </c>
@@ -6133,9 +6160,6 @@
       <c r="D183" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E183" s="3" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="1" t="s">
@@ -6151,10 +6175,10 @@
         <v>355</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" s="1" t="s">
         <v>18</v>
       </c>
@@ -6162,146 +6186,152 @@
         <v>356</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>357</v>
       </c>
+      <c r="E185" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B186" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C187" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="E187" s="3" t="s">
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="A188" s="1" t="s">
+      <c r="C188" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B189" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C188" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F188" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G188" s="3" t="s">
+      <c r="C189" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="H188" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7">
-      <c r="A189" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>365</v>
       </c>
       <c r="E189" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G189" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="G189" s="3" t="s">
+      <c r="H189" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D190" s="3" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B190" s="2" t="s">
+      <c r="E190" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D190" s="3" t="s">
+      <c r="G190" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B192" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E191" s="3" t="s">
+      <c r="C192" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E192" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C192" s="2" t="s">
+    <row r="193" spans="1:4">
+      <c r="A193" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D192" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>20</v>
+      <c r="D193" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -6309,55 +6339,52 @@
         <v>18</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>331</v>
-      </c>
       <c r="C195" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="D196" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="E196" s="3" t="s">
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E197" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -6365,13 +6392,13 @@
         <v>18</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>376</v>
+        <v>339</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>377</v>
+        <v>340</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -6382,7 +6409,7 @@
         <v>378</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D199" s="3" t="s">
         <v>379</v>
@@ -6396,7 +6423,7 @@
         <v>380</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>381</v>
@@ -6410,13 +6437,13 @@
         <v>382</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:4">
       <c r="A202" s="1" t="s">
         <v>18</v>
       </c>
@@ -6424,30 +6451,27 @@
         <v>384</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E202" s="3" t="s">
-        <v>386</v>
-      </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>108</v>
+        <v>386</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>387</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>110</v>
+        <v>388</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6455,16 +6479,16 @@
         <v>18</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6472,70 +6496,73 @@
         <v>18</v>
       </c>
       <c r="B205" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C206" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D205" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E205" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B206" s="2" t="s">
+      <c r="D206" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D206" s="3" t="s">
+      <c r="E206" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:4">
       <c r="A207" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>11</v>
+        <v>392</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>392</v>
+        <v>20</v>
       </c>
       <c r="D207" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E207" s="3" t="s">
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E208" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F207" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G207" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="H207" s="2" t="s">
+      <c r="F208" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="H208" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6546,10 +6573,10 @@
         <v>333</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -6557,13 +6584,13 @@
         <v>18</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>93</v>
+        <v>335</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>94</v>
+        <v>367</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -6571,13 +6598,13 @@
         <v>18</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -6585,13 +6612,13 @@
         <v>18</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>395</v>
+        <v>95</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>396</v>
+        <v>96</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -6602,13 +6629,13 @@
         <v>397</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:4">
       <c r="A214" s="1" t="s">
         <v>18</v>
       </c>
@@ -6616,67 +6643,67 @@
         <v>399</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="G214" s="3" t="s">
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>401</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D215" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G215" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:4">
       <c r="A216" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>11</v>
+        <v>404</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>404</v>
+        <v>65</v>
       </c>
       <c r="D216" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="E216" s="3" t="s">
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E217" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F216" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G216" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="H216" s="2" t="s">
+      <c r="F217" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="H217" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -6687,10 +6714,10 @@
         <v>333</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -6698,13 +6725,13 @@
         <v>18</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>399</v>
+        <v>335</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -6712,7 +6739,7 @@
         <v>18</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>65</v>
@@ -6721,43 +6748,43 @@
         <v>409</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:4">
       <c r="A221" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>11</v>
+        <v>410</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>410</v>
+        <v>65</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="E221" s="3" t="s">
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="E222" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F221" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G221" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="H221" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B222" s="2" t="s">
+      <c r="F222" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G222" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="C222" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D222" s="3" t="s">
+      <c r="H222" s="2" t="s">
         <v>415</v>
       </c>
     </row>
@@ -6769,50 +6796,50 @@
         <v>416</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:4">
       <c r="A224" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>11</v>
+        <v>418</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>418</v>
+        <v>65</v>
       </c>
       <c r="D224" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="E224" s="3" t="s">
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E225" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F224" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G224" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="H224" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>94</v>
+      <c r="F225" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -6820,13 +6847,13 @@
         <v>18</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -6834,13 +6861,13 @@
         <v>18</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -6848,13 +6875,13 @@
         <v>18</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>395</v>
+        <v>97</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>396</v>
+        <v>98</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -6865,7 +6892,7 @@
         <v>397</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>398</v>
@@ -6879,10 +6906,10 @@
         <v>399</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -6890,41 +6917,38 @@
         <v>18</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="233" spans="1:5">
+      <c r="D232" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
       <c r="A233" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E233" s="3" t="s">
-        <v>110</v>
+        <v>65</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -6932,16 +6956,16 @@
         <v>18</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -6949,16 +6973,16 @@
         <v>18</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>389</v>
+        <v>107</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -6966,16 +6990,16 @@
         <v>18</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>214</v>
+        <v>102</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D236" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>110</v>
+        <v>391</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -6983,16 +7007,16 @@
         <v>18</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7000,27 +7024,33 @@
         <v>18</v>
       </c>
       <c r="B238" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C239" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D238" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="E238" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
-      <c r="A239" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>20</v>
+      <c r="D239" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -7028,7 +7058,7 @@
         <v>18</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>20</v>
@@ -7039,7 +7069,7 @@
         <v>18</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>20</v>
@@ -7050,84 +7080,78 @@
         <v>18</v>
       </c>
       <c r="B242" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C243" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
-      <c r="A243" s="1" t="s">
+    <row r="244" spans="1:8">
+      <c r="A244" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B244" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C243" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="D243" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="E243" s="3" t="s">
+      <c r="C244" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E244" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F243" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G243" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="H243" s="2" t="s">
+      <c r="F244" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="H244" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
-      <c r="A244" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B244" s="2" t="s">
+    <row r="245" spans="1:7">
+      <c r="A245" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D244" s="3" t="s">
+      <c r="C245" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D245" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="G244" s="3" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B245" s="2" t="s">
+      <c r="G245" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C245" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D245" s="3" t="s">
+      <c r="C246" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D246" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
-      <c r="A246" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D246" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="E246" s="3" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7135,16 +7159,16 @@
         <v>18</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D247" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C247" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D247" s="3" t="s">
+      <c r="E247" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="E247" s="3" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7152,7 +7176,7 @@
         <v>18</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>118</v>
+        <v>435</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>20</v>
@@ -7169,16 +7193,16 @@
         <v>18</v>
       </c>
       <c r="B249" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D249" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C249" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D249" s="3" t="s">
+      <c r="E249" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="E249" s="3" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7186,7 +7210,7 @@
         <v>18</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>93</v>
+        <v>440</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>29</v>
@@ -7203,10 +7227,10 @@
         <v>18</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D251" s="3" t="s">
         <v>443</v>
@@ -7220,38 +7244,41 @@
         <v>18</v>
       </c>
       <c r="B252" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D252" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="E252" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D252" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="E252" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D253" s="3" t="s">
         <v>448</v>
       </c>
+      <c r="E253" s="3" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>449</v>
+        <v>33</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>29</v>
@@ -7260,44 +7287,44 @@
         <v>450</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:4">
       <c r="A255" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>11</v>
+        <v>451</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>451</v>
+        <v>29</v>
       </c>
       <c r="D255" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="E255" s="3" t="s">
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E256" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F255" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G255" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="H255" s="2" t="s">
+      <c r="F256" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="H256" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D256" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -7305,13 +7332,13 @@
         <v>18</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>454</v>
+        <v>114</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>455</v>
+        <v>153</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -7322,7 +7349,7 @@
         <v>456</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>457</v>
@@ -7342,41 +7369,44 @@
         <v>459</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:4">
       <c r="A260" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>11</v>
+        <v>460</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>460</v>
+        <v>20</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="E260" s="3" t="s">
+    </row>
+    <row r="261" spans="1:8">
+      <c r="A261" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E261" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F260" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G260" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="H260" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>20</v>
+      <c r="F261" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="H261" s="2" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -7384,7 +7414,7 @@
         <v>18</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>20</v>
@@ -7395,10 +7425,10 @@
         <v>18</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -7406,24 +7436,21 @@
         <v>18</v>
       </c>
       <c r="B264" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4">
-      <c r="A265" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="C265" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D265" s="3" t="s">
-        <v>455</v>
+        <v>20</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -7434,7 +7461,7 @@
         <v>456</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>457</v>
@@ -7445,30 +7472,27 @@
         <v>18</v>
       </c>
       <c r="B267" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C267" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D267" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="A268" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="C268" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="E268" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7476,16 +7500,16 @@
         <v>18</v>
       </c>
       <c r="B269" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D269" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C269" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D269" s="3" t="s">
-        <v>434</v>
-      </c>
       <c r="E269" s="3" t="s">
-        <v>435</v>
+        <v>466</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7493,19 +7517,19 @@
         <v>18</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
       <c r="A271" s="1" t="s">
         <v>18</v>
       </c>
@@ -7513,13 +7537,16 @@
         <v>467</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="272" spans="1:5">
+      <c r="E271" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
       <c r="A272" s="1" t="s">
         <v>18</v>
       </c>
@@ -7527,12 +7554,9 @@
         <v>469</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D272" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E272" s="3" t="s">
         <v>470</v>
       </c>
     </row>
@@ -7541,16 +7565,16 @@
         <v>18</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>93</v>
+        <v>471</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D273" s="3" t="s">
-        <v>441</v>
+        <v>290</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7558,10 +7582,10 @@
         <v>18</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>443</v>
@@ -7575,16 +7599,16 @@
         <v>18</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D275" s="3" t="s">
-        <v>471</v>
+        <v>445</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>110</v>
+        <v>446</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7592,16 +7616,16 @@
         <v>18</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7609,38 +7633,41 @@
         <v>18</v>
       </c>
       <c r="B277" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C277" s="2" t="s">
+      <c r="C278" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D277" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E277" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D278" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="279" ht="28.8" spans="1:5">
+        <v>474</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
       <c r="A279" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>20</v>
@@ -7648,21 +7675,21 @@
       <c r="D279" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="E279" s="3" t="s">
+    </row>
+    <row r="280" ht="28.8" spans="1:5">
+      <c r="A280" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B280" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B280" s="2" t="s">
+      <c r="C280" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D280" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C280" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D280" s="3" t="s">
+      <c r="E280" s="3" t="s">
         <v>478</v>
       </c>
     </row>
@@ -7671,50 +7698,53 @@
         <v>18</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="C281" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C282" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D281" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
-      <c r="A282" s="1" t="s">
+      <c r="D282" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B283" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C282" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="E282" s="3" t="s">
+      <c r="C283" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="E283" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F282" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G282" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="H282" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3">
-      <c r="A283" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>20</v>
+      <c r="F283" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G283" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H283" s="2" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -7722,7 +7752,7 @@
         <v>18</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>20</v>
@@ -7733,10 +7763,10 @@
         <v>18</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -7744,123 +7774,117 @@
         <v>18</v>
       </c>
       <c r="B286" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C286" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7">
-      <c r="A287" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B287" s="2" t="s">
+      <c r="C287" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C287" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D287" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G287" s="3" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B288" s="2" t="s">
+      <c r="C288" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C288" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D288" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7">
-      <c r="A289" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B289" s="2" t="s">
+      <c r="C289" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C289" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D289" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="G289" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4">
-      <c r="A290" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B290" s="2" t="s">
+      <c r="C290" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B291" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C290" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D290" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7">
-      <c r="A291" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B291" s="2" t="s">
+      <c r="C291" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C291" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="G291" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4">
-      <c r="A292" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B292" s="2" t="s">
+      <c r="C292" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G292" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C292" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="293" ht="28.8" spans="1:7">
-      <c r="A293" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>301</v>
-      </c>
       <c r="C293" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G293" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="294" ht="28.8" spans="1:5">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="294" ht="28.8" spans="1:7">
       <c r="A294" s="1" t="s">
         <v>18</v>
       </c>
@@ -7873,25 +7897,25 @@
       <c r="D294" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="E294" s="3" t="s">
+      <c r="G294" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="295" ht="28.8" spans="1:5">
+      <c r="A295" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="295" spans="1:7">
-      <c r="A295" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C295" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="G295" s="3" t="s">
-        <v>487</v>
+        <v>306</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7899,33 +7923,36 @@
         <v>18</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>290</v>
+        <v>114</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D296" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G296" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="297" spans="1:4">
-      <c r="A297" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>488</v>
-      </c>
       <c r="C297" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
+        <v>293</v>
+      </c>
+      <c r="G297" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
       <c r="A298" s="1" t="s">
         <v>18</v>
       </c>
@@ -7938,76 +7965,79 @@
       <c r="D298" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="E298" s="3" t="s">
-        <v>492</v>
-      </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B299" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D299" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C299" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D299" s="3" t="s">
+      <c r="E299" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="E299" s="3" t="s">
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="300" spans="1:8">
-      <c r="A300" s="1" t="s">
+      <c r="C300" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B300" s="2" t="s">
+      <c r="B301" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C300" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="D300" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="E300" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F300" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G300" s="3" t="s">
+      <c r="C301" s="2" t="s">
         <v>498</v>
-      </c>
-      <c r="H300" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4">
-      <c r="A301" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="302" spans="1:3">
+      <c r="E301" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F301" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G301" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="H301" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
       <c r="A302" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -8015,24 +8045,21 @@
         <v>18</v>
       </c>
       <c r="B303" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B304" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C303" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4">
-      <c r="A304" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C304" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D304" s="3" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -8040,13 +8067,13 @@
         <v>18</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>213</v>
+        <v>502</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -8054,13 +8081,13 @@
         <v>18</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -8068,13 +8095,13 @@
         <v>18</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>414</v>
+        <v>91</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>501</v>
+        <v>92</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -8085,10 +8112,10 @@
         <v>416</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -8096,13 +8123,13 @@
         <v>18</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>39</v>
+        <v>418</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -8110,16 +8137,16 @@
         <v>18</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>504</v>
+        <v>39</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:4">
       <c r="A311" s="1" t="s">
         <v>18</v>
       </c>
@@ -8127,14 +8154,11 @@
         <v>506</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D311" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="E311" s="3" t="s">
-        <v>457</v>
-      </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="1" t="s">
@@ -8144,26 +8168,29 @@
         <v>508</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>509</v>
       </c>
       <c r="E312" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B313" s="2" t="s">
         <v>510</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4">
-      <c r="A313" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>511</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D313" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="E313" s="3" t="s">
         <v>512</v>
       </c>
     </row>
@@ -8181,21 +8208,18 @@
         <v>514</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:4">
       <c r="A315" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>108</v>
+        <v>515</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="E315" s="3" t="s">
-        <v>110</v>
+        <v>516</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8203,16 +8227,16 @@
         <v>18</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8220,31 +8244,34 @@
         <v>18</v>
       </c>
       <c r="B317" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B318" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C317" s="2" t="s">
+      <c r="C318" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D317" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="E317" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4">
-      <c r="A318" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>518</v>
       </c>
+      <c r="E318" s="3" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="1" t="s">
@@ -8268,57 +8295,57 @@
         <v>521</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D320" s="3" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="321" ht="28.8" spans="1:5">
+    <row r="321" spans="1:4">
       <c r="A321" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B321" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="322" ht="28.8" spans="1:5">
+      <c r="A322" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B322" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C321" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D321" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="E321" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
-      <c r="A322" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B322" s="2" t="s">
+      <c r="C322" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D322" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="C322" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D322" s="3" t="s">
+      <c r="E322" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="E322" s="3" t="s">
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B323" s="2" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="323" spans="1:4">
-      <c r="A323" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B323" s="2" t="s">
+      <c r="C323" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D323" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="C323" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D323" s="3" t="s">
+      <c r="E323" s="3" t="s">
         <v>529</v>
       </c>
     </row>
@@ -8341,13 +8368,13 @@
         <v>18</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>339</v>
+        <v>532</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>340</v>
+        <v>533</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -8355,16 +8382,16 @@
         <v>18</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>532</v>
+        <v>341</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
       <c r="A327" s="1" t="s">
         <v>18</v>
       </c>
@@ -8372,47 +8399,47 @@
         <v>534</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D327" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="E327" s="3" t="s">
-        <v>536</v>
-      </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B328" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D328" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="C328" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D328" s="3" t="s">
+      <c r="E328" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="E328" s="3" t="s">
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B329" s="2" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="329" spans="1:4">
-      <c r="A329" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B329" s="2" t="s">
+      <c r="C329" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D329" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="C329" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D329" s="3" t="s">
+      <c r="E329" s="3" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:4">
       <c r="A330" s="1" t="s">
         <v>18</v>
       </c>
@@ -8420,61 +8447,52 @@
         <v>542</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="E330" s="3" t="s">
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B331" s="2" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="331" spans="1:8">
-      <c r="A331" s="1" t="s">
+      <c r="C331" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B331" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="D331" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="E331" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F331" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G331" s="3" t="s">
+      <c r="B332" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C332" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="H331" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4">
-      <c r="A332" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D332" s="3" t="s">
         <v>548</v>
       </c>
+      <c r="E332" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>20</v>
@@ -8491,18 +8509,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:3">
       <c r="A335" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D335" s="3" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="336" spans="1:3">
@@ -8510,52 +8525,55 @@
         <v>18</v>
       </c>
       <c r="B336" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D337" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="C336" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3">
-      <c r="A337" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C337" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4">
+    </row>
+    <row r="338" spans="1:5">
       <c r="A338" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B338" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B339" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C338" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D338" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
-      <c r="A339" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>525</v>
-      </c>
       <c r="C339" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="E339" s="3" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -8563,27 +8581,39 @@
         <v>18</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>337</v>
+        <v>552</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8">
       <c r="A341" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>528</v>
+        <v>11</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>20</v>
+        <v>554</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>529</v>
+        <v>555</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G341" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="H341" s="2" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -8591,47 +8621,35 @@
         <v>18</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>530</v>
+        <v>99</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D342" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>551</v>
+        <v>101</v>
       </c>
       <c r="C343" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C344" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D343" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="E343" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
-      <c r="A344" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C344" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D344" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="E344" s="3" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -8639,41 +8657,35 @@
         <v>18</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C345" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C346" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D345" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4">
-      <c r="A346" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B346" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C346" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D346" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4">
+    </row>
+    <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>95</v>
+        <v>539</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D347" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -8681,27 +8693,30 @@
         <v>18</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>395</v>
+        <v>190</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D348" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
       <c r="A349" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>397</v>
+        <v>527</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>398</v>
+        <v>528</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -8709,13 +8724,13 @@
         <v>18</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>142</v>
+        <v>339</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>557</v>
+        <v>340</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -8723,13 +8738,13 @@
         <v>18</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>64</v>
+        <v>530</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>558</v>
+        <v>531</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -8737,13 +8752,13 @@
         <v>18</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>399</v>
+        <v>532</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>559</v>
+        <v>533</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -8751,16 +8766,16 @@
         <v>18</v>
       </c>
       <c r="B353" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D353" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="C353" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D353" s="3" t="s">
+      <c r="E353" s="3" t="s">
         <v>561</v>
-      </c>
-      <c r="E353" s="3" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -8768,7 +8783,7 @@
         <v>18</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>58</v>
+        <v>562</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>20</v>
@@ -8777,50 +8792,35 @@
         <v>563</v>
       </c>
       <c r="E354" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D356" s="3" t="s">
         <v>564</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
-      <c r="A355" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B355" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D355" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E355" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8">
-      <c r="A356" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="D356" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="E356" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F356" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G356" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="H356" s="2" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8828,13 +8828,13 @@
         <v>18</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>568</v>
+        <v>95</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>569</v>
+        <v>96</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -8842,13 +8842,13 @@
         <v>18</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>454</v>
+        <v>397</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>455</v>
+        <v>398</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -8856,35 +8856,41 @@
         <v>18</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>456</v>
+        <v>399</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="360" spans="1:3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
       <c r="A360" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3">
+        <v>65</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
       <c r="A361" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8892,38 +8898,47 @@
         <v>18</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>550</v>
+        <v>401</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D362" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="E363" s="3" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
-      <c r="A363" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C363" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D363" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
+    <row r="364" spans="1:5">
       <c r="A364" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>537</v>
+        <v>58</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -8931,107 +8946,95 @@
         <v>18</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>571</v>
+        <v>61</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>572</v>
+        <v>62</v>
       </c>
       <c r="E365" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
       <c r="A366" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B366" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C366" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D366" s="3" t="s">
         <v>574</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G366" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="H366" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
       <c r="A367" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E367" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
       <c r="A368" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>504</v>
+        <v>456</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="E368" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
       <c r="A369" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>11</v>
+        <v>458</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>578</v>
+        <v>20</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="E369" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F369" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="G369" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="H369" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>337</v>
+        <v>99</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D370" s="3" t="s">
-        <v>338</v>
+        <v>20</v>
       </c>
     </row>
     <row r="371" spans="1:3">
@@ -9039,32 +9042,38 @@
         <v>18</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>528</v>
+        <v>100</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="372" spans="1:3">
+    <row r="372" spans="1:4">
       <c r="A372" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>530</v>
+        <v>552</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
       <c r="A373" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>339</v>
+        <v>190</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -9072,80 +9081,104 @@
         <v>18</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:5">
       <c r="A375" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>551</v>
+        <v>578</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
+        <v>579</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
       <c r="A376" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>554</v>
+        <v>580</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
+        <v>581</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
       <c r="A377" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>395</v>
+        <v>582</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
+        <v>581</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
       <c r="A378" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>397</v>
+        <v>506</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
+        <v>583</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
       <c r="A379" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>583</v>
+        <v>11</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>65</v>
+        <v>585</v>
       </c>
       <c r="D379" s="3" t="s">
-        <v>584</v>
+        <v>586</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F379" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="G379" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H379" s="2" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -9153,44 +9186,35 @@
         <v>18</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>93</v>
+        <v>339</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
       <c r="A381" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>95</v>
+        <v>530</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D381" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="382" ht="43.2" spans="1:5">
+    </row>
+    <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>118</v>
+        <v>532</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D382" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E382" s="3" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -9198,7 +9222,7 @@
         <v>18</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>105</v>
+        <v>341</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>20</v>
@@ -9209,21 +9233,24 @@
         <v>18</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>108</v>
+        <v>534</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="385" spans="1:3">
+    <row r="385" spans="1:4">
       <c r="A385" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>102</v>
+        <v>559</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>103</v>
+        <v>29</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -9231,13 +9258,13 @@
         <v>18</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>91</v>
+        <v>562</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>586</v>
+        <v>336</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -9245,13 +9272,13 @@
         <v>18</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>587</v>
+        <v>397</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -9259,13 +9286,13 @@
         <v>18</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>589</v>
+        <v>399</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>590</v>
+        <v>135</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -9273,13 +9300,13 @@
         <v>18</v>
       </c>
       <c r="B389" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D389" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="C389" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D389" s="3" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -9287,13 +9314,13 @@
         <v>18</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>499</v>
+        <v>94</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -9301,103 +9328,91 @@
         <v>18</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>550</v>
+        <v>95</v>
       </c>
       <c r="C391" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="392" ht="43.2" spans="1:5">
+      <c r="A392" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E392" s="3" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C396" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D391" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4">
-      <c r="A392" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B392" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C392" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D392" s="3" t="s">
+      <c r="D396" s="3" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
-      <c r="A393" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B393" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C393" s="2" t="s">
+    <row r="397" spans="1:4">
+      <c r="A397" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B397" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="D393" s="3" t="s">
+      <c r="C397" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D397" s="3" t="s">
         <v>595</v>
-      </c>
-      <c r="E393" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F393" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G393" s="3" t="s">
-        <v>596</v>
-      </c>
-      <c r="H393" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4">
-      <c r="A394" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B394" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="C394" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D394" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4">
-      <c r="A395" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B395" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C395" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D395" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3">
-      <c r="A396" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B396" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C396" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3">
-      <c r="A397" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B397" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C397" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -9405,16 +9420,16 @@
         <v>18</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>24</v>
+        <v>596</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:4">
       <c r="A399" s="1" t="s">
         <v>18</v>
       </c>
@@ -9427,70 +9442,73 @@
       <c r="D399" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="E399" s="3" t="s">
-        <v>600</v>
-      </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B400" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8">
+      <c r="A403" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C403" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="C400" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D400" s="3" t="s">
+      <c r="D403" s="3" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="401" spans="1:8">
-      <c r="A401" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B401" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C401" s="2" t="s">
+      <c r="E403" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F403" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G403" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="D401" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="E401" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F401" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G401" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="H401" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3">
-      <c r="A402" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B402" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C402" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3">
-      <c r="A403" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B403" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C403" s="2" t="s">
-        <v>20</v>
+      <c r="H403" s="2" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -9498,13 +9516,13 @@
         <v>18</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>101</v>
+        <v>552</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>287</v>
+        <v>553</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -9512,44 +9530,35 @@
         <v>18</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>55</v>
+        <v>190</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
       <c r="A406" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D406" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="E406" s="3" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4">
+    </row>
+    <row r="407" spans="1:3">
       <c r="A407" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>609</v>
+        <v>100</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D407" s="3" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -9557,27 +9566,30 @@
         <v>18</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>611</v>
+        <v>24</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D408" s="3" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5">
       <c r="A409" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D409" s="3" t="s">
-        <v>614</v>
+        <v>606</v>
+      </c>
+      <c r="E409" s="3" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -9585,72 +9597,75 @@
         <v>18</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D410" s="3" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8">
       <c r="A411" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>617</v>
+        <v>11</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>20</v>
+        <v>610</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4">
+        <v>611</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F411" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G411" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="H411" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
       <c r="A412" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>619</v>
+        <v>99</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D412" s="3" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
       <c r="A413" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>290</v>
+        <v>100</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D413" s="3" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
+    </row>
+    <row r="414" spans="1:4">
       <c r="A414" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>306</v>
+        <v>101</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E414" s="3" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -9658,55 +9673,58 @@
         <v>18</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5">
       <c r="A416" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>337</v>
+        <v>118</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5">
+        <v>614</v>
+      </c>
+      <c r="E416" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
       <c r="A417" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>253</v>
+        <v>616</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>622</v>
+        <v>20</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="E417" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
       <c r="A418" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>91</v>
+        <v>618</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -9714,13 +9732,13 @@
         <v>18</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -9728,163 +9746,142 @@
         <v>18</v>
       </c>
       <c r="B420" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B422" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="C420" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D420" s="3" t="s">
+      <c r="C422" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D422" s="3" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="421" spans="1:3">
-      <c r="A421" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B421" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C421" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8">
-      <c r="A422" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B422" s="2" t="s">
+    <row r="423" spans="1:4">
+      <c r="A423" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D423" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="C422" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="D422" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="E422" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F422" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="G422" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="H422" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7">
-      <c r="A423" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B423" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="C423" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D423" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="G423" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="424" spans="1:7">
+    </row>
+    <row r="424" spans="1:5">
       <c r="A424" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>636</v>
+        <v>308</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="G424" s="3" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="425" spans="1:7">
+        <v>309</v>
+      </c>
+      <c r="E424" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
       <c r="A425" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="G425" s="3" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="426" spans="1:7">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
       <c r="A426" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>640</v>
+        <v>339</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G426" s="3" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5">
       <c r="A427" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="E427" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H427" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4">
+    </row>
+    <row r="428" spans="1:3">
       <c r="A428" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>644</v>
+        <v>91</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D428" s="3" t="s">
-        <v>645</v>
-      </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -9892,219 +9889,219 @@
         <v>18</v>
       </c>
       <c r="B430" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8">
+      <c r="A432" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="E432" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F432" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="G432" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="H432" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7">
+      <c r="A433" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="G433" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
+      <c r="A434" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="G434" s="3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7">
+      <c r="A435" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="G435" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7">
+      <c r="A436" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G436" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="C430" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D430" s="3" t="s">
+    </row>
+    <row r="437" spans="1:8">
+      <c r="A437" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C437" s="2" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="431" spans="1:4">
-      <c r="A431" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B431" s="2" t="s">
+      <c r="D437" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="C431" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D431" s="3" t="s">
+      <c r="E437" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H437" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B438" s="2" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="432" ht="28.8" spans="1:4">
-      <c r="A432" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B432" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C432" s="2" t="s">
+      <c r="C438" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D432" s="3" t="s">
+      <c r="D438" s="3" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
-      <c r="A433" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B433" s="2" t="s">
+    <row r="439" spans="1:4">
+      <c r="A439" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B439" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="C433" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D433" s="3" t="s">
+      <c r="C439" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D439" s="3" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
-      <c r="A434" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B434" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D434" s="3" t="s">
+    <row r="440" spans="1:4">
+      <c r="A440" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B440" s="2" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="435" spans="1:4">
-      <c r="A435" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B435" s="2" t="s">
+      <c r="C440" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D440" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="C435" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D435" s="3" t="s">
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B441" s="2" t="s">
         <v>657</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4">
-      <c r="A436" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B436" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="C436" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D436" s="3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4">
-      <c r="A437" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B437" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="C437" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D437" s="3" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="438" spans="1:8">
-      <c r="A438" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B438" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C438" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="D438" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="E438" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F438" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G438" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="H438" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5">
-      <c r="A439" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B439" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C439" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D439" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="E439" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5">
-      <c r="A440" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B440" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C440" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D440" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E440" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5">
-      <c r="A441" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B441" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E441" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="442" ht="28.8" spans="1:4">
       <c r="A442" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>190</v>
+        <v>117</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="443" ht="28.8" spans="1:5">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
       <c r="A443" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>668</v>
-      </c>
-      <c r="E443" s="3" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -10112,13 +10109,13 @@
         <v>18</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>670</v>
+        <v>102</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -10126,13 +10123,13 @@
         <v>18</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>99</v>
+        <v>663</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -10140,13 +10137,13 @@
         <v>18</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>101</v>
+        <v>665</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -10154,56 +10151,56 @@
         <v>18</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>129</v>
+        <v>667</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8">
       <c r="A448" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>653</v>
+        <v>11</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>20</v>
+        <v>669</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E448" s="3" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="449" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="F448" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G448" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="H448" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5">
       <c r="A449" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>253</v>
+        <v>108</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>677</v>
+        <v>20</v>
       </c>
       <c r="D449" s="3" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="E449" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F449" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G449" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="H449" s="2" t="s">
-        <v>680</v>
+        <v>110</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -10211,16 +10208,16 @@
         <v>18</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D450" s="3" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="E450" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -10228,50 +10225,47 @@
         <v>18</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="E451" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
       <c r="A452" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E452" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="453" ht="28.8" spans="1:5">
       <c r="A453" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="E453" s="3" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -10279,13 +10273,13 @@
         <v>18</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -10293,13 +10287,13 @@
         <v>18</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>686</v>
+        <v>99</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -10307,60 +10301,87 @@
         <v>18</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D456" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
       <c r="A457" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>589</v>
+        <v>129</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="458" spans="1:3">
+      <c r="D457" s="3" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5">
       <c r="A458" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>587</v>
+        <v>660</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="459" spans="1:3">
+      <c r="D458" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8">
       <c r="A459" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>591</v>
+        <v>253</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4">
+        <v>684</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="E459" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F459" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G459" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="H459" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
       <c r="A460" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D460" s="3" t="s">
-        <v>500</v>
+        <v>672</v>
+      </c>
+      <c r="E460" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -10368,44 +10389,50 @@
         <v>18</v>
       </c>
       <c r="B461" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E461" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D462" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E462" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B463" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="C461" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D461" s="3" t="s">
+      <c r="C463" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D463" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="E461" s="3" t="s">
+      <c r="E463" s="3" t="s">
         <v>690</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4">
-      <c r="A462" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B462" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C462" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D462" s="3" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4">
-      <c r="A463" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B463" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="C463" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D463" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -10413,13 +10440,13 @@
         <v>18</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>44</v>
+        <v>692</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -10427,7 +10454,7 @@
         <v>18</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>19</v>
+        <v>693</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>20</v>
@@ -10436,129 +10463,96 @@
         <v>694</v>
       </c>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:4">
       <c r="A466" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D466" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E466" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5">
+      <c r="A471" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B471" s="2" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="467" spans="1:8">
-      <c r="A467" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B467" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C467" s="2" t="s">
+      <c r="C471" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D471" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="D467" s="3" t="s">
+      <c r="E471" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="E467" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F467" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="G467" s="3" t="s">
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D472" s="3" t="s">
         <v>698</v>
-      </c>
-      <c r="H467" s="2" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5">
-      <c r="A468" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B468" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D468" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="E468" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5">
-      <c r="A469" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B469" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C469" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D469" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E469" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5">
-      <c r="A470" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B470" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C470" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D470" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E470" s="3" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4">
-      <c r="A471" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B471" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C471" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D471" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5">
-      <c r="A472" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B472" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C472" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D472" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E472" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -10566,13 +10560,13 @@
         <v>18</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -10580,275 +10574,269 @@
         <v>18</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>91</v>
+        <v>700</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
       <c r="A475" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>589</v>
+        <v>19</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="476" spans="1:3">
+      <c r="D475" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
       <c r="A476" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>587</v>
+        <v>36</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="477" spans="1:3">
+      <c r="D476" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E476" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8">
       <c r="A477" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>591</v>
+        <v>253</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4">
+        <v>703</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="E477" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F477" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G477" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="H477" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
       <c r="A478" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>500</v>
+        <v>672</v>
+      </c>
+      <c r="E478" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="479" spans="1:5">
       <c r="A479" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>253</v>
+        <v>105</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>699</v>
+        <v>20</v>
       </c>
       <c r="D479" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E479" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5">
+      <c r="A480" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D480" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E480" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D481" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D482" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E482" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B483" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="E479" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4">
-      <c r="A480" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B480" s="2" t="s">
+      <c r="C483" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D483" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B484" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C480" s="2" t="s">
+      <c r="C484" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D480" s="3" t="s">
+      <c r="D484" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="481" spans="1:3">
-      <c r="A481" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B481" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="C481" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3">
-      <c r="A482" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B482" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="C482" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3">
-      <c r="A483" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B483" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="C483" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5">
-      <c r="A484" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B484" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="C484" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D484" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="E484" s="3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:3">
       <c r="A485" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>253</v>
+        <v>596</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="D485" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="E485" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F485" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G485" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="H485" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
       <c r="A486" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>706</v>
+        <v>594</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D486" s="3" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5">
+    </row>
+    <row r="487" spans="1:3">
       <c r="A487" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>114</v>
+        <v>598</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D487" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E487" s="3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5">
+    </row>
+    <row r="488" spans="1:4">
       <c r="A488" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E488" s="3" t="s">
-        <v>709</v>
+        <v>502</v>
       </c>
     </row>
     <row r="489" spans="1:5">
       <c r="A489" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>24</v>
+        <v>253</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>25</v>
+        <v>706</v>
       </c>
       <c r="D489" s="3" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E489" s="3" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="490" ht="28.8" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
       <c r="A490" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>138</v>
+        <v>91</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="E490" s="3" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="491" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
       <c r="A491" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>253</v>
+        <v>596</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="D491" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="E491" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F491" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G491" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="H491" s="2" t="s">
-        <v>413</v>
+        <v>20</v>
       </c>
     </row>
     <row r="492" spans="1:3">
@@ -10856,10 +10844,10 @@
         <v>18</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>91</v>
+        <v>594</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -10867,54 +10855,84 @@
         <v>18</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>587</v>
+        <v>598</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="494" spans="1:3">
+    <row r="494" spans="1:5">
       <c r="A494" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>589</v>
+        <v>655</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="495" spans="1:3">
+      <c r="D494" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E494" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
       <c r="A495" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>717</v>
+        <v>253</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3">
+        <v>710</v>
+      </c>
+      <c r="D495" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="E495" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F495" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G495" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="H495" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
       <c r="A496" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="497" spans="1:3">
+      <c r="D496" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
       <c r="A497" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>719</v>
+        <v>114</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="D497" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E497" s="3" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -10922,16 +10940,159 @@
         <v>18</v>
       </c>
       <c r="B498" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D498" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E498" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5">
+      <c r="A499" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D499" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="E499" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="500" ht="28.8" spans="1:5">
+      <c r="A500" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D500" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="E500" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8">
+      <c r="A501" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="E501" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F501" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G501" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="H501" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="C503" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B508" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C498" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D498" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="E498" s="3" t="s">
-        <v>721</v>
+      <c r="C508" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="E508" s="3" t="s">
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -10939,14 +11100,14 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="K2:N8"/>
   </mergeCells>
-  <conditionalFormatting sqref="C205">
+  <conditionalFormatting sqref="C206">
     <cfRule type="expression" dxfId="0" priority="29">
-      <formula>AND($A206="类")</formula>
+      <formula>AND($A207="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D205">
+  <conditionalFormatting sqref="D206">
     <cfRule type="expression" dxfId="1" priority="30">
-      <formula>AND($A206="类")</formula>
+      <formula>AND($A207="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:A43">
@@ -10957,20 +11118,20 @@
       <formula>NOT(ISERROR(SEARCH("类",A41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A339:A344">
+  <conditionalFormatting sqref="A349:A354">
     <cfRule type="containsText" dxfId="2" priority="16" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A339)))</formula>
+      <formula>NOT(ISERROR(SEARCH("字段",A349)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="17" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A339)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A349)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A480:A483">
+  <conditionalFormatting sqref="A490:A493">
     <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A480)))</formula>
+      <formula>NOT(ISERROR(SEARCH("字段",A490)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="4" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A480)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A490)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C43">
@@ -10978,29 +11139,29 @@
       <formula>AND($A41="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C339:C344">
+  <conditionalFormatting sqref="C349:C354">
     <cfRule type="expression" dxfId="0" priority="15">
-      <formula>AND($A339="类")</formula>
+      <formula>AND($A349="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C450:C453">
+  <conditionalFormatting sqref="C460:C463">
     <cfRule type="expression" dxfId="0" priority="9">
-      <formula>AND($A450="类")</formula>
+      <formula>AND($A460="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C468:C470">
+  <conditionalFormatting sqref="C478:C480">
     <cfRule type="expression" dxfId="0" priority="7">
-      <formula>AND($A468="类")</formula>
+      <formula>AND($A478="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C474:C478">
+  <conditionalFormatting sqref="C484:C488">
     <cfRule type="expression" dxfId="0" priority="6">
-      <formula>AND($A474="类")</formula>
+      <formula>AND($A484="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C480:C483">
+  <conditionalFormatting sqref="C490:C493">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND($A480="类")</formula>
+      <formula>AND($A490="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D43">
@@ -11008,27 +11169,27 @@
       <formula>AND($A41="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D339:D344">
+  <conditionalFormatting sqref="D349:D354">
     <cfRule type="expression" dxfId="1" priority="14">
-      <formula>AND($A339="类")</formula>
+      <formula>AND($A349="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D468:D470">
+  <conditionalFormatting sqref="D478:D480">
     <cfRule type="expression" dxfId="1" priority="8">
-      <formula>AND($A468="类")</formula>
+      <formula>AND($A478="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D474:D478">
+  <conditionalFormatting sqref="D484:D488">
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>AND($A474="类")</formula>
+      <formula>AND($A484="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D480:D483">
+  <conditionalFormatting sqref="D490:D493">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND($A480="类")</formula>
+      <formula>AND($A490="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A40 A44:A338 A345:A479 A484:A1048576">
+  <conditionalFormatting sqref="A1:A40 A44:A348 A494:A1048576 A355:A489">
     <cfRule type="containsText" dxfId="2" priority="27" operator="between" text="字段">
       <formula>NOT(ISERROR(SEARCH("字段",A1)))</formula>
     </cfRule>
@@ -11036,12 +11197,12 @@
       <formula>NOT(ISERROR(SEARCH("类",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C40 C44:C204 C207:C338 C345:C449 C454:C467 C471:C473 C479 C484:C1048576">
+  <conditionalFormatting sqref="C2:C40 C44:C205 C208:C348 C355:C459 C464:C477 C481:C483 C489 C494:C1048576">
     <cfRule type="expression" dxfId="0" priority="22">
       <formula>AND($A2="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D40 D44:D204 D207:D338 D345:D467 D471:D473 D479 D484:D1048576">
+  <conditionalFormatting sqref="D2:D40 D44:D205 D208:D348 D355:D477 D481:D483 D489 D494:D1048576">
     <cfRule type="expression" dxfId="1" priority="18">
       <formula>AND($A2="类")</formula>
     </cfRule>

--- a/model.xlsx
+++ b/model.xlsx
@@ -2212,8 +2212,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2250,16 +2250,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2274,18 +2267,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2297,7 +2282,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2305,13 +2305,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2326,6 +2319,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2340,24 +2341,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2393,7 +2393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2405,31 +2405,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2441,67 +2435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2519,7 +2459,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2531,7 +2495,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2543,31 +2561,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2611,11 +2611,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2627,6 +2648,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2655,41 +2685,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2701,10 +2701,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2713,16 +2713,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2734,112 +2734,112 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3228,8 +3228,8 @@
   <sheetPr/>
   <dimension ref="A1:N508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A320" workbookViewId="0">
-      <selection activeCell="D340" sqref="D340"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/model.xlsx
+++ b/model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2267" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="735">
   <si>
     <t>实体登记表</t>
   </si>
@@ -1680,6 +1680,24 @@
   </si>
   <si>
     <t>订单ID</t>
+  </si>
+  <si>
+    <t>errCode</t>
+  </si>
+  <si>
+    <t>微信返回的err_code</t>
+  </si>
+  <si>
+    <t>错误代码</t>
+  </si>
+  <si>
+    <t>errCodeDes</t>
+  </si>
+  <si>
+    <t>微信返回的err_code_des</t>
+  </si>
+  <si>
+    <t>错误描述</t>
   </si>
   <si>
     <t>OrdersProduct</t>
@@ -2212,8 +2230,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2236,7 +2254,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2244,7 +2262,105 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2260,14 +2376,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2275,99 +2383,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2387,6 +2405,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2399,7 +2435,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2411,7 +2453,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2423,19 +2507,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2447,31 +2531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2483,19 +2549,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2507,67 +2573,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2596,6 +2614,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2607,6 +2645,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2643,50 +2705,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -2701,10 +2719,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2713,133 +2731,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3226,10 +3244,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N508"/>
+  <dimension ref="A1:N510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="E342" sqref="E342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8590,80 +8608,89 @@
         <v>553</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:5">
       <c r="A341" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>11</v>
+        <v>554</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>554</v>
+        <v>20</v>
       </c>
       <c r="D341" s="3" t="s">
         <v>555</v>
       </c>
       <c r="E341" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8">
+      <c r="A343" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="E343" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F341" s="2" t="s">
+      <c r="F343" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G341" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="H341" s="2" t="s">
+      <c r="G343" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="H343" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
-      <c r="A342" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B342" s="2" t="s">
+    <row r="344" spans="1:4">
+      <c r="A344" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B344" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C342" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D342" s="3" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3">
-      <c r="A343" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B343" s="2" t="s">
+      <c r="C344" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B345" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C343" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3">
-      <c r="A344" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C344" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4">
-      <c r="A345" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="C345" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D345" s="3" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -8671,52 +8698,46 @@
         <v>18</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>552</v>
+        <v>91</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="347" spans="1:3">
+    <row r="347" spans="1:4">
       <c r="A347" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B347" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B349" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C347" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4">
-      <c r="A348" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D348" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
-      <c r="A349" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>527</v>
-      </c>
       <c r="C349" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D349" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="E349" s="3" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -8724,27 +8745,30 @@
         <v>18</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>339</v>
+        <v>190</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
       <c r="A351" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>531</v>
+        <v>528</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -8752,75 +8776,75 @@
         <v>18</v>
       </c>
       <c r="B352" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B354" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C352" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D352" s="3" t="s">
+      <c r="C354" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D354" s="3" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
-      <c r="A353" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D353" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="E353" s="3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
-      <c r="A354" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D354" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="E354" s="3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:5">
       <c r="A355" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>93</v>
+        <v>565</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4">
+        <v>566</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
       <c r="A356" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>97</v>
+        <v>568</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>564</v>
+        <v>569</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8828,13 +8852,13 @@
         <v>18</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D357" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -8842,13 +8866,13 @@
         <v>18</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>397</v>
+        <v>97</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>398</v>
+        <v>570</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -8856,13 +8880,13 @@
         <v>18</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>399</v>
+        <v>95</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>400</v>
+        <v>96</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -8870,13 +8894,13 @@
         <v>18</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>142</v>
+        <v>397</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>565</v>
+        <v>398</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -8884,13 +8908,13 @@
         <v>18</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>64</v>
+        <v>399</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>566</v>
+        <v>400</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8898,47 +8922,41 @@
         <v>18</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>401</v>
+        <v>142</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
       <c r="A363" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>568</v>
+        <v>64</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="E363" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
       <c r="A364" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>58</v>
+        <v>401</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="E364" s="3" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -8946,70 +8964,76 @@
         <v>18</v>
       </c>
       <c r="B365" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B367" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C365" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D365" s="3" t="s">
+      <c r="C367" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D367" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E365" s="3" t="s">
+      <c r="E367" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
-      <c r="A366" s="1" t="s">
+    <row r="368" spans="1:8">
+      <c r="A368" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B366" s="2" t="s">
+      <c r="B368" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C366" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="D366" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E366" s="3" t="s">
+      <c r="C368" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E368" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F366" s="2" t="s">
+      <c r="F368" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G366" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="H366" s="2" t="s">
+      <c r="G368" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="H368" s="2" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4">
-      <c r="A367" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B367" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="C367" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D367" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B368" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C368" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D368" s="3" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -9017,108 +9041,102 @@
         <v>18</v>
       </c>
       <c r="B369" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B371" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C369" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D369" s="3" t="s">
+      <c r="C371" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D371" s="3" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
-      <c r="A370" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B370" s="2" t="s">
+    <row r="372" spans="1:3">
+      <c r="A372" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B372" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C370" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3">
-      <c r="A371" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B371" s="2" t="s">
+      <c r="C372" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B373" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C371" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B372" s="2" t="s">
+      <c r="C373" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B374" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C372" s="2" t="s">
+      <c r="C374" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D372" s="3" t="s">
+      <c r="D374" s="3" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B373" s="2" t="s">
+    <row r="375" spans="1:4">
+      <c r="A375" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B375" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C373" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D373" s="3" t="s">
+      <c r="C375" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D375" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="374" spans="1:3">
-      <c r="A374" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B374" s="2" t="s">
+    <row r="376" spans="1:3">
+      <c r="A376" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B376" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C374" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
-      <c r="A375" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="C375" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D375" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="E375" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
-      <c r="A376" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B376" s="2" t="s">
-        <v>580</v>
-      </c>
       <c r="C376" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D376" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="E376" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9126,16 +9144,16 @@
         <v>18</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="E377" s="3" t="s">
-        <v>391</v>
+        <v>110</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9143,78 +9161,90 @@
         <v>18</v>
       </c>
       <c r="B378" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B380" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="C378" s="2" t="s">
+      <c r="C380" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D378" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="E378" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8">
-      <c r="A379" s="1" t="s">
+      <c r="D380" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
+      <c r="A381" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B379" s="2" t="s">
+      <c r="B381" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C379" s="2" t="s">
-        <v>585</v>
-      </c>
-      <c r="D379" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="E379" s="3" t="s">
+      <c r="C381" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="E381" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F379" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="G379" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="H379" s="2" t="s">
+      <c r="F381" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="G381" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="H381" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B380" s="2" t="s">
+    <row r="382" spans="1:4">
+      <c r="A382" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B382" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C380" s="2" t="s">
+      <c r="C382" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D380" s="3" t="s">
+      <c r="D382" s="3" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3">
-      <c r="A381" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="C381" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3">
-      <c r="A382" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B382" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="C382" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="383" spans="1:3">
@@ -9222,7 +9252,7 @@
         <v>18</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>341</v>
+        <v>530</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>20</v>
@@ -9233,38 +9263,32 @@
         <v>18</v>
       </c>
       <c r="B384" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B386" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C384" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B385" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C385" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D385" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B386" s="2" t="s">
-        <v>562</v>
-      </c>
       <c r="C386" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D386" s="3" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -9272,13 +9296,13 @@
         <v>18</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>397</v>
+        <v>565</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>589</v>
+        <v>334</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -9286,13 +9310,13 @@
         <v>18</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>399</v>
+        <v>568</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>135</v>
+        <v>336</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -9300,13 +9324,13 @@
         <v>18</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>590</v>
+        <v>397</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -9314,13 +9338,13 @@
         <v>18</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>93</v>
+        <v>399</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -9328,52 +9352,58 @@
         <v>18</v>
       </c>
       <c r="B391" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B393" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C391" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D391" s="3" t="s">
+      <c r="C393" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D393" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="392" ht="43.2" spans="1:5">
-      <c r="A392" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B392" s="2" t="s">
+    <row r="394" ht="43.2" spans="1:5">
+      <c r="A394" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B394" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C392" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D392" s="3" t="s">
+      <c r="C394" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D394" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E392" s="3" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3">
-      <c r="A393" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B393" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C393" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3">
-      <c r="A394" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B394" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C394" s="2" t="s">
-        <v>20</v>
+      <c r="E394" s="3" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="395" spans="1:3">
@@ -9381,38 +9411,32 @@
         <v>18</v>
       </c>
       <c r="B395" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B397" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C395" s="2" t="s">
+      <c r="C397" s="2" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4">
-      <c r="A396" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B396" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C396" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D396" s="3" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4">
-      <c r="A397" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B397" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="C397" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D397" s="3" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -9420,13 +9444,13 @@
         <v>18</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>596</v>
+        <v>91</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D398" s="3" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -9434,13 +9458,13 @@
         <v>18</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -9448,13 +9472,13 @@
         <v>18</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>190</v>
+        <v>602</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>501</v>
+        <v>603</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -9462,13 +9486,13 @@
         <v>18</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>552</v>
+        <v>604</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>553</v>
+        <v>605</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -9476,39 +9500,27 @@
         <v>18</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>539</v>
+        <v>190</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="403" spans="1:8">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
       <c r="A403" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>11</v>
+        <v>552</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>601</v>
+        <v>29</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="E403" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F403" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G403" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="H403" s="2" t="s">
-        <v>415</v>
+        <v>553</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -9516,80 +9528,89 @@
         <v>18</v>
       </c>
       <c r="B404" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8">
+      <c r="A405" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E405" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F405" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G405" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="H405" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B406" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C404" s="2" t="s">
+      <c r="C406" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D404" s="3" t="s">
+      <c r="D406" s="3" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
-      <c r="A405" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B405" s="2" t="s">
+    <row r="407" spans="1:4">
+      <c r="A407" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B407" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C405" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D405" s="3" t="s">
+      <c r="C407" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D407" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="406" spans="1:3">
-      <c r="A406" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B406" s="2" t="s">
+    <row r="408" spans="1:3">
+      <c r="A408" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B408" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C406" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3">
-      <c r="A407" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B407" s="2" t="s">
+      <c r="C408" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B409" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C407" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4">
-      <c r="A408" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B408" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C408" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D408" s="3" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5">
-      <c r="A409" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B409" s="2" t="s">
-        <v>605</v>
-      </c>
       <c r="C409" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D409" s="3" t="s">
-        <v>606</v>
-      </c>
-      <c r="E409" s="3" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -9597,106 +9618,106 @@
         <v>18</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>608</v>
+        <v>24</v>
       </c>
       <c r="C410" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C412" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D410" s="3" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8">
-      <c r="A411" s="1" t="s">
+      <c r="D412" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8">
+      <c r="A413" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B411" s="2" t="s">
+      <c r="B413" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C411" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="D411" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="E411" s="3" t="s">
+      <c r="C413" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E413" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F411" s="2" t="s">
+      <c r="F413" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G411" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="H411" s="2" t="s">
+      <c r="G413" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="H413" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="412" spans="1:3">
-      <c r="A412" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B412" s="2" t="s">
+    <row r="414" spans="1:3">
+      <c r="A414" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B414" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C412" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3">
-      <c r="A413" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B413" s="2" t="s">
+      <c r="C414" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B415" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C413" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4">
-      <c r="A414" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B414" s="2" t="s">
+      <c r="C415" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B416" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C414" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D414" s="3" t="s">
+      <c r="C416" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D416" s="3" t="s">
         <v>289</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4">
-      <c r="A415" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B415" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D415" s="3" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="416" spans="1:5">
-      <c r="A416" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B416" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C416" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D416" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="E416" s="3" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -9704,27 +9725,30 @@
         <v>18</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>616</v>
+        <v>55</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D417" s="3" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5">
       <c r="A418" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>618</v>
+        <v>118</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>619</v>
+        <v>620</v>
+      </c>
+      <c r="E418" s="3" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -9732,13 +9756,13 @@
         <v>18</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -9746,13 +9770,13 @@
         <v>18</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -9760,13 +9784,13 @@
         <v>18</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -9774,13 +9798,13 @@
         <v>18</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -9788,30 +9812,27 @@
         <v>18</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>292</v>
+        <v>630</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
       <c r="A424" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>308</v>
+        <v>632</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E424" s="3" t="s">
-        <v>310</v>
+        <v>633</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -9819,154 +9840,151 @@
         <v>18</v>
       </c>
       <c r="B425" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E426" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B427" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C425" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D425" s="3" t="s">
+      <c r="C427" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D427" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
-      <c r="A426" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B426" s="2" t="s">
+    <row r="428" spans="1:4">
+      <c r="A428" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B428" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="C426" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D426" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5">
-      <c r="A427" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B427" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C427" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="D427" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="E427" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3">
-      <c r="A428" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B428" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="429" spans="1:4">
+      <c r="D428" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5">
       <c r="A429" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>631</v>
+        <v>253</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>20</v>
+        <v>635</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4">
+        <v>636</v>
+      </c>
+      <c r="E429" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>633</v>
+        <v>91</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D430" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
       <c r="A431" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B431" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B433" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C431" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="432" spans="1:8">
-      <c r="A432" s="1" t="s">
+      <c r="C433" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
+      <c r="A434" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B432" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="C432" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="D432" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="E432" s="3" t="s">
+      <c r="B434" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="E434" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F432" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="G432" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="H432" s="2" t="s">
+      <c r="F434" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="G434" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="H434" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7">
-      <c r="A433" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B433" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="C433" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D433" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="G433" s="3" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7">
-      <c r="A434" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B434" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D434" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="G434" s="3" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -9974,16 +9992,16 @@
         <v>18</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>129</v>
+        <v>646</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="G435" s="3" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -9991,61 +10009,67 @@
         <v>18</v>
       </c>
       <c r="B436" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D436" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="C436" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G436" s="3" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="437" spans="1:8">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7">
       <c r="A437" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="G437" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7">
+      <c r="A438" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G438" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8">
+      <c r="A439" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B437" s="2" t="s">
+      <c r="B439" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C437" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="D437" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="E437" s="3" t="s">
+      <c r="C439" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E439" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H437" s="2" t="s">
+      <c r="H439" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4">
-      <c r="A438" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B438" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="C438" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D438" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4">
-      <c r="A439" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B439" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="C439" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D439" s="3" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -10053,13 +10077,13 @@
         <v>18</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -10067,27 +10091,27 @@
         <v>18</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="442" ht="28.8" spans="1:4">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
       <c r="A442" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>117</v>
+        <v>661</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -10095,27 +10119,27 @@
         <v>18</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="444" ht="28.8" spans="1:4">
       <c r="A444" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -10123,13 +10147,13 @@
         <v>18</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -10137,13 +10161,13 @@
         <v>18</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>665</v>
+        <v>102</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -10151,73 +10175,67 @@
         <v>18</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="448" spans="1:8">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
       <c r="A448" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D448" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8">
+      <c r="A450" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B448" s="2" t="s">
+      <c r="B450" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C448" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="D448" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="E448" s="3" t="s">
+      <c r="C450" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="E450" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F448" s="2" t="s">
+      <c r="F450" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G448" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="H448" s="2" t="s">
+      <c r="G450" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="H450" s="2" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5">
-      <c r="A449" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B449" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C449" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D449" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="E449" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5">
-      <c r="A450" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B450" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C450" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D450" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="E450" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -10225,47 +10243,50 @@
         <v>18</v>
       </c>
       <c r="B451" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E451" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D452" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E452" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5">
+      <c r="A453" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B453" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C451" s="2" t="s">
+      <c r="C453" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D451" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="E451" s="3" t="s">
+      <c r="D453" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E453" s="3" t="s">
         <v>391</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4">
-      <c r="A452" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B452" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C452" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D452" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="453" ht="28.8" spans="1:5">
-      <c r="A453" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B453" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="C453" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D453" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="E453" s="3" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -10273,27 +10294,30 @@
         <v>18</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>677</v>
+        <v>190</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="455" ht="28.8" spans="1:5">
       <c r="A455" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>99</v>
+        <v>680</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>679</v>
+        <v>681</v>
+      </c>
+      <c r="E455" s="3" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -10301,13 +10325,13 @@
         <v>18</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>101</v>
+        <v>683</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D456" s="3" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -10315,55 +10339,40 @@
         <v>18</v>
       </c>
       <c r="B457" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B459" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C457" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D457" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5">
-      <c r="A458" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B458" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="C458" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D458" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="E458" s="3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8">
-      <c r="A459" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B459" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="C459" s="2" t="s">
-        <v>684</v>
+        <v>20</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="E459" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F459" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G459" s="3" t="s">
-        <v>686</v>
-      </c>
-      <c r="H459" s="2" t="s">
         <v>687</v>
       </c>
     </row>
@@ -10372,33 +10381,42 @@
         <v>18</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>108</v>
+        <v>666</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D460" s="3" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="E460" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8">
       <c r="A461" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>105</v>
+        <v>253</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>20</v>
+        <v>690</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="E461" s="3" t="s">
-        <v>107</v>
+        <v>14</v>
+      </c>
+      <c r="F461" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G461" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="H461" s="2" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -10406,16 +10424,16 @@
         <v>18</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="E462" s="3" t="s">
-        <v>391</v>
+        <v>110</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -10423,44 +10441,50 @@
         <v>18</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>688</v>
+        <v>105</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="E463" s="3" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
       <c r="A464" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>691</v>
+        <v>102</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4">
+        <v>679</v>
+      </c>
+      <c r="E464" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5">
       <c r="A465" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>694</v>
+        <v>695</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -10468,35 +10492,41 @@
         <v>18</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>91</v>
+        <v>697</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D466" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D467" s="3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D468" s="3" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3">
-      <c r="A467" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B467" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="C467" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3">
-      <c r="A468" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B468" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="469" spans="1:3">
@@ -10504,41 +10534,32 @@
         <v>18</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:3">
       <c r="A470" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D470" s="3" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5">
+    </row>
+    <row r="471" spans="1:3">
       <c r="A471" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>695</v>
+        <v>604</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D471" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="E471" s="3" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -10546,27 +10567,30 @@
         <v>18</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5">
       <c r="A473" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>32</v>
+        <v>702</v>
+      </c>
+      <c r="E473" s="3" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -10574,13 +10598,13 @@
         <v>18</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>700</v>
+        <v>129</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>44</v>
+        <v>704</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -10588,56 +10612,41 @@
         <v>18</v>
       </c>
       <c r="B475" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D475" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B477" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C475" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D475" s="3" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5">
-      <c r="A476" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B476" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C476" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D476" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E476" s="3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="477" spans="1:8">
-      <c r="A477" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B477" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="C477" s="2" t="s">
-        <v>703</v>
+        <v>20</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="E477" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F477" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G477" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="H477" s="2" t="s">
-        <v>687</v>
+        <v>707</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -10645,33 +10654,42 @@
         <v>18</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>672</v>
+        <v>37</v>
       </c>
       <c r="E478" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8">
       <c r="A479" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>105</v>
+        <v>253</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>20</v>
+        <v>709</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>673</v>
+        <v>710</v>
       </c>
       <c r="E479" s="3" t="s">
-        <v>107</v>
+        <v>14</v>
+      </c>
+      <c r="F479" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G479" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="H479" s="2" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -10679,30 +10697,33 @@
         <v>18</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="E480" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5">
       <c r="A481" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>178</v>
+        <v>679</v>
+      </c>
+      <c r="E481" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -10710,16 +10731,16 @@
         <v>18</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>37</v>
+        <v>679</v>
       </c>
       <c r="E482" s="3" t="s">
-        <v>165</v>
+        <v>391</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -10727,49 +10748,58 @@
         <v>18</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>700</v>
+        <v>24</v>
       </c>
       <c r="C483" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D483" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
+      <c r="A484" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E484" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C485" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D483" s="3" t="s">
+      <c r="D485" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
-      <c r="A484" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B484" s="2" t="s">
+    <row r="486" spans="1:4">
+      <c r="A486" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B486" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C484" s="2" t="s">
+      <c r="C486" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D484" s="3" t="s">
+      <c r="D486" s="3" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3">
-      <c r="A485" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B485" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="C485" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3">
-      <c r="A486" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B486" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="C486" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="487" spans="1:3">
@@ -10777,41 +10807,32 @@
         <v>18</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:3">
       <c r="A488" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>55</v>
+        <v>600</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D488" s="3" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5">
+    </row>
+    <row r="489" spans="1:3">
       <c r="A489" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>253</v>
+        <v>604</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="D489" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="E489" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -10819,35 +10840,44 @@
         <v>18</v>
       </c>
       <c r="B490" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D490" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
+      <c r="A491" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="D491" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="E491" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B492" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C490" s="2" t="s">
+      <c r="C492" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D490" s="3" t="s">
+      <c r="D492" s="3" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3">
-      <c r="A491" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B491" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="C491" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="492" spans="1:3">
-      <c r="A492" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B492" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="C492" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="493" spans="1:3">
@@ -10855,61 +10885,40 @@
         <v>18</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:3">
       <c r="A494" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>655</v>
+        <v>600</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D494" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="E494" s="3" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="495" spans="1:8">
+    </row>
+    <row r="495" spans="1:3">
       <c r="A495" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>253</v>
+        <v>604</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="D495" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="E495" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F495" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G495" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="H495" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
       <c r="A496" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>713</v>
+        <v>661</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>20</v>
@@ -10917,39 +10926,48 @@
       <c r="D496" s="3" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="497" spans="1:5">
+      <c r="E496" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
       <c r="A497" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>114</v>
+        <v>253</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>20</v>
+        <v>716</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>153</v>
+        <v>717</v>
       </c>
       <c r="E497" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5">
+        <v>14</v>
+      </c>
+      <c r="F497" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G497" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="H497" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
       <c r="A498" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>152</v>
+        <v>719</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E498" s="3" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -10957,81 +10975,93 @@
         <v>18</v>
       </c>
       <c r="B499" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D499" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E499" s="3" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D500" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E500" s="3" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5">
+      <c r="A501" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B501" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C499" s="2" t="s">
+      <c r="C501" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D499" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="E499" s="3" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="500" ht="28.8" spans="1:5">
-      <c r="A500" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B500" s="2" t="s">
+      <c r="D501" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="E501" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="502" ht="28.8" spans="1:5">
+      <c r="A502" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B502" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C500" s="2" t="s">
+      <c r="C502" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D500" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="E500" s="3" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="501" spans="1:8">
-      <c r="A501" s="1" t="s">
+      <c r="D502" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="E502" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8">
+      <c r="A503" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B501" s="2" t="s">
+      <c r="B503" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C501" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="D501" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="E501" s="3" t="s">
+      <c r="C503" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="E503" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F501" s="2" t="s">
+      <c r="F503" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G501" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="H501" s="2" t="s">
+      <c r="G503" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="H503" s="2" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3">
-      <c r="A502" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B502" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C502" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3">
-      <c r="A503" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B503" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="C503" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -11039,10 +11069,10 @@
         <v>18</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>596</v>
+        <v>91</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="505" spans="1:3">
@@ -11050,10 +11080,10 @@
         <v>18</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>724</v>
+        <v>600</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="506" spans="1:3">
@@ -11061,7 +11091,7 @@
         <v>18</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>725</v>
+        <v>602</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>20</v>
@@ -11072,27 +11102,49 @@
         <v>18</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
       <c r="A508" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B508" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5">
+      <c r="A510" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B510" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C508" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D508" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="E508" s="3" t="s">
-        <v>728</v>
+      <c r="C510" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D510" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="E510" s="3" t="s">
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -11118,20 +11170,20 @@
       <formula>NOT(ISERROR(SEARCH("类",A41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A349:A354">
+  <conditionalFormatting sqref="A351:A356">
     <cfRule type="containsText" dxfId="2" priority="16" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A349)))</formula>
+      <formula>NOT(ISERROR(SEARCH("字段",A351)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="17" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A349)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A351)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A490:A493">
+  <conditionalFormatting sqref="A492:A495">
     <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A490)))</formula>
+      <formula>NOT(ISERROR(SEARCH("字段",A492)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="4" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A490)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A492)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C43">
@@ -11139,29 +11191,29 @@
       <formula>AND($A41="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C349:C354">
+  <conditionalFormatting sqref="C351:C356">
     <cfRule type="expression" dxfId="0" priority="15">
-      <formula>AND($A349="类")</formula>
+      <formula>AND($A351="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C460:C463">
+  <conditionalFormatting sqref="C462:C465">
     <cfRule type="expression" dxfId="0" priority="9">
-      <formula>AND($A460="类")</formula>
+      <formula>AND($A462="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C478:C480">
+  <conditionalFormatting sqref="C480:C482">
     <cfRule type="expression" dxfId="0" priority="7">
-      <formula>AND($A478="类")</formula>
+      <formula>AND($A480="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C484:C488">
+  <conditionalFormatting sqref="C486:C490">
     <cfRule type="expression" dxfId="0" priority="6">
-      <formula>AND($A484="类")</formula>
+      <formula>AND($A486="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C490:C493">
+  <conditionalFormatting sqref="C492:C495">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND($A490="类")</formula>
+      <formula>AND($A492="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D43">
@@ -11169,27 +11221,27 @@
       <formula>AND($A41="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D349:D354">
+  <conditionalFormatting sqref="D351:D356">
     <cfRule type="expression" dxfId="1" priority="14">
-      <formula>AND($A349="类")</formula>
+      <formula>AND($A351="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D478:D480">
+  <conditionalFormatting sqref="D480:D482">
     <cfRule type="expression" dxfId="1" priority="8">
-      <formula>AND($A478="类")</formula>
+      <formula>AND($A480="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D484:D488">
+  <conditionalFormatting sqref="D486:D490">
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>AND($A484="类")</formula>
+      <formula>AND($A486="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D490:D493">
+  <conditionalFormatting sqref="D492:D495">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND($A490="类")</formula>
+      <formula>AND($A492="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A40 A44:A348 A494:A1048576 A355:A489">
+  <conditionalFormatting sqref="A1:A40 A44:A350 A357:A491 A496:A1048576">
     <cfRule type="containsText" dxfId="2" priority="27" operator="between" text="字段">
       <formula>NOT(ISERROR(SEARCH("字段",A1)))</formula>
     </cfRule>
@@ -11197,12 +11249,12 @@
       <formula>NOT(ISERROR(SEARCH("类",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C40 C44:C205 C208:C348 C355:C459 C464:C477 C481:C483 C489 C494:C1048576">
+  <conditionalFormatting sqref="C2:C40 C44:C205 C208:C350 C357:C461 C466:C479 C483:C485 C491 C496:C1048576">
     <cfRule type="expression" dxfId="0" priority="22">
       <formula>AND($A2="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D40 D44:D205 D208:D348 D355:D477 D481:D483 D489 D494:D1048576">
+  <conditionalFormatting sqref="D2:D40 D44:D205 D208:D350 D357:D479 D483:D485 D491 D496:D1048576">
     <cfRule type="expression" dxfId="1" priority="18">
       <formula>AND($A2="类")</formula>
     </cfRule>

--- a/model.xlsx
+++ b/model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2277" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="735">
   <si>
     <t>实体登记表</t>
   </si>
@@ -2231,8 +2231,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -2254,22 +2254,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2284,6 +2268,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -2291,27 +2283,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2324,22 +2299,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2366,9 +2341,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2376,16 +2351,41 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2417,13 +2417,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2435,7 +2471,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2447,7 +2513,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2465,79 +2531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2567,25 +2567,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2616,11 +2616,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2630,6 +2628,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2649,26 +2656,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2688,26 +2686,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2719,10 +2719,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2731,133 +2731,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3244,10 +3244,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N510"/>
+  <dimension ref="A1:N513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="E342" sqref="E342"/>
+    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
+      <selection activeCell="C345" sqref="C345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8642,44 +8642,26 @@
         <v>559</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="D343" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="E343" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F343" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G343" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="H343" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D344" s="3" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -8687,21 +8669,36 @@
         <v>18</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8">
       <c r="A346" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>29</v>
+        <v>560</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F346" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G346" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="H346" s="2" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -8709,13 +8706,13 @@
         <v>18</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D347" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -8723,10 +8720,10 @@
         <v>18</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>552</v>
+        <v>101</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -8734,10 +8731,10 @@
         <v>18</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>539</v>
+        <v>91</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -8745,44 +8742,35 @@
         <v>18</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D350" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
       <c r="A351" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D351" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="E351" s="3" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>339</v>
+        <v>539</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D352" s="3" t="s">
-        <v>340</v>
+        <v>20</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -8790,61 +8778,58 @@
         <v>18</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>530</v>
+        <v>190</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
       <c r="A354" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
+        <v>528</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
       <c r="A355" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>565</v>
+        <v>339</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="E355" s="3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
       <c r="A356" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>568</v>
+        <v>530</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="E356" s="3" t="s">
-        <v>567</v>
+        <v>531</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8852,41 +8837,47 @@
         <v>18</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>93</v>
+        <v>532</v>
       </c>
       <c r="C357" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C358" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D357" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4">
-      <c r="A358" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C358" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D358" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4">
+        <v>566</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
       <c r="A359" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>95</v>
+        <v>568</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>96</v>
+        <v>569</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -8894,13 +8885,13 @@
         <v>18</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>397</v>
+        <v>93</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>398</v>
+        <v>94</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -8908,13 +8899,13 @@
         <v>18</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>399</v>
+        <v>97</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>400</v>
+        <v>570</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8922,13 +8913,13 @@
         <v>18</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>571</v>
+        <v>96</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -8936,13 +8927,13 @@
         <v>18</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>64</v>
+        <v>397</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>572</v>
+        <v>398</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -8950,154 +8941,160 @@
         <v>18</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
       <c r="A365" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>574</v>
+        <v>142</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D365" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D368" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="E365" s="3" t="s">
+      <c r="E368" s="3" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
-      <c r="A366" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B366" s="2" t="s">
+    <row r="369" spans="1:5">
+      <c r="A369" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B369" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C366" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D366" s="3" t="s">
+      <c r="C369" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D369" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="E366" s="3" t="s">
+      <c r="E369" s="3" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
-      <c r="A367" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B367" s="2" t="s">
+    <row r="370" spans="1:5">
+      <c r="A370" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B370" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C367" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D367" s="3" t="s">
+      <c r="C370" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D370" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E367" s="3" t="s">
+      <c r="E370" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
-      <c r="A368" s="1" t="s">
+    <row r="371" spans="1:8">
+      <c r="A371" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B368" s="2" t="s">
+      <c r="B371" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C368" s="2" t="s">
+      <c r="C371" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="D368" s="3" t="s">
+      <c r="D371" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="E368" s="3" t="s">
+      <c r="E371" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F368" s="2" t="s">
+      <c r="F371" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G368" s="3" t="s">
+      <c r="G371" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="H368" s="2" t="s">
+      <c r="H371" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B369" s="2" t="s">
+    <row r="372" spans="1:4">
+      <c r="A372" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B372" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C369" s="2" t="s">
+      <c r="C372" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D369" s="3" t="s">
+      <c r="D372" s="3" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B370" s="2" t="s">
+    <row r="373" spans="1:4">
+      <c r="A373" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B373" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C370" s="2" t="s">
+      <c r="C373" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D370" s="3" t="s">
+      <c r="D373" s="3" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B371" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C371" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D371" s="3" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="372" spans="1:3">
-      <c r="A372" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B372" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C372" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3">
-      <c r="A373" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B373" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C373" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -9105,27 +9102,24 @@
         <v>18</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>552</v>
+        <v>458</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
       <c r="A375" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>190</v>
+        <v>99</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D375" s="3" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -9133,61 +9127,49 @@
         <v>18</v>
       </c>
       <c r="B376" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B379" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C376" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5">
-      <c r="A377" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B377" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="C377" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D377" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="E377" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5">
-      <c r="A378" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B378" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="C378" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D378" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="E378" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5">
-      <c r="A379" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B379" s="2" t="s">
-        <v>588</v>
-      </c>
       <c r="C379" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D379" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="E379" s="3" t="s">
-        <v>391</v>
+        <v>20</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9195,89 +9177,107 @@
         <v>18</v>
       </c>
       <c r="B380" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B383" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="C380" s="2" t="s">
+      <c r="C383" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D380" s="3" t="s">
+      <c r="D383" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="E380" s="3" t="s">
+      <c r="E383" s="3" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="381" spans="1:8">
-      <c r="A381" s="1" t="s">
+    <row r="384" spans="1:8">
+      <c r="A384" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B381" s="2" t="s">
+      <c r="B384" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C381" s="2" t="s">
+      <c r="C384" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="D381" s="3" t="s">
+      <c r="D384" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="E381" s="3" t="s">
+      <c r="E384" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F381" s="2" t="s">
+      <c r="F384" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="G381" s="3" t="s">
+      <c r="G384" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="H381" s="2" t="s">
+      <c r="H384" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B382" s="2" t="s">
+    <row r="385" spans="1:4">
+      <c r="A385" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B385" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C382" s="2" t="s">
+      <c r="C385" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D382" s="3" t="s">
+      <c r="D385" s="3" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3">
-      <c r="A383" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B383" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="C383" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3">
-      <c r="A384" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B384" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="C384" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3">
-      <c r="A385" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B385" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C385" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="386" spans="1:3">
@@ -9285,52 +9285,43 @@
         <v>18</v>
       </c>
       <c r="B386" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B389" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C386" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B387" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="C387" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D387" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B388" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C388" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D388" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B389" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="C389" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D389" s="3" t="s">
-        <v>595</v>
+        <v>20</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -9338,13 +9329,13 @@
         <v>18</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>399</v>
+        <v>565</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D390" s="3" t="s">
-        <v>135</v>
+        <v>334</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -9352,13 +9343,13 @@
         <v>18</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>596</v>
+        <v>568</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>597</v>
+        <v>336</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -9366,13 +9357,13 @@
         <v>18</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>93</v>
+        <v>397</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>94</v>
+        <v>595</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -9380,105 +9371,105 @@
         <v>18</v>
       </c>
       <c r="B393" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B396" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C393" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D393" s="3" t="s">
+      <c r="C396" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D396" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="394" ht="43.2" spans="1:5">
-      <c r="A394" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B394" s="2" t="s">
+    <row r="397" ht="43.2" spans="1:5">
+      <c r="A397" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B397" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C394" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D394" s="3" t="s">
+      <c r="C397" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D397" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E394" s="3" t="s">
+      <c r="E397" s="3" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="395" spans="1:3">
-      <c r="A395" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B395" s="2" t="s">
+    <row r="398" spans="1:3">
+      <c r="A398" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B398" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C395" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3">
-      <c r="A396" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B396" s="2" t="s">
+      <c r="C398" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B399" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C396" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3">
-      <c r="A397" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B397" s="2" t="s">
+      <c r="C399" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B400" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C397" s="2" t="s">
+      <c r="C400" s="2" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4">
-      <c r="A398" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B398" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C398" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D398" s="3" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4">
-      <c r="A399" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B399" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="C399" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D399" s="3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4">
-      <c r="A400" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B400" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="C400" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D400" s="3" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -9486,13 +9477,13 @@
         <v>18</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>604</v>
+        <v>91</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D401" s="3" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -9500,13 +9491,13 @@
         <v>18</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>190</v>
+        <v>600</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>501</v>
+        <v>601</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -9514,13 +9505,13 @@
         <v>18</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>552</v>
+        <v>602</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>553</v>
+        <v>603</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -9528,39 +9519,27 @@
         <v>18</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>539</v>
+        <v>604</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
       <c r="A405" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>607</v>
+        <v>20</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="E405" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F405" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G405" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="H405" s="2" t="s">
-        <v>415</v>
+        <v>501</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -9582,35 +9561,53 @@
         <v>18</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>190</v>
+        <v>539</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8">
       <c r="A408" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3">
+        <v>607</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E408" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F408" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G408" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="H408" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
       <c r="A409" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>100</v>
+        <v>552</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -9618,137 +9615,128 @@
         <v>18</v>
       </c>
       <c r="B410" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B413" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C410" s="2" t="s">
+      <c r="C413" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D410" s="3" t="s">
+      <c r="D413" s="3" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
-      <c r="A411" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B411" s="2" t="s">
+    <row r="414" spans="1:5">
+      <c r="A414" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B414" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="C411" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D411" s="3" t="s">
+      <c r="C414" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D414" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="E411" s="3" t="s">
+      <c r="E414" s="3" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
-      <c r="A412" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B412" s="2" t="s">
+    <row r="415" spans="1:4">
+      <c r="A415" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B415" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="C412" s="2" t="s">
+      <c r="C415" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D412" s="3" t="s">
+      <c r="D415" s="3" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
-      <c r="A413" s="1" t="s">
+    <row r="416" spans="1:8">
+      <c r="A416" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B413" s="2" t="s">
+      <c r="B416" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C413" s="2" t="s">
+      <c r="C416" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="D413" s="3" t="s">
+      <c r="D416" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="E413" s="3" t="s">
+      <c r="E416" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F413" s="2" t="s">
+      <c r="F416" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G413" s="3" t="s">
+      <c r="G416" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="H413" s="2" t="s">
+      <c r="H416" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="414" spans="1:3">
-      <c r="A414" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B414" s="2" t="s">
+    <row r="417" spans="1:3">
+      <c r="A417" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B417" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C414" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3">
-      <c r="A415" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B415" s="2" t="s">
+      <c r="C417" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B418" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C415" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4">
-      <c r="A416" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B416" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C416" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D416" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4">
-      <c r="A417" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C417" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D417" s="3" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
-      <c r="A418" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B418" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="C418" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D418" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E418" s="3" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -9756,13 +9744,13 @@
         <v>18</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>622</v>
+        <v>101</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D419" s="3" t="s">
-        <v>623</v>
+        <v>289</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -9770,27 +9758,30 @@
         <v>18</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>624</v>
+        <v>55</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5">
       <c r="A421" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>626</v>
+        <v>118</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D421" s="3" t="s">
-        <v>627</v>
+        <v>620</v>
+      </c>
+      <c r="E421" s="3" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -9798,13 +9789,13 @@
         <v>18</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -9812,13 +9803,13 @@
         <v>18</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -9826,13 +9817,13 @@
         <v>18</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -9840,30 +9831,27 @@
         <v>18</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>292</v>
+        <v>628</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
       <c r="A426" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>308</v>
+        <v>630</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E426" s="3" t="s">
-        <v>310</v>
+        <v>631</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9871,13 +9859,13 @@
         <v>18</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>114</v>
+        <v>632</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>309</v>
+        <v>633</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -9885,41 +9873,44 @@
         <v>18</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>339</v>
+        <v>292</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>340</v>
+        <v>634</v>
       </c>
     </row>
     <row r="429" spans="1:5">
       <c r="A429" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>253</v>
+        <v>308</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>635</v>
+        <v>20</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>636</v>
+        <v>309</v>
       </c>
       <c r="E429" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
       <c r="A430" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -9927,27 +9918,30 @@
         <v>18</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>637</v>
+        <v>339</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5">
       <c r="A432" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>639</v>
+        <v>253</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>20</v>
+        <v>635</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>640</v>
+        <v>636</v>
+      </c>
+      <c r="E432" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="433" spans="1:3">
@@ -9955,87 +9949,75 @@
         <v>18</v>
       </c>
       <c r="B433" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B436" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C433" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="434" spans="1:8">
-      <c r="A434" s="1" t="s">
+      <c r="C436" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
+      <c r="A437" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B434" s="2" t="s">
+      <c r="B437" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="C434" s="2" t="s">
+      <c r="C437" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="D434" s="3" t="s">
+      <c r="D437" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="E434" s="3" t="s">
+      <c r="E437" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F434" s="2" t="s">
+      <c r="F437" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="G434" s="3" t="s">
+      <c r="G437" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="H434" s="2" t="s">
+      <c r="H437" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7">
-      <c r="A435" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B435" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D435" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="G435" s="3" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7">
-      <c r="A436" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B436" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="C436" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D436" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="G436" s="3" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7">
-      <c r="A437" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B437" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C437" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D437" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="G437" s="3" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -10043,75 +10025,84 @@
         <v>18</v>
       </c>
       <c r="B438" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="G438" s="3" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7">
+      <c r="A439" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="G439" s="3" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7">
+      <c r="A440" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="G440" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7">
+      <c r="A441" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B441" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="C438" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G438" s="3" t="s">
+      <c r="C441" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G441" s="3" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
-      <c r="A439" s="1" t="s">
+    <row r="442" spans="1:8">
+      <c r="A442" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B439" s="2" t="s">
+      <c r="B442" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C439" s="2" t="s">
+      <c r="C442" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="D439" s="3" t="s">
+      <c r="D442" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="E439" s="3" t="s">
+      <c r="E442" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H439" s="2" t="s">
+      <c r="H442" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4">
-      <c r="A440" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B440" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="C440" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D440" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4">
-      <c r="A441" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B441" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="C441" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D441" s="3" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4">
-      <c r="A442" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B442" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="C442" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D442" s="3" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -10119,27 +10110,27 @@
         <v>18</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>103</v>
+        <v>29</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="444" ht="28.8" spans="1:4">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
       <c r="A444" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>117</v>
+        <v>659</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -10147,13 +10138,13 @@
         <v>18</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D445" s="3" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -10161,27 +10152,27 @@
         <v>18</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>102</v>
+        <v>663</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>103</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="447" ht="28.8" spans="1:4">
       <c r="A447" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>669</v>
+        <v>117</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -10189,13 +10180,13 @@
         <v>18</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -10203,135 +10194,132 @@
         <v>18</v>
       </c>
       <c r="B449" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B452" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="C449" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D449" s="3" t="s">
+      <c r="C452" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D452" s="3" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
-      <c r="A450" s="1" t="s">
+    <row r="453" spans="1:8">
+      <c r="A453" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B450" s="2" t="s">
+      <c r="B453" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C450" s="2" t="s">
+      <c r="C453" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="D450" s="3" t="s">
+      <c r="D453" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="E450" s="3" t="s">
+      <c r="E453" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F450" s="2" t="s">
+      <c r="F453" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G450" s="3" t="s">
+      <c r="G453" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="H450" s="2" t="s">
+      <c r="H453" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
-      <c r="A451" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B451" s="2" t="s">
+    <row r="454" spans="1:5">
+      <c r="A454" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B454" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C451" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D451" s="3" t="s">
+      <c r="C454" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D454" s="3" t="s">
         <v>678</v>
       </c>
-      <c r="E451" s="3" t="s">
+      <c r="E454" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
-      <c r="A452" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B452" s="2" t="s">
+    <row r="455" spans="1:5">
+      <c r="A455" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B455" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C452" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D452" s="3" t="s">
+      <c r="C455" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D455" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="E452" s="3" t="s">
+      <c r="E455" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
-      <c r="A453" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B453" s="2" t="s">
+    <row r="456" spans="1:5">
+      <c r="A456" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B456" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C453" s="2" t="s">
+      <c r="C456" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D453" s="3" t="s">
+      <c r="D456" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="E453" s="3" t="s">
+      <c r="E456" s="3" t="s">
         <v>391</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4">
-      <c r="A454" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B454" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C454" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D454" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="455" ht="28.8" spans="1:5">
-      <c r="A455" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B455" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="C455" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D455" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="E455" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4">
-      <c r="A456" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B456" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="C456" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D456" s="3" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -10339,27 +10327,30 @@
         <v>18</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="458" ht="28.8" spans="1:5">
       <c r="A458" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>101</v>
+        <v>680</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D458" s="3" t="s">
-        <v>686</v>
+        <v>681</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -10367,73 +10358,55 @@
         <v>18</v>
       </c>
       <c r="B459" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B462" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C459" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D459" s="3" t="s">
+      <c r="C462" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D462" s="3" t="s">
         <v>687</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5">
-      <c r="A460" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B460" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="C460" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D460" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="E460" s="3" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="461" spans="1:8">
-      <c r="A461" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B461" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C461" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="D461" s="3" t="s">
-        <v>691</v>
-      </c>
-      <c r="E461" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F461" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G461" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="H461" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5">
-      <c r="A462" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B462" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C462" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D462" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="E462" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -10441,33 +10414,42 @@
         <v>18</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>105</v>
+        <v>666</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="E463" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8">
       <c r="A464" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>102</v>
+        <v>253</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>103</v>
+        <v>690</v>
       </c>
       <c r="D464" s="3" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="E464" s="3" t="s">
-        <v>391</v>
+        <v>14</v>
+      </c>
+      <c r="F464" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G464" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="H464" s="2" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -10475,136 +10457,142 @@
         <v>18</v>
       </c>
       <c r="B465" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5">
+      <c r="A466" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D466" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E466" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5">
+      <c r="A467" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D467" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="E467" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5">
+      <c r="A468" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B468" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="C465" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D465" s="3" t="s">
+      <c r="C468" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D468" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="E465" s="3" t="s">
+      <c r="E468" s="3" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
-      <c r="A466" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B466" s="2" t="s">
+    <row r="469" spans="1:4">
+      <c r="A469" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B469" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="C466" s="2" t="s">
+      <c r="C469" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D466" s="3" t="s">
+      <c r="D469" s="3" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
-      <c r="A467" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B467" s="2" t="s">
+    <row r="470" spans="1:4">
+      <c r="A470" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B470" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="C467" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D467" s="3" t="s">
+      <c r="C470" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D470" s="3" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
-      <c r="A468" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B468" s="2" t="s">
+    <row r="471" spans="1:4">
+      <c r="A471" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B471" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C468" s="2" t="s">
+      <c r="C471" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D468" s="3" t="s">
+      <c r="D471" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="469" spans="1:3">
-      <c r="A469" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B469" s="2" t="s">
+    <row r="472" spans="1:3">
+      <c r="A472" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B472" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C469" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3">
-      <c r="A470" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B470" s="2" t="s">
+      <c r="C472" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B473" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C470" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3">
-      <c r="A471" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B471" s="2" t="s">
+      <c r="C473" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B474" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C471" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4">
-      <c r="A472" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B472" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C472" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D472" s="3" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5">
-      <c r="A473" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B473" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="C473" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D473" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="E473" s="3" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4">
-      <c r="A474" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B474" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C474" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D474" s="3" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -10612,27 +10600,30 @@
         <v>18</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>705</v>
+        <v>55</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
       <c r="A476" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>44</v>
+        <v>702</v>
+      </c>
+      <c r="E476" s="3" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -10640,73 +10631,55 @@
         <v>18</v>
       </c>
       <c r="B477" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D479" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B480" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C477" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D477" s="3" t="s">
+      <c r="C480" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D480" s="3" t="s">
         <v>707</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5">
-      <c r="A478" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B478" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C478" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D478" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E478" s="3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="479" spans="1:8">
-      <c r="A479" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B479" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C479" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="D479" s="3" t="s">
-        <v>710</v>
-      </c>
-      <c r="E479" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F479" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="G479" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="H479" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5">
-      <c r="A480" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B480" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C480" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D480" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="E480" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -10714,47 +10687,59 @@
         <v>18</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>679</v>
+        <v>37</v>
       </c>
       <c r="E481" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8">
       <c r="A482" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>102</v>
+        <v>253</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>103</v>
+        <v>709</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>679</v>
+        <v>710</v>
       </c>
       <c r="E482" s="3" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4">
+        <v>14</v>
+      </c>
+      <c r="F482" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G482" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="H482" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5">
       <c r="A483" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>178</v>
+        <v>678</v>
+      </c>
+      <c r="E483" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -10762,30 +10747,33 @@
         <v>18</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>37</v>
+        <v>679</v>
       </c>
       <c r="E484" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
       <c r="A485" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>706</v>
+        <v>102</v>
       </c>
       <c r="C485" s="2" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>44</v>
+        <v>679</v>
+      </c>
+      <c r="E485" s="3" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -10793,181 +10781,169 @@
         <v>18</v>
       </c>
       <c r="B486" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D486" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E487" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B489" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C486" s="2" t="s">
+      <c r="C489" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D486" s="3" t="s">
+      <c r="D489" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="487" spans="1:3">
-      <c r="A487" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B487" s="2" t="s">
+    <row r="490" spans="1:3">
+      <c r="A490" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B490" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C487" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="488" spans="1:3">
-      <c r="A488" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B488" s="2" t="s">
+      <c r="C490" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B491" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C488" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3">
-      <c r="A489" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B489" s="2" t="s">
+      <c r="C491" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B492" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C489" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4">
-      <c r="A490" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B490" s="2" t="s">
+      <c r="C492" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B493" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C490" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D490" s="3" t="s">
+      <c r="C493" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D493" s="3" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="491" spans="1:5">
-      <c r="A491" s="1" t="s">
+    <row r="494" spans="1:5">
+      <c r="A494" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B491" s="2" t="s">
+      <c r="B494" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C491" s="2" t="s">
+      <c r="C494" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="D491" s="3" t="s">
+      <c r="D494" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="E491" s="3" t="s">
+      <c r="E494" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
-      <c r="A492" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B492" s="2" t="s">
+    <row r="495" spans="1:4">
+      <c r="A495" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B495" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C492" s="2" t="s">
+      <c r="C495" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D492" s="3" t="s">
+      <c r="D495" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="493" spans="1:3">
-      <c r="A493" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B493" s="2" t="s">
+    <row r="496" spans="1:3">
+      <c r="A496" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B496" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="C493" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3">
-      <c r="A494" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B494" s="2" t="s">
+      <c r="C496" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B497" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="C494" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3">
-      <c r="A495" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B495" s="2" t="s">
+      <c r="C497" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B498" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C495" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5">
-      <c r="A496" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B496" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="C496" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D496" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="E496" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="497" spans="1:8">
-      <c r="A497" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B497" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C497" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="D497" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="E497" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F497" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G497" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="H497" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4">
-      <c r="A498" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B498" s="2" t="s">
-        <v>719</v>
-      </c>
       <c r="C498" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D498" s="3" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -10975,126 +10951,150 @@
         <v>18</v>
       </c>
       <c r="B499" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D499" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="E499" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8">
+      <c r="A500" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="D500" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="E500" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F500" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G500" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="H500" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5">
+      <c r="A502" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B502" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C499" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D499" s="3" t="s">
+      <c r="C502" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D502" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E499" s="3" t="s">
+      <c r="E502" s="3" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="500" spans="1:5">
-      <c r="A500" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B500" s="2" t="s">
+    <row r="503" spans="1:5">
+      <c r="A503" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B503" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C500" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D500" s="3" t="s">
+      <c r="C503" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D503" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E500" s="3" t="s">
+      <c r="E503" s="3" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="501" spans="1:5">
-      <c r="A501" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B501" s="2" t="s">
+    <row r="504" spans="1:5">
+      <c r="A504" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B504" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C501" s="2" t="s">
+      <c r="C504" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D501" s="3" t="s">
+      <c r="D504" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="E501" s="3" t="s">
+      <c r="E504" s="3" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="502" ht="28.8" spans="1:5">
-      <c r="A502" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B502" s="2" t="s">
+    <row r="505" ht="28.8" spans="1:5">
+      <c r="A505" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B505" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C502" s="2" t="s">
+      <c r="C505" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D502" s="3" t="s">
+      <c r="D505" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="E502" s="3" t="s">
+      <c r="E505" s="3" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
-      <c r="A503" s="1" t="s">
+    <row r="506" spans="1:8">
+      <c r="A506" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B503" s="2" t="s">
+      <c r="B506" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C503" s="2" t="s">
+      <c r="C506" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="D503" s="3" t="s">
+      <c r="D506" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="E503" s="3" t="s">
+      <c r="E506" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F503" s="2" t="s">
+      <c r="F506" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G503" s="3" t="s">
+      <c r="G506" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="H503" s="2" t="s">
+      <c r="H506" s="2" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="504" spans="1:3">
-      <c r="A504" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B504" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C504" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="505" spans="1:3">
-      <c r="A505" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B505" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="C505" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3">
-      <c r="A506" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B506" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="C506" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="507" spans="1:3">
@@ -11102,7 +11102,7 @@
         <v>18</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>730</v>
+        <v>91</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>29</v>
@@ -11113,7 +11113,7 @@
         <v>18</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>731</v>
+        <v>600</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>20</v>
@@ -11124,26 +11124,59 @@
         <v>18</v>
       </c>
       <c r="B509" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B512" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="C509" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="510" spans="1:5">
-      <c r="A510" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B510" s="2" t="s">
+      <c r="C512" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B513" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C510" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D510" s="3" t="s">
+      <c r="C513" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D513" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="E510" s="3" t="s">
+      <c r="E513" s="3" t="s">
         <v>734</v>
       </c>
     </row>
@@ -11170,20 +11203,20 @@
       <formula>NOT(ISERROR(SEARCH("类",A41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A351:A356">
+  <conditionalFormatting sqref="A354:A359">
     <cfRule type="containsText" dxfId="2" priority="16" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A351)))</formula>
+      <formula>NOT(ISERROR(SEARCH("字段",A354)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="17" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A351)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A354)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A492:A495">
+  <conditionalFormatting sqref="A495:A498">
     <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A492)))</formula>
+      <formula>NOT(ISERROR(SEARCH("字段",A495)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="4" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A492)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A495)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C43">
@@ -11191,29 +11224,29 @@
       <formula>AND($A41="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C351:C356">
+  <conditionalFormatting sqref="C354:C359">
     <cfRule type="expression" dxfId="0" priority="15">
-      <formula>AND($A351="类")</formula>
+      <formula>AND($A354="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C462:C465">
+  <conditionalFormatting sqref="C465:C468">
     <cfRule type="expression" dxfId="0" priority="9">
-      <formula>AND($A462="类")</formula>
+      <formula>AND($A465="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C480:C482">
+  <conditionalFormatting sqref="C483:C485">
     <cfRule type="expression" dxfId="0" priority="7">
-      <formula>AND($A480="类")</formula>
+      <formula>AND($A483="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C486:C490">
+  <conditionalFormatting sqref="C489:C493">
     <cfRule type="expression" dxfId="0" priority="6">
-      <formula>AND($A486="类")</formula>
+      <formula>AND($A489="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C492:C495">
+  <conditionalFormatting sqref="C495:C498">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND($A492="类")</formula>
+      <formula>AND($A495="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D43">
@@ -11221,27 +11254,27 @@
       <formula>AND($A41="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D351:D356">
+  <conditionalFormatting sqref="D354:D359">
     <cfRule type="expression" dxfId="1" priority="14">
-      <formula>AND($A351="类")</formula>
+      <formula>AND($A354="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D480:D482">
+  <conditionalFormatting sqref="D483:D485">
     <cfRule type="expression" dxfId="1" priority="8">
-      <formula>AND($A480="类")</formula>
+      <formula>AND($A483="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D486:D490">
+  <conditionalFormatting sqref="D489:D493">
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>AND($A486="类")</formula>
+      <formula>AND($A489="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D492:D495">
+  <conditionalFormatting sqref="D495:D498">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND($A492="类")</formula>
+      <formula>AND($A495="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A40 A44:A350 A357:A491 A496:A1048576">
+  <conditionalFormatting sqref="A1:A40 A44:A353 A499:A1048576 A360:A494">
     <cfRule type="containsText" dxfId="2" priority="27" operator="between" text="字段">
       <formula>NOT(ISERROR(SEARCH("字段",A1)))</formula>
     </cfRule>
@@ -11249,12 +11282,12 @@
       <formula>NOT(ISERROR(SEARCH("类",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C40 C44:C205 C208:C350 C357:C461 C466:C479 C483:C485 C491 C496:C1048576">
+  <conditionalFormatting sqref="C2:C40 C44:C205 C208:C353 C360:C464 C469:C482 C486:C488 C494 C499:C1048576">
     <cfRule type="expression" dxfId="0" priority="22">
       <formula>AND($A2="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D40 D44:D205 D208:D350 D357:D479 D483:D485 D491 D496:D1048576">
+  <conditionalFormatting sqref="D2:D40 D44:D205 D208:D353 D360:D482 D486:D488 D494 D499:D1048576">
     <cfRule type="expression" dxfId="1" priority="18">
       <formula>AND($A2="类")</formula>
     </cfRule>

--- a/model.xlsx
+++ b/model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2286" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="736">
   <si>
     <t>实体登记表</t>
   </si>
@@ -1698,6 +1698,9 @@
   </si>
   <si>
     <t>错误描述</t>
+  </si>
+  <si>
+    <t>支付金额</t>
   </si>
   <si>
     <t>OrdersProduct</t>
@@ -2231,8 +2234,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -2252,6 +2255,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -2262,22 +2295,23 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2291,44 +2325,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2336,38 +2347,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2382,10 +2361,34 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2405,7 +2408,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2417,7 +2450,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2429,43 +2570,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2477,115 +2582,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2616,9 +2619,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2641,6 +2646,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2652,21 +2666,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2686,17 +2685,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2711,6 +2699,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2719,10 +2722,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2731,133 +2734,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3244,10 +3247,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N513"/>
+  <dimension ref="A1:N514"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="C345" sqref="C345"/>
+      <selection activeCell="D346" sqref="D346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8675,55 +8678,58 @@
         <v>103</v>
       </c>
     </row>
-    <row r="346" spans="1:8">
+    <row r="346" spans="1:4">
       <c r="A346" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8">
+      <c r="A347" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B346" s="2" t="s">
+      <c r="B347" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C346" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="D346" s="3" t="s">
+      <c r="C347" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E346" s="3" t="s">
+      <c r="D347" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="E347" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F346" s="2" t="s">
+      <c r="F347" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G346" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="H346" s="2" t="s">
+      <c r="G347" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="H347" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
-      <c r="A347" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B347" s="2" t="s">
+    <row r="348" spans="1:4">
+      <c r="A348" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B348" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C347" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D347" s="3" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
-      <c r="A348" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C348" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="349" spans="1:3">
@@ -8731,35 +8737,35 @@
         <v>18</v>
       </c>
       <c r="B349" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B350" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C349" s="2" t="s">
+      <c r="C350" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
-      <c r="A350" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B350" s="2" t="s">
+    <row r="351" spans="1:4">
+      <c r="A351" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B351" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C350" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D350" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
-      <c r="A351" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B351" s="2" t="s">
-        <v>552</v>
-      </c>
       <c r="C351" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="352" spans="1:3">
@@ -8767,55 +8773,52 @@
         <v>18</v>
       </c>
       <c r="B352" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B353" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C352" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4">
-      <c r="A353" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B353" s="2" t="s">
+      <c r="C353" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B354" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C353" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D353" s="3" t="s">
+      <c r="C354" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D354" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
-      <c r="A354" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B354" s="2" t="s">
+    <row r="355" spans="1:5">
+      <c r="A355" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B355" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C354" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D354" s="3" t="s">
+      <c r="C355" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D355" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="E354" s="3" t="s">
+      <c r="E355" s="3" t="s">
         <v>529</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4">
-      <c r="A355" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B355" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D355" s="3" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -8823,13 +8826,13 @@
         <v>18</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>530</v>
+        <v>339</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D356" s="3" t="s">
-        <v>531</v>
+        <v>340</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -8837,30 +8840,27 @@
         <v>18</v>
       </c>
       <c r="B357" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B358" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C357" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D357" s="3" t="s">
+      <c r="C358" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D358" s="3" t="s">
         <v>533</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
-      <c r="A358" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="C358" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D358" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="E358" s="3" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -8868,30 +8868,33 @@
         <v>18</v>
       </c>
       <c r="B359" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E359" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="C359" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D359" s="3" t="s">
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B360" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="E359" s="3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4">
-      <c r="A360" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C360" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>94</v>
+        <v>570</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -8899,13 +8902,13 @@
         <v>18</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>570</v>
+        <v>94</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -8913,13 +8916,13 @@
         <v>18</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>96</v>
+        <v>571</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -8927,13 +8930,13 @@
         <v>18</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>397</v>
+        <v>95</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>398</v>
+        <v>96</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -8941,13 +8944,13 @@
         <v>18</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D364" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -8955,13 +8958,13 @@
         <v>18</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>142</v>
+        <v>399</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D365" s="3" t="s">
-        <v>571</v>
+        <v>400</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -8969,7 +8972,7 @@
         <v>18</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>65</v>
@@ -8983,30 +8986,27 @@
         <v>18</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>401</v>
+        <v>64</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D367" s="3" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:4">
       <c r="A368" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B368" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D368" s="3" t="s">
         <v>574</v>
-      </c>
-      <c r="C368" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D368" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="E368" s="3" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9014,16 +9014,16 @@
         <v>18</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>58</v>
+        <v>575</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D369" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E369" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="E369" s="3" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9031,56 +9031,59 @@
         <v>18</v>
       </c>
       <c r="B370" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B371" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C370" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D370" s="3" t="s">
+      <c r="C371" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D371" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E370" s="3" t="s">
+      <c r="E371" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
-      <c r="A371" s="1" t="s">
+    <row r="372" spans="1:8">
+      <c r="A372" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B371" s="2" t="s">
+      <c r="B372" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C371" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D371" s="3" t="s">
+      <c r="C372" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="E371" s="3" t="s">
+      <c r="D372" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="E372" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F371" s="2" t="s">
+      <c r="F372" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G371" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="H371" s="2" t="s">
+      <c r="G372" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="H372" s="2" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B372" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="C372" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D372" s="3" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -9088,13 +9091,13 @@
         <v>18</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>456</v>
+        <v>583</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D373" s="3" t="s">
-        <v>457</v>
+        <v>584</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -9102,24 +9105,27 @@
         <v>18</v>
       </c>
       <c r="B374" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B375" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C374" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D374" s="3" t="s">
+      <c r="C375" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D375" s="3" t="s">
         <v>459</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3">
-      <c r="A375" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C375" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="376" spans="1:3">
@@ -9127,24 +9133,21 @@
         <v>18</v>
       </c>
       <c r="B376" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B377" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C376" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B377" s="2" t="s">
-        <v>552</v>
-      </c>
       <c r="C377" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D377" s="3" t="s">
-        <v>553</v>
+        <v>20</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -9152,41 +9155,38 @@
         <v>18</v>
       </c>
       <c r="B378" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B379" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C378" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D378" s="3" t="s">
+      <c r="C379" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D379" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="379" spans="1:3">
-      <c r="A379" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B379" s="2" t="s">
+    <row r="380" spans="1:3">
+      <c r="A380" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B380" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C379" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
-      <c r="A380" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B380" s="2" t="s">
-        <v>584</v>
-      </c>
       <c r="C380" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D380" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="E380" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9194,16 +9194,16 @@
         <v>18</v>
       </c>
       <c r="B381" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D381" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="C381" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D381" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="E381" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9211,16 +9211,16 @@
         <v>18</v>
       </c>
       <c r="B382" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D382" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="C382" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D382" s="3" t="s">
-        <v>587</v>
-      </c>
       <c r="E382" s="3" t="s">
-        <v>391</v>
+        <v>107</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9228,67 +9228,73 @@
         <v>18</v>
       </c>
       <c r="B383" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="E383" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B384" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="C383" s="2" t="s">
+      <c r="C384" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D383" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="E383" s="3" t="s">
+      <c r="D384" s="3" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="384" spans="1:8">
-      <c r="A384" s="1" t="s">
+      <c r="E384" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
+      <c r="A385" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B384" s="2" t="s">
+      <c r="B385" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C384" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="D384" s="3" t="s">
+      <c r="C385" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="E384" s="3" t="s">
+      <c r="D385" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E385" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F384" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="G384" s="3" t="s">
+      <c r="F385" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="H384" s="2" t="s">
+      <c r="G385" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="H385" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B385" s="2" t="s">
+    <row r="386" spans="1:4">
+      <c r="A386" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B386" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C385" s="2" t="s">
+      <c r="C386" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D385" s="3" t="s">
+      <c r="D386" s="3" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3">
-      <c r="A386" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B386" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="C386" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="387" spans="1:3">
@@ -9296,7 +9302,7 @@
         <v>18</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>20</v>
@@ -9307,7 +9313,7 @@
         <v>18</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>341</v>
+        <v>532</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>20</v>
@@ -9318,24 +9324,21 @@
         <v>18</v>
       </c>
       <c r="B389" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B390" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C389" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B390" s="2" t="s">
-        <v>565</v>
-      </c>
       <c r="C390" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D390" s="3" t="s">
-        <v>334</v>
+        <v>20</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -9343,13 +9346,13 @@
         <v>18</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -9357,13 +9360,13 @@
         <v>18</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>397</v>
+        <v>569</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>595</v>
+        <v>336</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -9371,13 +9374,13 @@
         <v>18</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>135</v>
+        <v>596</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -9385,13 +9388,13 @@
         <v>18</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>596</v>
+        <v>399</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>597</v>
+        <v>135</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -9399,13 +9402,13 @@
         <v>18</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>93</v>
+        <v>597</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>94</v>
+        <v>598</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -9413,41 +9416,44 @@
         <v>18</v>
       </c>
       <c r="B396" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B397" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C396" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D396" s="3" t="s">
+      <c r="C397" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D397" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="397" ht="43.2" spans="1:5">
-      <c r="A397" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B397" s="2" t="s">
+    <row r="398" ht="43.2" spans="1:5">
+      <c r="A398" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B398" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C397" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D397" s="3" t="s">
+      <c r="C398" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D398" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="E397" s="3" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3">
-      <c r="A398" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B398" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C398" s="2" t="s">
-        <v>20</v>
+      <c r="E398" s="3" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="399" spans="1:3">
@@ -9455,7 +9461,7 @@
         <v>18</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>20</v>
@@ -9466,24 +9472,21 @@
         <v>18</v>
       </c>
       <c r="B400" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B401" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C400" s="2" t="s">
+      <c r="C401" s="2" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4">
-      <c r="A401" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B401" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C401" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D401" s="3" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -9491,13 +9494,13 @@
         <v>18</v>
       </c>
       <c r="B402" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D402" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="C402" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D402" s="3" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -9505,13 +9508,13 @@
         <v>18</v>
       </c>
       <c r="B403" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D403" s="3" t="s">
         <v>602</v>
-      </c>
-      <c r="C403" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D403" s="3" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -9519,13 +9522,13 @@
         <v>18</v>
       </c>
       <c r="B404" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D404" s="3" t="s">
         <v>604</v>
-      </c>
-      <c r="C404" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D404" s="3" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -9533,13 +9536,13 @@
         <v>18</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>190</v>
+        <v>605</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>501</v>
+        <v>606</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -9547,13 +9550,13 @@
         <v>18</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>552</v>
+        <v>190</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>553</v>
+        <v>501</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -9561,53 +9564,53 @@
         <v>18</v>
       </c>
       <c r="B407" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B408" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C407" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D407" s="3" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8">
-      <c r="A408" s="1" t="s">
+      <c r="C408" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8">
+      <c r="A409" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B408" s="2" t="s">
+      <c r="B409" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C408" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D408" s="3" t="s">
+      <c r="C409" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="E408" s="3" t="s">
+      <c r="D409" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="E409" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F408" s="2" t="s">
+      <c r="F409" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G408" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="H408" s="2" t="s">
+      <c r="G409" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="H409" s="2" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4">
-      <c r="A409" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B409" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="C409" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D409" s="3" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -9615,24 +9618,27 @@
         <v>18</v>
       </c>
       <c r="B410" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B411" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C410" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D410" s="3" t="s">
+      <c r="C411" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D411" s="3" t="s">
         <v>501</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3">
-      <c r="A411" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B411" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C411" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="412" spans="1:3">
@@ -9640,92 +9646,92 @@
         <v>18</v>
       </c>
       <c r="B412" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B413" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C412" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4">
-      <c r="A413" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B413" s="2" t="s">
+      <c r="C413" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B414" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C413" s="2" t="s">
+      <c r="C414" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D413" s="3" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
-      <c r="A414" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B414" s="2" t="s">
+      <c r="D414" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="C414" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D414" s="3" t="s">
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B415" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="E414" s="3" t="s">
+      <c r="C415" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D415" s="3" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="415" spans="1:4">
-      <c r="A415" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B415" s="2" t="s">
+      <c r="E415" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="C415" s="2" t="s">
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C416" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D415" s="3" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8">
-      <c r="A416" s="1" t="s">
+      <c r="D416" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
+      <c r="A417" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B416" s="2" t="s">
+      <c r="B417" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C416" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="D416" s="3" t="s">
+      <c r="C417" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="E416" s="3" t="s">
+      <c r="D417" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E417" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F416" s="2" t="s">
+      <c r="F417" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G416" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="H416" s="2" t="s">
+      <c r="G417" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="H417" s="2" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3">
-      <c r="A417" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C417" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="418" spans="1:3">
@@ -9733,24 +9739,21 @@
         <v>18</v>
       </c>
       <c r="B418" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B419" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C418" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4">
-      <c r="A419" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B419" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C419" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D419" s="3" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -9758,21 +9761,21 @@
         <v>18</v>
       </c>
       <c r="B420" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B421" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C420" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D420" s="3" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
-      <c r="A421" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B421" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>20</v>
@@ -9780,22 +9783,22 @@
       <c r="D421" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="E421" s="3" t="s">
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D422" s="3" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="422" spans="1:4">
-      <c r="A422" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B422" s="2" t="s">
+      <c r="E422" s="3" t="s">
         <v>622</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D422" s="3" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -9803,13 +9806,13 @@
         <v>18</v>
       </c>
       <c r="B423" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D423" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="C423" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D423" s="3" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -9817,13 +9820,13 @@
         <v>18</v>
       </c>
       <c r="B424" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D424" s="3" t="s">
         <v>626</v>
-      </c>
-      <c r="C424" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D424" s="3" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -9831,13 +9834,13 @@
         <v>18</v>
       </c>
       <c r="B425" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D425" s="3" t="s">
         <v>628</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D425" s="3" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -9845,13 +9848,13 @@
         <v>18</v>
       </c>
       <c r="B426" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D426" s="3" t="s">
         <v>630</v>
-      </c>
-      <c r="C426" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D426" s="3" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9859,13 +9862,13 @@
         <v>18</v>
       </c>
       <c r="B427" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D427" s="3" t="s">
         <v>632</v>
-      </c>
-      <c r="C427" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D427" s="3" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -9873,38 +9876,35 @@
         <v>18</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>292</v>
+        <v>633</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:4">
       <c r="A429" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B429" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5">
+      <c r="A430" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B430" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="C429" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D429" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E429" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4">
-      <c r="A430" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B430" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>20</v>
@@ -9912,61 +9912,64 @@
       <c r="D430" s="3" t="s">
         <v>309</v>
       </c>
+      <c r="E430" s="3" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B431" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B432" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C431" s="2" t="s">
+      <c r="C432" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D431" s="3" t="s">
+      <c r="D432" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
-      <c r="A432" s="1" t="s">
+    <row r="433" spans="1:5">
+      <c r="A433" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B432" s="2" t="s">
+      <c r="B433" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C432" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="D432" s="3" t="s">
+      <c r="C433" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="E432" s="3" t="s">
+      <c r="D433" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="E433" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="433" spans="1:3">
-      <c r="A433" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B433" s="2" t="s">
+    <row r="434" spans="1:3">
+      <c r="A434" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B434" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C433" s="2" t="s">
+      <c r="C434" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4">
-      <c r="A434" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B434" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D434" s="3" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -9974,67 +9977,64 @@
         <v>18</v>
       </c>
       <c r="B435" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D435" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="C435" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D435" s="3" t="s">
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B436" s="2" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="436" spans="1:3">
-      <c r="A436" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B436" s="2" t="s">
+      <c r="C436" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B437" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C436" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="437" spans="1:8">
-      <c r="A437" s="1" t="s">
+      <c r="C437" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
+      <c r="A438" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B437" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="C437" s="2" t="s">
+      <c r="B438" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="D437" s="3" t="s">
+      <c r="C438" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="E437" s="3" t="s">
+      <c r="D438" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="E438" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F437" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="G437" s="3" t="s">
+      <c r="F438" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="H437" s="2" t="s">
+      <c r="G438" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="H438" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="438" spans="1:7">
-      <c r="A438" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B438" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="C438" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D438" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="G438" s="3" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -10042,16 +10042,16 @@
         <v>18</v>
       </c>
       <c r="B439" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="G439" s="3" t="s">
         <v>649</v>
-      </c>
-      <c r="C439" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D439" s="3" t="s">
-        <v>647</v>
-      </c>
-      <c r="G439" s="3" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -10059,16 +10059,16 @@
         <v>18</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>129</v>
+        <v>650</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D440" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="G440" s="3" t="s">
         <v>651</v>
-      </c>
-      <c r="G440" s="3" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -10076,47 +10076,50 @@
         <v>18</v>
       </c>
       <c r="B441" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="G441" s="3" t="s">
         <v>653</v>
       </c>
-      <c r="C441" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G441" s="3" t="s">
+    </row>
+    <row r="442" spans="1:7">
+      <c r="A442" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B442" s="2" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="442" spans="1:8">
-      <c r="A442" s="1" t="s">
+      <c r="C442" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G442" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8">
+      <c r="A443" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B442" s="2" t="s">
+      <c r="B443" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C442" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="D442" s="3" t="s">
+      <c r="C443" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="E442" s="3" t="s">
+      <c r="D443" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="E443" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H442" s="2" t="s">
+      <c r="H443" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4">
-      <c r="A443" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B443" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="C443" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D443" s="3" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -10124,13 +10127,13 @@
         <v>18</v>
       </c>
       <c r="B444" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D444" s="3" t="s">
         <v>659</v>
-      </c>
-      <c r="C444" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D444" s="3" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -10138,13 +10141,13 @@
         <v>18</v>
       </c>
       <c r="B445" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D445" s="3" t="s">
         <v>661</v>
-      </c>
-      <c r="C445" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D445" s="3" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -10152,41 +10155,41 @@
         <v>18</v>
       </c>
       <c r="B446" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D446" s="3" t="s">
         <v>663</v>
       </c>
-      <c r="C446" s="2" t="s">
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C447" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D446" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="447" ht="28.8" spans="1:4">
-      <c r="A447" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B447" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C447" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D447" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" ht="28.8" spans="1:4">
       <c r="A448" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B448" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D448" s="3" t="s">
         <v>666</v>
-      </c>
-      <c r="C448" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D448" s="3" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -10194,10 +10197,10 @@
         <v>18</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>102</v>
+        <v>667</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D449" s="3" t="s">
         <v>668</v>
@@ -10208,13 +10211,13 @@
         <v>18</v>
       </c>
       <c r="B450" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D450" s="3" t="s">
         <v>669</v>
-      </c>
-      <c r="C450" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D450" s="3" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -10222,13 +10225,13 @@
         <v>18</v>
       </c>
       <c r="B451" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D451" s="3" t="s">
         <v>671</v>
-      </c>
-      <c r="C451" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D451" s="3" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -10236,56 +10239,53 @@
         <v>18</v>
       </c>
       <c r="B452" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D452" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="C452" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D452" s="3" t="s">
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B453" s="2" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="453" spans="1:8">
-      <c r="A453" s="1" t="s">
+      <c r="C453" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D453" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8">
+      <c r="A454" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B453" s="2" t="s">
+      <c r="B454" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C453" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="D453" s="3" t="s">
+      <c r="C454" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="E453" s="3" t="s">
+      <c r="D454" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="E454" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F453" s="2" t="s">
+      <c r="F454" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G453" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="H453" s="2" t="s">
+      <c r="G454" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="H454" s="2" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5">
-      <c r="A454" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B454" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C454" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D454" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="E454" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -10293,7 +10293,7 @@
         <v>18</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>20</v>
@@ -10302,7 +10302,7 @@
         <v>679</v>
       </c>
       <c r="E455" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -10310,61 +10310,64 @@
         <v>18</v>
       </c>
       <c r="B456" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D456" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="E456" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5">
+      <c r="A457" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B457" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C456" s="2" t="s">
+      <c r="C457" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D456" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="E456" s="3" t="s">
+      <c r="D457" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="E457" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
-      <c r="A457" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B457" s="2" t="s">
+    <row r="458" spans="1:4">
+      <c r="A458" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B458" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C457" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D457" s="3" t="s">
+      <c r="C458" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D458" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="458" ht="28.8" spans="1:5">
-      <c r="A458" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B458" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="C458" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D458" s="3" t="s">
+    <row r="459" ht="28.8" spans="1:5">
+      <c r="A459" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B459" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="E458" s="3" t="s">
+      <c r="C459" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D459" s="3" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="459" spans="1:4">
-      <c r="A459" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B459" s="2" t="s">
+      <c r="E459" s="3" t="s">
         <v>683</v>
-      </c>
-      <c r="C459" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D459" s="3" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -10372,10 +10375,10 @@
         <v>18</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>99</v>
+        <v>684</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D460" s="3" t="s">
         <v>685</v>
@@ -10386,7 +10389,7 @@
         <v>18</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>20</v>
@@ -10400,7 +10403,7 @@
         <v>18</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>20</v>
@@ -10409,12 +10412,12 @@
         <v>687</v>
       </c>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:4">
       <c r="A463" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>666</v>
+        <v>129</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>20</v>
@@ -10422,51 +10425,48 @@
       <c r="D463" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="E463" s="3" t="s">
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D464" s="3" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="464" spans="1:8">
-      <c r="A464" s="1" t="s">
+      <c r="E464" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8">
+      <c r="A465" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B464" s="2" t="s">
+      <c r="B465" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C464" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="D464" s="3" t="s">
+      <c r="C465" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="E464" s="3" t="s">
+      <c r="D465" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="E465" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F464" s="2" t="s">
+      <c r="F465" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G464" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="H464" s="2" t="s">
+      <c r="G465" s="3" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="465" spans="1:5">
-      <c r="A465" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B465" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C465" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D465" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="E465" s="3" t="s">
-        <v>110</v>
+      <c r="H465" s="2" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -10474,7 +10474,7 @@
         <v>18</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>20</v>
@@ -10483,7 +10483,7 @@
         <v>679</v>
       </c>
       <c r="E466" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -10491,16 +10491,16 @@
         <v>18</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="D467" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E467" s="3" t="s">
-        <v>391</v>
+        <v>107</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -10508,30 +10508,33 @@
         <v>18</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>694</v>
+        <v>102</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="D468" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5">
+      <c r="A469" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B469" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="E468" s="3" t="s">
+      <c r="C469" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D469" s="3" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="469" spans="1:4">
-      <c r="A469" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B469" s="2" t="s">
+      <c r="E469" s="3" t="s">
         <v>697</v>
-      </c>
-      <c r="C469" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D469" s="3" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -10539,13 +10542,13 @@
         <v>18</v>
       </c>
       <c r="B470" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D470" s="3" t="s">
         <v>699</v>
-      </c>
-      <c r="C470" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D470" s="3" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -10553,24 +10556,27 @@
         <v>18</v>
       </c>
       <c r="B471" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B472" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C471" s="2" t="s">
+      <c r="C472" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D471" s="3" t="s">
+      <c r="D472" s="3" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3">
-      <c r="A472" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B472" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="C472" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="473" spans="1:3">
@@ -10578,7 +10584,7 @@
         <v>18</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>20</v>
@@ -10589,54 +10595,51 @@
         <v>18</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:3">
       <c r="A475" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B475" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B476" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C475" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D475" s="3" t="s">
+      <c r="C476" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D476" s="3" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
-      <c r="A476" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B476" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="C476" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D476" s="3" t="s">
+    <row r="477" spans="1:5">
+      <c r="A477" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B477" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="E476" s="3" t="s">
+      <c r="C477" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D477" s="3" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="477" spans="1:4">
-      <c r="A477" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B477" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C477" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D477" s="3" t="s">
+      <c r="E477" s="3" t="s">
         <v>704</v>
       </c>
     </row>
@@ -10645,13 +10648,13 @@
         <v>18</v>
       </c>
       <c r="B478" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D478" s="3" t="s">
         <v>705</v>
-      </c>
-      <c r="C478" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D478" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -10665,7 +10668,7 @@
         <v>29</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -10673,73 +10676,70 @@
         <v>18</v>
       </c>
       <c r="B480" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D480" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B481" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C480" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D480" s="3" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5">
-      <c r="A481" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B481" s="2" t="s">
+      <c r="C481" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D481" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5">
+      <c r="A482" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B482" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C481" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D481" s="3" t="s">
+      <c r="C482" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D482" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E481" s="3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="482" spans="1:8">
-      <c r="A482" s="1" t="s">
+      <c r="E482" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8">
+      <c r="A483" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B482" s="2" t="s">
+      <c r="B483" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C482" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="D482" s="3" t="s">
+      <c r="C483" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="E482" s="3" t="s">
+      <c r="D483" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="E483" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F482" s="2" t="s">
+      <c r="F483" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G482" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="H482" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5">
-      <c r="A483" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B483" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C483" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D483" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="E483" s="3" t="s">
-        <v>110</v>
+      <c r="G483" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="H483" s="2" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -10747,7 +10747,7 @@
         <v>18</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>20</v>
@@ -10756,7 +10756,7 @@
         <v>679</v>
       </c>
       <c r="E484" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -10764,61 +10764,64 @@
         <v>18</v>
       </c>
       <c r="B485" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D485" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="E485" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
+      <c r="A486" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B486" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C485" s="2" t="s">
+      <c r="C486" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D485" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="E485" s="3" t="s">
+      <c r="D486" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="E486" s="3" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
-      <c r="A486" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B486" s="2" t="s">
+    <row r="487" spans="1:4">
+      <c r="A487" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B487" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C486" s="2" t="s">
+      <c r="C487" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D486" s="3" t="s">
+      <c r="D487" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="487" spans="1:5">
-      <c r="A487" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B487" s="2" t="s">
+    <row r="488" spans="1:5">
+      <c r="A488" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B488" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C487" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D487" s="3" t="s">
+      <c r="C488" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D488" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E487" s="3" t="s">
+      <c r="E488" s="3" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4">
-      <c r="A488" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B488" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="C488" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D488" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -10826,24 +10829,27 @@
         <v>18</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>91</v>
+        <v>707</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D489" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D490" s="3" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3">
-      <c r="A490" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B490" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="C490" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="491" spans="1:3">
@@ -10851,7 +10857,7 @@
         <v>18</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>20</v>
@@ -10862,66 +10868,66 @@
         <v>18</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:3">
       <c r="A493" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B493" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B494" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C493" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D493" s="3" t="s">
+      <c r="C494" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D494" s="3" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="494" spans="1:5">
-      <c r="A494" s="1" t="s">
+    <row r="495" spans="1:5">
+      <c r="A495" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B494" s="2" t="s">
+      <c r="B495" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C494" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="D494" s="3" t="s">
+      <c r="C495" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="E494" s="3" t="s">
+      <c r="D495" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="E495" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
-      <c r="A495" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B495" s="2" t="s">
+    <row r="496" spans="1:4">
+      <c r="A496" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B496" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C495" s="2" t="s">
+      <c r="C496" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D495" s="3" t="s">
+      <c r="D496" s="3" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3">
-      <c r="A496" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B496" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="C496" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="497" spans="1:3">
@@ -10929,7 +10935,7 @@
         <v>18</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>20</v>
@@ -10940,83 +10946,77 @@
         <v>18</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:3">
       <c r="A499" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>661</v>
+        <v>605</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D499" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="E499" s="3" t="s">
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D500" s="3" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="500" spans="1:8">
-      <c r="A500" s="1" t="s">
+      <c r="E500" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8">
+      <c r="A501" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B500" s="2" t="s">
+      <c r="B501" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C500" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="D500" s="3" t="s">
+      <c r="C501" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="E500" s="3" t="s">
+      <c r="D501" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="E501" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F500" s="2" t="s">
+      <c r="F501" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G500" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="H500" s="2" t="s">
+      <c r="G501" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="H501" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
-      <c r="A501" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B501" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="C501" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D501" s="3" t="s">
+    <row r="502" spans="1:4">
+      <c r="A502" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B502" s="2" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="502" spans="1:5">
-      <c r="A502" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B502" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="C502" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D502" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E502" s="3" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11025,13 +11025,13 @@
         <v>18</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D503" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E503" s="3" t="s">
         <v>722</v>
@@ -11042,70 +11042,76 @@
         <v>18</v>
       </c>
       <c r="B504" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D504" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E504" s="3" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
+      <c r="A505" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B505" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C504" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D504" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="E504" s="3" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="505" ht="28.8" spans="1:5">
-      <c r="A505" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B505" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D505" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="E505" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="E505" s="3" t="s">
+    </row>
+    <row r="506" ht="28.8" spans="1:5">
+      <c r="A506" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D506" s="3" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="506" spans="1:8">
-      <c r="A506" s="1" t="s">
+      <c r="E506" s="3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8">
+      <c r="A507" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B506" s="2" t="s">
+      <c r="B507" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C506" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="D506" s="3" t="s">
+      <c r="C507" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="E506" s="3" t="s">
+      <c r="D507" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="E507" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F506" s="2" t="s">
+      <c r="F507" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G506" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="H506" s="2" t="s">
+      <c r="G507" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="H507" s="2" t="s">
         <v>415</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3">
-      <c r="A507" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B507" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C507" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="508" spans="1:3">
@@ -11113,10 +11119,10 @@
         <v>18</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>600</v>
+        <v>91</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="509" spans="1:3">
@@ -11124,7 +11130,7 @@
         <v>18</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C509" s="2" t="s">
         <v>20</v>
@@ -11135,10 +11141,10 @@
         <v>18</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>730</v>
+        <v>603</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="511" spans="1:3">
@@ -11149,7 +11155,7 @@
         <v>731</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="512" spans="1:3">
@@ -11163,21 +11169,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" spans="1:3">
       <c r="A513" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B513" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B514" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C513" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D513" s="3" t="s">
-        <v>733</v>
-      </c>
-      <c r="E513" s="3" t="s">
+      <c r="C514" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D514" s="3" t="s">
         <v>734</v>
+      </c>
+      <c r="E514" s="3" t="s">
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -11203,20 +11220,20 @@
       <formula>NOT(ISERROR(SEARCH("类",A41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A354:A359">
+  <conditionalFormatting sqref="A355:A360">
     <cfRule type="containsText" dxfId="2" priority="16" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A354)))</formula>
+      <formula>NOT(ISERROR(SEARCH("字段",A355)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="17" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A354)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A355)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A495:A498">
+  <conditionalFormatting sqref="A496:A499">
     <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A495)))</formula>
+      <formula>NOT(ISERROR(SEARCH("字段",A496)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="4" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A495)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A496)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C43">
@@ -11224,29 +11241,29 @@
       <formula>AND($A41="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C354:C359">
+  <conditionalFormatting sqref="C355:C360">
     <cfRule type="expression" dxfId="0" priority="15">
-      <formula>AND($A354="类")</formula>
+      <formula>AND($A355="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C465:C468">
+  <conditionalFormatting sqref="C466:C469">
     <cfRule type="expression" dxfId="0" priority="9">
-      <formula>AND($A465="类")</formula>
+      <formula>AND($A466="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C483:C485">
+  <conditionalFormatting sqref="C484:C486">
     <cfRule type="expression" dxfId="0" priority="7">
-      <formula>AND($A483="类")</formula>
+      <formula>AND($A484="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C489:C493">
+  <conditionalFormatting sqref="C490:C494">
     <cfRule type="expression" dxfId="0" priority="6">
-      <formula>AND($A489="类")</formula>
+      <formula>AND($A490="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C495:C498">
+  <conditionalFormatting sqref="C496:C499">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND($A495="类")</formula>
+      <formula>AND($A496="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D43">
@@ -11254,27 +11271,27 @@
       <formula>AND($A41="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D354:D359">
+  <conditionalFormatting sqref="D355:D360">
     <cfRule type="expression" dxfId="1" priority="14">
-      <formula>AND($A354="类")</formula>
+      <formula>AND($A355="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D483:D485">
+  <conditionalFormatting sqref="D484:D486">
     <cfRule type="expression" dxfId="1" priority="8">
-      <formula>AND($A483="类")</formula>
+      <formula>AND($A484="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D489:D493">
+  <conditionalFormatting sqref="D490:D494">
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>AND($A489="类")</formula>
+      <formula>AND($A490="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D495:D498">
+  <conditionalFormatting sqref="D496:D499">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND($A495="类")</formula>
+      <formula>AND($A496="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A40 A44:A353 A499:A1048576 A360:A494">
+  <conditionalFormatting sqref="A1:A40 A44:A354 A361:A495 A500:A1048576">
     <cfRule type="containsText" dxfId="2" priority="27" operator="between" text="字段">
       <formula>NOT(ISERROR(SEARCH("字段",A1)))</formula>
     </cfRule>
@@ -11282,12 +11299,12 @@
       <formula>NOT(ISERROR(SEARCH("类",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C40 C44:C205 C208:C353 C360:C464 C469:C482 C486:C488 C494 C499:C1048576">
+  <conditionalFormatting sqref="C2:C40 C44:C205 C208:C354 C361:C465 C470:C483 C487:C489 C495 C500:C1048576">
     <cfRule type="expression" dxfId="0" priority="22">
       <formula>AND($A2="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D40 D44:D205 D208:D353 D360:D482 D486:D488 D494 D499:D1048576">
+  <conditionalFormatting sqref="D2:D40 D44:D205 D208:D354 D361:D483 D487:D489 D495 D500:D1048576">
     <cfRule type="expression" dxfId="1" priority="18">
       <formula>AND($A2="类")</formula>
     </cfRule>

--- a/model.xlsx
+++ b/model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="777">
   <si>
     <t>实体登记表</t>
   </si>
@@ -1550,6 +1550,12 @@
     <t>订单内产品件数</t>
   </si>
   <si>
+    <t>commentCount=0</t>
+  </si>
+  <si>
+    <t>点评数量</t>
+  </si>
+  <si>
     <t>discountMoney</t>
   </si>
   <si>
@@ -1610,7 +1616,7 @@
     <t>订单状态</t>
   </si>
   <si>
-    <t>0-未付款；1-已付款，未发货；2-已发货；3-已完成</t>
+    <t>0-未付款；1-已付款，未发货；2-已发货；3-未点评；4-已完成</t>
   </si>
   <si>
     <t>hasAfterSale="0"</t>
@@ -1676,6 +1682,39 @@
     <t>备注信息</t>
   </si>
   <si>
+    <t>OrdersComment</t>
+  </si>
+  <si>
+    <t>订单点评</t>
+  </si>
+  <si>
+    <t>/admin/ordersComment</t>
+  </si>
+  <si>
+    <t>RLU</t>
+  </si>
+  <si>
+    <t>ordersId</t>
+  </si>
+  <si>
+    <t>customNickname</t>
+  </si>
+  <si>
+    <t>点评内容</t>
+  </si>
+  <si>
+    <t>reply</t>
+  </si>
+  <si>
+    <t>显示状态，0-不显示；1-显示</t>
+  </si>
+  <si>
+    <t>replyFlag="0"</t>
+  </si>
+  <si>
+    <t>点评标记，0-未回复；1-已回复</t>
+  </si>
+  <si>
     <t>UnifiedOrder</t>
   </si>
   <si>
@@ -1691,9 +1730,6 @@
     <t>0-未支付；1-支付成功；2-支付失败</t>
   </si>
   <si>
-    <t>ordersId</t>
-  </si>
-  <si>
     <t>订单ID</t>
   </si>
   <si>
@@ -1838,9 +1874,6 @@
     <t>对应用户ID</t>
   </si>
   <si>
-    <t>customNickname</t>
-  </si>
-  <si>
     <t>对应用户昵称</t>
   </si>
   <si>
@@ -2117,9 +2150,6 @@
     <t>/admin/imageWall</t>
   </si>
   <si>
-    <t>RLU</t>
-  </si>
-  <si>
     <t>relationFlag="0"</t>
   </si>
   <si>
@@ -2151,9 +2181,6 @@
   </si>
   <si>
     <t>文件地址</t>
-  </si>
-  <si>
-    <t>commentCount=0</t>
   </si>
   <si>
     <t>goodCount=0</t>
@@ -2329,10 +2356,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2359,22 +2386,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2388,83 +2407,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2489,7 +2437,86 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2504,37 +2531,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2546,13 +2561,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2576,79 +2591,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2666,7 +2633,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2678,13 +2645,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2713,13 +2740,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2742,17 +2773,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2772,41 +2823,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2818,10 +2845,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2830,133 +2857,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3343,10 +3370,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N539"/>
+  <dimension ref="A1:N557"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A309" workbookViewId="0">
-      <selection activeCell="D334" sqref="D334"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="E325" sqref="E325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8302,13 +8329,13 @@
         <v>510</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:4">
       <c r="A314" s="1" t="s">
         <v>18</v>
       </c>
@@ -8316,14 +8343,11 @@
         <v>512</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="E314" s="3" t="s">
-        <v>463</v>
-      </c>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="1" t="s">
@@ -8333,26 +8357,29 @@
         <v>514</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>515</v>
       </c>
       <c r="E315" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B316" s="2" t="s">
         <v>516</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4">
-      <c r="A316" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D316" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E316" s="3" t="s">
         <v>518</v>
       </c>
     </row>
@@ -8370,21 +8397,18 @@
         <v>520</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:4">
       <c r="A318" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>113</v>
+        <v>521</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="E318" s="3" t="s">
-        <v>115</v>
+        <v>522</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8392,16 +8416,16 @@
         <v>18</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8409,31 +8433,34 @@
         <v>18</v>
       </c>
       <c r="B320" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B321" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C320" s="2" t="s">
+      <c r="C321" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D320" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="E320" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4">
-      <c r="A321" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D321" s="3" t="s">
         <v>524</v>
       </c>
+      <c r="E321" s="3" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="1" t="s">
@@ -8457,57 +8484,57 @@
         <v>527</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D323" s="3" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="324" ht="28.8" spans="1:5">
+    <row r="324" spans="1:4">
       <c r="A324" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B324" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="325" ht="28.8" spans="1:5">
+      <c r="A325" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B325" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C324" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D324" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="E324" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
-      <c r="A325" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B325" s="2" t="s">
+      <c r="C325" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D325" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="C325" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D325" s="3" t="s">
+      <c r="E325" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="E325" s="3" t="s">
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B326" s="2" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="326" spans="1:4">
-      <c r="A326" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B326" s="2" t="s">
+      <c r="C326" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D326" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="C326" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D326" s="3" t="s">
+      <c r="E326" s="3" t="s">
         <v>535</v>
       </c>
     </row>
@@ -8530,13 +8557,13 @@
         <v>18</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>345</v>
+        <v>538</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>346</v>
+        <v>539</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -8544,16 +8571,16 @@
         <v>18</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>538</v>
+        <v>345</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
       <c r="A330" s="1" t="s">
         <v>18</v>
       </c>
@@ -8561,47 +8588,47 @@
         <v>540</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="E330" s="3" t="s">
-        <v>542</v>
-      </c>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B331" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D331" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="C331" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D331" s="3" t="s">
+      <c r="E331" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="E331" s="3" t="s">
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B332" s="2" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="332" spans="1:4">
-      <c r="A332" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B332" s="2" t="s">
+      <c r="C332" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D332" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="C332" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D332" s="3" t="s">
+      <c r="E332" s="3" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:4">
       <c r="A333" s="1" t="s">
         <v>18</v>
       </c>
@@ -8609,55 +8636,67 @@
         <v>548</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D333" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="E333" s="3" t="s">
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B334" s="2" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="334" spans="1:4">
-      <c r="A334" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="C334" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D334" s="3" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="335" spans="1:5">
+      <c r="E334" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
       <c r="A335" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>257</v>
+        <v>142</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>552</v>
+        <v>25</v>
       </c>
       <c r="D335" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="E335" s="3" t="s">
+    </row>
+    <row r="336" spans="1:8">
+      <c r="A336" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="E336" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="336" spans="1:3">
-      <c r="A336" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>20</v>
+      <c r="F336" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G336" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="H336" s="2" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="337" spans="1:3">
@@ -8665,7 +8704,7 @@
         <v>18</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>96</v>
+        <v>558</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>29</v>
@@ -8676,7 +8715,7 @@
         <v>18</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>20</v>
@@ -8687,55 +8726,43 @@
         <v>18</v>
       </c>
       <c r="B339" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B342" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C339" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4">
-      <c r="A340" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B340" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="C340" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D340" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
-      <c r="A341" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D341" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E341" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4">
-      <c r="A342" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="C342" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D342" s="3" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -8743,47 +8770,35 @@
         <v>18</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>557</v>
+        <v>24</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="344" spans="1:5">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
       <c r="A344" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>559</v>
+        <v>113</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D344" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="E344" s="3" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
+    </row>
+    <row r="345" spans="1:3">
       <c r="A345" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>562</v>
+        <v>110</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D345" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="E345" s="3" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -8791,21 +8806,24 @@
         <v>18</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
       <c r="A347" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>110</v>
+        <v>561</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -8813,50 +8831,32 @@
         <v>18</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>107</v>
+        <v>184</v>
       </c>
       <c r="C348" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C350" s="2" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4">
-      <c r="A349" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D349" s="3" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8">
-      <c r="A350" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B350" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C350" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="D350" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="E350" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F350" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G350" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="H350" s="2" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -8864,49 +8864,55 @@
         <v>18</v>
       </c>
       <c r="B351" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B354" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C351" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D351" s="3" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
-      <c r="A352" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C352" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3">
-      <c r="A353" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4">
-      <c r="A354" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C354" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D354" s="3" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="355" spans="1:3">
@@ -8914,7 +8920,7 @@
         <v>18</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>557</v>
+        <v>96</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>29</v>
@@ -8925,55 +8931,52 @@
         <v>18</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>543</v>
+        <v>106</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:3">
       <c r="A357" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D357" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
+    </row>
+    <row r="358" spans="1:4">
       <c r="A358" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>531</v>
+        <v>567</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D358" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="E358" s="3" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
       <c r="A359" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>343</v>
+        <v>36</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>344</v>
+        <v>294</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -8981,13 +8984,13 @@
         <v>18</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>534</v>
+        <v>194</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -8995,13 +8998,13 @@
         <v>18</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>536</v>
+        <v>558</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D361" s="3" t="s">
-        <v>537</v>
+        <v>570</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9012,7 +9015,7 @@
         <v>571</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D362" s="3" t="s">
         <v>572</v>
@@ -9035,49 +9038,40 @@
         <v>575</v>
       </c>
       <c r="E363" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
       <c r="A364" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D364" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
       <c r="A365" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D365" s="3" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4">
+    </row>
+    <row r="366" spans="1:3">
       <c r="A366" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D366" s="3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -9085,27 +9079,39 @@
         <v>18</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>401</v>
+        <v>516</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
       <c r="A368" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>403</v>
+        <v>11</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>20</v>
+        <v>578</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>404</v>
+        <v>579</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G368" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="H368" s="2" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -9113,132 +9119,102 @@
         <v>18</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
       <c r="A370" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D370" s="3" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
       <c r="A371" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>405</v>
+        <v>96</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D371" s="3" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
+    </row>
+    <row r="372" spans="1:4">
       <c r="A372" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>580</v>
+        <v>105</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D372" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="E372" s="3" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:3">
       <c r="A373" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>58</v>
+        <v>558</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D373" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="E373" s="3" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
       <c r="A374" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>61</v>
+        <v>545</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D374" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E374" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8">
+    </row>
+    <row r="375" spans="1:4">
       <c r="A375" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>585</v>
+        <v>20</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="E375" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F375" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G375" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="H375" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
       <c r="A376" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>588</v>
+        <v>533</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>589</v>
+        <v>534</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -9246,13 +9222,13 @@
         <v>18</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>460</v>
+        <v>343</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>461</v>
+        <v>344</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -9260,49 +9236,61 @@
         <v>18</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>462</v>
+        <v>536</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D378" s="3" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
       <c r="A379" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>104</v>
+        <v>538</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="380" spans="1:3">
+      <c r="D379" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
       <c r="A380" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>105</v>
+        <v>583</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4">
+        <v>29</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
       <c r="A381" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>557</v>
+        <v>586</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>558</v>
+        <v>587</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -9310,118 +9298,97 @@
         <v>18</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
       <c r="A383" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>543</v>
+        <v>102</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="384" spans="1:5">
+      <c r="D383" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
       <c r="A384" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>590</v>
+        <v>100</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="E384" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
       <c r="A385" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>592</v>
+        <v>401</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="E385" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
       <c r="A386" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>594</v>
+        <v>403</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="E386" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
       <c r="A387" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>510</v>
+        <v>146</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="E387" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="388" spans="1:8">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
       <c r="A388" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>597</v>
+        <v>65</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="E388" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F388" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="G388" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="H388" s="2" t="s">
-        <v>419</v>
+        <v>590</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -9429,57 +9396,90 @@
         <v>18</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>343</v>
+        <v>405</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D389" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
       <c r="A390" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>534</v>
+        <v>592</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3">
+        <v>65</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
       <c r="A391" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>536</v>
+        <v>58</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="392" spans="1:3">
+      <c r="D391" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
       <c r="A392" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>345</v>
+        <v>61</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="393" spans="1:3">
+      <c r="D392" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E392" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8">
       <c r="A393" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>538</v>
+        <v>11</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>20</v>
+        <v>597</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F393" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G393" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="H393" s="2" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -9487,13 +9487,13 @@
         <v>18</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>338</v>
+        <v>601</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -9501,13 +9501,13 @@
         <v>18</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>574</v>
+        <v>460</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>340</v>
+        <v>461</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -9515,41 +9515,35 @@
         <v>18</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>401</v>
+        <v>462</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D396" s="3" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
       <c r="A397" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>403</v>
+        <v>104</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D397" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4">
+    </row>
+    <row r="398" spans="1:3">
       <c r="A398" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>602</v>
+        <v>105</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D398" s="3" t="s">
-        <v>603</v>
+        <v>20</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -9557,13 +9551,13 @@
         <v>18</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>98</v>
+        <v>558</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D399" s="3" t="s">
-        <v>99</v>
+        <v>570</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -9571,91 +9565,118 @@
         <v>18</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="401" ht="43.2" spans="1:5">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
       <c r="A401" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>123</v>
+        <v>545</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D401" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E401" s="3" t="s">
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E402" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B403" s="2" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="402" spans="1:3">
-      <c r="A402" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B402" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C402" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3">
-      <c r="A403" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B403" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C403" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="404" spans="1:3">
+      <c r="D403" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E403" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
       <c r="A404" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>107</v>
+        <v>606</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="405" spans="1:4">
+      <c r="D404" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="E404" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
       <c r="A405" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>96</v>
+        <v>512</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4">
+        <v>607</v>
+      </c>
+      <c r="E405" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8">
       <c r="A406" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>606</v>
+        <v>11</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>20</v>
+        <v>609</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>607</v>
+        <v>610</v>
+      </c>
+      <c r="E406" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F406" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="G406" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="H406" s="2" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -9663,95 +9684,71 @@
         <v>18</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>608</v>
+        <v>343</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
       <c r="A408" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>610</v>
+        <v>536</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D408" s="3" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4">
+    </row>
+    <row r="409" spans="1:3">
       <c r="A409" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>194</v>
+        <v>538</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D409" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4">
+    </row>
+    <row r="410" spans="1:3">
       <c r="A410" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>557</v>
+        <v>345</v>
       </c>
       <c r="C410" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="C412" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D410" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4">
-      <c r="A411" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B411" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C411" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D411" s="3" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8">
-      <c r="A412" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B412" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C412" s="2" t="s">
-        <v>613</v>
-      </c>
       <c r="D412" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="E412" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F412" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G412" s="3" t="s">
-        <v>615</v>
-      </c>
-      <c r="H412" s="2" t="s">
-        <v>419</v>
+        <v>338</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -9759,13 +9756,13 @@
         <v>18</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>557</v>
+        <v>586</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>558</v>
+        <v>340</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -9773,35 +9770,41 @@
         <v>18</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>194</v>
+        <v>401</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
       <c r="A415" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>104</v>
+        <v>403</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="416" spans="1:3">
+      <c r="D415" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
       <c r="A416" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>105</v>
+        <v>614</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -9809,70 +9812,55 @@
         <v>18</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D417" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="419" ht="43.2" spans="1:5">
+      <c r="A419" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E419" s="3" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
-      <c r="A418" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B418" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="C418" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D418" s="3" t="s">
-        <v>618</v>
-      </c>
-      <c r="E418" s="3" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4">
-      <c r="A419" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B419" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="C419" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D419" s="3" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:3">
       <c r="A420" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D420" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="E420" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F420" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G420" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="H420" s="2" t="s">
-        <v>419</v>
+        <v>20</v>
       </c>
     </row>
     <row r="421" spans="1:3">
@@ -9880,7 +9868,7 @@
         <v>18</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>20</v>
@@ -9891,10 +9879,10 @@
         <v>18</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -9902,13 +9890,13 @@
         <v>18</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>293</v>
+        <v>617</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -9916,30 +9904,27 @@
         <v>18</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>55</v>
+        <v>559</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
       <c r="A425" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>123</v>
+        <v>619</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="E425" s="3" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -9947,13 +9932,13 @@
         <v>18</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -9961,13 +9946,13 @@
         <v>18</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>630</v>
+        <v>194</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>631</v>
+        <v>505</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -9975,13 +9960,13 @@
         <v>18</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>632</v>
+        <v>558</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="D428" s="3" t="s">
-        <v>633</v>
+        <v>570</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -9989,27 +9974,39 @@
         <v>18</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>634</v>
+        <v>545</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D429" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8">
       <c r="A430" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>636</v>
+        <v>11</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>20</v>
+        <v>624</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>637</v>
+        <v>625</v>
+      </c>
+      <c r="E430" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F430" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G430" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="H430" s="2" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -10017,13 +10014,13 @@
         <v>18</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>638</v>
+        <v>558</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>639</v>
+        <v>570</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -10031,44 +10028,35 @@
         <v>18</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>296</v>
+        <v>194</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
       <c r="A433" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>312</v>
+        <v>104</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D433" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E433" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4">
+    </row>
+    <row r="434" spans="1:3">
       <c r="A434" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D434" s="3" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -10076,69 +10064,81 @@
         <v>18</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>343</v>
+        <v>24</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>344</v>
+        <v>627</v>
       </c>
     </row>
     <row r="436" spans="1:5">
       <c r="A436" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>257</v>
+        <v>628</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>641</v>
+        <v>20</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="E436" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
       <c r="A437" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>96</v>
+        <v>631</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="438" spans="1:4">
+      <c r="D437" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
       <c r="A438" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>643</v>
+        <v>11</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>20</v>
+        <v>633</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4">
+        <v>634</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F438" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G438" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="H438" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
       <c r="A439" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>645</v>
+        <v>104</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D439" s="3" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="440" spans="1:3">
@@ -10146,121 +10146,97 @@
         <v>18</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:4">
       <c r="A441" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>647</v>
+        <v>106</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>648</v>
+        <v>20</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="E441" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F441" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="G441" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="H441" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="442" spans="1:7">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
       <c r="A442" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>652</v>
+        <v>55</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D442" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="G442" s="3" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="443" spans="1:7">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5">
       <c r="A443" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>655</v>
+        <v>123</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>653</v>
-      </c>
-      <c r="G443" s="3" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="444" spans="1:7">
+        <v>637</v>
+      </c>
+      <c r="E443" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
       <c r="A444" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>134</v>
+        <v>639</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D444" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="G444" s="3" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
       <c r="A445" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G445" s="3" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="446" spans="1:8">
+      <c r="D445" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
       <c r="A446" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>11</v>
+        <v>643</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>661</v>
+        <v>108</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="E446" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H446" s="2" t="s">
-        <v>17</v>
+        <v>644</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -10268,13 +10244,13 @@
         <v>18</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -10282,13 +10258,13 @@
         <v>18</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>665</v>
+        <v>647</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -10296,13 +10272,13 @@
         <v>18</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="D449" s="3" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -10310,27 +10286,30 @@
         <v>18</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>669</v>
+        <v>296</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D450" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="451" ht="28.8" spans="1:4">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5">
       <c r="A451" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>122</v>
+        <v>312</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>671</v>
+        <v>313</v>
+      </c>
+      <c r="E451" s="3" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -10338,13 +10317,13 @@
         <v>18</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>672</v>
+        <v>119</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>673</v>
+        <v>313</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -10352,41 +10331,41 @@
         <v>18</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>107</v>
+        <v>343</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5">
       <c r="A454" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>675</v>
+        <v>257</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>20</v>
+        <v>652</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4">
+        <v>653</v>
+      </c>
+      <c r="E454" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
       <c r="A455" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>677</v>
+        <v>96</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D455" s="3" t="s">
-        <v>678</v>
+        <v>29</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -10394,149 +10373,149 @@
         <v>18</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>679</v>
+        <v>654</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D456" s="3" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="457" spans="1:8">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
       <c r="A457" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8">
+      <c r="A459" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B457" s="2" t="s">
+      <c r="B459" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="E459" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F459" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="G459" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="H459" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7">
+      <c r="A460" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="G460" s="3" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7">
+      <c r="A461" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="G461" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7">
+      <c r="A462" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D462" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="G462" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7">
+      <c r="A463" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G463" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8">
+      <c r="A464" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B464" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C457" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="D457" s="3" t="s">
-        <v>682</v>
-      </c>
-      <c r="E457" s="3" t="s">
+      <c r="C464" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E464" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F457" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G457" s="3" t="s">
-        <v>683</v>
-      </c>
-      <c r="H457" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5">
-      <c r="A458" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B458" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C458" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D458" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="E458" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5">
-      <c r="A459" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B459" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C459" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D459" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="E459" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="460" spans="1:5">
-      <c r="A460" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B460" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C460" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D460" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="E460" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4">
-      <c r="A461" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B461" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C461" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D461" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="462" ht="28.8" spans="1:5">
-      <c r="A462" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B462" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="C462" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D462" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="E462" s="3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4">
-      <c r="A463" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B463" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="C463" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D463" s="3" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4">
-      <c r="A464" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B464" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C464" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D464" s="3" t="s">
-        <v>691</v>
+      <c r="H464" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -10544,13 +10523,13 @@
         <v>18</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>106</v>
+        <v>674</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -10558,93 +10537,72 @@
         <v>18</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>134</v>
+        <v>676</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D466" s="3" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
       <c r="A467" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D467" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="E467" s="3" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="468" spans="1:8">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
       <c r="A468" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>257</v>
+        <v>680</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>696</v>
+        <v>108</v>
       </c>
       <c r="D468" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="E468" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F468" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G468" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="H468" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="469" ht="28.8" spans="1:4">
       <c r="A469" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D469" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D470" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="E469" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5">
-      <c r="A470" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B470" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C470" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D470" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="E470" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5">
+    </row>
+    <row r="471" spans="1:4">
       <c r="A471" s="1" t="s">
         <v>18</v>
       </c>
@@ -10657,25 +10615,19 @@
       <c r="D471" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="E471" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5">
+    </row>
+    <row r="472" spans="1:4">
       <c r="A472" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="E472" s="3" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -10683,13 +10635,13 @@
         <v>18</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -10697,60 +10649,90 @@
         <v>18</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8">
       <c r="A475" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>29</v>
+        <v>692</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3">
+        <v>693</v>
+      </c>
+      <c r="E475" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F475" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G475" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="H475" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
       <c r="A476" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>608</v>
+        <v>113</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="477" spans="1:3">
+      <c r="D476" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="E476" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5">
       <c r="A477" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>606</v>
+        <v>110</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="478" spans="1:3">
+      <c r="D477" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="E477" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5">
       <c r="A478" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>610</v>
+        <v>107</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>20</v>
+        <v>108</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="E478" s="3" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -10758,30 +10740,30 @@
         <v>18</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>55</v>
+        <v>194</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="480" ht="28.8" spans="1:5">
       <c r="A480" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="E480" s="3" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -10789,13 +10771,13 @@
         <v>18</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>134</v>
+        <v>700</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -10803,13 +10785,13 @@
         <v>18</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>711</v>
+        <v>104</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>32</v>
+        <v>702</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -10817,13 +10799,13 @@
         <v>18</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>712</v>
+        <v>106</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>44</v>
+        <v>703</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -10831,13 +10813,13 @@
         <v>18</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -10845,16 +10827,16 @@
         <v>18</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>36</v>
+        <v>683</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>37</v>
+        <v>705</v>
       </c>
       <c r="E485" s="3" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -10865,10 +10847,10 @@
         <v>257</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
       <c r="E486" s="3" t="s">
         <v>14</v>
@@ -10877,10 +10859,10 @@
         <v>289</v>
       </c>
       <c r="G486" s="3" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="H486" s="2" t="s">
-        <v>699</v>
+        <v>557</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -10894,7 +10876,7 @@
         <v>20</v>
       </c>
       <c r="D487" s="3" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="E487" s="3" t="s">
         <v>115</v>
@@ -10911,7 +10893,7 @@
         <v>20</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="E488" s="3" t="s">
         <v>112</v>
@@ -10928,41 +10910,41 @@
         <v>108</v>
       </c>
       <c r="D489" s="3" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="E489" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:5">
       <c r="A490" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>24</v>
+        <v>710</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5">
+        <v>711</v>
+      </c>
+      <c r="E490" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
       <c r="A491" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>36</v>
+        <v>713</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E491" s="3" t="s">
-        <v>169</v>
+        <v>714</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -10970,13 +10952,13 @@
         <v>18</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>44</v>
+        <v>716</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -10998,7 +10980,7 @@
         <v>18</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>20</v>
@@ -11009,7 +10991,7 @@
         <v>18</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>606</v>
+        <v>559</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>20</v>
@@ -11020,7 +11002,7 @@
         <v>18</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>610</v>
+        <v>621</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>20</v>
@@ -11042,19 +11024,19 @@
     </row>
     <row r="498" spans="1:5">
       <c r="A498" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>257</v>
+        <v>717</v>
       </c>
       <c r="C498" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D498" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="D498" s="3" t="s">
+      <c r="E498" s="3" t="s">
         <v>719</v>
-      </c>
-      <c r="E498" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -11062,46 +11044,55 @@
         <v>18</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="C499" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D499" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C500" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D499" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="500" spans="1:3">
-      <c r="A500" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B500" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="C500" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="501" spans="1:3">
+      <c r="D500" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
       <c r="A501" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>606</v>
+        <v>721</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="502" spans="1:3">
+        <v>29</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
       <c r="A502" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>610</v>
+        <v>19</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -11109,16 +11100,16 @@
         <v>18</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>667</v>
+        <v>36</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D503" s="3" t="s">
-        <v>720</v>
+        <v>37</v>
       </c>
       <c r="E503" s="3" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -11129,36 +11120,39 @@
         <v>257</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D504" s="3" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E504" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F504" s="2" t="s">
-        <v>205</v>
+        <v>289</v>
       </c>
       <c r="G504" s="3" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="H504" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5">
       <c r="A505" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>725</v>
+        <v>113</v>
       </c>
       <c r="C505" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D505" s="3" t="s">
-        <v>726</v>
+        <v>695</v>
+      </c>
+      <c r="E505" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -11166,16 +11160,16 @@
         <v>18</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D506" s="3" t="s">
-        <v>157</v>
+        <v>696</v>
       </c>
       <c r="E506" s="3" t="s">
-        <v>727</v>
+        <v>112</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -11183,19 +11177,19 @@
         <v>18</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="D507" s="3" t="s">
-        <v>156</v>
+        <v>696</v>
       </c>
       <c r="E507" s="3" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
       <c r="A508" s="1" t="s">
         <v>18</v>
       </c>
@@ -11206,56 +11200,41 @@
         <v>25</v>
       </c>
       <c r="D508" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="E508" s="3" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="509" ht="28.8" spans="1:5">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5">
       <c r="A509" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D509" s="3" t="s">
-        <v>731</v>
+        <v>37</v>
       </c>
       <c r="E509" s="3" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="510" spans="1:8">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
       <c r="A510" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>257</v>
+        <v>721</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>733</v>
+        <v>29</v>
       </c>
       <c r="D510" s="3" t="s">
-        <v>734</v>
-      </c>
-      <c r="E510" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F510" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G510" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="H510" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="511" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
       <c r="A511" s="1" t="s">
         <v>18</v>
       </c>
@@ -11265,13 +11244,16 @@
       <c r="C511" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="D511" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="C512" s="2" t="s">
         <v>20</v>
@@ -11282,7 +11264,7 @@
         <v>18</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>608</v>
+        <v>559</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>20</v>
@@ -11293,355 +11275,376 @@
         <v>18</v>
       </c>
       <c r="B514" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="E516" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5">
+      <c r="A521" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D521" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="E521" s="3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8">
+      <c r="A522" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="E522" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F522" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G522" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="H522" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D523" s="3" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="A524" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E524" s="3" t="s">
         <v>736</v>
       </c>
-      <c r="C514" s="2" t="s">
+    </row>
+    <row r="525" spans="1:5">
+      <c r="A525" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C525" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E525" s="3" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5">
+      <c r="A526" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="E526" s="3" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="527" ht="28.8" spans="1:5">
+      <c r="A527" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="E527" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8">
+      <c r="A528" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="E528" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F528" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G528" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="H528" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C529" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="515" spans="1:3">
-      <c r="A515" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B515" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="C515" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="516" spans="1:3">
-      <c r="A516" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B516" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="C516" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="517" spans="1:5">
-      <c r="A517" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B517" s="2" t="s">
+    <row r="530" spans="1:3">
+      <c r="A530" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5">
+      <c r="A535" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B535" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C517" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D517" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="E517" s="3" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="518" spans="1:8">
-      <c r="A518" s="1" t="s">
+      <c r="C535" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="E535" s="3" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8">
+      <c r="A536" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B518" s="2" t="s">
+      <c r="B536" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C518" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="D518" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="E518" s="3" t="s">
+      <c r="C536" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="E536" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F518" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="G518" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="H518" s="2" t="s">
+      <c r="F536" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="G536" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="H536" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
-      <c r="A519" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B519" s="2" t="s">
+    <row r="537" spans="1:4">
+      <c r="A537" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B537" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C519" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D519" s="3" t="s">
+      <c r="C537" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D537" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
-      <c r="A520" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B520" s="2" t="s">
+    <row r="538" spans="1:4">
+      <c r="A538" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B538" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C520" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D520" s="3" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="521" spans="1:4">
-      <c r="A521" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B521" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="C521" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D521" s="3" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4">
-      <c r="A522" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B522" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C522" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D522" s="3" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="523" spans="1:5">
-      <c r="A523" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B523" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C523" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="D523" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="E523" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3">
-      <c r="A524" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B524" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C524" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3">
-      <c r="A525" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B525" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C525" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3">
-      <c r="A526" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B526" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C526" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3">
-      <c r="A527" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B527" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C527" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="528" spans="1:3">
-      <c r="A528" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B528" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C528" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="529" spans="1:4">
-      <c r="A529" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B529" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="C529" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D529" s="3" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="530" spans="1:4">
-      <c r="A530" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B530" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="C530" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D530" s="3" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="531" spans="1:4">
-      <c r="A531" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B531" s="2" t="s">
+      <c r="C538" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D538" s="3" t="s">
         <v>754</v>
-      </c>
-      <c r="C531" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D531" s="3" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="532" spans="1:4">
-      <c r="A532" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B532" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="C532" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D532" s="3" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="533" spans="1:4">
-      <c r="A533" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B533" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="C533" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D533" s="3" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="534" ht="43.2" spans="1:4">
-      <c r="A534" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B534" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C534" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D534" s="3" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="535" spans="1:4">
-      <c r="A535" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B535" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C535" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D535" s="3" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="536" spans="1:5">
-      <c r="A536" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B536" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C536" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D536" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="E536" s="3" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="537" spans="1:8">
-      <c r="A537" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B537" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C537" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="D537" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="E537" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F537" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="G537" s="3" t="s">
-        <v>766</v>
-      </c>
-      <c r="H537" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="538" spans="1:3">
-      <c r="A538" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B538" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C538" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -11649,13 +11652,265 @@
         <v>18</v>
       </c>
       <c r="B539" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5">
+      <c r="A541" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="E541" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4">
+      <c r="A547" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4">
+      <c r="A548" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D548" s="3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4">
+      <c r="A549" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4">
+      <c r="A550" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D550" s="3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4">
+      <c r="A551" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="552" ht="43.2" spans="1:4">
+      <c r="A552" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D552" s="3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4">
+      <c r="A553" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5">
+      <c r="A554" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="E554" s="3" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8">
+      <c r="A555" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="D555" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="E555" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F555" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="G555" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="H555" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4">
+      <c r="A557" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B557" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C539" s="2" t="s">
+      <c r="C557" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D539" s="3" t="s">
-        <v>767</v>
+      <c r="D557" s="3" t="s">
+        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -11681,20 +11936,20 @@
       <formula>NOT(ISERROR(SEARCH("类",A43)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A358:A363">
+  <conditionalFormatting sqref="A376:A381">
     <cfRule type="containsText" dxfId="2" priority="16" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A358)))</formula>
+      <formula>NOT(ISERROR(SEARCH("字段",A376)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="17" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A358)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A376)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A499:A502">
+  <conditionalFormatting sqref="A517:A520">
     <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A499)))</formula>
+      <formula>NOT(ISERROR(SEARCH("字段",A517)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="4" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A499)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A517)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C45">
@@ -11702,29 +11957,29 @@
       <formula>AND($A43="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C358:C363">
+  <conditionalFormatting sqref="C376:C381">
     <cfRule type="expression" dxfId="0" priority="15">
-      <formula>AND($A358="类")</formula>
+      <formula>AND($A376="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C469:C472">
+  <conditionalFormatting sqref="C487:C490">
     <cfRule type="expression" dxfId="0" priority="9">
-      <formula>AND($A469="类")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C487:C489">
-    <cfRule type="expression" dxfId="0" priority="7">
       <formula>AND($A487="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C493:C497">
-    <cfRule type="expression" dxfId="0" priority="6">
-      <formula>AND($A493="类")</formula>
+  <conditionalFormatting sqref="C505:C507">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>AND($A505="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C499:C502">
+  <conditionalFormatting sqref="C511:C515">
+    <cfRule type="expression" dxfId="0" priority="6">
+      <formula>AND($A511="类")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C517:C520">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>AND($A499="类")</formula>
+      <formula>AND($A517="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D45">
@@ -11732,27 +11987,27 @@
       <formula>AND($A43="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D358:D363">
+  <conditionalFormatting sqref="D376:D381">
     <cfRule type="expression" dxfId="1" priority="14">
-      <formula>AND($A358="类")</formula>
+      <formula>AND($A376="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D487:D489">
+  <conditionalFormatting sqref="D505:D507">
     <cfRule type="expression" dxfId="1" priority="8">
-      <formula>AND($A487="类")</formula>
+      <formula>AND($A505="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D493:D497">
+  <conditionalFormatting sqref="D511:D515">
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>AND($A493="类")</formula>
+      <formula>AND($A511="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D499:D502">
+  <conditionalFormatting sqref="D517:D520">
     <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND($A499="类")</formula>
+      <formula>AND($A517="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A42 A46:A357 A503:A1048576 A364:A498">
+  <conditionalFormatting sqref="A1:A42 A46:A375 A521:A1048576 A382:A516">
     <cfRule type="containsText" dxfId="2" priority="27" operator="between" text="字段">
       <formula>NOT(ISERROR(SEARCH("字段",A1)))</formula>
     </cfRule>
@@ -11760,12 +12015,12 @@
       <formula>NOT(ISERROR(SEARCH("类",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C42 C46:C207 C210:C357 C364:C468 C473:C486 C490:C492 C498 C503:C1048576">
+  <conditionalFormatting sqref="C2:C42 C46:C207 C210:C375 C382:C486 C491:C504 C508:C510 C516 C521:C1048576">
     <cfRule type="expression" dxfId="0" priority="22">
       <formula>AND($A2="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D42 D46:D207 D210:D357 D364:D486 D490:D492 D498 D503:D1048576">
+  <conditionalFormatting sqref="D2:D42 D46:D207 D210:D375 D382:D504 D508:D510 D516 D521:D1048576">
     <cfRule type="expression" dxfId="1" priority="18">
       <formula>AND($A2="类")</formula>
     </cfRule>

--- a/model.xlsx
+++ b/model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2459" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="818">
   <si>
     <t>实体登记表</t>
   </si>
@@ -2349,6 +2349,129 @@
   </si>
   <si>
     <t>联系方式等信息</t>
+  </si>
+  <si>
+    <t>business.wx</t>
+  </si>
+  <si>
+    <t>WxConfig</t>
+  </si>
+  <si>
+    <t>微信配置</t>
+  </si>
+  <si>
+    <t>微信管理</t>
+  </si>
+  <si>
+    <t>/admin/wxConfig</t>
+  </si>
+  <si>
+    <t>secret</t>
+  </si>
+  <si>
+    <t>aesKey</t>
+  </si>
+  <si>
+    <t>eventTemp</t>
+  </si>
+  <si>
+    <t>事件模板消息</t>
+  </si>
+  <si>
+    <t>默认模板消息</t>
+  </si>
+  <si>
+    <t>WxAccount</t>
+  </si>
+  <si>
+    <t>微信用户</t>
+  </si>
+  <si>
+    <t>/admin/wxAccount</t>
+  </si>
+  <si>
+    <t>用户类型</t>
+  </si>
+  <si>
+    <t>WxMini</t>
+  </si>
+  <si>
+    <t>微信小程序关联</t>
+  </si>
+  <si>
+    <t>/admin/wxMini</t>
+  </si>
+  <si>
+    <t>小程序用户ID</t>
+  </si>
+  <si>
+    <t>accountId</t>
+  </si>
+  <si>
+    <t>微信用户ID</t>
+  </si>
+  <si>
+    <t>wxOpenid</t>
+  </si>
+  <si>
+    <t>微信用户Openid</t>
+  </si>
+  <si>
+    <t>miniOpenid</t>
+  </si>
+  <si>
+    <t>小程序用户Openid</t>
+  </si>
+  <si>
+    <t>TemplateMessageRelation</t>
+  </si>
+  <si>
+    <t>微信模板消息</t>
+  </si>
+  <si>
+    <t>/admin/templateMessageRelation</t>
+  </si>
+  <si>
+    <t>templateName</t>
+  </si>
+  <si>
+    <t>模板名称</t>
+  </si>
+  <si>
+    <t>与本系统中名称一一对应</t>
+  </si>
+  <si>
+    <t>templatePinyin</t>
+  </si>
+  <si>
+    <t>名称拼音</t>
+  </si>
+  <si>
+    <t>templateId</t>
+  </si>
+  <si>
+    <t>与微信平台模板消息一一对应</t>
+  </si>
+  <si>
+    <t>keyValues</t>
+  </si>
+  <si>
+    <t>键值对</t>
+  </si>
+  <si>
+    <t>如：反馈日期=keyword1-回复内容=keyword2-备注=remark</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>微信反馈</t>
+  </si>
+  <si>
+    <t>/admin/feedback</t>
+  </si>
+  <si>
+    <t>replyDay</t>
   </si>
 </sst>
 </file>
@@ -2356,10 +2479,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2379,13 +2502,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2393,9 +2509,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2406,15 +2545,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2435,9 +2616,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2445,39 +2625,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2490,33 +2638,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2531,7 +2654,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2543,7 +2738,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2555,7 +2768,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2567,79 +2780,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2657,7 +2798,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2681,37 +2822,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2741,16 +2864,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2773,22 +2896,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2808,32 +2926,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2845,10 +2968,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2857,133 +2980,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3370,10 +3493,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N557"/>
+  <dimension ref="A1:N604"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="E325" sqref="E325"/>
+    <sheetView tabSelected="1" topLeftCell="A572" workbookViewId="0">
+      <selection activeCell="B581" sqref="B581:B582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -11913,115 +12036,781 @@
         <v>776</v>
       </c>
     </row>
+    <row r="558" spans="1:8">
+      <c r="A558" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="D558" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="E558" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F558" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="G558" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="H558" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C560" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C563" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5">
+      <c r="A564" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C564" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D564" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="E564" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="A565" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C565" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="D565" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="E565" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F565" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="G565" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="H565" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5">
+      <c r="A569" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C569" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D569" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="E569" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C570" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C571" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C572" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C573" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C574" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C575" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4">
+      <c r="A576" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="C576" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D576" s="3" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8">
+      <c r="A577" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C577" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D577" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="E577" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F577" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="G577" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="H577" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C578" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4">
+      <c r="A579" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C579" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D579" s="3" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4">
+      <c r="A580" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C580" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D580" s="3" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4">
+      <c r="A581" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C581" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D581" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="A582" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D582" s="3" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C583" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C584" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C585" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8">
+      <c r="A586" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C586" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="D586" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="E586" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F586" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="G586" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="H586" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5">
+      <c r="A587" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C587" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D587" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="E587" s="3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4">
+      <c r="A588" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D588" s="3" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5">
+      <c r="A589" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C589" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D589" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="E589" s="3" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="590" ht="28.8" spans="1:5">
+      <c r="A590" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C590" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D590" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="E590" s="3" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8">
+      <c r="A591" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C591" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D591" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="E591" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F591" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="G591" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="H591" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C592" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C594" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C595" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C597" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C599" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C600" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C601" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="A602" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="C602" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C603" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3">
+      <c r="A604" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C604" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="K2:N8"/>
   </mergeCells>
   <conditionalFormatting sqref="C208">
-    <cfRule type="expression" dxfId="0" priority="29">
+    <cfRule type="expression" dxfId="0" priority="35">
       <formula>AND($A209="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D208">
-    <cfRule type="expression" dxfId="1" priority="30">
+    <cfRule type="expression" dxfId="1" priority="36">
       <formula>AND($A209="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:A45">
-    <cfRule type="containsText" dxfId="2" priority="12" operator="between" text="字段">
+    <cfRule type="containsText" dxfId="2" priority="18" operator="between" text="字段">
       <formula>NOT(ISERROR(SEARCH("字段",A43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="13" operator="between" text="类">
+    <cfRule type="containsText" dxfId="3" priority="19" operator="between" text="类">
       <formula>NOT(ISERROR(SEARCH("类",A43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A376:A381">
-    <cfRule type="containsText" dxfId="2" priority="16" operator="between" text="字段">
+    <cfRule type="containsText" dxfId="2" priority="22" operator="between" text="字段">
       <formula>NOT(ISERROR(SEARCH("字段",A376)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="17" operator="between" text="类">
+    <cfRule type="containsText" dxfId="3" priority="23" operator="between" text="类">
       <formula>NOT(ISERROR(SEARCH("类",A376)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A517:A520">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="字段">
+    <cfRule type="containsText" dxfId="2" priority="9" operator="between" text="字段">
       <formula>NOT(ISERROR(SEARCH("字段",A517)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="between" text="类">
+    <cfRule type="containsText" dxfId="3" priority="10" operator="between" text="类">
       <formula>NOT(ISERROR(SEARCH("类",A517)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A583:A585">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="between" text="字段">
+      <formula>NOT(ISERROR(SEARCH("字段",A583)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="between" text="类">
+      <formula>NOT(ISERROR(SEARCH("类",A583)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A592:A594">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="between" text="字段">
+      <formula>NOT(ISERROR(SEARCH("字段",A592)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="between" text="类">
+      <formula>NOT(ISERROR(SEARCH("类",A592)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C43:C45">
-    <cfRule type="expression" dxfId="0" priority="11">
+    <cfRule type="expression" dxfId="0" priority="17">
       <formula>AND($A43="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C376:C381">
-    <cfRule type="expression" dxfId="0" priority="15">
+    <cfRule type="expression" dxfId="0" priority="21">
       <formula>AND($A376="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C487:C490">
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="0" priority="15">
       <formula>AND($A487="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C505:C507">
-    <cfRule type="expression" dxfId="0" priority="7">
+    <cfRule type="expression" dxfId="0" priority="13">
       <formula>AND($A505="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C511:C515">
-    <cfRule type="expression" dxfId="0" priority="6">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>AND($A511="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C517:C520">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>AND($A517="类")</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C583:C585">
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>AND($A583="类")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C592:C594">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND($A592="类")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D43:D45">
-    <cfRule type="expression" dxfId="1" priority="10">
+    <cfRule type="expression" dxfId="1" priority="16">
       <formula>AND($A43="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D376:D381">
-    <cfRule type="expression" dxfId="1" priority="14">
+    <cfRule type="expression" dxfId="1" priority="20">
       <formula>AND($A376="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D505:D507">
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="1" priority="14">
       <formula>AND($A505="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D511:D515">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>AND($A511="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D517:D520">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>AND($A517="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A42 A46:A375 A521:A1048576 A382:A516">
-    <cfRule type="containsText" dxfId="2" priority="27" operator="between" text="字段">
+  <conditionalFormatting sqref="A1:A42 A46:A375 A521:A582 A382:A516 A595:A1048576 A586:A591">
+    <cfRule type="containsText" dxfId="2" priority="33" operator="between" text="字段">
       <formula>NOT(ISERROR(SEARCH("字段",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="28" operator="between" text="类">
+    <cfRule type="containsText" dxfId="3" priority="34" operator="between" text="类">
       <formula>NOT(ISERROR(SEARCH("类",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C42 C46:C207 C210:C375 C382:C486 C491:C504 C508:C510 C516 C521:C1048576">
-    <cfRule type="expression" dxfId="0" priority="22">
+  <conditionalFormatting sqref="C2:C42 C46:C207 C210:C375 C382:C486 C491:C504 C508:C510 C516 C521:C582 C586:C591 C595:C1048576">
+    <cfRule type="expression" dxfId="0" priority="28">
       <formula>AND($A2="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D42 D46:D207 D210:D375 D382:D504 D508:D510 D516 D521:D1048576">
-    <cfRule type="expression" dxfId="1" priority="18">
+    <cfRule type="expression" dxfId="1" priority="24">
       <formula>AND($A2="类")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model.xlsx
+++ b/model.xlsx
@@ -2480,9 +2480,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2501,8 +2501,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2515,31 +2560,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2548,6 +2570,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2562,30 +2599,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -2593,9 +2606,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2609,23 +2622,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2633,13 +2640,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2654,49 +2654,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2708,13 +2678,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2732,24 +2702,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2762,13 +2714,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2780,19 +2786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2810,7 +2804,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2822,19 +2828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2864,15 +2864,56 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2897,42 +2938,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2945,21 +2960,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2968,10 +2968,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2980,133 +2980,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3495,8 +3495,8 @@
   <sheetPr/>
   <dimension ref="A1:N604"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A572" workbookViewId="0">
-      <selection activeCell="B581" sqref="B581:B582"/>
+    <sheetView tabSelected="1" topLeftCell="A551" workbookViewId="0">
+      <selection activeCell="B568" sqref="B568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>

--- a/model.xlsx
+++ b/model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="824">
   <si>
     <t>实体登记表</t>
   </si>
@@ -1976,6 +1976,15 @@
     <t>手机号码</t>
   </si>
   <si>
+    <t>bindWx="0"</t>
+  </si>
+  <si>
+    <t>微信绑定标记</t>
+  </si>
+  <si>
+    <t>0-未标记；1-已标记</t>
+  </si>
+  <si>
     <t>SessionKey</t>
   </si>
   <si>
@@ -2472,6 +2481,15 @@
   </si>
   <si>
     <t>replyDay</t>
+  </si>
+  <si>
+    <t>RemindOrders</t>
+  </si>
+  <si>
+    <t>催单</t>
+  </si>
+  <si>
+    <t>/admin/remindOrders</t>
   </si>
 </sst>
 </file>
@@ -2479,10 +2497,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2501,11 +2519,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2517,22 +2551,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2567,58 +2601,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2631,15 +2626,38 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2654,7 +2672,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2666,7 +2684,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2678,13 +2696,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2696,7 +2714,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2708,37 +2768,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2750,13 +2780,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2768,73 +2846,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2864,16 +2882,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2895,11 +2913,53 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2918,48 +2978,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2968,10 +2986,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2980,133 +2998,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3493,10 +3511,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N604"/>
+  <dimension ref="A1:N611"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A551" workbookViewId="0">
-      <selection activeCell="B568" sqref="B568"/>
+    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
+      <selection activeCell="A612" sqref="A612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -10465,44 +10483,47 @@
     </row>
     <row r="454" spans="1:5">
       <c r="A454" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>257</v>
+        <v>652</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>652</v>
+        <v>20</v>
       </c>
       <c r="D454" s="3" t="s">
         <v>653</v>
       </c>
       <c r="E454" s="3" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5">
+      <c r="A455" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E455" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="455" spans="1:3">
-      <c r="A455" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B455" s="2" t="s">
+    <row r="456" spans="1:3">
+      <c r="A456" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B456" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C455" s="2" t="s">
+      <c r="C456" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4">
-      <c r="A456" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B456" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="C456" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D456" s="3" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -10510,68 +10531,65 @@
         <v>18</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
       <c r="A458" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B458" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B459" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C458" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="459" spans="1:8">
-      <c r="A459" s="1" t="s">
+      <c r="C459" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8">
+      <c r="A460" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B459" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="C459" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="D459" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="E459" s="3" t="s">
+      <c r="B460" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E460" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F459" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="G459" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="H459" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="460" spans="1:7">
-      <c r="A460" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B460" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="C460" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D460" s="3" t="s">
+      <c r="F460" s="2" t="s">
         <v>664</v>
       </c>
       <c r="G460" s="3" t="s">
         <v>665</v>
       </c>
+      <c r="H460" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="461" spans="1:7">
       <c r="A461" s="1" t="s">
@@ -10584,10 +10602,10 @@
         <v>20</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="G461" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -10595,16 +10613,16 @@
         <v>18</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>134</v>
+        <v>669</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D462" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G462" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -10612,47 +10630,50 @@
         <v>18</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>670</v>
+        <v>134</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D463" s="3" t="s">
+        <v>671</v>
+      </c>
       <c r="G463" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="464" spans="1:8">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7">
       <c r="A464" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G464" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8">
+      <c r="A465" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B464" s="2" t="s">
+      <c r="B465" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C464" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="D464" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="E464" s="3" t="s">
+      <c r="C465" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="E465" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H464" s="2" t="s">
+      <c r="H465" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4">
-      <c r="A465" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B465" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="C465" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D465" s="3" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -10660,13 +10681,13 @@
         <v>18</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D466" s="3" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -10674,13 +10695,13 @@
         <v>18</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D467" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -10688,41 +10709,41 @@
         <v>18</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C468" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C469" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D468" s="3" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="469" ht="28.8" spans="1:4">
-      <c r="A469" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B469" s="2" t="s">
+      <c r="D469" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="470" ht="28.8" spans="1:4">
+      <c r="A470" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B470" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C469" s="2" t="s">
+      <c r="C470" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D469" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4">
-      <c r="A470" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B470" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="C470" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D470" s="3" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -10730,13 +10751,13 @@
         <v>18</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>107</v>
+        <v>686</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -10744,13 +10765,13 @@
         <v>18</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>686</v>
+        <v>107</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="D472" s="3" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -10758,13 +10779,13 @@
         <v>18</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D473" s="3" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -10772,56 +10793,53 @@
         <v>18</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="475" spans="1:8">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
       <c r="A475" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D475" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8">
+      <c r="A476" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B475" s="2" t="s">
+      <c r="B476" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C475" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="D475" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="E475" s="3" t="s">
+      <c r="C476" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="E476" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F475" s="2" t="s">
+      <c r="F476" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G475" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="H475" s="2" t="s">
+      <c r="G476" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="H476" s="2" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5">
-      <c r="A476" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B476" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C476" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D476" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="E476" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -10829,16 +10847,16 @@
         <v>18</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E477" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -10846,50 +10864,50 @@
         <v>18</v>
       </c>
       <c r="B478" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="E478" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5">
+      <c r="A479" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B479" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C478" s="2" t="s">
+      <c r="C479" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D478" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="E478" s="3" t="s">
+      <c r="D479" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="E479" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
-      <c r="A479" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B479" s="2" t="s">
+    <row r="480" spans="1:4">
+      <c r="A480" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B480" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C479" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D479" s="3" t="s">
+      <c r="C480" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D480" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="480" ht="28.8" spans="1:5">
-      <c r="A480" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B480" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="C480" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D480" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="E480" s="3" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4">
+    <row r="481" ht="28.8" spans="1:5">
       <c r="A481" s="1" t="s">
         <v>18</v>
       </c>
@@ -10897,24 +10915,27 @@
         <v>700</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D481" s="3" t="s">
         <v>701</v>
       </c>
+      <c r="E481" s="3" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>104</v>
+        <v>703</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -10922,13 +10943,13 @@
         <v>18</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -10936,73 +10957,70 @@
         <v>18</v>
       </c>
       <c r="B484" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B485" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C484" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D484" s="3" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5">
-      <c r="A485" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B485" s="2" t="s">
-        <v>683</v>
-      </c>
       <c r="C485" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="E485" s="3" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="486" spans="1:8">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5">
       <c r="A486" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>257</v>
+        <v>686</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>707</v>
+        <v>20</v>
       </c>
       <c r="D486" s="3" t="s">
         <v>708</v>
       </c>
       <c r="E486" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8">
+      <c r="A487" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="E487" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F486" s="2" t="s">
+      <c r="F487" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G486" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="H486" s="2" t="s">
+      <c r="G487" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="H487" s="2" t="s">
         <v>557</v>
-      </c>
-    </row>
-    <row r="487" spans="1:5">
-      <c r="A487" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B487" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C487" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D487" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="E487" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -11010,16 +11028,16 @@
         <v>18</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E488" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -11027,16 +11045,16 @@
         <v>18</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D489" s="3" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="E489" s="3" t="s">
-        <v>395</v>
+        <v>112</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -11044,19 +11062,19 @@
         <v>18</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>710</v>
+        <v>107</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="E490" s="3" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5">
       <c r="A491" s="1" t="s">
         <v>18</v>
       </c>
@@ -11064,24 +11082,27 @@
         <v>713</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D491" s="3" t="s">
         <v>714</v>
       </c>
+      <c r="E491" s="3" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -11089,24 +11110,27 @@
         <v>18</v>
       </c>
       <c r="B493" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D493" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B494" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C493" s="2" t="s">
+      <c r="C494" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D493" s="3" t="s">
+      <c r="D494" s="3" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="494" spans="1:3">
-      <c r="A494" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B494" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="C494" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="495" spans="1:3">
@@ -11114,7 +11138,7 @@
         <v>18</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>559</v>
+        <v>619</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>20</v>
@@ -11125,55 +11149,52 @@
         <v>18</v>
       </c>
       <c r="B496" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B497" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="C496" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4">
-      <c r="A497" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B497" s="2" t="s">
+      <c r="C497" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B498" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C497" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D497" s="3" t="s">
+      <c r="C498" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D498" s="3" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="498" spans="1:5">
-      <c r="A498" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B498" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="C498" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D498" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="E498" s="3" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:5">
       <c r="A499" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>134</v>
+        <v>720</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>720</v>
+        <v>721</v>
+      </c>
+      <c r="E499" s="3" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -11181,13 +11202,13 @@
         <v>18</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>510</v>
+        <v>134</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>32</v>
+        <v>723</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -11195,13 +11216,13 @@
         <v>18</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>721</v>
+        <v>510</v>
       </c>
       <c r="C501" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D501" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -11209,73 +11230,70 @@
         <v>18</v>
       </c>
       <c r="B502" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B503" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C502" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D502" s="3" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5">
-      <c r="A503" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B503" s="2" t="s">
+      <c r="C503" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5">
+      <c r="A504" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B504" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C503" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D503" s="3" t="s">
+      <c r="C504" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D504" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E503" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="504" spans="1:8">
-      <c r="A504" s="1" t="s">
+      <c r="E504" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8">
+      <c r="A505" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B504" s="2" t="s">
+      <c r="B505" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C504" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="D504" s="3" t="s">
-        <v>725</v>
-      </c>
-      <c r="E504" s="3" t="s">
+      <c r="C505" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D505" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="E505" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F504" s="2" t="s">
+      <c r="F505" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G504" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="H504" s="2" t="s">
+      <c r="G505" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="H505" s="2" t="s">
         <v>557</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5">
-      <c r="A505" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B505" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C505" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D505" s="3" t="s">
-        <v>695</v>
-      </c>
-      <c r="E505" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -11283,16 +11301,16 @@
         <v>18</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D506" s="3" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="E506" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -11300,61 +11318,64 @@
         <v>18</v>
       </c>
       <c r="B507" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D507" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="E507" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5">
+      <c r="A508" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B508" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C507" s="2" t="s">
+      <c r="C508" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D507" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="E507" s="3" t="s">
+      <c r="D508" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="E508" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
-      <c r="A508" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B508" s="2" t="s">
+    <row r="509" spans="1:4">
+      <c r="A509" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B509" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C508" s="2" t="s">
+      <c r="C509" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D508" s="3" t="s">
+      <c r="D509" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="509" spans="1:5">
-      <c r="A509" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B509" s="2" t="s">
+    <row r="510" spans="1:5">
+      <c r="A510" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B510" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C509" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D509" s="3" t="s">
+      <c r="C510" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D510" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E509" s="3" t="s">
+      <c r="E510" s="3" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4">
-      <c r="A510" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B510" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="C510" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D510" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -11362,24 +11383,27 @@
         <v>18</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>96</v>
+        <v>724</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D511" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D512" s="3" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="512" spans="1:3">
-      <c r="A512" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B512" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="C512" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="513" spans="1:3">
@@ -11387,7 +11411,7 @@
         <v>18</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>559</v>
+        <v>619</v>
       </c>
       <c r="C513" s="2" t="s">
         <v>20</v>
@@ -11398,66 +11422,66 @@
         <v>18</v>
       </c>
       <c r="B514" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B515" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="C514" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="515" spans="1:4">
-      <c r="A515" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B515" s="2" t="s">
+      <c r="C515" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B516" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C515" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D515" s="3" t="s">
+      <c r="C516" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D516" s="3" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="516" spans="1:5">
-      <c r="A516" s="1" t="s">
+    <row r="517" spans="1:5">
+      <c r="A517" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B516" s="2" t="s">
+      <c r="B517" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C516" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="D516" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="E516" s="3" t="s">
+      <c r="C517" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="E517" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
-      <c r="A517" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B517" s="2" t="s">
+    <row r="518" spans="1:4">
+      <c r="A518" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B518" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C517" s="2" t="s">
+      <c r="C518" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D517" s="3" t="s">
+      <c r="D518" s="3" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="518" spans="1:3">
-      <c r="A518" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B518" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="C518" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="519" spans="1:3">
@@ -11465,7 +11489,7 @@
         <v>18</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>559</v>
+        <v>619</v>
       </c>
       <c r="C519" s="2" t="s">
         <v>20</v>
@@ -11476,84 +11500,78 @@
         <v>18</v>
       </c>
       <c r="B520" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B521" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="C520" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="521" spans="1:5">
-      <c r="A521" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B521" s="2" t="s">
-        <v>678</v>
-      </c>
       <c r="C521" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D521" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="E521" s="3" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="522" spans="1:8">
+    </row>
+    <row r="522" spans="1:5">
       <c r="A522" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>257</v>
+        <v>681</v>
       </c>
       <c r="C522" s="2" t="s">
-        <v>731</v>
+        <v>20</v>
       </c>
       <c r="D522" s="3" t="s">
         <v>732</v>
       </c>
       <c r="E522" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F522" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G522" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="H522" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="523" spans="1:4">
+    </row>
+    <row r="523" spans="1:8">
       <c r="A523" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B523" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C523" s="2" t="s">
         <v>734</v>
-      </c>
-      <c r="C523" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D523" s="3" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="524" spans="1:5">
+      <c r="E523" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F523" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G523" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="H523" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
       <c r="A524" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>119</v>
+        <v>737</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D524" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E524" s="3" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -11561,16 +11579,16 @@
         <v>18</v>
       </c>
       <c r="B525" s="2" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C525" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D525" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E525" s="3" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -11578,70 +11596,76 @@
         <v>18</v>
       </c>
       <c r="B526" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E526" s="3" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5">
+      <c r="A527" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B527" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C526" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D526" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="E526" s="3" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="527" ht="28.8" spans="1:5">
-      <c r="A527" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B527" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="C527" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D527" s="3" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E527" s="3" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="528" spans="1:8">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="528" ht="28.8" spans="1:5">
       <c r="A528" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>257</v>
+        <v>142</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>742</v>
+        <v>25</v>
       </c>
       <c r="D528" s="3" t="s">
         <v>743</v>
       </c>
       <c r="E528" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8">
+      <c r="A529" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="E529" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F528" s="2" t="s">
+      <c r="F529" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G528" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="H528" s="2" t="s">
+      <c r="G529" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="H529" s="2" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="529" spans="1:3">
-      <c r="A529" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B529" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C529" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -11649,10 +11673,10 @@
         <v>18</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>559</v>
+        <v>96</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="531" spans="1:3">
@@ -11660,7 +11684,7 @@
         <v>18</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>619</v>
+        <v>559</v>
       </c>
       <c r="C531" s="2" t="s">
         <v>20</v>
@@ -11671,10 +11695,10 @@
         <v>18</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>745</v>
+        <v>619</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="533" spans="1:3">
@@ -11682,10 +11706,10 @@
         <v>18</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="534" spans="1:3">
@@ -11693,67 +11717,64 @@
         <v>18</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" spans="1:3">
       <c r="A535" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B535" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5">
+      <c r="A536" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B536" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C535" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D535" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="E535" s="3" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="536" spans="1:8">
-      <c r="A536" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B536" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C536" s="2" t="s">
-        <v>750</v>
+        <v>20</v>
       </c>
       <c r="D536" s="3" t="s">
         <v>751</v>
       </c>
       <c r="E536" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8">
+      <c r="A537" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="E537" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F536" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="G536" s="3" t="s">
-        <v>753</v>
-      </c>
-      <c r="H536" s="2" t="s">
+      <c r="F537" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="G537" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="H537" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="537" spans="1:4">
-      <c r="A537" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B537" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C537" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D537" s="3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="538" spans="1:4">
@@ -11761,13 +11782,13 @@
         <v>18</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>256</v>
+        <v>134</v>
       </c>
       <c r="C538" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D538" s="3" t="s">
-        <v>754</v>
+        <v>276</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -11775,13 +11796,13 @@
         <v>18</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>755</v>
+        <v>256</v>
       </c>
       <c r="C539" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D539" s="3" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -11789,41 +11810,44 @@
         <v>18</v>
       </c>
       <c r="B540" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="A541" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B541" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C540" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D540" s="3" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="541" spans="1:5">
-      <c r="A541" s="1" t="s">
+      <c r="C541" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5">
+      <c r="A542" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B541" s="2" t="s">
+      <c r="B542" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C541" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="D541" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="E541" s="3" t="s">
+      <c r="C542" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="E542" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3">
-      <c r="A542" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B542" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="C542" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -11831,10 +11855,10 @@
         <v>18</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>194</v>
+        <v>558</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="544" spans="1:3">
@@ -11842,10 +11866,10 @@
         <v>18</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="545" spans="1:3">
@@ -11853,10 +11877,10 @@
         <v>18</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>559</v>
+        <v>96</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -11864,24 +11888,21 @@
         <v>18</v>
       </c>
       <c r="B546" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B547" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C546" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="547" spans="1:4">
-      <c r="A547" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B547" s="2" t="s">
-        <v>550</v>
-      </c>
       <c r="C547" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D547" s="3" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -11889,13 +11910,13 @@
         <v>18</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>761</v>
+        <v>550</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D548" s="3" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -11903,13 +11924,13 @@
         <v>18</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D549" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="550" spans="1:4">
@@ -11917,13 +11938,13 @@
         <v>18</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D550" s="3" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -11931,146 +11952,149 @@
         <v>18</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C551" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4">
+      <c r="A552" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="C552" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D551" s="3" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="552" ht="43.2" spans="1:4">
-      <c r="A552" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B552" s="2" t="s">
+      <c r="D552" s="3" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="553" ht="43.2" spans="1:4">
+      <c r="A553" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B553" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C552" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D552" s="3" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="553" spans="1:4">
-      <c r="A553" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B553" s="2" t="s">
+      <c r="C553" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4">
+      <c r="A554" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B554" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C553" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D553" s="3" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="554" spans="1:5">
-      <c r="A554" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B554" s="2" t="s">
+      <c r="C554" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5">
+      <c r="A555" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B555" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C554" s="2" t="s">
+      <c r="C555" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D554" s="3" t="s">
-        <v>771</v>
-      </c>
-      <c r="E554" s="3" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="555" spans="1:8">
-      <c r="A555" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B555" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C555" s="2" t="s">
-        <v>773</v>
       </c>
       <c r="D555" s="3" t="s">
         <v>774</v>
       </c>
       <c r="E555" s="3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
+      <c r="A556" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="D556" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="E556" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F555" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="G555" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="H555" s="2" t="s">
+      <c r="F556" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="G556" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="H556" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="556" spans="1:3">
-      <c r="A556" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B556" s="2" t="s">
+    <row r="557" spans="1:3">
+      <c r="A557" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B557" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C556" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="557" spans="1:4">
-      <c r="A557" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B557" s="2" t="s">
+      <c r="C557" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4">
+      <c r="A558" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B558" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C557" s="2" t="s">
+      <c r="C558" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D557" s="3" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="558" spans="1:8">
-      <c r="A558" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B558" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="C558" s="2" t="s">
-        <v>778</v>
       </c>
       <c r="D558" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="E558" s="3" t="s">
+    </row>
+    <row r="559" spans="1:8">
+      <c r="A559" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="E559" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F558" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="G558" s="3" t="s">
-        <v>781</v>
-      </c>
-      <c r="H558" s="2" t="s">
+      <c r="F559" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="G559" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="H559" s="2" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="559" spans="1:3">
-      <c r="A559" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B559" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C559" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="560" spans="1:3">
@@ -12078,7 +12102,7 @@
         <v>18</v>
       </c>
       <c r="B560" s="2" t="s">
-        <v>262</v>
+        <v>134</v>
       </c>
       <c r="C560" s="2" t="s">
         <v>20</v>
@@ -12089,7 +12113,7 @@
         <v>18</v>
       </c>
       <c r="B561" s="2" t="s">
-        <v>782</v>
+        <v>262</v>
       </c>
       <c r="C561" s="2" t="s">
         <v>20</v>
@@ -12100,7 +12124,7 @@
         <v>18</v>
       </c>
       <c r="B562" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C562" s="2" t="s">
         <v>20</v>
@@ -12111,64 +12135,64 @@
         <v>18</v>
       </c>
       <c r="B563" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="C563" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B564" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C563" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="564" spans="1:5">
-      <c r="A564" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B564" s="2" t="s">
-        <v>784</v>
-      </c>
       <c r="C564" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D564" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="E564" s="3" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="565" spans="1:8">
+    </row>
+    <row r="565" spans="1:5">
       <c r="A565" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B565" s="2" t="s">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="C565" s="2" t="s">
-        <v>787</v>
+        <v>20</v>
       </c>
       <c r="D565" s="3" t="s">
         <v>788</v>
       </c>
       <c r="E565" s="3" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8">
+      <c r="A566" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D566" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="E566" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F565" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="G565" s="3" t="s">
-        <v>789</v>
-      </c>
-      <c r="H565" s="2" t="s">
+      <c r="F566" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="G566" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="H566" s="2" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="566" spans="1:3">
-      <c r="A566" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B566" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C566" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="567" spans="1:3">
@@ -12176,7 +12200,7 @@
         <v>18</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C567" s="2" t="s">
         <v>20</v>
@@ -12187,38 +12211,38 @@
         <v>18</v>
       </c>
       <c r="B568" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B569" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C568" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="569" spans="1:5">
-      <c r="A569" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B569" s="2" t="s">
+      <c r="C569" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5">
+      <c r="A570" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B570" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C569" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D569" s="3" t="s">
+      <c r="C570" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D570" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="E569" s="3" t="s">
+      <c r="E570" s="3" t="s">
         <v>638</v>
-      </c>
-    </row>
-    <row r="570" spans="1:3">
-      <c r="A570" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B570" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C570" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -12226,7 +12250,7 @@
         <v>18</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C571" s="2" t="s">
         <v>20</v>
@@ -12237,10 +12261,10 @@
         <v>18</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C572" s="2" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
     </row>
     <row r="573" spans="1:3">
@@ -12248,10 +12272,10 @@
         <v>18</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>639</v>
+        <v>107</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="574" spans="1:3">
@@ -12259,7 +12283,7 @@
         <v>18</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C574" s="2" t="s">
         <v>20</v>
@@ -12270,75 +12294,72 @@
         <v>18</v>
       </c>
       <c r="B575" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C575" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B576" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="C575" s="2" t="s">
+      <c r="C576" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="576" spans="1:4">
-      <c r="A576" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B576" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="C576" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D576" s="3" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="577" spans="1:8">
+    <row r="577" spans="1:4">
       <c r="A577" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C577" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D577" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8">
+      <c r="A578" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B577" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="C577" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="D577" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="E577" s="3" t="s">
+      <c r="B578" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C578" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="D578" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="E578" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F577" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="G577" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="H577" s="2" t="s">
+      <c r="F578" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="G578" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="H578" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="578" spans="1:3">
-      <c r="A578" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B578" s="2" t="s">
+    <row r="579" spans="1:3">
+      <c r="A579" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B579" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C578" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="579" spans="1:4">
-      <c r="A579" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B579" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C579" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D579" s="3" t="s">
-        <v>794</v>
+        <v>20</v>
       </c>
     </row>
     <row r="580" spans="1:4">
@@ -12346,13 +12367,13 @@
         <v>18</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>795</v>
+        <v>96</v>
       </c>
       <c r="C580" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D580" s="3" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -12360,13 +12381,13 @@
         <v>18</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D581" s="3" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -12374,24 +12395,27 @@
         <v>18</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="C582" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D582" s="3" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="583" spans="1:3">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4">
       <c r="A583" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>113</v>
+        <v>802</v>
       </c>
       <c r="C583" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="D583" s="3" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -12399,7 +12423,7 @@
         <v>18</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C584" s="2" t="s">
         <v>20</v>
@@ -12410,56 +12434,50 @@
         <v>18</v>
       </c>
       <c r="B585" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C585" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B586" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C585" s="2" t="s">
+      <c r="C586" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="586" spans="1:8">
-      <c r="A586" s="1" t="s">
+    <row r="587" spans="1:8">
+      <c r="A587" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B586" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="C586" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="D586" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="E586" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F586" s="2" t="s">
+      <c r="B587" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="G586" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="H586" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="587" spans="1:5">
-      <c r="A587" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B587" s="2" t="s">
+      <c r="C587" s="2" t="s">
         <v>804</v>
-      </c>
-      <c r="C587" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D587" s="3" t="s">
         <v>805</v>
       </c>
       <c r="E587" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F587" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="G587" s="3" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="588" spans="1:4">
+      <c r="H587" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5">
       <c r="A588" s="1" t="s">
         <v>18</v>
       </c>
@@ -12472,76 +12490,82 @@
       <c r="D588" s="3" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="589" spans="1:5">
+      <c r="E588" s="3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4">
       <c r="A589" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C589" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="E589" s="3" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="590" ht="28.8" spans="1:5">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5">
       <c r="A590" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>812</v>
+        <v>738</v>
       </c>
       <c r="E590" s="3" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" ht="28.8" spans="1:5">
       <c r="A591" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>777</v>
+        <v>814</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>814</v>
+        <v>25</v>
       </c>
       <c r="D591" s="3" t="s">
         <v>815</v>
       </c>
       <c r="E591" s="3" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8">
+      <c r="A592" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C592" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D592" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E592" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F591" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="G591" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="H591" s="2" t="s">
+      <c r="F592" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="G592" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="H592" s="2" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="592" spans="1:3">
-      <c r="A592" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B592" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C592" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -12549,7 +12573,7 @@
         <v>18</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C593" s="2" t="s">
         <v>20</v>
@@ -12560,10 +12584,10 @@
         <v>18</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -12571,10 +12595,10 @@
         <v>18</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="596" spans="1:3">
@@ -12582,10 +12606,10 @@
         <v>18</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>795</v>
+        <v>104</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="597" spans="1:3">
@@ -12593,10 +12617,10 @@
         <v>18</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>55</v>
+        <v>798</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="598" spans="1:3">
@@ -12604,10 +12628,10 @@
         <v>18</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C598" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="599" spans="1:3">
@@ -12615,10 +12639,10 @@
         <v>18</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="C599" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="600" spans="1:3">
@@ -12626,7 +12650,7 @@
         <v>18</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="C600" s="2" t="s">
         <v>20</v>
@@ -12637,10 +12661,10 @@
         <v>18</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>561</v>
+        <v>36</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -12648,10 +12672,10 @@
         <v>18</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>817</v>
+        <v>561</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -12659,7 +12683,7 @@
         <v>18</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>186</v>
+        <v>820</v>
       </c>
       <c r="C603" s="2" t="s">
         <v>20</v>
@@ -12670,9 +12694,101 @@
         <v>18</v>
       </c>
       <c r="B604" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C604" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3">
+      <c r="A605" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B605" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C604" s="2" t="s">
+      <c r="C605" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8">
+      <c r="A606" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C606" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="D606" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="E606" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F606" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G606" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="H606" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3">
+      <c r="A607" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C607" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3">
+      <c r="A608" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C608" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3">
+      <c r="A609" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C609" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3">
+      <c r="A610" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C610" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3">
+      <c r="A611" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C611" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -12707,28 +12823,28 @@
       <formula>NOT(ISERROR(SEARCH("类",A376)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A517:A520">
+  <conditionalFormatting sqref="A518:A521">
     <cfRule type="containsText" dxfId="2" priority="9" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A517)))</formula>
+      <formula>NOT(ISERROR(SEARCH("字段",A518)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="10" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A517)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A518)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A583:A585">
+  <conditionalFormatting sqref="A584:A586">
     <cfRule type="containsText" dxfId="2" priority="5" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A583)))</formula>
+      <formula>NOT(ISERROR(SEARCH("字段",A584)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="6" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A583)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A584)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A592:A594">
+  <conditionalFormatting sqref="A593:A595">
     <cfRule type="containsText" dxfId="2" priority="2" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A592)))</formula>
+      <formula>NOT(ISERROR(SEARCH("字段",A593)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="3" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A592)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A593)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C45">
@@ -12741,34 +12857,34 @@
       <formula>AND($A376="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C487:C490">
+  <conditionalFormatting sqref="C488:C491">
     <cfRule type="expression" dxfId="0" priority="15">
-      <formula>AND($A487="类")</formula>
+      <formula>AND($A488="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C505:C507">
+  <conditionalFormatting sqref="C506:C508">
     <cfRule type="expression" dxfId="0" priority="13">
-      <formula>AND($A505="类")</formula>
+      <formula>AND($A506="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C511:C515">
+  <conditionalFormatting sqref="C512:C516">
     <cfRule type="expression" dxfId="0" priority="12">
-      <formula>AND($A511="类")</formula>
+      <formula>AND($A512="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C517:C520">
+  <conditionalFormatting sqref="C518:C521">
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>AND($A517="类")</formula>
+      <formula>AND($A518="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C583:C585">
+  <conditionalFormatting sqref="C584:C586">
     <cfRule type="expression" dxfId="0" priority="4">
-      <formula>AND($A583="类")</formula>
+      <formula>AND($A584="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C592:C594">
+  <conditionalFormatting sqref="C593:C595">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($A592="类")</formula>
+      <formula>AND($A593="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D45">
@@ -12781,22 +12897,22 @@
       <formula>AND($A376="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D505:D507">
+  <conditionalFormatting sqref="D506:D508">
     <cfRule type="expression" dxfId="1" priority="14">
-      <formula>AND($A505="类")</formula>
+      <formula>AND($A506="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D511:D515">
+  <conditionalFormatting sqref="D512:D516">
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>AND($A511="类")</formula>
+      <formula>AND($A512="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D517:D520">
+  <conditionalFormatting sqref="D518:D521">
     <cfRule type="expression" dxfId="1" priority="7">
-      <formula>AND($A517="类")</formula>
+      <formula>AND($A518="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A42 A46:A375 A521:A582 A382:A516 A595:A1048576 A586:A591">
+  <conditionalFormatting sqref="A1:A42 A46:A375 A382:A517 A522:A583 A587:A592 A596:A1048576">
     <cfRule type="containsText" dxfId="2" priority="33" operator="between" text="字段">
       <formula>NOT(ISERROR(SEARCH("字段",A1)))</formula>
     </cfRule>
@@ -12804,12 +12920,12 @@
       <formula>NOT(ISERROR(SEARCH("类",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C42 C46:C207 C210:C375 C382:C486 C491:C504 C508:C510 C516 C521:C582 C586:C591 C595:C1048576">
+  <conditionalFormatting sqref="C2:C42 C46:C207 C210:C375 C382:C487 C492:C505 C509:C511 C517 C522:C583 C587:C592 C596:C1048576">
     <cfRule type="expression" dxfId="0" priority="28">
       <formula>AND($A2="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D42 D46:D207 D210:D375 D382:D504 D508:D510 D516 D521:D1048576">
+  <conditionalFormatting sqref="D2:D42 D46:D207 D210:D375 D382:D505 D509:D511 D517 D522:D1048576">
     <cfRule type="expression" dxfId="1" priority="24">
       <formula>AND($A2="类")</formula>
     </cfRule>

--- a/model.xlsx
+++ b/model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="832">
   <si>
     <t>实体登记表</t>
   </si>
@@ -1616,7 +1616,7 @@
     <t>订单状态</t>
   </si>
   <si>
-    <t>0-未付款；1-已付款，未发货；2-已发货；3-未点评；4-已完成</t>
+    <t xml:space="preserve"> -1：关闭；0-未付款；1-已付款，未发货；2-已发货；3-未点评；4-已完成</t>
   </si>
   <si>
     <t>hasAfterSale="0"</t>
@@ -1628,6 +1628,12 @@
     <t>0-不存在；1-存在；默认0</t>
   </si>
   <si>
+    <t>hasAgent="0"</t>
+  </si>
+  <si>
+    <t>是否有代理</t>
+  </si>
+  <si>
     <t>agentOpenid</t>
   </si>
   <si>
@@ -1682,6 +1688,24 @@
     <t>备注信息</t>
   </si>
   <si>
+    <t>endDay</t>
+  </si>
+  <si>
+    <t>结束日期</t>
+  </si>
+  <si>
+    <t>sendDay</t>
+  </si>
+  <si>
+    <t>发货日期</t>
+  </si>
+  <si>
+    <t>sendTime</t>
+  </si>
+  <si>
+    <t>sendLong</t>
+  </si>
+  <si>
     <t>OrdersComment</t>
   </si>
   <si>
@@ -1868,7 +1892,7 @@
     <t>佣金金额</t>
   </si>
   <si>
-    <t>0-用户下单；1-用户付款，但不在提现期；2-在提现期；3-纳入结算清单；4-结算到账；5-结算失败</t>
+    <t xml:space="preserve"> -1：用户取消；0-用户下单；1-用户付款，但不在提现期；2-在提现期；3-纳入结算清单；4-结算到账；5-结算失败</t>
   </si>
   <si>
     <t>对应用户ID</t>
@@ -2497,10 +2521,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2519,60 +2543,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2588,14 +2565,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2609,11 +2624,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2626,10 +2665,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2640,24 +2679,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2672,7 +2696,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2684,31 +2738,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2720,127 +2810,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2853,6 +2823,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2877,6 +2901,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2911,11 +2944,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2923,8 +2977,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2948,36 +3002,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2986,10 +3010,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2998,133 +3022,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3511,10 +3535,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N611"/>
+  <dimension ref="A1:N619"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
-      <selection activeCell="A612" sqref="A612"/>
+    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="D340" sqref="D340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -8698,13 +8722,13 @@
         <v>18</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>538</v>
+        <v>343</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>539</v>
+        <v>344</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -8712,13 +8736,13 @@
         <v>18</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>345</v>
+        <v>538</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>346</v>
+        <v>539</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -8735,52 +8759,49 @@
         <v>541</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:4">
       <c r="A331" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B331" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B332" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="C331" s="2" t="s">
+      <c r="C332" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C333" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D331" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="E331" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
-      <c r="A332" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B332" s="2" t="s">
+      <c r="D333" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="C332" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D332" s="3" t="s">
+      <c r="E333" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="E332" s="3" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4">
-      <c r="A333" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D333" s="3" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8788,16 +8809,16 @@
         <v>18</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D334" s="3" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -8805,61 +8826,58 @@
         <v>18</v>
       </c>
       <c r="B335" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B337" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C335" s="2" t="s">
+      <c r="C337" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D335" s="3" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8">
-      <c r="A336" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="D336" s="3" t="s">
+      <c r="D337" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="E336" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F336" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G336" s="3" t="s">
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B338" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="H336" s="2" t="s">
+      <c r="C338" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D338" s="3" t="s">
         <v>557</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3">
-      <c r="A337" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="C337" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3">
-      <c r="A338" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C338" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="339" spans="1:3">
@@ -8867,10 +8885,10 @@
         <v>18</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>96</v>
+        <v>471</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="340" spans="1:3">
@@ -8878,21 +8896,24 @@
         <v>18</v>
       </c>
       <c r="B340" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D341" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="C340" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3">
-      <c r="A341" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="342" spans="1:3">
@@ -8900,35 +8921,47 @@
         <v>18</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>55</v>
+        <v>560</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:3">
       <c r="A343" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>24</v>
+        <v>561</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D343" s="3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8">
       <c r="A344" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>113</v>
+        <v>257</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>20</v>
+        <v>562</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G344" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="H344" s="2" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="345" spans="1:3">
@@ -8936,10 +8969,10 @@
         <v>18</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>110</v>
+        <v>566</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="346" spans="1:3">
@@ -8947,24 +8980,21 @@
         <v>18</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>107</v>
+        <v>194</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
       <c r="A347" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>561</v>
+        <v>96</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D347" s="3" t="s">
-        <v>191</v>
+        <v>29</v>
       </c>
     </row>
     <row r="348" spans="1:3">
@@ -8972,7 +9002,7 @@
         <v>18</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>184</v>
+        <v>567</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>20</v>
@@ -8983,7 +9013,7 @@
         <v>18</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>20</v>
@@ -8994,10 +9024,10 @@
         <v>18</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>188</v>
+        <v>55</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -9005,44 +9035,35 @@
         <v>18</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
       <c r="A352" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>563</v>
+        <v>113</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D352" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
+    </row>
+    <row r="353" spans="1:3">
       <c r="A353" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>257</v>
+        <v>110</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="D353" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="E353" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="354" spans="1:3">
@@ -9050,21 +9071,24 @@
         <v>18</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
       <c r="A355" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>96</v>
+        <v>569</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="356" spans="1:3">
@@ -9072,7 +9096,7 @@
         <v>18</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>20</v>
@@ -9083,41 +9107,35 @@
         <v>18</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:3">
       <c r="A358" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>567</v>
+        <v>188</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D358" s="3" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
       <c r="A359" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E359" s="3" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -9125,61 +9143,52 @@
         <v>18</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>194</v>
+        <v>571</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
       <c r="A361" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>558</v>
+        <v>257</v>
       </c>
       <c r="C361" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C363" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D361" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
-      <c r="A362" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D362" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="E362" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
-      <c r="A363" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="C363" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D363" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="E363" s="3" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="364" spans="1:3">
@@ -9187,7 +9196,7 @@
         <v>18</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>20</v>
@@ -9198,61 +9207,55 @@
         <v>18</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="366" spans="1:3">
+    <row r="366" spans="1:4">
       <c r="A366" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>107</v>
+        <v>575</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
       <c r="A367" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>516</v>
+        <v>36</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D367" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E367" s="3" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:4">
       <c r="A368" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>11</v>
+        <v>194</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>578</v>
+        <v>20</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="E368" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F368" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G368" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="H368" s="2" t="s">
-        <v>419</v>
+        <v>505</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -9260,49 +9263,58 @@
         <v>18</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>104</v>
+        <v>566</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D369" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E370" s="3" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="370" spans="1:3">
-      <c r="A370" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C370" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="371" spans="1:3">
+    <row r="371" spans="1:5">
       <c r="A371" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>96</v>
+        <v>582</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4">
+        <v>20</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
       <c r="A372" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D372" s="3" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="373" spans="1:3">
@@ -9310,10 +9322,10 @@
         <v>18</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>558</v>
+        <v>110</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="374" spans="1:3">
@@ -9321,10 +9333,10 @@
         <v>18</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>545</v>
+        <v>107</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -9332,30 +9344,39 @@
         <v>18</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>194</v>
+        <v>516</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
       <c r="A376" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>533</v>
+        <v>11</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>20</v>
+        <v>586</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>534</v>
+        <v>587</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>535</v>
+        <v>14</v>
+      </c>
+      <c r="F376" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G376" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="H376" s="2" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -9363,89 +9384,71 @@
         <v>18</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>343</v>
+        <v>104</v>
       </c>
       <c r="C377" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C379" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D377" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B378" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="C378" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D378" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B379" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="C379" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D379" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
+    </row>
+    <row r="380" spans="1:4">
       <c r="A380" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>583</v>
+        <v>105</v>
       </c>
       <c r="C380" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C381" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D380" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="E380" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
-      <c r="A381" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="C381" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D381" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="E381" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4">
+    </row>
+    <row r="382" spans="1:3">
       <c r="A382" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>98</v>
+        <v>547</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D382" s="3" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -9453,27 +9456,30 @@
         <v>18</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>102</v>
+        <v>194</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
       <c r="A384" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>100</v>
+        <v>533</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>101</v>
+        <v>534</v>
+      </c>
+      <c r="E384" s="3" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -9481,13 +9487,13 @@
         <v>18</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>401</v>
+        <v>343</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>402</v>
+        <v>344</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -9495,13 +9501,13 @@
         <v>18</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>403</v>
+        <v>538</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D386" s="3" t="s">
-        <v>404</v>
+        <v>539</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -9509,118 +9515,103 @@
         <v>18</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>146</v>
+        <v>540</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D387" s="3" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
       <c r="A388" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>64</v>
+        <v>591</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D388" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4">
+        <v>592</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
       <c r="A389" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>405</v>
+        <v>594</v>
       </c>
       <c r="C389" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C390" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D389" s="3" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
-      <c r="A390" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B390" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="C390" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D390" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="E390" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
       <c r="A391" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D391" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="E391" s="3" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:4">
       <c r="A392" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E392" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
       <c r="A393" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>11</v>
+        <v>401</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>597</v>
+        <v>29</v>
       </c>
       <c r="D393" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="E393" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F393" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G393" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="H393" s="2" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -9628,13 +9619,13 @@
         <v>18</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>600</v>
+        <v>403</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D394" s="3" t="s">
-        <v>601</v>
+        <v>404</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -9642,13 +9633,13 @@
         <v>18</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>460</v>
+        <v>146</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>461</v>
+        <v>597</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -9656,168 +9647,168 @@
         <v>18</v>
       </c>
       <c r="B396" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E398" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E399" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E400" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8">
+      <c r="A401" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E401" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F401" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G401" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="H401" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B404" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C396" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D396" s="3" t="s">
+      <c r="C404" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D404" s="3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="397" spans="1:3">
-      <c r="A397" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B397" s="2" t="s">
+    <row r="405" spans="1:3">
+      <c r="A405" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B405" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C397" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3">
-      <c r="A398" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B398" s="2" t="s">
+      <c r="C405" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B406" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C398" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4">
-      <c r="A399" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B399" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="C399" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D399" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4">
-      <c r="A400" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B400" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C400" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D400" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3">
-      <c r="A401" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B401" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="C401" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
-      <c r="A402" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B402" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="C402" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D402" s="3" t="s">
-        <v>603</v>
-      </c>
-      <c r="E402" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
-      <c r="A403" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B403" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="C403" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D403" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="E403" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
-      <c r="A404" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B404" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C404" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D404" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="E404" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5">
-      <c r="A405" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B405" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C405" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D405" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="E405" s="3" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8">
-      <c r="A406" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B406" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C406" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D406" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="E406" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F406" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="G406" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="H406" s="2" t="s">
-        <v>419</v>
+        <v>20</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -9825,24 +9816,27 @@
         <v>18</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>343</v>
+        <v>566</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
       <c r="A408" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>536</v>
+        <v>194</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="409" spans="1:3">
@@ -9850,74 +9844,104 @@
         <v>18</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="410" spans="1:3">
+    <row r="410" spans="1:5">
       <c r="A410" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>345</v>
+        <v>610</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="411" spans="1:3">
+      <c r="D410" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="E410" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5">
       <c r="A411" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>540</v>
+        <v>612</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="412" spans="1:4">
+      <c r="D411" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5">
       <c r="A412" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>583</v>
+        <v>614</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="D412" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4">
+        <v>613</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5">
       <c r="A413" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>586</v>
+        <v>512</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D413" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4">
+        <v>615</v>
+      </c>
+      <c r="E413" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8">
       <c r="A414" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>401</v>
+        <v>11</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>29</v>
+        <v>617</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>613</v>
+        <v>618</v>
+      </c>
+      <c r="E414" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F414" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G414" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="H414" s="2" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -9925,105 +9949,99 @@
         <v>18</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>403</v>
+        <v>343</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
       <c r="A416" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>614</v>
+        <v>538</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D416" s="3" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
       <c r="A417" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>98</v>
+        <v>540</v>
       </c>
       <c r="C417" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C420" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D417" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4">
-      <c r="A418" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B418" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C418" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D418" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="419" ht="43.2" spans="1:5">
-      <c r="A419" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B419" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C419" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D419" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E419" s="3" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3">
-      <c r="A420" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B420" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C420" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3">
+      <c r="D420" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
       <c r="A421" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>113</v>
+        <v>594</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="422" spans="1:3">
+      <c r="D421" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
       <c r="A422" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>107</v>
+        <v>401</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>108</v>
+        <v>29</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -10031,13 +10049,13 @@
         <v>18</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>96</v>
+        <v>403</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>617</v>
+        <v>139</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -10045,13 +10063,13 @@
         <v>18</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>559</v>
+        <v>622</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -10059,13 +10077,13 @@
         <v>18</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>619</v>
+        <v>98</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D425" s="3" t="s">
-        <v>620</v>
+        <v>99</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -10073,81 +10091,63 @@
         <v>18</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>621</v>
+        <v>100</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D426" s="3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="427" ht="43.2" spans="1:5">
       <c r="A427" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4">
+        <v>294</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
       <c r="A428" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>558</v>
+        <v>110</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D428" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
       <c r="A429" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>545</v>
+        <v>113</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D429" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8">
+    </row>
+    <row r="430" spans="1:3">
       <c r="A430" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="D430" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="E430" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F430" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G430" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="H430" s="2" t="s">
-        <v>419</v>
+        <v>108</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -10155,13 +10155,13 @@
         <v>18</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>558</v>
+        <v>96</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D431" s="3" t="s">
-        <v>570</v>
+        <v>625</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -10169,35 +10169,41 @@
         <v>18</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>194</v>
+        <v>567</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D432" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
       <c r="A433" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>104</v>
+        <v>627</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="434" spans="1:3">
+      <c r="D433" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
       <c r="A434" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>105</v>
+        <v>629</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -10205,30 +10211,27 @@
         <v>18</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
       <c r="A436" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>628</v>
+        <v>566</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D436" s="3" t="s">
-        <v>629</v>
-      </c>
-      <c r="E436" s="3" t="s">
-        <v>630</v>
+        <v>578</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -10236,13 +10239,13 @@
         <v>18</v>
       </c>
       <c r="B437" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D437" s="3" t="s">
         <v>631</v>
-      </c>
-      <c r="C437" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D437" s="3" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -10253,10 +10256,10 @@
         <v>11</v>
       </c>
       <c r="C438" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D438" s="3" t="s">
         <v>633</v>
-      </c>
-      <c r="D438" s="3" t="s">
-        <v>634</v>
       </c>
       <c r="E438" s="3" t="s">
         <v>14</v>
@@ -10265,91 +10268,91 @@
         <v>289</v>
       </c>
       <c r="G438" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H438" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="439" spans="1:3">
+    <row r="439" spans="1:4">
       <c r="A439" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B439" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B441" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C439" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3">
-      <c r="A440" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B440" s="2" t="s">
+      <c r="C441" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B442" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C440" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4">
-      <c r="A441" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B441" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C441" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D441" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4">
-      <c r="A442" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B442" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C442" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D442" s="3" t="s">
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5">
+      <c r="A444" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B444" s="2" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="443" spans="1:5">
-      <c r="A443" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B443" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C443" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D443" s="3" t="s">
+      <c r="C444" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D444" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="E443" s="3" t="s">
+      <c r="E444" s="3" t="s">
         <v>638</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4">
-      <c r="A444" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B444" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="C444" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D444" s="3" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -10357,55 +10360,61 @@
         <v>18</v>
       </c>
       <c r="B445" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8">
+      <c r="A446" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C446" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="C445" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D445" s="3" t="s">
+      <c r="D446" s="3" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="446" spans="1:4">
-      <c r="A446" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B446" s="2" t="s">
+      <c r="E446" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F446" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G446" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="C446" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D446" s="3" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4">
+      <c r="H446" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
       <c r="A447" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>645</v>
+        <v>104</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D447" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4">
+    </row>
+    <row r="448" spans="1:3">
       <c r="A448" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>647</v>
+        <v>105</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D448" s="3" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -10413,13 +10422,13 @@
         <v>18</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>649</v>
+        <v>106</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D449" s="3" t="s">
-        <v>650</v>
+        <v>293</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -10427,13 +10436,13 @@
         <v>18</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D450" s="3" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -10441,16 +10450,16 @@
         <v>18</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>312</v>
+        <v>123</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>313</v>
+        <v>645</v>
       </c>
       <c r="E451" s="3" t="s">
-        <v>314</v>
+        <v>646</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -10458,13 +10467,13 @@
         <v>18</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>119</v>
+        <v>647</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>313</v>
+        <v>648</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -10472,58 +10481,55 @@
         <v>18</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>343</v>
+        <v>649</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D453" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
       <c r="A454" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B454" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D454" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="C454" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D454" s="3" t="s">
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B455" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="E454" s="3" t="s">
+      <c r="C455" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D455" s="3" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
-      <c r="A455" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B455" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C455" s="2" t="s">
+    <row r="456" spans="1:4">
+      <c r="A456" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B456" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="D455" s="3" t="s">
+      <c r="C456" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D456" s="3" t="s">
         <v>656</v>
-      </c>
-      <c r="E455" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3">
-      <c r="A456" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B456" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C456" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -10534,7 +10540,7 @@
         <v>657</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="D457" s="3" t="s">
         <v>658</v>
@@ -10545,135 +10551,117 @@
         <v>18</v>
       </c>
       <c r="B458" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D458" s="3" t="s">
         <v>659</v>
       </c>
-      <c r="C458" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D458" s="3" t="s">
+    </row>
+    <row r="459" spans="1:5">
+      <c r="A459" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E459" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5">
+      <c r="A462" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B462" s="2" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="459" spans="1:3">
-      <c r="A459" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B459" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C459" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="460" spans="1:8">
-      <c r="A460" s="1" t="s">
+      <c r="C462" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D462" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="E462" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5">
+      <c r="A463" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B460" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="C460" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="D460" s="3" t="s">
+      <c r="B463" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C463" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="E460" s="3" t="s">
+      <c r="D463" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="E463" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F460" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="G460" s="3" t="s">
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B465" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="H460" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="461" spans="1:7">
-      <c r="A461" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B461" s="2" t="s">
+      <c r="C465" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D465" s="3" t="s">
         <v>666</v>
-      </c>
-      <c r="C461" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D461" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="G461" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7">
-      <c r="A462" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B462" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="C462" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D462" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="G462" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="463" spans="1:7">
-      <c r="A463" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B463" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C463" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D463" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="G463" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="464" spans="1:7">
-      <c r="A464" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B464" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="C464" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G464" s="3" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="465" spans="1:8">
-      <c r="A465" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B465" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C465" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="D465" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="E465" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H465" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -10681,111 +10669,135 @@
         <v>18</v>
       </c>
       <c r="B466" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D466" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8">
+      <c r="A468" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F468" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="G468" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="H468" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7">
+      <c r="A469" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="G469" s="3" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7">
+      <c r="A470" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B470" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="C466" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D466" s="3" t="s">
+      <c r="C470" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="G470" s="3" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
-      <c r="A467" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B467" s="2" t="s">
+    <row r="471" spans="1:7">
+      <c r="A471" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D471" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="C467" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D467" s="3" t="s">
+      <c r="G471" s="3" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
-      <c r="A468" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B468" s="2" t="s">
+    <row r="472" spans="1:7">
+      <c r="A472" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B472" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="C468" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D468" s="3" t="s">
+      <c r="C472" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G472" s="3" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
-      <c r="A469" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B469" s="2" t="s">
+    <row r="473" spans="1:8">
+      <c r="A473" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C473" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="C469" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D469" s="3" t="s">
+      <c r="D473" s="3" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="470" ht="28.8" spans="1:4">
-      <c r="A470" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B470" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C470" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D470" s="3" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4">
-      <c r="A471" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B471" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="C471" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D471" s="3" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4">
-      <c r="A472" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B472" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C472" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D472" s="3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4">
-      <c r="A473" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B473" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="C473" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D473" s="3" t="s">
-        <v>690</v>
+      <c r="E473" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H473" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -10793,13 +10805,13 @@
         <v>18</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -10807,90 +10819,69 @@
         <v>18</v>
       </c>
       <c r="B475" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D475" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="478" ht="28.8" spans="1:4">
+      <c r="A478" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D478" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="C475" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D475" s="3" t="s">
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B479" s="2" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="476" spans="1:8">
-      <c r="A476" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B476" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C476" s="2" t="s">
+      <c r="C479" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D479" s="3" t="s">
         <v>695</v>
-      </c>
-      <c r="D476" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="E476" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F476" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G476" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="H476" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5">
-      <c r="A477" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B477" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C477" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D477" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="E477" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5">
-      <c r="A478" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B478" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C478" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D478" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="E478" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5">
-      <c r="A479" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B479" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C479" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D479" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="E479" s="3" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -10898,30 +10889,27 @@
         <v>18</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="481" ht="28.8" spans="1:5">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
       <c r="A481" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="E481" s="3" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -10929,13 +10917,13 @@
         <v>18</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -10943,41 +10931,56 @@
         <v>18</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>104</v>
+        <v>701</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D483" s="3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8">
+      <c r="A484" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="E484" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F484" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G484" s="3" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="484" spans="1:4">
-      <c r="A484" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B484" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C484" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D484" s="3" t="s">
+      <c r="H484" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5">
+      <c r="A485" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D485" s="3" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="485" spans="1:4">
-      <c r="A485" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B485" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C485" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D485" s="3" t="s">
-        <v>707</v>
+      <c r="E485" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -10985,110 +10988,92 @@
         <v>18</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>686</v>
+        <v>110</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D486" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E486" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
+      <c r="A487" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E487" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="489" ht="28.8" spans="1:5">
+      <c r="A489" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B489" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="E486" s="3" t="s">
+      <c r="C489" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D489" s="3" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="487" spans="1:8">
-      <c r="A487" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B487" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C487" s="2" t="s">
+      <c r="E489" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="D487" s="3" t="s">
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B490" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="E487" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F487" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G487" s="3" t="s">
+      <c r="C490" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D490" s="3" t="s">
         <v>712</v>
       </c>
-      <c r="H487" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5">
-      <c r="A488" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B488" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C488" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D488" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="E488" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5">
-      <c r="A489" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B489" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C489" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D489" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="E489" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5">
-      <c r="A490" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B490" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C490" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D490" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="E490" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5">
+    </row>
+    <row r="491" spans="1:4">
       <c r="A491" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B491" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D491" s="3" t="s">
         <v>713</v>
-      </c>
-      <c r="C491" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D491" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="E491" s="3" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -11096,13 +11081,13 @@
         <v>18</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>716</v>
+        <v>106</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -11110,74 +11095,107 @@
         <v>18</v>
       </c>
       <c r="B493" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D493" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5">
+      <c r="A494" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="C494" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D494" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="E494" s="3" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
+      <c r="A495" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C495" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="C493" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D493" s="3" t="s">
+      <c r="D495" s="3" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="494" spans="1:4">
-      <c r="A494" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B494" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C494" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D494" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="495" spans="1:3">
-      <c r="A495" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B495" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="C495" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="496" spans="1:3">
+      <c r="E495" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F495" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G495" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="H495" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5">
       <c r="A496" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>559</v>
+        <v>113</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="497" spans="1:3">
+      <c r="D496" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="E496" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5">
       <c r="A497" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>621</v>
+        <v>110</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="498" spans="1:4">
+      <c r="D497" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E497" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5">
       <c r="A498" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>506</v>
+        <v>707</v>
+      </c>
+      <c r="E498" s="3" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -11185,16 +11203,16 @@
         <v>18</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E499" s="3" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -11202,13 +11220,13 @@
         <v>18</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>134</v>
+        <v>724</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -11216,13 +11234,13 @@
         <v>18</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>510</v>
+        <v>726</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D501" s="3" t="s">
-        <v>32</v>
+        <v>727</v>
       </c>
     </row>
     <row r="502" spans="1:4">
@@ -11230,87 +11248,60 @@
         <v>18</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>724</v>
+        <v>96</v>
       </c>
       <c r="C502" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D502" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
       <c r="A503" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>19</v>
+        <v>627</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D503" s="3" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5">
+    </row>
+    <row r="504" spans="1:3">
       <c r="A504" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>36</v>
+        <v>567</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D504" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E504" s="3" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="505" spans="1:8">
+    </row>
+    <row r="505" spans="1:3">
       <c r="A505" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>257</v>
+        <v>629</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="D505" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="E505" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F505" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G505" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="H505" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
       <c r="A506" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D506" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="E506" s="3" t="s">
-        <v>115</v>
+        <v>506</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -11318,33 +11309,30 @@
         <v>18</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>110</v>
+        <v>728</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D507" s="3" t="s">
-        <v>699</v>
+        <v>729</v>
       </c>
       <c r="E507" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
       <c r="A508" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D508" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="E508" s="3" t="s">
-        <v>395</v>
+        <v>731</v>
       </c>
     </row>
     <row r="509" spans="1:4">
@@ -11352,30 +11340,27 @@
         <v>18</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>24</v>
+        <v>510</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D509" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="510" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
       <c r="A510" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>36</v>
+        <v>732</v>
       </c>
       <c r="C510" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D510" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E510" s="3" t="s">
-        <v>169</v>
+        <v>44</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -11383,127 +11368,166 @@
         <v>18</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>724</v>
+        <v>19</v>
       </c>
       <c r="C511" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
+      <c r="A512" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D512" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E512" s="3" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8">
+      <c r="A513" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="E513" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F513" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G513" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="H513" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5">
+      <c r="A514" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="E514" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5">
+      <c r="A515" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E515" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5">
+      <c r="A516" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E516" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5">
+      <c r="A518" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D518" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E518" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C519" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D511" s="3" t="s">
+      <c r="D519" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
-      <c r="A512" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B512" s="2" t="s">
+    <row r="520" spans="1:4">
+      <c r="A520" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B520" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C512" s="2" t="s">
+      <c r="C520" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D512" s="3" t="s">
+      <c r="D520" s="3" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="513" spans="1:3">
-      <c r="A513" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B513" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="C513" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="514" spans="1:3">
-      <c r="A514" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B514" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C514" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="515" spans="1:3">
-      <c r="A515" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B515" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="C515" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="516" spans="1:4">
-      <c r="A516" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B516" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C516" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D516" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="517" spans="1:5">
-      <c r="A517" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B517" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C517" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="D517" s="3" t="s">
-        <v>731</v>
-      </c>
-      <c r="E517" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="518" spans="1:4">
-      <c r="A518" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B518" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C518" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D518" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="519" spans="1:3">
-      <c r="A519" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B519" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="C519" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="520" spans="1:3">
-      <c r="A520" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B520" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C520" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="521" spans="1:3">
@@ -11511,53 +11535,32 @@
         <v>18</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="522" spans="1:5">
+    <row r="522" spans="1:3">
       <c r="A522" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>681</v>
+        <v>567</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D522" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="E522" s="3" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="523" spans="1:8">
+    </row>
+    <row r="523" spans="1:3">
       <c r="A523" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B523" s="2" t="s">
-        <v>257</v>
+        <v>629</v>
       </c>
       <c r="C523" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="D523" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="E523" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F523" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G523" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="H523" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="524" spans="1:4">
@@ -11565,184 +11568,196 @@
         <v>18</v>
       </c>
       <c r="B524" s="2" t="s">
-        <v>737</v>
+        <v>55</v>
       </c>
       <c r="C524" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D524" s="3" t="s">
-        <v>738</v>
+        <v>506</v>
       </c>
     </row>
     <row r="525" spans="1:5">
       <c r="A525" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B525" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C525" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="E525" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5">
+      <c r="A530" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="E530" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8">
+      <c r="A531" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="E531" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F531" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G531" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="H531" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5">
+      <c r="A533" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B533" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C525" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D525" s="3" t="s">
+      <c r="C533" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D533" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E525" s="3" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="526" spans="1:5">
-      <c r="A526" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B526" s="2" t="s">
+      <c r="E533" s="3" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5">
+      <c r="A534" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B534" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C526" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D526" s="3" t="s">
+      <c r="C534" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D534" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E526" s="3" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="527" spans="1:5">
-      <c r="A527" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B527" s="2" t="s">
+      <c r="E534" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5">
+      <c r="A535" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B535" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C527" s="2" t="s">
+      <c r="C535" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D527" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="E527" s="3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="528" ht="28.8" spans="1:5">
-      <c r="A528" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B528" s="2" t="s">
+      <c r="D535" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="E535" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="536" ht="28.8" spans="1:5">
+      <c r="A536" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B536" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C528" s="2" t="s">
+      <c r="C536" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D528" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="E528" s="3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="529" spans="1:8">
-      <c r="A529" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B529" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C529" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="D529" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="E529" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F529" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G529" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="H529" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="530" spans="1:3">
-      <c r="A530" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B530" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C530" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="531" spans="1:3">
-      <c r="A531" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B531" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C531" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="532" spans="1:3">
-      <c r="A532" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B532" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="C532" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="533" spans="1:3">
-      <c r="A533" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B533" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="C533" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="534" spans="1:3">
-      <c r="A534" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B534" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="C534" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="535" spans="1:3">
-      <c r="A535" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B535" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="C535" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="536" spans="1:5">
-      <c r="A536" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B536" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C536" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D536" s="3" t="s">
         <v>751</v>
@@ -11756,7 +11771,7 @@
         <v>10</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>11</v>
+        <v>257</v>
       </c>
       <c r="C537" s="2" t="s">
         <v>753</v>
@@ -11768,86 +11783,68 @@
         <v>14</v>
       </c>
       <c r="F537" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G537" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="G537" s="3" t="s">
+      <c r="H537" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B541" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="H537" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="538" spans="1:4">
-      <c r="A538" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B538" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C538" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D538" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="539" spans="1:4">
-      <c r="A539" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B539" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C539" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D539" s="3" t="s">
+      <c r="C541" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B542" s="2" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="540" spans="1:4">
-      <c r="A540" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B540" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="C540" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D540" s="3" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="541" spans="1:4">
-      <c r="A541" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B541" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C541" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D541" s="3" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="542" spans="1:5">
-      <c r="A542" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B542" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C542" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="D542" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="E542" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -11855,54 +11852,81 @@
         <v>18</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>558</v>
+        <v>758</v>
       </c>
       <c r="C543" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="544" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5">
       <c r="A544" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="545" spans="1:3">
+      <c r="D544" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="E544" s="3" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
       <c r="A545" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="546" spans="1:3">
+        <v>761</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="E545" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F545" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="G545" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="H545" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4">
       <c r="A546" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>559</v>
+        <v>134</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="547" spans="1:3">
+      <c r="D546" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4">
       <c r="A547" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>104</v>
+        <v>256</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -11910,13 +11934,13 @@
         <v>18</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>550</v>
+        <v>766</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D548" s="3" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -11924,137 +11948,113 @@
         <v>18</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>764</v>
+        <v>119</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D549" s="3" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="550" spans="1:4">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5">
       <c r="A550" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>766</v>
+        <v>11</v>
       </c>
       <c r="C550" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="D550" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E550" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C551" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D550" s="3" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="551" spans="1:4">
-      <c r="A551" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B551" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="C551" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D551" s="3" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="552" spans="1:4">
+    </row>
+    <row r="552" spans="1:3">
       <c r="A552" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>770</v>
+        <v>194</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D552" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4">
+      <c r="A556" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D556" s="3" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="553" ht="43.2" spans="1:4">
-      <c r="A553" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B553" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C553" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D553" s="3" t="s">
+    <row r="557" spans="1:4">
+      <c r="A557" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B557" s="2" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="554" spans="1:4">
-      <c r="A554" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B554" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C554" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D554" s="3" t="s">
+      <c r="C557" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D557" s="3" t="s">
         <v>773</v>
-      </c>
-    </row>
-    <row r="555" spans="1:5">
-      <c r="A555" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B555" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C555" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D555" s="3" t="s">
-        <v>774</v>
-      </c>
-      <c r="E555" s="3" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="556" spans="1:8">
-      <c r="A556" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B556" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C556" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="D556" s="3" t="s">
-        <v>777</v>
-      </c>
-      <c r="E556" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F556" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="G556" s="3" t="s">
-        <v>778</v>
-      </c>
-      <c r="H556" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="557" spans="1:3">
-      <c r="A557" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B557" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C557" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -12062,148 +12062,163 @@
         <v>18</v>
       </c>
       <c r="B558" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D558" s="3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4">
+      <c r="A559" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4">
+      <c r="A560" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C560" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="561" ht="43.2" spans="1:4">
+      <c r="A561" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D561" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4">
+      <c r="A562" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D562" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5">
+      <c r="A563" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C563" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D563" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="E563" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="A564" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C564" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="D564" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="E564" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F564" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="G564" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="H564" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C565" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4">
+      <c r="A566" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B566" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C558" s="2" t="s">
+      <c r="C566" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D558" s="3" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="559" spans="1:8">
-      <c r="A559" s="1" t="s">
+      <c r="D566" s="3" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8">
+      <c r="A567" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B559" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="C559" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="D559" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="E559" s="3" t="s">
+      <c r="B567" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="D567" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="E567" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F559" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="G559" s="3" t="s">
-        <v>784</v>
-      </c>
-      <c r="H559" s="2" t="s">
+      <c r="F567" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="G567" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="H567" s="2" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="560" spans="1:3">
-      <c r="A560" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B560" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C560" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="561" spans="1:3">
-      <c r="A561" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B561" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C561" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="562" spans="1:3">
-      <c r="A562" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B562" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="C562" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="563" spans="1:3">
-      <c r="A563" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B563" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="C563" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="564" spans="1:3">
-      <c r="A564" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B564" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C564" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="565" spans="1:5">
-      <c r="A565" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B565" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="C565" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D565" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="E565" s="3" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="566" spans="1:8">
-      <c r="A566" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B566" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="C566" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="D566" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="E566" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F566" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="G566" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="H566" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="567" spans="1:3">
-      <c r="A567" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B567" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C567" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -12211,7 +12226,7 @@
         <v>18</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>20</v>
@@ -12222,27 +12237,21 @@
         <v>18</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>55</v>
+        <v>262</v>
       </c>
       <c r="C569" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="570" spans="1:5">
+    <row r="570" spans="1:3">
       <c r="A570" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>123</v>
+        <v>793</v>
       </c>
       <c r="C570" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D570" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="E570" s="3" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="571" spans="1:3">
@@ -12250,7 +12259,7 @@
         <v>18</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>113</v>
+        <v>794</v>
       </c>
       <c r="C571" s="2" t="s">
         <v>20</v>
@@ -12261,32 +12270,53 @@
         <v>18</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>110</v>
+        <v>234</v>
       </c>
       <c r="C572" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="573" spans="1:3">
+    <row r="573" spans="1:5">
       <c r="A573" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>107</v>
+        <v>795</v>
       </c>
       <c r="C573" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="574" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="D573" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="E573" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8">
       <c r="A574" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>639</v>
+        <v>788</v>
       </c>
       <c r="C574" s="2" t="s">
-        <v>20</v>
+        <v>798</v>
+      </c>
+      <c r="D574" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="E574" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F574" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="G574" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="H574" s="2" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="575" spans="1:3">
@@ -12294,7 +12324,7 @@
         <v>18</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>641</v>
+        <v>104</v>
       </c>
       <c r="C575" s="2" t="s">
         <v>20</v>
@@ -12305,50 +12335,38 @@
         <v>18</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>643</v>
+        <v>106</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="577" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
       <c r="A577" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>681</v>
+        <v>55</v>
       </c>
       <c r="C577" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D577" s="3" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="578" spans="1:8">
+    </row>
+    <row r="578" spans="1:5">
       <c r="A578" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>780</v>
+        <v>123</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>794</v>
+        <v>20</v>
       </c>
       <c r="D578" s="3" t="s">
-        <v>795</v>
+        <v>645</v>
       </c>
       <c r="E578" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F578" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="G578" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="H578" s="2" t="s">
-        <v>419</v>
+        <v>646</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -12356,66 +12374,54 @@
         <v>18</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C579" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="580" spans="1:4">
+    <row r="580" spans="1:3">
       <c r="A580" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C580" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D580" s="3" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="581" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
       <c r="A581" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>798</v>
+        <v>107</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D581" s="3" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="582" spans="1:4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
       <c r="A582" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>800</v>
+        <v>647</v>
       </c>
       <c r="C582" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D582" s="3" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="583" spans="1:4">
+    </row>
+    <row r="583" spans="1:3">
       <c r="A583" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B583" s="2" t="s">
-        <v>802</v>
+        <v>649</v>
       </c>
       <c r="C583" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D583" s="3" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="584" spans="1:3">
@@ -12423,75 +12429,75 @@
         <v>18</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>113</v>
+        <v>651</v>
       </c>
       <c r="C584" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="585" spans="1:3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4">
       <c r="A585" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>110</v>
+        <v>689</v>
       </c>
       <c r="C585" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="586" spans="1:3">
+      <c r="D585" s="3" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8">
       <c r="A586" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>107</v>
+        <v>788</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="587" spans="1:8">
+        <v>802</v>
+      </c>
+      <c r="D586" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="E586" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F586" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="G586" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="H586" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
       <c r="A587" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>780</v>
+        <v>106</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="D587" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4">
+      <c r="A588" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D588" s="3" t="s">
         <v>805</v>
-      </c>
-      <c r="E587" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F587" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="G587" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="H587" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="588" spans="1:5">
-      <c r="A588" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B588" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="C588" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D588" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="E588" s="3" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -12499,73 +12505,52 @@
         <v>18</v>
       </c>
       <c r="B589" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C589" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D589" s="3" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4">
+      <c r="A590" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C590" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D590" s="3" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4">
+      <c r="A591" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B591" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="C589" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D589" s="3" t="s">
+      <c r="C591" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D591" s="3" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="590" spans="1:5">
-      <c r="A590" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B590" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="C590" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D590" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="E590" s="3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="591" ht="28.8" spans="1:5">
-      <c r="A591" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B591" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="C591" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D591" s="3" t="s">
-        <v>815</v>
-      </c>
-      <c r="E591" s="3" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="592" spans="1:8">
+    <row r="592" spans="1:3">
       <c r="A592" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>780</v>
+        <v>113</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="D592" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="E592" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F592" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="G592" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="H592" s="2" t="s">
-        <v>168</v>
+        <v>20</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -12573,7 +12558,7 @@
         <v>18</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C593" s="2" t="s">
         <v>20</v>
@@ -12584,76 +12569,127 @@
         <v>18</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C594" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="595" spans="1:3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8">
       <c r="A595" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>107</v>
+        <v>788</v>
       </c>
       <c r="C595" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="596" spans="1:3">
+        <v>812</v>
+      </c>
+      <c r="D595" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="E595" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F595" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="G595" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="H595" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5">
       <c r="A596" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>104</v>
+        <v>815</v>
       </c>
       <c r="C596" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="597" spans="1:3">
+      <c r="D596" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="E596" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4">
       <c r="A597" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>798</v>
+        <v>818</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="598" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="D597" s="3" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5">
       <c r="A598" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>55</v>
+        <v>820</v>
       </c>
       <c r="C598" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="599" spans="1:3">
+      <c r="D598" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="E598" s="3" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="599" ht="28.8" spans="1:5">
       <c r="A599" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>24</v>
+        <v>822</v>
       </c>
       <c r="C599" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="600" spans="1:3">
+      <c r="D599" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="E599" s="3" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8">
       <c r="A600" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>106</v>
+        <v>788</v>
       </c>
       <c r="C600" s="2" t="s">
-        <v>20</v>
+        <v>825</v>
+      </c>
+      <c r="D600" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="E600" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F600" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="G600" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="H600" s="2" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="601" spans="1:3">
@@ -12661,7 +12697,7 @@
         <v>18</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="C601" s="2" t="s">
         <v>20</v>
@@ -12672,10 +12708,10 @@
         <v>18</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>561</v>
+        <v>110</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="603" spans="1:3">
@@ -12683,10 +12719,10 @@
         <v>18</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>820</v>
+        <v>107</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -12694,7 +12730,7 @@
         <v>18</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="C604" s="2" t="s">
         <v>20</v>
@@ -12705,36 +12741,21 @@
         <v>18</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>188</v>
+        <v>806</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="606" spans="1:8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3">
       <c r="A606" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="D606" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="E606" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F606" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G606" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="H606" s="2" t="s">
-        <v>419</v>
+        <v>20</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -12742,10 +12763,10 @@
         <v>18</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>194</v>
+        <v>24</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -12753,10 +12774,10 @@
         <v>18</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>558</v>
+        <v>106</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -12764,7 +12785,7 @@
         <v>18</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="C609" s="2" t="s">
         <v>20</v>
@@ -12775,10 +12796,10 @@
         <v>18</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>110</v>
+        <v>569</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -12786,9 +12807,112 @@
         <v>18</v>
       </c>
       <c r="B611" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C611" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
+      <c r="A612" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C612" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3">
+      <c r="A613" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C613" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8">
+      <c r="A614" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C614" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D614" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="E614" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F614" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G614" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="H614" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3">
+      <c r="A615" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C615" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3">
+      <c r="A616" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C616" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3">
+      <c r="A617" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C617" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3">
+      <c r="A618" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C618" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3">
+      <c r="A619" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B619" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C611" s="2" t="s">
+      <c r="C619" s="2" t="s">
         <v>108</v>
       </c>
     </row>
@@ -12798,135 +12922,153 @@
     <mergeCell ref="K2:N8"/>
   </mergeCells>
   <conditionalFormatting sqref="C208">
-    <cfRule type="expression" dxfId="0" priority="35">
+    <cfRule type="expression" dxfId="0" priority="39">
       <formula>AND($A209="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D208">
-    <cfRule type="expression" dxfId="1" priority="36">
+    <cfRule type="expression" dxfId="1" priority="40">
       <formula>AND($A209="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43:A45">
-    <cfRule type="containsText" dxfId="2" priority="18" operator="between" text="字段">
+    <cfRule type="containsText" dxfId="2" priority="22" operator="between" text="字段">
       <formula>NOT(ISERROR(SEARCH("字段",A43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="19" operator="between" text="类">
+    <cfRule type="containsText" dxfId="3" priority="23" operator="between" text="类">
       <formula>NOT(ISERROR(SEARCH("类",A43)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A376:A381">
-    <cfRule type="containsText" dxfId="2" priority="22" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A376)))</formula>
+  <conditionalFormatting sqref="A341:A343">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="between" text="类">
+      <formula>NOT(ISERROR(SEARCH("类",A341)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="23" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A376)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="between" text="字段">
+      <formula>NOT(ISERROR(SEARCH("字段",A341)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A518:A521">
+  <conditionalFormatting sqref="A384:A389">
+    <cfRule type="containsText" dxfId="2" priority="26" operator="between" text="字段">
+      <formula>NOT(ISERROR(SEARCH("字段",A384)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="27" operator="between" text="类">
+      <formula>NOT(ISERROR(SEARCH("类",A384)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A526:A529">
+    <cfRule type="containsText" dxfId="2" priority="13" operator="between" text="字段">
+      <formula>NOT(ISERROR(SEARCH("字段",A526)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="14" operator="between" text="类">
+      <formula>NOT(ISERROR(SEARCH("类",A526)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A592:A594">
     <cfRule type="containsText" dxfId="2" priority="9" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A518)))</formula>
+      <formula>NOT(ISERROR(SEARCH("字段",A592)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="10" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A518)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A592)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A584:A586">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A584)))</formula>
+  <conditionalFormatting sqref="A601:A603">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="between" text="字段">
+      <formula>NOT(ISERROR(SEARCH("字段",A601)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A584)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A593:A595">
-    <cfRule type="containsText" dxfId="2" priority="2" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A593)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A593)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="7" operator="between" text="类">
+      <formula>NOT(ISERROR(SEARCH("类",A601)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C45">
-    <cfRule type="expression" dxfId="0" priority="17">
+    <cfRule type="expression" dxfId="0" priority="21">
       <formula>AND($A43="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C376:C381">
-    <cfRule type="expression" dxfId="0" priority="21">
-      <formula>AND($A376="类")</formula>
+  <conditionalFormatting sqref="C341:C343">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>AND($A341="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C488:C491">
-    <cfRule type="expression" dxfId="0" priority="15">
-      <formula>AND($A488="类")</formula>
+  <conditionalFormatting sqref="C384:C389">
+    <cfRule type="expression" dxfId="0" priority="25">
+      <formula>AND($A384="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C506:C508">
-    <cfRule type="expression" dxfId="0" priority="13">
-      <formula>AND($A506="类")</formula>
+  <conditionalFormatting sqref="C496:C499">
+    <cfRule type="expression" dxfId="0" priority="19">
+      <formula>AND($A496="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C512:C516">
-    <cfRule type="expression" dxfId="0" priority="12">
-      <formula>AND($A512="类")</formula>
+  <conditionalFormatting sqref="C514:C516">
+    <cfRule type="expression" dxfId="0" priority="17">
+      <formula>AND($A514="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C518:C521">
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>AND($A518="类")</formula>
+  <conditionalFormatting sqref="C520:C524">
+    <cfRule type="expression" dxfId="0" priority="16">
+      <formula>AND($A520="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C584:C586">
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>AND($A584="类")</formula>
+  <conditionalFormatting sqref="C526:C529">
+    <cfRule type="expression" dxfId="0" priority="12">
+      <formula>AND($A526="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C593:C595">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND($A593="类")</formula>
+  <conditionalFormatting sqref="C592:C594">
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>AND($A592="类")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C601:C603">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>AND($A601="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D45">
-    <cfRule type="expression" dxfId="1" priority="16">
+    <cfRule type="expression" dxfId="1" priority="20">
       <formula>AND($A43="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D376:D381">
-    <cfRule type="expression" dxfId="1" priority="20">
-      <formula>AND($A376="类")</formula>
+  <conditionalFormatting sqref="D341:D343">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>AND($A341="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D506:D508">
-    <cfRule type="expression" dxfId="1" priority="14">
-      <formula>AND($A506="类")</formula>
+  <conditionalFormatting sqref="D384:D389">
+    <cfRule type="expression" dxfId="1" priority="24">
+      <formula>AND($A384="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D512:D516">
-    <cfRule type="expression" dxfId="1" priority="11">
-      <formula>AND($A512="类")</formula>
+  <conditionalFormatting sqref="D514:D516">
+    <cfRule type="expression" dxfId="1" priority="18">
+      <formula>AND($A514="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D518:D521">
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>AND($A518="类")</formula>
+  <conditionalFormatting sqref="D520:D524">
+    <cfRule type="expression" dxfId="1" priority="15">
+      <formula>AND($A520="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A42 A46:A375 A382:A517 A522:A583 A587:A592 A596:A1048576">
-    <cfRule type="containsText" dxfId="2" priority="33" operator="between" text="字段">
+  <conditionalFormatting sqref="D526:D529">
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>AND($A526="类")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A42 A46:A340 A344:A383 A604:A1048576 A595:A600 A530:A591 A390:A525">
+    <cfRule type="containsText" dxfId="2" priority="37" operator="between" text="字段">
       <formula>NOT(ISERROR(SEARCH("字段",A1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="34" operator="between" text="类">
+    <cfRule type="containsText" dxfId="3" priority="38" operator="between" text="类">
       <formula>NOT(ISERROR(SEARCH("类",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C42 C46:C207 C210:C375 C382:C487 C492:C505 C509:C511 C517 C522:C583 C587:C592 C596:C1048576">
-    <cfRule type="expression" dxfId="0" priority="28">
+  <conditionalFormatting sqref="C2:C42 C46:C207 C210:C340 C344:C383 C390:C495 C500:C513 C517:C519 C525 C530:C591 C595:C600 C604:C1048576">
+    <cfRule type="expression" dxfId="0" priority="32">
       <formula>AND($A2="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D42 D46:D207 D210:D375 D382:D505 D509:D511 D517 D522:D1048576">
-    <cfRule type="expression" dxfId="1" priority="24">
+  <conditionalFormatting sqref="D2:D42 D46:D207 D210:D340 D344:D383 D390:D513 D517:D519 D525 D530:D1048576">
+    <cfRule type="expression" dxfId="1" priority="28">
       <formula>AND($A2="类")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/model.xlsx
+++ b/model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2697" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="845">
   <si>
     <t>实体登记表</t>
   </si>
@@ -1916,6 +1916,12 @@
     <t>订单KEY</t>
   </si>
   <si>
+    <t>cashOutBatchNo</t>
+  </si>
+  <si>
+    <t>提现的批次号</t>
+  </si>
+  <si>
     <t>OrdersAfterSale</t>
   </si>
   <si>
@@ -2514,6 +2520,39 @@
   </si>
   <si>
     <t>/admin/remindOrders</t>
+  </si>
+  <si>
+    <t>CashOut</t>
+  </si>
+  <si>
+    <t>提现申请</t>
+  </si>
+  <si>
+    <t>/admin/cashOut</t>
+  </si>
+  <si>
+    <t>batchNo</t>
+  </si>
+  <si>
+    <t>批次号</t>
+  </si>
+  <si>
+    <t>记录条数</t>
+  </si>
+  <si>
+    <t>总金额</t>
+  </si>
+  <si>
+    <t>0-待处理；1-已转款</t>
+  </si>
+  <si>
+    <t>payDate</t>
+  </si>
+  <si>
+    <t>转款日期</t>
+  </si>
+  <si>
+    <t>转款时间</t>
   </si>
 </sst>
 </file>
@@ -2521,10 +2560,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2544,14 +2583,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2565,7 +2666,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2573,29 +2681,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2616,51 +2702,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2672,16 +2718,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2696,13 +2735,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2714,7 +2783,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2726,19 +2795,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2756,55 +2819,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2816,19 +2837,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2840,31 +2855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2877,6 +2868,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2908,23 +2947,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2940,6 +2988,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2960,45 +3028,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3010,10 +3049,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3022,133 +3061,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3535,10 +3574,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N619"/>
+  <dimension ref="A1:N635"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="D340" sqref="D340"/>
+    <sheetView tabSelected="1" topLeftCell="A607" workbookViewId="0">
+      <selection activeCell="D635" sqref="D635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -10248,44 +10287,44 @@
         <v>631</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:4">
       <c r="A438" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>11</v>
+        <v>632</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>632</v>
+        <v>20</v>
       </c>
       <c r="D438" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="E438" s="3" t="s">
+    </row>
+    <row r="439" spans="1:8">
+      <c r="A439" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="E439" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F438" s="2" t="s">
+      <c r="F439" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G438" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="H438" s="2" t="s">
+      <c r="G439" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H439" s="2" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4">
-      <c r="A439" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B439" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="C439" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D439" s="3" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -10293,24 +10332,27 @@
         <v>18</v>
       </c>
       <c r="B440" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B441" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C440" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D440" s="3" t="s">
+      <c r="C441" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D441" s="3" t="s">
         <v>505</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3">
-      <c r="A441" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B441" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C441" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="442" spans="1:3">
@@ -10318,92 +10360,92 @@
         <v>18</v>
       </c>
       <c r="B442" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B443" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C442" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4">
-      <c r="A443" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B443" s="2" t="s">
+      <c r="C443" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B444" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C443" s="2" t="s">
+      <c r="C444" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D443" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5">
-      <c r="A444" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B444" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="C444" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D444" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="E444" s="3" t="s">
+    </row>
+    <row r="445" spans="1:5">
+      <c r="A445" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B445" s="2" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="445" spans="1:4">
-      <c r="A445" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B445" s="2" t="s">
+      <c r="C445" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D445" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="C445" s="2" t="s">
+      <c r="E445" s="3" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C446" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D445" s="3" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="446" spans="1:8">
-      <c r="A446" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B446" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C446" s="2" t="s">
-        <v>641</v>
       </c>
       <c r="D446" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="E446" s="3" t="s">
+    </row>
+    <row r="447" spans="1:8">
+      <c r="A447" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="E447" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F446" s="2" t="s">
+      <c r="F447" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G446" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="H446" s="2" t="s">
+      <c r="G447" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="H447" s="2" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3">
-      <c r="A447" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B447" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C447" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="448" spans="1:3">
@@ -10411,24 +10453,21 @@
         <v>18</v>
       </c>
       <c r="B448" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B449" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C448" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4">
-      <c r="A449" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B449" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="C449" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D449" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -10436,43 +10475,43 @@
         <v>18</v>
       </c>
       <c r="B450" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B451" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C450" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D450" s="3" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5">
-      <c r="A451" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B451" s="2" t="s">
+      <c r="C451" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5">
+      <c r="A452" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B452" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C451" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D451" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="E451" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4">
-      <c r="A452" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B452" s="2" t="s">
+      <c r="C452" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D452" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="C452" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D452" s="3" t="s">
+      <c r="E452" s="3" t="s">
         <v>648</v>
       </c>
     </row>
@@ -10498,7 +10537,7 @@
         <v>651</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D454" s="3" t="s">
         <v>652</v>
@@ -10512,7 +10551,7 @@
         <v>653</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="D455" s="3" t="s">
         <v>654</v>
@@ -10540,7 +10579,7 @@
         <v>657</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D457" s="3" t="s">
         <v>658</v>
@@ -10551,38 +10590,35 @@
         <v>18</v>
       </c>
       <c r="B458" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B459" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C458" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D458" s="3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5">
-      <c r="A459" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B459" s="2" t="s">
+      <c r="C459" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5">
+      <c r="A460" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B460" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="C459" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D459" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E459" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4">
-      <c r="A460" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B460" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>20</v>
@@ -10590,78 +10626,81 @@
       <c r="D460" s="3" t="s">
         <v>313</v>
       </c>
+      <c r="E460" s="3" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B461" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B462" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C461" s="2" t="s">
+      <c r="C462" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D461" s="3" t="s">
+      <c r="D462" s="3" t="s">
         <v>344</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5">
-      <c r="A462" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B462" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="C462" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D462" s="3" t="s">
-        <v>661</v>
-      </c>
-      <c r="E462" s="3" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="463" spans="1:5">
       <c r="A463" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D463" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="E463" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5">
+      <c r="A464" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B463" s="2" t="s">
+      <c r="B464" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C463" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="D463" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="E463" s="3" t="s">
+      <c r="C464" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="E464" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="464" spans="1:3">
-      <c r="A464" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B464" s="2" t="s">
+    <row r="465" spans="1:3">
+      <c r="A465" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B465" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C464" s="2" t="s">
+      <c r="C465" s="2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4">
-      <c r="A465" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B465" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="C465" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D465" s="3" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -10678,58 +10717,55 @@
         <v>668</v>
       </c>
     </row>
-    <row r="467" spans="1:3">
+    <row r="467" spans="1:4">
       <c r="A467" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B467" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D467" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B468" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C467" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="468" spans="1:8">
-      <c r="A468" s="1" t="s">
+      <c r="C468" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8">
+      <c r="A469" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B468" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="D468" s="3" t="s">
+      <c r="B469" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="E468" s="3" t="s">
+      <c r="C469" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="E469" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F468" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="G468" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="H468" s="2" t="s">
+      <c r="F469" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="G469" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="H469" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="469" spans="1:7">
-      <c r="A469" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B469" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="C469" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D469" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="G469" s="3" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -10737,13 +10773,13 @@
         <v>18</v>
       </c>
       <c r="B470" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D470" s="3" t="s">
         <v>677</v>
-      </c>
-      <c r="C470" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D470" s="3" t="s">
-        <v>675</v>
       </c>
       <c r="G470" s="3" t="s">
         <v>678</v>
@@ -10754,13 +10790,13 @@
         <v>18</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>134</v>
+        <v>679</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="G471" s="3" t="s">
         <v>680</v>
@@ -10771,48 +10807,51 @@
         <v>18</v>
       </c>
       <c r="B472" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D472" s="3" t="s">
         <v>681</v>
-      </c>
-      <c r="C472" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="G472" s="3" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:7">
       <c r="A473" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G473" s="3" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8">
+      <c r="A474" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B473" s="2" t="s">
+      <c r="B474" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C473" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="D473" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="E473" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H473" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4">
-      <c r="A474" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B474" s="2" t="s">
+      <c r="C474" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="C474" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D474" s="3" t="s">
         <v>686</v>
       </c>
+      <c r="E474" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H474" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="1" t="s">
@@ -10822,7 +10861,7 @@
         <v>687</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D475" s="3" t="s">
         <v>688</v>
@@ -10850,35 +10889,35 @@
         <v>691</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D477" s="3" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="478" ht="28.8" spans="1:4">
+    <row r="478" spans="1:4">
       <c r="A478" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B478" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="479" ht="28.8" spans="1:4">
+      <c r="A479" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B479" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C478" s="2" t="s">
+      <c r="C479" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="D478" s="3" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4">
-      <c r="A479" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B479" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="C479" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D479" s="3" t="s">
         <v>695</v>
@@ -10889,13 +10928,13 @@
         <v>18</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>107</v>
+        <v>696</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -10903,10 +10942,10 @@
         <v>18</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>697</v>
+        <v>107</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="D481" s="3" t="s">
         <v>698</v>
@@ -10940,47 +10979,44 @@
         <v>702</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:4">
       <c r="A484" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>11</v>
+        <v>703</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>703</v>
+        <v>20</v>
       </c>
       <c r="D484" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="E484" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F484" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G484" s="3" t="s">
+    </row>
+    <row r="485" spans="1:8">
+      <c r="A485" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C485" s="2" t="s">
         <v>705</v>
-      </c>
-      <c r="H484" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5">
-      <c r="A485" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B485" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C485" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D485" s="3" t="s">
         <v>706</v>
       </c>
       <c r="E485" s="3" t="s">
-        <v>115</v>
+        <v>14</v>
+      </c>
+      <c r="F485" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G485" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="H485" s="2" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -10988,16 +11024,16 @@
         <v>18</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E486" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -11005,60 +11041,63 @@
         <v>18</v>
       </c>
       <c r="B487" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="E487" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5">
+      <c r="A488" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B488" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C487" s="2" t="s">
+      <c r="C488" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D487" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="E487" s="3" t="s">
+      <c r="D488" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="E488" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
-      <c r="A488" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B488" s="2" t="s">
+    <row r="489" spans="1:4">
+      <c r="A489" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B489" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C488" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D488" s="3" t="s">
+      <c r="C489" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D489" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="489" ht="28.8" spans="1:5">
-      <c r="A489" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B489" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="C489" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D489" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="E489" s="3" t="s">
+    <row r="490" ht="28.8" spans="1:5">
+      <c r="A490" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B490" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="490" spans="1:4">
-      <c r="A490" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B490" s="2" t="s">
+      <c r="C490" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D490" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="C490" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D490" s="3" t="s">
+      <c r="E490" s="3" t="s">
         <v>712</v>
       </c>
     </row>
@@ -11067,13 +11106,13 @@
         <v>18</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>104</v>
+        <v>713</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -11081,13 +11120,13 @@
         <v>18</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -11095,73 +11134,70 @@
         <v>18</v>
       </c>
       <c r="B493" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D493" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B494" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C493" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D493" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="494" spans="1:5">
-      <c r="A494" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B494" s="2" t="s">
-        <v>694</v>
-      </c>
       <c r="C494" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D494" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="E494" s="3" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:5">
       <c r="A495" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C495" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D495" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="E495" s="3" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8">
+      <c r="A496" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B495" s="2" t="s">
+      <c r="B496" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C495" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="D495" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="E495" s="3" t="s">
+      <c r="C496" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="D496" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="E496" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F495" s="2" t="s">
+      <c r="F496" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G495" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="H495" s="2" t="s">
+      <c r="G496" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="H496" s="2" t="s">
         <v>565</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5">
-      <c r="A496" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B496" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C496" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D496" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="E496" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -11169,16 +11205,16 @@
         <v>18</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E497" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -11186,16 +11222,16 @@
         <v>18</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="E498" s="3" t="s">
-        <v>395</v>
+        <v>112</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -11203,29 +11239,32 @@
         <v>18</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>721</v>
+        <v>107</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="E499" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5">
+      <c r="A500" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B500" s="2" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="500" spans="1:4">
-      <c r="A500" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B500" s="2" t="s">
+      <c r="C500" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D500" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="C500" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D500" s="3" t="s">
+      <c r="E500" s="3" t="s">
         <v>725</v>
       </c>
     </row>
@@ -11237,7 +11276,7 @@
         <v>726</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D501" s="3" t="s">
         <v>727</v>
@@ -11248,24 +11287,27 @@
         <v>18</v>
       </c>
       <c r="B502" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B503" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C502" s="2" t="s">
+      <c r="C503" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D502" s="3" t="s">
+      <c r="D503" s="3" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="503" spans="1:3">
-      <c r="A503" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B503" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="C503" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="504" spans="1:3">
@@ -11273,7 +11315,7 @@
         <v>18</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>567</v>
+        <v>627</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>20</v>
@@ -11284,49 +11326,43 @@
         <v>18</v>
       </c>
       <c r="B505" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B506" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="C505" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4">
-      <c r="A506" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B506" s="2" t="s">
+      <c r="C506" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B507" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C506" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D506" s="3" t="s">
+      <c r="C507" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D507" s="3" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="507" spans="1:5">
-      <c r="A507" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B507" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="C507" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D507" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="E507" s="3" t="s">
+    <row r="508" spans="1:5">
+      <c r="A508" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B508" s="2" t="s">
         <v>730</v>
-      </c>
-    </row>
-    <row r="508" spans="1:4">
-      <c r="A508" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B508" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>20</v>
@@ -11334,19 +11370,22 @@
       <c r="D508" s="3" t="s">
         <v>731</v>
       </c>
+      <c r="E508" s="3" t="s">
+        <v>732</v>
+      </c>
     </row>
     <row r="509" spans="1:4">
       <c r="A509" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>510</v>
+        <v>134</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D509" s="3" t="s">
-        <v>32</v>
+        <v>733</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -11354,13 +11393,13 @@
         <v>18</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>732</v>
+        <v>510</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D510" s="3" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="511" spans="1:4">
@@ -11368,73 +11407,70 @@
         <v>18</v>
       </c>
       <c r="B511" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B512" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C511" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D511" s="3" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="512" spans="1:5">
-      <c r="A512" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B512" s="2" t="s">
+      <c r="C512" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D512" s="3" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5">
+      <c r="A513" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B513" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C512" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D512" s="3" t="s">
+      <c r="C513" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D513" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E512" s="3" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="513" spans="1:8">
-      <c r="A513" s="1" t="s">
+      <c r="E513" s="3" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8">
+      <c r="A514" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B513" s="2" t="s">
+      <c r="B514" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C513" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="D513" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="E513" s="3" t="s">
+      <c r="C514" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="E514" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F513" s="2" t="s">
+      <c r="F514" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G513" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="H513" s="2" t="s">
+      <c r="G514" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="H514" s="2" t="s">
         <v>565</v>
-      </c>
-    </row>
-    <row r="514" spans="1:5">
-      <c r="A514" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B514" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C514" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D514" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="E514" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -11442,16 +11478,16 @@
         <v>18</v>
       </c>
       <c r="B515" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C515" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D515" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E515" s="3" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -11459,61 +11495,64 @@
         <v>18</v>
       </c>
       <c r="B516" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="E516" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5">
+      <c r="A517" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B517" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C516" s="2" t="s">
+      <c r="C517" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D516" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="E516" s="3" t="s">
+      <c r="D517" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="E517" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
-      <c r="A517" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B517" s="2" t="s">
+    <row r="518" spans="1:4">
+      <c r="A518" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B518" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C517" s="2" t="s">
+      <c r="C518" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D517" s="3" t="s">
+      <c r="D518" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="518" spans="1:5">
-      <c r="A518" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B518" s="2" t="s">
+    <row r="519" spans="1:5">
+      <c r="A519" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B519" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C518" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D518" s="3" t="s">
+      <c r="C519" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D519" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E518" s="3" t="s">
+      <c r="E519" s="3" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="519" spans="1:4">
-      <c r="A519" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B519" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="C519" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D519" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -11521,24 +11560,27 @@
         <v>18</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>96</v>
+        <v>734</v>
       </c>
       <c r="C520" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D520" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D521" s="3" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="521" spans="1:3">
-      <c r="A521" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B521" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="C521" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="522" spans="1:3">
@@ -11546,7 +11588,7 @@
         <v>18</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>567</v>
+        <v>627</v>
       </c>
       <c r="C522" s="2" t="s">
         <v>20</v>
@@ -11557,66 +11599,66 @@
         <v>18</v>
       </c>
       <c r="B523" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B524" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="C523" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="524" spans="1:4">
-      <c r="A524" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B524" s="2" t="s">
+      <c r="C524" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B525" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C524" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D524" s="3" t="s">
+      <c r="C525" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D525" s="3" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="525" spans="1:5">
-      <c r="A525" s="1" t="s">
+    <row r="526" spans="1:5">
+      <c r="A526" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B525" s="2" t="s">
+      <c r="B526" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C525" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="D525" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="E525" s="3" t="s">
+      <c r="C526" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="E526" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
-      <c r="A526" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B526" s="2" t="s">
+    <row r="527" spans="1:4">
+      <c r="A527" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B527" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C526" s="2" t="s">
+      <c r="C527" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D526" s="3" t="s">
+      <c r="D527" s="3" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="527" spans="1:3">
-      <c r="A527" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B527" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="C527" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="528" spans="1:3">
@@ -11624,7 +11666,7 @@
         <v>18</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>567</v>
+        <v>627</v>
       </c>
       <c r="C528" s="2" t="s">
         <v>20</v>
@@ -11635,84 +11677,78 @@
         <v>18</v>
       </c>
       <c r="B529" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B530" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="C529" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="530" spans="1:5">
-      <c r="A530" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B530" s="2" t="s">
-        <v>689</v>
-      </c>
       <c r="C530" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D530" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="E530" s="3" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="531" spans="1:8">
+    </row>
+    <row r="531" spans="1:5">
       <c r="A531" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="E531" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8">
+      <c r="A532" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B531" s="2" t="s">
+      <c r="B532" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C531" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="D531" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="E531" s="3" t="s">
+      <c r="C532" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="E532" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F531" s="2" t="s">
+      <c r="F532" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G531" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="H531" s="2" t="s">
+      <c r="G532" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="H532" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
-      <c r="A532" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B532" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="C532" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D532" s="3" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:4">
       <c r="A533" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>119</v>
+        <v>747</v>
       </c>
       <c r="C533" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D533" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E533" s="3" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -11720,16 +11756,16 @@
         <v>18</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="C534" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D534" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E534" s="3" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -11737,24 +11773,24 @@
         <v>18</v>
       </c>
       <c r="B535" s="2" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D535" s="3" t="s">
-        <v>749</v>
+        <v>156</v>
       </c>
       <c r="E535" s="3" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="536" ht="28.8" spans="1:5">
+    <row r="536" spans="1:5">
       <c r="A536" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B536" s="2" t="s">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="C536" s="2" t="s">
         <v>25</v>
@@ -11766,41 +11802,47 @@
         <v>752</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" ht="28.8" spans="1:5">
       <c r="A537" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="E537" s="3" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8">
+      <c r="A538" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B537" s="2" t="s">
+      <c r="B538" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C537" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="D537" s="3" t="s">
-        <v>754</v>
-      </c>
-      <c r="E537" s="3" t="s">
+      <c r="C538" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="E538" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F537" s="2" t="s">
+      <c r="F538" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G537" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="H537" s="2" t="s">
+      <c r="G538" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="H538" s="2" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="538" spans="1:3">
-      <c r="A538" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B538" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C538" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="539" spans="1:3">
@@ -11808,10 +11850,10 @@
         <v>18</v>
       </c>
       <c r="B539" s="2" t="s">
-        <v>567</v>
+        <v>96</v>
       </c>
       <c r="C539" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="540" spans="1:3">
@@ -11819,7 +11861,7 @@
         <v>18</v>
       </c>
       <c r="B540" s="2" t="s">
-        <v>627</v>
+        <v>567</v>
       </c>
       <c r="C540" s="2" t="s">
         <v>20</v>
@@ -11830,10 +11872,10 @@
         <v>18</v>
       </c>
       <c r="B541" s="2" t="s">
-        <v>756</v>
+        <v>627</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="542" spans="1:3">
@@ -11841,10 +11883,10 @@
         <v>18</v>
       </c>
       <c r="B542" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="543" spans="1:3">
@@ -11852,67 +11894,64 @@
         <v>18</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" spans="1:3">
       <c r="A544" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B544" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5">
+      <c r="A545" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B545" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C544" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D544" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="E544" s="3" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="545" spans="1:8">
-      <c r="A545" s="1" t="s">
+      <c r="C545" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="E545" s="3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8">
+      <c r="A546" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B545" s="2" t="s">
+      <c r="B546" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C545" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="D545" s="3" t="s">
-        <v>762</v>
-      </c>
-      <c r="E545" s="3" t="s">
+      <c r="C546" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="E546" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F545" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="G545" s="3" t="s">
-        <v>764</v>
-      </c>
-      <c r="H545" s="2" t="s">
+      <c r="F546" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="G546" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="H546" s="2" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="546" spans="1:4">
-      <c r="A546" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B546" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C546" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D546" s="3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="547" spans="1:4">
@@ -11920,13 +11959,13 @@
         <v>18</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>256</v>
+        <v>134</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D547" s="3" t="s">
-        <v>765</v>
+        <v>276</v>
       </c>
     </row>
     <row r="548" spans="1:4">
@@ -11934,7 +11973,7 @@
         <v>18</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>766</v>
+        <v>256</v>
       </c>
       <c r="C548" s="2" t="s">
         <v>20</v>
@@ -11948,41 +11987,44 @@
         <v>18</v>
       </c>
       <c r="B549" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4">
+      <c r="A550" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B550" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C549" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D549" s="3" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="550" spans="1:5">
-      <c r="A550" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B550" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C550" s="2" t="s">
-        <v>769</v>
+        <v>20</v>
       </c>
       <c r="D550" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="E550" s="3" t="s">
+    </row>
+    <row r="551" spans="1:5">
+      <c r="A551" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="E551" s="3" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="551" spans="1:3">
-      <c r="A551" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B551" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="C551" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="552" spans="1:3">
@@ -11990,10 +12032,10 @@
         <v>18</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>194</v>
+        <v>566</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="553" spans="1:3">
@@ -12001,10 +12043,10 @@
         <v>18</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -12012,10 +12054,10 @@
         <v>18</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>567</v>
+        <v>96</v>
       </c>
       <c r="C554" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="555" spans="1:3">
@@ -12023,24 +12065,21 @@
         <v>18</v>
       </c>
       <c r="B555" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B556" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C555" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="556" spans="1:4">
-      <c r="A556" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B556" s="2" t="s">
-        <v>552</v>
-      </c>
       <c r="C556" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D556" s="3" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -12048,7 +12087,7 @@
         <v>18</v>
       </c>
       <c r="B557" s="2" t="s">
-        <v>772</v>
+        <v>552</v>
       </c>
       <c r="C557" s="2" t="s">
         <v>20</v>
@@ -12065,7 +12104,7 @@
         <v>774</v>
       </c>
       <c r="C558" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D558" s="3" t="s">
         <v>775</v>
@@ -12079,7 +12118,7 @@
         <v>776</v>
       </c>
       <c r="C559" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D559" s="3" t="s">
         <v>777</v>
@@ -12093,143 +12132,146 @@
         <v>778</v>
       </c>
       <c r="C560" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D560" s="3" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="561" ht="43.2" spans="1:4">
+    <row r="561" spans="1:4">
       <c r="A561" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B561" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D561" s="3" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="562" ht="43.2" spans="1:4">
+      <c r="A562" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B562" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C561" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D561" s="3" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="562" spans="1:4">
-      <c r="A562" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B562" s="2" t="s">
+      <c r="C562" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D562" s="3" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4">
+      <c r="A563" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B563" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C562" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D562" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="563" spans="1:5">
-      <c r="A563" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B563" s="2" t="s">
+      <c r="C563" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D563" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5">
+      <c r="A564" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B564" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C563" s="2" t="s">
+      <c r="C564" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D563" s="3" t="s">
-        <v>782</v>
-      </c>
-      <c r="E563" s="3" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="564" spans="1:8">
-      <c r="A564" s="1" t="s">
+      <c r="D564" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="E564" s="3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="A565" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B564" s="2" t="s">
+      <c r="B565" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C564" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="D564" s="3" t="s">
-        <v>785</v>
-      </c>
-      <c r="E564" s="3" t="s">
+      <c r="C565" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="D565" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="E565" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F564" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="G564" s="3" t="s">
-        <v>786</v>
-      </c>
-      <c r="H564" s="2" t="s">
+      <c r="F565" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="G565" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="H565" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="565" spans="1:3">
-      <c r="A565" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B565" s="2" t="s">
+    <row r="566" spans="1:3">
+      <c r="A566" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B566" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C565" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="566" spans="1:4">
-      <c r="A566" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B566" s="2" t="s">
+      <c r="C566" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4">
+      <c r="A567" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B567" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C566" s="2" t="s">
+      <c r="C567" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D566" s="3" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="567" spans="1:8">
-      <c r="A567" s="1" t="s">
+      <c r="D567" s="3" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8">
+      <c r="A568" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B567" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="C567" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="D567" s="3" t="s">
+      <c r="B568" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="E567" s="3" t="s">
+      <c r="C568" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="D568" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="E568" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F567" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="G567" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="H567" s="2" t="s">
+      <c r="F568" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="G568" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="H568" s="2" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="568" spans="1:3">
-      <c r="A568" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B568" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C568" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="569" spans="1:3">
@@ -12237,7 +12279,7 @@
         <v>18</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>262</v>
+        <v>134</v>
       </c>
       <c r="C569" s="2" t="s">
         <v>20</v>
@@ -12248,7 +12290,7 @@
         <v>18</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>793</v>
+        <v>262</v>
       </c>
       <c r="C570" s="2" t="s">
         <v>20</v>
@@ -12259,7 +12301,7 @@
         <v>18</v>
       </c>
       <c r="B571" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C571" s="2" t="s">
         <v>20</v>
@@ -12270,64 +12312,64 @@
         <v>18</v>
       </c>
       <c r="B572" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C572" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B573" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C572" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="573" spans="1:5">
-      <c r="A573" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B573" s="2" t="s">
-        <v>795</v>
-      </c>
       <c r="C573" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D573" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="E573" s="3" t="s">
+    </row>
+    <row r="574" spans="1:5">
+      <c r="A574" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B574" s="2" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="574" spans="1:8">
-      <c r="A574" s="1" t="s">
+      <c r="C574" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D574" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="E574" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8">
+      <c r="A575" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B574" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="C574" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="D574" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="E574" s="3" t="s">
+      <c r="B575" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C575" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D575" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="E575" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F574" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="G574" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="H574" s="2" t="s">
+      <c r="F575" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="G575" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="H575" s="2" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="575" spans="1:3">
-      <c r="A575" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B575" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C575" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="576" spans="1:3">
@@ -12335,7 +12377,7 @@
         <v>18</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C576" s="2" t="s">
         <v>20</v>
@@ -12346,38 +12388,38 @@
         <v>18</v>
       </c>
       <c r="B577" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C577" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B578" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C577" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="578" spans="1:5">
-      <c r="A578" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B578" s="2" t="s">
+      <c r="C578" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5">
+      <c r="A579" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B579" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C578" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D578" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="E578" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="579" spans="1:3">
-      <c r="A579" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B579" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C579" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="D579" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="E579" s="3" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="580" spans="1:3">
@@ -12385,7 +12427,7 @@
         <v>18</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C580" s="2" t="s">
         <v>20</v>
@@ -12396,10 +12438,10 @@
         <v>18</v>
       </c>
       <c r="B581" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C581" s="2" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
     </row>
     <row r="582" spans="1:3">
@@ -12407,10 +12449,10 @@
         <v>18</v>
       </c>
       <c r="B582" s="2" t="s">
-        <v>647</v>
+        <v>107</v>
       </c>
       <c r="C582" s="2" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="583" spans="1:3">
@@ -12432,72 +12474,69 @@
         <v>651</v>
       </c>
       <c r="C584" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C585" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="585" spans="1:4">
-      <c r="A585" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B585" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="C585" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D585" s="3" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:4">
       <c r="A586" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>788</v>
+        <v>691</v>
       </c>
       <c r="C586" s="2" t="s">
-        <v>802</v>
+        <v>20</v>
       </c>
       <c r="D586" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="E586" s="3" t="s">
+    </row>
+    <row r="587" spans="1:8">
+      <c r="A587" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C587" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="D587" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="E587" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F586" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="G586" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="H586" s="2" t="s">
+      <c r="F587" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="G587" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="H587" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="587" spans="1:3">
-      <c r="A587" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B587" s="2" t="s">
+    <row r="588" spans="1:3">
+      <c r="A588" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B588" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C587" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="588" spans="1:4">
-      <c r="A588" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B588" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="C588" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D588" s="3" t="s">
-        <v>805</v>
+        <v>20</v>
       </c>
     </row>
     <row r="589" spans="1:4">
@@ -12505,7 +12544,7 @@
         <v>18</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>806</v>
+        <v>96</v>
       </c>
       <c r="C589" s="2" t="s">
         <v>29</v>
@@ -12522,7 +12561,7 @@
         <v>808</v>
       </c>
       <c r="C590" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D590" s="3" t="s">
         <v>809</v>
@@ -12542,15 +12581,18 @@
         <v>811</v>
       </c>
     </row>
-    <row r="592" spans="1:3">
+    <row r="592" spans="1:4">
       <c r="A592" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>113</v>
+        <v>812</v>
       </c>
       <c r="C592" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="D592" s="3" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -12558,7 +12600,7 @@
         <v>18</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C593" s="2" t="s">
         <v>20</v>
@@ -12569,70 +12611,67 @@
         <v>18</v>
       </c>
       <c r="B594" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C594" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B595" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C594" s="2" t="s">
+      <c r="C595" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="595" spans="1:8">
-      <c r="A595" s="1" t="s">
+    <row r="596" spans="1:8">
+      <c r="A596" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B595" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="C595" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D595" s="3" t="s">
-        <v>813</v>
-      </c>
-      <c r="E595" s="3" t="s">
+      <c r="B596" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D596" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="E596" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F595" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="G595" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="H595" s="2" t="s">
+      <c r="F596" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="G596" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="H596" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="596" spans="1:5">
-      <c r="A596" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B596" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="C596" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D596" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="E596" s="3" t="s">
+    <row r="597" spans="1:5">
+      <c r="A597" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B597" s="2" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="597" spans="1:4">
-      <c r="A597" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B597" s="2" t="s">
+      <c r="C597" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D597" s="3" t="s">
         <v>818</v>
       </c>
-      <c r="C597" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D597" s="3" t="s">
+      <c r="E597" s="3" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="598" spans="1:5">
+    <row r="598" spans="1:4">
       <c r="A598" s="1" t="s">
         <v>18</v>
       </c>
@@ -12643,13 +12682,10 @@
         <v>20</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="E598" s="3" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="599" ht="28.8" spans="1:5">
+    <row r="599" spans="1:5">
       <c r="A599" s="1" t="s">
         <v>18</v>
       </c>
@@ -12657,50 +12693,56 @@
         <v>822</v>
       </c>
       <c r="C599" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D599" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="E599" s="3" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="600" ht="28.8" spans="1:5">
+      <c r="A600" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C600" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D599" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="E599" s="3" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="600" spans="1:8">
-      <c r="A600" s="1" t="s">
+      <c r="D600" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="E600" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8">
+      <c r="A601" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B600" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="C600" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="D600" s="3" t="s">
-        <v>826</v>
-      </c>
-      <c r="E600" s="3" t="s">
+      <c r="B601" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C601" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="D601" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="E601" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F600" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="G600" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="H600" s="2" t="s">
+      <c r="F601" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="G601" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="H601" s="2" t="s">
         <v>168</v>
-      </c>
-    </row>
-    <row r="601" spans="1:3">
-      <c r="A601" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B601" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C601" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="602" spans="1:3">
@@ -12708,7 +12750,7 @@
         <v>18</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C602" s="2" t="s">
         <v>20</v>
@@ -12719,10 +12761,10 @@
         <v>18</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -12730,10 +12772,10 @@
         <v>18</v>
       </c>
       <c r="B604" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C604" s="2" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
     </row>
     <row r="605" spans="1:3">
@@ -12741,10 +12783,10 @@
         <v>18</v>
       </c>
       <c r="B605" s="2" t="s">
-        <v>806</v>
+        <v>104</v>
       </c>
       <c r="C605" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="606" spans="1:3">
@@ -12752,10 +12794,10 @@
         <v>18</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>55</v>
+        <v>808</v>
       </c>
       <c r="C606" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="607" spans="1:3">
@@ -12763,10 +12805,10 @@
         <v>18</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C607" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="608" spans="1:3">
@@ -12774,10 +12816,10 @@
         <v>18</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -12785,7 +12827,7 @@
         <v>18</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="C609" s="2" t="s">
         <v>20</v>
@@ -12796,10 +12838,10 @@
         <v>18</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>569</v>
+        <v>36</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="611" spans="1:3">
@@ -12807,10 +12849,10 @@
         <v>18</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>828</v>
+        <v>569</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -12818,7 +12860,7 @@
         <v>18</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>186</v>
+        <v>830</v>
       </c>
       <c r="C612" s="2" t="s">
         <v>20</v>
@@ -12829,47 +12871,47 @@
         <v>18</v>
       </c>
       <c r="B613" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C613" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="A614" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B614" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C613" s="2" t="s">
+      <c r="C614" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="614" spans="1:8">
-      <c r="A614" s="1" t="s">
+    <row r="615" spans="1:8">
+      <c r="A615" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B614" s="2" t="s">
+      <c r="B615" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C614" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="D614" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="E614" s="3" t="s">
+      <c r="C615" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="D615" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="E615" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F614" s="2" t="s">
+      <c r="F615" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G614" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="H614" s="2" t="s">
+      <c r="G615" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="H615" s="2" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="615" spans="1:3">
-      <c r="A615" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B615" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C615" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="616" spans="1:3">
@@ -12877,10 +12919,10 @@
         <v>18</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>566</v>
+        <v>194</v>
       </c>
       <c r="C616" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="617" spans="1:3">
@@ -12888,10 +12930,10 @@
         <v>18</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>113</v>
+        <v>566</v>
       </c>
       <c r="C617" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -12899,7 +12941,7 @@
         <v>18</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C618" s="2" t="s">
         <v>20</v>
@@ -12910,10 +12952,225 @@
         <v>18</v>
       </c>
       <c r="B619" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C619" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3">
+      <c r="A620" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B620" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C619" s="2" t="s">
+      <c r="C620" s="2" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8">
+      <c r="A621" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C621" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="D621" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="E621" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F621" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G621" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="H621" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="A622" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C622" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3">
+      <c r="A623" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C623" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3">
+      <c r="A624" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C624" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3">
+      <c r="A625" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C625" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="A626" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C626" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3">
+      <c r="A627" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C627" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="A628" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C628" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4">
+      <c r="A629" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C629" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D629" s="3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4">
+      <c r="A630" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C630" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D630" s="3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4">
+      <c r="A631" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C631" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D631" s="3" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5">
+      <c r="A632" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C632" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D632" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E632" s="3" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4">
+      <c r="A633" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C633" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D633" s="3" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4">
+      <c r="A634" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C634" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D634" s="3" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4">
+      <c r="A635" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C635" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D635" s="3" t="s">
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -12955,28 +13212,28 @@
       <formula>NOT(ISERROR(SEARCH("类",A384)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A526:A529">
+  <conditionalFormatting sqref="A527:A530">
     <cfRule type="containsText" dxfId="2" priority="13" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A526)))</formula>
+      <formula>NOT(ISERROR(SEARCH("字段",A527)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="14" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A526)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A527)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A592:A594">
+  <conditionalFormatting sqref="A593:A595">
     <cfRule type="containsText" dxfId="2" priority="9" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A592)))</formula>
+      <formula>NOT(ISERROR(SEARCH("字段",A593)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="10" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A592)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A593)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A601:A603">
+  <conditionalFormatting sqref="A602:A604">
     <cfRule type="containsText" dxfId="2" priority="6" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A601)))</formula>
+      <formula>NOT(ISERROR(SEARCH("字段",A602)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="7" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A601)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A602)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C45">
@@ -12994,34 +13251,34 @@
       <formula>AND($A384="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C496:C499">
+  <conditionalFormatting sqref="C497:C500">
     <cfRule type="expression" dxfId="0" priority="19">
-      <formula>AND($A496="类")</formula>
+      <formula>AND($A497="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C514:C516">
+  <conditionalFormatting sqref="C515:C517">
     <cfRule type="expression" dxfId="0" priority="17">
-      <formula>AND($A514="类")</formula>
+      <formula>AND($A515="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C520:C524">
+  <conditionalFormatting sqref="C521:C525">
     <cfRule type="expression" dxfId="0" priority="16">
-      <formula>AND($A520="类")</formula>
+      <formula>AND($A521="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C526:C529">
+  <conditionalFormatting sqref="C527:C530">
     <cfRule type="expression" dxfId="0" priority="12">
-      <formula>AND($A526="类")</formula>
+      <formula>AND($A527="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C592:C594">
+  <conditionalFormatting sqref="C593:C595">
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>AND($A592="类")</formula>
+      <formula>AND($A593="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C601:C603">
+  <conditionalFormatting sqref="C602:C604">
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>AND($A601="类")</formula>
+      <formula>AND($A602="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D45">
@@ -13039,22 +13296,22 @@
       <formula>AND($A384="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D514:D516">
+  <conditionalFormatting sqref="D515:D517">
     <cfRule type="expression" dxfId="1" priority="18">
-      <formula>AND($A514="类")</formula>
+      <formula>AND($A515="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D520:D524">
+  <conditionalFormatting sqref="D521:D525">
     <cfRule type="expression" dxfId="1" priority="15">
-      <formula>AND($A520="类")</formula>
+      <formula>AND($A521="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D526:D529">
+  <conditionalFormatting sqref="D527:D530">
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>AND($A526="类")</formula>
+      <formula>AND($A527="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A42 A46:A340 A344:A383 A604:A1048576 A595:A600 A530:A591 A390:A525">
+  <conditionalFormatting sqref="A1:A42 A46:A340 A344:A383 A390:A526 A605:A1048576 A531:A592 A596:A601">
     <cfRule type="containsText" dxfId="2" priority="37" operator="between" text="字段">
       <formula>NOT(ISERROR(SEARCH("字段",A1)))</formula>
     </cfRule>
@@ -13062,12 +13319,12 @@
       <formula>NOT(ISERROR(SEARCH("类",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C42 C46:C207 C210:C340 C344:C383 C390:C495 C500:C513 C517:C519 C525 C530:C591 C595:C600 C604:C1048576">
+  <conditionalFormatting sqref="C2:C42 C46:C207 C210:C340 C344:C383 C390:C496 C501:C514 C518:C520 C526 C531:C592 C596:C601 C605:C1048576">
     <cfRule type="expression" dxfId="0" priority="32">
       <formula>AND($A2="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D42 D46:D207 D210:D340 D344:D383 D390:D513 D517:D519 D525 D530:D1048576">
+  <conditionalFormatting sqref="D2:D42 D46:D207 D210:D340 D344:D383 D390:D514 D518:D520 D526 D531:D1048576">
     <cfRule type="expression" dxfId="1" priority="28">
       <formula>AND($A2="类")</formula>
     </cfRule>

--- a/model.xlsx
+++ b/model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="847">
   <si>
     <t>实体登记表</t>
   </si>
@@ -2429,7 +2429,13 @@
     <t>/admin/wxAccount</t>
   </si>
   <si>
+    <t>type="0"</t>
+  </si>
+  <si>
     <t>用户类型</t>
+  </si>
+  <si>
+    <t>0-顾客；1-代理；5-公司员工；10-管理员</t>
   </si>
   <si>
     <t>WxMini</t>
@@ -2560,10 +2566,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2583,6 +2589,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2598,55 +2626,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2659,21 +2642,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2681,22 +2673,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2719,8 +2696,37 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2735,13 +2741,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2753,25 +2759,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2783,31 +2777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2819,31 +2789,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2861,7 +2807,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2873,25 +2867,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2903,19 +2903,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2944,11 +2950,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2977,17 +3013,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3011,36 +3047,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3049,10 +3055,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3061,133 +3067,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3576,8 +3582,8 @@
   <sheetPr/>
   <dimension ref="A1:N635"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A607" workbookViewId="0">
-      <selection activeCell="D635" sqref="D635"/>
+    <sheetView tabSelected="1" topLeftCell="A571" workbookViewId="0">
+      <selection activeCell="E586" sqref="E586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -12488,18 +12494,21 @@
         <v>108</v>
       </c>
     </row>
-    <row r="586" spans="1:4">
+    <row r="586" spans="1:5">
       <c r="A586" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>691</v>
+        <v>803</v>
       </c>
       <c r="C586" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D586" s="3" t="s">
-        <v>803</v>
+        <v>804</v>
+      </c>
+      <c r="E586" s="3" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -12510,10 +12519,10 @@
         <v>790</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="D587" s="3" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="E587" s="3" t="s">
         <v>14</v>
@@ -12522,7 +12531,7 @@
         <v>793</v>
       </c>
       <c r="G587" s="3" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="H587" s="2" t="s">
         <v>419</v>
@@ -12550,7 +12559,7 @@
         <v>29</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -12558,13 +12567,13 @@
         <v>18</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C590" s="2" t="s">
         <v>29</v>
       </c>
       <c r="D590" s="3" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -12572,13 +12581,13 @@
         <v>18</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C591" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -12586,13 +12595,13 @@
         <v>18</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C592" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="593" spans="1:3">
@@ -12636,10 +12645,10 @@
         <v>790</v>
       </c>
       <c r="C596" s="2" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D596" s="3" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="E596" s="3" t="s">
         <v>14</v>
@@ -12648,7 +12657,7 @@
         <v>793</v>
       </c>
       <c r="G596" s="3" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="H596" s="2" t="s">
         <v>17</v>
@@ -12659,16 +12668,16 @@
         <v>18</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C597" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D597" s="3" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="E597" s="3" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="598" spans="1:4">
@@ -12676,13 +12685,13 @@
         <v>18</v>
       </c>
       <c r="B598" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C598" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D598" s="3" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
     </row>
     <row r="599" spans="1:5">
@@ -12690,7 +12699,7 @@
         <v>18</v>
       </c>
       <c r="B599" s="2" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="C599" s="2" t="s">
         <v>20</v>
@@ -12699,7 +12708,7 @@
         <v>748</v>
       </c>
       <c r="E599" s="3" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="600" ht="28.8" spans="1:5">
@@ -12707,16 +12716,16 @@
         <v>18</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="C600" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D600" s="3" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="E600" s="3" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -12727,10 +12736,10 @@
         <v>790</v>
       </c>
       <c r="C601" s="2" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D601" s="3" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E601" s="3" t="s">
         <v>14</v>
@@ -12739,7 +12748,7 @@
         <v>793</v>
       </c>
       <c r="G601" s="3" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="H601" s="2" t="s">
         <v>168</v>
@@ -12794,7 +12803,7 @@
         <v>18</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C606" s="2" t="s">
         <v>29</v>
@@ -12860,7 +12869,7 @@
         <v>18</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="C612" s="2" t="s">
         <v>20</v>
@@ -12896,10 +12905,10 @@
         <v>11</v>
       </c>
       <c r="C615" s="2" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="D615" s="3" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="E615" s="3" t="s">
         <v>14</v>
@@ -12908,7 +12917,7 @@
         <v>289</v>
       </c>
       <c r="G615" s="3" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="H615" s="2" t="s">
         <v>419</v>
@@ -12977,10 +12986,10 @@
         <v>11</v>
       </c>
       <c r="C621" s="2" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="D621" s="3" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="E621" s="3" t="s">
         <v>14</v>
@@ -12989,7 +12998,7 @@
         <v>619</v>
       </c>
       <c r="G621" s="3" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="H621" s="2" t="s">
         <v>419</v>
@@ -13077,13 +13086,13 @@
         <v>18</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C629" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D629" s="3" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
     </row>
     <row r="630" spans="1:4">
@@ -13097,7 +13106,7 @@
         <v>29</v>
       </c>
       <c r="D630" s="3" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
     </row>
     <row r="631" spans="1:4">
@@ -13111,7 +13120,7 @@
         <v>65</v>
       </c>
       <c r="D631" s="3" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
     <row r="632" spans="1:5">
@@ -13128,7 +13137,7 @@
         <v>294</v>
       </c>
       <c r="E632" s="3" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="633" spans="1:4">
@@ -13136,13 +13145,13 @@
         <v>18</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="C633" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D633" s="3" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="634" spans="1:4">
@@ -13156,7 +13165,7 @@
         <v>20</v>
       </c>
       <c r="D634" s="3" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
     <row r="635" spans="1:4">
@@ -13170,7 +13179,7 @@
         <v>108</v>
       </c>
       <c r="D635" s="3" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
     </row>
   </sheetData>

--- a/model.xlsx
+++ b/model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2768" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2841" uniqueCount="863">
   <si>
     <t>实体登记表</t>
   </si>
@@ -1628,7 +1628,7 @@
     <t>订单状态</t>
   </si>
   <si>
-    <t xml:space="preserve"> -1：关闭；0-未付款；1-已付款，未发货；2-已发货；3-未点评；4-已完成</t>
+    <t xml:space="preserve"> -2:售后；-1：关闭；0-未付款；1-已付款，未发货；2-已发货；3-未点评；4-已完成</t>
   </si>
   <si>
     <t>hasAfterSale="0"</t>
@@ -1895,6 +1895,21 @@
     <t>/admin/customCommissionRecord</t>
   </si>
   <si>
+    <t>salerId</t>
+  </si>
+  <si>
+    <t>销售员ID</t>
+  </si>
+  <si>
+    <t>salerOpenid</t>
+  </si>
+  <si>
+    <t>salerName</t>
+  </si>
+  <si>
+    <t>salerPhone</t>
+  </si>
+  <si>
     <t>规格ID</t>
   </si>
   <si>
@@ -1943,9 +1958,27 @@
     <t>/admin/ordersAfterSale</t>
   </si>
   <si>
+    <t>orderProId</t>
+  </si>
+  <si>
+    <t>OrdersProduct的ID</t>
+  </si>
+  <si>
+    <t>Product的ID</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
     <t>处理内容</t>
   </si>
   <si>
+    <t>imgs</t>
+  </si>
+  <si>
+    <t>照片信息</t>
+  </si>
+  <si>
     <t>hasRefund="0"</t>
   </si>
   <si>
@@ -1959,6 +1992,9 @@
   </si>
   <si>
     <t>退款金额</t>
+  </si>
+  <si>
+    <t>0-处理中；1-处理完成</t>
   </si>
   <si>
     <t>Customer</t>
@@ -2578,10 +2614,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2601,29 +2637,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2631,30 +2644,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2669,7 +2659,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2677,14 +2667,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2699,6 +2711,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -2707,10 +2727,25 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2722,8 +2757,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2731,14 +2774,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2753,7 +2789,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2765,7 +2855,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2777,7 +2915,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2789,151 +2969,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2962,26 +2998,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2997,26 +3013,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3032,6 +3033,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3054,8 +3079,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3067,10 +3103,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3079,133 +3115,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3592,10 +3628,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N637"/>
+  <dimension ref="A1:N659"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A444" workbookViewId="0">
+      <selection activeCell="B471" sqref="B471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -10128,55 +10164,46 @@
         <v>18</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>405</v>
+        <v>625</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D424" s="3" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
       <c r="A425" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>407</v>
+        <v>627</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D425" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4">
+    </row>
+    <row r="426" spans="1:3">
       <c r="A426" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D426" s="3" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
       <c r="A427" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>102</v>
+        <v>629</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D427" s="3" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -10184,119 +10211,119 @@
         <v>18</v>
       </c>
       <c r="B428" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B432" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C428" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D428" s="3" t="s">
+      <c r="C432" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D432" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="429" ht="43.2" spans="1:5">
-      <c r="A429" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B429" s="2" t="s">
+    <row r="433" ht="43.2" spans="1:5">
+      <c r="A433" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B433" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C429" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D429" s="3" t="s">
+      <c r="C433" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D433" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E429" s="3" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3">
-      <c r="A430" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B430" s="2" t="s">
+      <c r="E433" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B434" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C430" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3">
-      <c r="A431" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B431" s="2" t="s">
+      <c r="C434" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B435" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C431" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3">
-      <c r="A432" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B432" s="2" t="s">
+      <c r="C435" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B436" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C432" s="2" t="s">
+      <c r="C436" s="2" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4">
-      <c r="A433" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B433" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C433" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D433" s="3" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4">
-      <c r="A434" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B434" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D434" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4">
-      <c r="A435" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B435" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="C435" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D435" s="3" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4">
-      <c r="A436" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B436" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="C436" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D436" s="3" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -10304,13 +10331,13 @@
         <v>18</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>198</v>
+        <v>100</v>
       </c>
       <c r="C437" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D437" s="3" t="s">
-        <v>509</v>
+        <v>634</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -10318,13 +10345,13 @@
         <v>18</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C438" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D438" s="3" t="s">
-        <v>582</v>
+        <v>635</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -10332,13 +10359,13 @@
         <v>18</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>551</v>
+        <v>636</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D439" s="3" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -10346,39 +10373,27 @@
         <v>18</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D440" s="3" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="441" spans="1:8">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
       <c r="A441" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>638</v>
+        <v>20</v>
       </c>
       <c r="D441" s="3" t="s">
-        <v>639</v>
-      </c>
-      <c r="E441" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F441" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="G441" s="3" t="s">
-        <v>640</v>
-      </c>
-      <c r="H441" s="2" t="s">
-        <v>423</v>
+        <v>509</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -10400,35 +10415,53 @@
         <v>18</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>198</v>
+        <v>551</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
       <c r="A444" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>108</v>
+        <v>641</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="445" spans="1:3">
+      <c r="D444" s="3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
       <c r="A445" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>20</v>
+        <v>643</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="E445" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F445" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G445" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="H445" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -10436,30 +10469,27 @@
         <v>18</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>24</v>
+        <v>570</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
       <c r="A447" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="E447" s="3" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -10467,39 +10497,24 @@
         <v>18</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>645</v>
+        <v>102</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D448" s="3" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="449" spans="1:8">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
       <c r="A449" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D449" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="E449" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F449" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="G449" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="H449" s="2" t="s">
-        <v>423</v>
+        <v>20</v>
       </c>
     </row>
     <row r="450" spans="1:3">
@@ -10507,10 +10522,10 @@
         <v>18</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>108</v>
+        <v>405</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="451" spans="1:3">
@@ -10518,7 +10533,7 @@
         <v>18</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>109</v>
+        <v>407</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>20</v>
@@ -10529,58 +10544,46 @@
         <v>18</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D452" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
       <c r="A453" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>59</v>
+        <v>150</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D453" s="3" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
       <c r="A454" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D454" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="E454" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
       <c r="A455" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>653</v>
+        <v>109</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D455" s="3" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -10588,13 +10591,13 @@
         <v>18</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>655</v>
+        <v>300</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D456" s="3" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -10602,13 +10605,13 @@
         <v>18</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>657</v>
+        <v>24</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -10616,27 +10619,30 @@
         <v>18</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D458" s="3" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5">
       <c r="A459" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>662</v>
+        <v>654</v>
+      </c>
+      <c r="E459" s="3" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -10644,106 +10650,79 @@
         <v>18</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="C460" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C463" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D460" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4">
-      <c r="A461" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B461" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C461" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D461" s="3" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5">
-      <c r="A462" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B462" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C462" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D462" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E462" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4">
-      <c r="A463" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B463" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C463" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D463" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4">
+    </row>
+    <row r="464" spans="1:3">
       <c r="A464" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>347</v>
+        <v>560</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D464" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
       <c r="A465" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>666</v>
+        <v>475</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D465" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="E465" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5">
+    </row>
+    <row r="466" spans="1:3">
       <c r="A466" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>261</v>
+        <v>477</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="D466" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="E466" s="3" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
     </row>
     <row r="467" spans="1:3">
@@ -10751,49 +10730,49 @@
         <v>18</v>
       </c>
       <c r="B467" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B469" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C467" s="2" t="s">
+      <c r="C469" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
-      <c r="A468" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B468" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D468" s="3" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4">
-      <c r="A469" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B469" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="C469" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D469" s="3" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3">
+    <row r="470" spans="1:5">
       <c r="A470" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E470" s="3" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -10801,110 +10780,92 @@
         <v>10</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>675</v>
+        <v>11</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="E471" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F471" s="2" t="s">
-        <v>678</v>
+        <v>293</v>
       </c>
       <c r="G471" s="3" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
       <c r="H471" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="472" spans="1:7">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
       <c r="A472" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>680</v>
+        <v>108</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D472" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="G472" s="3" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="473" spans="1:7">
+    </row>
+    <row r="473" spans="1:3">
       <c r="A473" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>683</v>
+        <v>109</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D473" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="G473" s="3" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="474" spans="1:7">
+    </row>
+    <row r="474" spans="1:4">
       <c r="A474" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D474" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="G474" s="3" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="475" spans="1:7">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
       <c r="A475" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>687</v>
+        <v>59</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G475" s="3" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="476" spans="1:8">
+      <c r="D475" s="3" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5">
       <c r="A476" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>689</v>
+        <v>20</v>
       </c>
       <c r="D476" s="3" t="s">
-        <v>690</v>
+        <v>663</v>
       </c>
       <c r="E476" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H476" s="2" t="s">
-        <v>17</v>
+        <v>664</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -10912,13 +10873,13 @@
         <v>18</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>691</v>
+        <v>665</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D477" s="3" t="s">
-        <v>692</v>
+        <v>666</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -10926,13 +10887,13 @@
         <v>18</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>693</v>
+        <v>667</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>694</v>
+        <v>668</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -10940,13 +10901,13 @@
         <v>18</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>695</v>
+        <v>669</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="D479" s="3" t="s">
-        <v>696</v>
+        <v>670</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -10954,27 +10915,27 @@
         <v>18</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>697</v>
+        <v>671</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="481" ht="28.8" spans="1:4">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
       <c r="A481" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>126</v>
+        <v>673</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D481" s="3" t="s">
-        <v>699</v>
+        <v>674</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -10982,13 +10943,13 @@
         <v>18</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>700</v>
+        <v>675</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="D482" s="3" t="s">
-        <v>701</v>
+        <v>676</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -10996,27 +10957,30 @@
         <v>18</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5">
       <c r="A484" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>703</v>
+        <v>316</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>704</v>
+        <v>317</v>
+      </c>
+      <c r="E484" s="3" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -11024,13 +10988,13 @@
         <v>18</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>705</v>
+        <v>123</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D485" s="3" t="s">
-        <v>706</v>
+        <v>317</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -11038,90 +11002,72 @@
         <v>18</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>707</v>
+        <v>347</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D486" s="3" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="487" spans="1:8">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5">
       <c r="A487" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>11</v>
+        <v>678</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>709</v>
+        <v>20</v>
       </c>
       <c r="D487" s="3" t="s">
-        <v>710</v>
+        <v>679</v>
       </c>
       <c r="E487" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F487" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="G487" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="H487" s="2" t="s">
-        <v>423</v>
+        <v>680</v>
       </c>
     </row>
     <row r="488" spans="1:5">
       <c r="A488" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>117</v>
+        <v>261</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>20</v>
+        <v>681</v>
       </c>
       <c r="D488" s="3" t="s">
-        <v>712</v>
+        <v>682</v>
       </c>
       <c r="E488" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
       <c r="A489" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D489" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="E489" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
       <c r="A490" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>111</v>
+        <v>683</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="D490" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="E490" s="3" t="s">
-        <v>399</v>
+        <v>684</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -11129,75 +11075,87 @@
         <v>18</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>198</v>
+        <v>685</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="492" ht="28.8" spans="1:5">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
       <c r="A492" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>714</v>
+        <v>108</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D492" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="E492" s="3" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4">
+    </row>
+    <row r="493" spans="1:8">
       <c r="A493" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>717</v>
+        <v>687</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>33</v>
+        <v>688</v>
       </c>
       <c r="D493" s="3" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4">
+        <v>689</v>
+      </c>
+      <c r="E493" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F493" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="G493" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="H493" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7">
       <c r="A494" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>108</v>
+        <v>692</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D494" s="3" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4">
+        <v>693</v>
+      </c>
+      <c r="G494" s="3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7">
       <c r="A495" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>110</v>
+        <v>695</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4">
+        <v>693</v>
+      </c>
+      <c r="G495" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7">
       <c r="A496" s="1" t="s">
         <v>18</v>
       </c>
@@ -11208,24 +11166,24 @@
         <v>20</v>
       </c>
       <c r="D496" s="3" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5">
+        <v>697</v>
+      </c>
+      <c r="G496" s="3" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7">
       <c r="A497" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B497" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G497" s="3" t="s">
         <v>700</v>
-      </c>
-      <c r="C497" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D497" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="E497" s="3" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -11233,107 +11191,89 @@
         <v>10</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>724</v>
+        <v>701</v>
       </c>
       <c r="D498" s="3" t="s">
-        <v>725</v>
+        <v>702</v>
       </c>
       <c r="E498" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F498" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="G498" s="3" t="s">
-        <v>726</v>
-      </c>
       <c r="H498" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
       <c r="A499" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>117</v>
+        <v>703</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="E499" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
       <c r="A500" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>114</v>
+        <v>705</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="E500" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
       <c r="A501" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>111</v>
+        <v>707</v>
       </c>
       <c r="C501" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C502" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D501" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="E501" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5">
-      <c r="A502" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B502" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="C502" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D502" s="3" t="s">
-        <v>728</v>
-      </c>
-      <c r="E502" s="3" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="503" ht="28.8" spans="1:4">
       <c r="A503" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>730</v>
+        <v>126</v>
       </c>
       <c r="C503" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D503" s="3" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -11341,13 +11281,13 @@
         <v>18</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="C504" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D504" s="3" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
     </row>
     <row r="505" spans="1:4">
@@ -11355,60 +11295,81 @@
         <v>18</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="D505" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="506" spans="1:3">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
       <c r="A506" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>631</v>
+        <v>715</v>
       </c>
       <c r="C506" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="507" spans="1:3">
+      <c r="D506" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
       <c r="A507" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>571</v>
+        <v>717</v>
       </c>
       <c r="C507" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="508" spans="1:3">
+      <c r="D507" s="3" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
       <c r="A508" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>633</v>
+        <v>719</v>
       </c>
       <c r="C508" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="509" spans="1:4">
+      <c r="D508" s="3" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8">
       <c r="A509" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>20</v>
+        <v>721</v>
       </c>
       <c r="D509" s="3" t="s">
-        <v>510</v>
+        <v>722</v>
+      </c>
+      <c r="E509" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F509" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G509" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="H509" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -11416,44 +11377,50 @@
         <v>18</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>734</v>
+        <v>117</v>
       </c>
       <c r="C510" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D510" s="3" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="E510" s="3" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5">
       <c r="A511" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="C511" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D511" s="3" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4">
+        <v>725</v>
+      </c>
+      <c r="E511" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5">
       <c r="A512" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>514</v>
+        <v>111</v>
       </c>
       <c r="C512" s="2" t="s">
-        <v>33</v>
+        <v>112</v>
       </c>
       <c r="D512" s="3" t="s">
-        <v>36</v>
+        <v>725</v>
+      </c>
+      <c r="E512" s="3" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="513" spans="1:4">
@@ -11461,104 +11428,86 @@
         <v>18</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>738</v>
+        <v>198</v>
       </c>
       <c r="C513" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="514" ht="28.8" spans="1:5">
+      <c r="A514" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="E514" s="3" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="C515" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D513" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="514" spans="1:4">
-      <c r="A514" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B514" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C514" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D514" s="3" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="515" spans="1:5">
-      <c r="A515" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B515" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C515" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D515" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E515" s="3" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="516" spans="1:8">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
       <c r="A516" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>261</v>
+        <v>108</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>741</v>
+        <v>20</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>742</v>
-      </c>
-      <c r="E516" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F516" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="G516" s="3" t="s">
-        <v>743</v>
-      </c>
-      <c r="H516" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="517" spans="1:5">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
       <c r="A517" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B517" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C517" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D517" s="3" t="s">
-        <v>712</v>
-      </c>
-      <c r="E517" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="518" spans="1:5">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
       <c r="A518" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B518" s="2" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="C518" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D518" s="3" t="s">
-        <v>713</v>
-      </c>
-      <c r="E518" s="3" t="s">
-        <v>116</v>
+        <v>733</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -11566,30 +11515,42 @@
         <v>18</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>111</v>
+        <v>712</v>
       </c>
       <c r="C519" s="2" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="D519" s="3" t="s">
-        <v>713</v>
+        <v>734</v>
       </c>
       <c r="E519" s="3" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="520" spans="1:4">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8">
       <c r="A520" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>25</v>
+        <v>736</v>
       </c>
       <c r="D520" s="3" t="s">
-        <v>186</v>
+        <v>737</v>
+      </c>
+      <c r="E520" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F520" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G520" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="H520" s="2" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -11597,77 +11558,95 @@
         <v>18</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="C521" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D521" s="3" t="s">
-        <v>41</v>
+        <v>724</v>
       </c>
       <c r="E521" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="522" spans="1:4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5">
       <c r="A522" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B522" s="2" t="s">
-        <v>738</v>
+        <v>114</v>
       </c>
       <c r="C522" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="E522" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5">
+      <c r="A523" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D523" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="E523" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5">
+      <c r="A524" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="E524" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C525" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D522" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="523" spans="1:4">
-      <c r="A523" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B523" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C523" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D523" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="524" spans="1:3">
-      <c r="A524" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B524" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="C524" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="525" spans="1:3">
-      <c r="A525" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B525" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="C525" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="526" spans="1:3">
+      <c r="D525" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
       <c r="A526" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B526" s="2" t="s">
-        <v>633</v>
+        <v>744</v>
       </c>
       <c r="C526" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="527" spans="1:4">
@@ -11675,44 +11654,35 @@
         <v>18</v>
       </c>
       <c r="B527" s="2" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="C527" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D527" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="528" spans="1:5">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
       <c r="A528" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B528" s="2" t="s">
-        <v>261</v>
+        <v>636</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="D528" s="3" t="s">
-        <v>745</v>
-      </c>
-      <c r="E528" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="529" spans="1:4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
       <c r="A529" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B529" s="2" t="s">
-        <v>100</v>
+        <v>571</v>
       </c>
       <c r="C529" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D529" s="3" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
     </row>
     <row r="530" spans="1:3">
@@ -11720,75 +11690,69 @@
         <v>18</v>
       </c>
       <c r="B530" s="2" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="C530" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="531" spans="1:3">
+    <row r="531" spans="1:4">
       <c r="A531" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B531" s="2" t="s">
-        <v>571</v>
+        <v>59</v>
       </c>
       <c r="C531" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="532" spans="1:3">
+      <c r="D531" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5">
       <c r="A532" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>633</v>
+        <v>746</v>
       </c>
       <c r="C532" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="533" spans="1:5">
+      <c r="D532" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="E532" s="3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
       <c r="A533" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>695</v>
+        <v>138</v>
       </c>
       <c r="C533" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D533" s="3" t="s">
-        <v>746</v>
-      </c>
-      <c r="E533" s="3" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="534" spans="1:8">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
       <c r="A534" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B534" s="2" t="s">
-        <v>261</v>
+        <v>514</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>748</v>
+        <v>33</v>
       </c>
       <c r="D534" s="3" t="s">
-        <v>749</v>
-      </c>
-      <c r="E534" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F534" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G534" s="3" t="s">
-        <v>750</v>
-      </c>
-      <c r="H534" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="535" spans="1:4">
@@ -11796,30 +11760,27 @@
         <v>18</v>
       </c>
       <c r="B535" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D536" s="3" t="s">
         <v>751</v>
-      </c>
-      <c r="C535" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D535" s="3" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="536" spans="1:5">
-      <c r="A536" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B536" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C536" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D536" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E536" s="3" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -11827,131 +11788,152 @@
         <v>18</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="C537" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D537" s="3" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="E537" s="3" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8">
+      <c r="A538" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D538" s="3" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="538" spans="1:5">
-      <c r="A538" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B538" s="2" t="s">
+      <c r="E538" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F538" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G538" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="H538" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5">
+      <c r="A539" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="E539" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5">
+      <c r="A540" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="E540" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5">
+      <c r="A541" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="E541" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4">
+      <c r="A542" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B542" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C538" s="2" t="s">
+      <c r="C542" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D538" s="3" t="s">
-        <v>755</v>
-      </c>
-      <c r="E538" s="3" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="539" ht="28.8" spans="1:5">
-      <c r="A539" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B539" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C539" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D539" s="3" t="s">
-        <v>757</v>
-      </c>
-      <c r="E539" s="3" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="540" spans="1:8">
-      <c r="A540" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B540" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C540" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="D540" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="E540" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F540" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G540" s="3" t="s">
-        <v>761</v>
-      </c>
-      <c r="H540" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="541" spans="1:3">
-      <c r="A541" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B541" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C541" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="542" spans="1:3">
-      <c r="A542" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B542" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="C542" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="543" spans="1:3">
+      <c r="D542" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5">
       <c r="A543" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B543" s="2" t="s">
-        <v>631</v>
+        <v>40</v>
       </c>
       <c r="C543" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="544" spans="1:3">
+      <c r="D543" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E543" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4">
       <c r="A544" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B544" s="2" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="C544" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="545" spans="1:3">
+      <c r="D544" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4">
       <c r="A545" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B545" s="2" t="s">
-        <v>763</v>
+        <v>100</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="546" spans="1:3">
@@ -11959,53 +11941,32 @@
         <v>18</v>
       </c>
       <c r="B546" s="2" t="s">
-        <v>764</v>
+        <v>636</v>
       </c>
       <c r="C546" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="547" spans="1:5">
+    <row r="547" spans="1:3">
       <c r="A547" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>127</v>
+        <v>571</v>
       </c>
       <c r="C547" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D547" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="E547" s="3" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="548" spans="1:8">
+    </row>
+    <row r="548" spans="1:3">
       <c r="A548" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B548" s="2" t="s">
-        <v>11</v>
+        <v>638</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="D548" s="3" t="s">
-        <v>768</v>
-      </c>
-      <c r="E548" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F548" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="G548" s="3" t="s">
-        <v>770</v>
-      </c>
-      <c r="H548" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -12013,27 +11974,30 @@
         <v>18</v>
       </c>
       <c r="B549" s="2" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="C549" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D549" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="550" spans="1:4">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5">
       <c r="A550" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>20</v>
+        <v>756</v>
       </c>
       <c r="D550" s="3" t="s">
-        <v>771</v>
+        <v>757</v>
+      </c>
+      <c r="E550" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="551" spans="1:4">
@@ -12041,44 +12005,35 @@
         <v>18</v>
       </c>
       <c r="B551" s="2" t="s">
-        <v>772</v>
+        <v>100</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D551" s="3" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="552" spans="1:4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
       <c r="A552" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B552" s="2" t="s">
-        <v>123</v>
+        <v>636</v>
       </c>
       <c r="C552" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D552" s="3" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="553" spans="1:5">
+    </row>
+    <row r="553" spans="1:3">
       <c r="A553" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>11</v>
+        <v>571</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="D553" s="3" t="s">
-        <v>776</v>
-      </c>
-      <c r="E553" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="554" spans="1:3">
@@ -12086,195 +12041,216 @@
         <v>18</v>
       </c>
       <c r="B554" s="2" t="s">
-        <v>570</v>
+        <v>638</v>
       </c>
       <c r="C554" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5">
+      <c r="A555" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D555" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="E555" s="3" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
+      <c r="A556" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="D556" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="E556" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F556" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G556" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="H556" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4">
+      <c r="A557" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D557" s="3" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5">
+      <c r="A558" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D558" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E558" s="3" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5">
+      <c r="A559" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E559" s="3" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5">
+      <c r="A560" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C560" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="E560" s="3" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="561" ht="28.8" spans="1:5">
+      <c r="A561" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D561" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="E561" s="3" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8">
+      <c r="A562" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="D562" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="E562" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F562" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G562" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="H562" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C563" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="555" spans="1:3">
-      <c r="A555" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B555" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C555" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="556" spans="1:3">
-      <c r="A556" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B556" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C556" s="2" t="s">
+    <row r="564" spans="1:3">
+      <c r="A564" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C564" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="C565" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C566" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="557" spans="1:3">
-      <c r="A557" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B557" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="C557" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="558" spans="1:3">
-      <c r="A558" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B558" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C558" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="559" spans="1:4">
-      <c r="A559" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B559" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="C559" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D559" s="3" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="560" spans="1:4">
-      <c r="A560" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B560" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="C560" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D560" s="3" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="561" spans="1:4">
-      <c r="A561" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B561" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="C561" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D561" s="3" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="562" spans="1:4">
-      <c r="A562" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B562" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="C562" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D562" s="3" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="563" spans="1:4">
-      <c r="A563" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B563" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="C563" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D563" s="3" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="564" ht="43.2" spans="1:4">
-      <c r="A564" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B564" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C564" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D564" s="3" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="565" spans="1:4">
-      <c r="A565" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B565" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C565" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D565" s="3" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="566" spans="1:5">
-      <c r="A566" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B566" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C566" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D566" s="3" t="s">
-        <v>788</v>
-      </c>
-      <c r="E566" s="3" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="567" spans="1:8">
+    <row r="567" spans="1:3">
       <c r="A567" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B567" s="2" t="s">
-        <v>11</v>
+        <v>775</v>
       </c>
       <c r="C567" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="D567" s="3" t="s">
-        <v>791</v>
-      </c>
-      <c r="E567" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F567" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="G567" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="H567" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="568" spans="1:3">
@@ -12282,24 +12258,27 @@
         <v>18</v>
       </c>
       <c r="B568" s="2" t="s">
-        <v>123</v>
+        <v>776</v>
       </c>
       <c r="C568" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="569" spans="1:4">
+    <row r="569" spans="1:5">
       <c r="A569" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B569" s="2" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="C569" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D569" s="3" t="s">
-        <v>793</v>
+        <v>777</v>
+      </c>
+      <c r="E569" s="3" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -12307,28 +12286,28 @@
         <v>10</v>
       </c>
       <c r="B570" s="2" t="s">
-        <v>794</v>
+        <v>11</v>
       </c>
       <c r="C570" s="2" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="D570" s="3" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="E570" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F570" s="2" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="G570" s="3" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
       <c r="H570" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="571" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4">
       <c r="A571" s="1" t="s">
         <v>18</v>
       </c>
@@ -12338,92 +12317,89 @@
       <c r="C571" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="572" spans="1:3">
+      <c r="D571" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4">
       <c r="A572" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B572" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C572" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="573" spans="1:3">
+      <c r="D572" s="3" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4">
       <c r="A573" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B573" s="2" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
       <c r="C573" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="574" spans="1:3">
+      <c r="D573" s="3" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4">
       <c r="A574" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B574" s="2" t="s">
-        <v>800</v>
+        <v>123</v>
       </c>
       <c r="C574" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="575" spans="1:3">
+      <c r="D574" s="3" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5">
       <c r="A575" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B575" s="2" t="s">
-        <v>238</v>
+        <v>11</v>
       </c>
       <c r="C575" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="576" spans="1:5">
+        <v>787</v>
+      </c>
+      <c r="D575" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="E575" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
       <c r="A576" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B576" s="2" t="s">
-        <v>801</v>
+        <v>570</v>
       </c>
       <c r="C576" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D576" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="E576" s="3" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="577" spans="1:8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
       <c r="A577" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B577" s="2" t="s">
-        <v>794</v>
+        <v>198</v>
       </c>
       <c r="C577" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="D577" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="E577" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F577" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="G577" s="3" t="s">
-        <v>806</v>
-      </c>
-      <c r="H577" s="2" t="s">
-        <v>423</v>
+        <v>20</v>
       </c>
     </row>
     <row r="578" spans="1:3">
@@ -12431,10 +12407,10 @@
         <v>18</v>
       </c>
       <c r="B578" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C578" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="579" spans="1:3">
@@ -12442,7 +12418,7 @@
         <v>18</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>110</v>
+        <v>571</v>
       </c>
       <c r="C579" s="2" t="s">
         <v>20</v>
@@ -12453,93 +12429,108 @@
         <v>18</v>
       </c>
       <c r="B580" s="2" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="C580" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="581" spans="1:5">
+    <row r="581" spans="1:4">
       <c r="A581" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B581" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C581" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D581" s="3" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4">
+      <c r="A582" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D582" s="3" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4">
+      <c r="A583" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C583" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D583" s="3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4">
+      <c r="A584" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C584" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D584" s="3" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4">
+      <c r="A585" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C585" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D585" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="586" ht="43.2" spans="1:4">
+      <c r="A586" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B586" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C581" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D581" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="E581" s="3" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="582" spans="1:3">
-      <c r="A582" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B582" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C582" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="583" spans="1:3">
-      <c r="A583" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B583" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C583" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="584" spans="1:3">
-      <c r="A584" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B584" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C584" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="585" spans="1:3">
-      <c r="A585" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B585" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="C585" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="586" spans="1:3">
-      <c r="A586" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B586" s="2" t="s">
-        <v>655</v>
-      </c>
       <c r="C586" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="587" spans="1:3">
+      <c r="D586" s="3" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4">
       <c r="A587" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B587" s="2" t="s">
-        <v>657</v>
+        <v>223</v>
       </c>
       <c r="C587" s="2" t="s">
-        <v>112</v>
+        <v>20</v>
+      </c>
+      <c r="D587" s="3" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="588" spans="1:5">
@@ -12547,16 +12538,16 @@
         <v>18</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>807</v>
+        <v>224</v>
       </c>
       <c r="C588" s="2" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="D588" s="3" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="E588" s="3" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -12564,25 +12555,25 @@
         <v>10</v>
       </c>
       <c r="B589" s="2" t="s">
-        <v>794</v>
+        <v>11</v>
       </c>
       <c r="C589" s="2" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="D589" s="3" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E589" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F589" s="2" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
       <c r="G589" s="3" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="H589" s="2" t="s">
-        <v>423</v>
+        <v>17</v>
       </c>
     </row>
     <row r="590" spans="1:3">
@@ -12590,7 +12581,7 @@
         <v>18</v>
       </c>
       <c r="B590" s="2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C590" s="2" t="s">
         <v>20</v>
@@ -12601,55 +12592,61 @@
         <v>18</v>
       </c>
       <c r="B591" s="2" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="C591" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="592" spans="1:4">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8">
       <c r="A592" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C592" s="2" t="s">
-        <v>33</v>
+        <v>807</v>
       </c>
       <c r="D592" s="3" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="593" spans="1:4">
+        <v>808</v>
+      </c>
+      <c r="E592" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F592" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="G592" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="H592" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
       <c r="A593" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B593" s="2" t="s">
-        <v>816</v>
+        <v>138</v>
       </c>
       <c r="C593" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D593" s="3" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="594" spans="1:4">
+    </row>
+    <row r="594" spans="1:3">
       <c r="A594" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B594" s="2" t="s">
-        <v>818</v>
+        <v>266</v>
       </c>
       <c r="C594" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="D594" s="3" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="595" spans="1:3">
@@ -12657,7 +12654,7 @@
         <v>18</v>
       </c>
       <c r="B595" s="2" t="s">
-        <v>117</v>
+        <v>811</v>
       </c>
       <c r="C595" s="2" t="s">
         <v>20</v>
@@ -12668,7 +12665,7 @@
         <v>18</v>
       </c>
       <c r="B596" s="2" t="s">
-        <v>114</v>
+        <v>812</v>
       </c>
       <c r="C596" s="2" t="s">
         <v>20</v>
@@ -12679,127 +12676,103 @@
         <v>18</v>
       </c>
       <c r="B597" s="2" t="s">
-        <v>111</v>
+        <v>238</v>
       </c>
       <c r="C597" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="598" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5">
       <c r="A598" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D598" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="E598" s="3" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8">
+      <c r="A599" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B598" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="C598" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="D598" s="3" t="s">
-        <v>821</v>
-      </c>
-      <c r="E598" s="3" t="s">
+      <c r="B599" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C599" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="D599" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="E599" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F598" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="G598" s="3" t="s">
-        <v>822</v>
-      </c>
-      <c r="H598" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="599" spans="1:5">
-      <c r="A599" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B599" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="C599" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D599" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="E599" s="3" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="600" spans="1:4">
+      <c r="F599" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="G599" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="H599" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
       <c r="A600" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B600" s="2" t="s">
-        <v>826</v>
+        <v>108</v>
       </c>
       <c r="C600" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D600" s="3" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="601" spans="1:5">
+    </row>
+    <row r="601" spans="1:3">
       <c r="A601" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B601" s="2" t="s">
-        <v>828</v>
+        <v>110</v>
       </c>
       <c r="C601" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D601" s="3" t="s">
-        <v>752</v>
-      </c>
-      <c r="E601" s="3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="602" ht="28.8" spans="1:5">
+    </row>
+    <row r="602" spans="1:3">
       <c r="A602" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B602" s="2" t="s">
-        <v>830</v>
+        <v>59</v>
       </c>
       <c r="C602" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D602" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="E602" s="3" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="603" spans="1:8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5">
       <c r="A603" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B603" s="2" t="s">
-        <v>794</v>
+        <v>127</v>
       </c>
       <c r="C603" s="2" t="s">
-        <v>833</v>
+        <v>20</v>
       </c>
       <c r="D603" s="3" t="s">
-        <v>834</v>
+        <v>663</v>
       </c>
       <c r="E603" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F603" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="G603" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="H603" s="2" t="s">
-        <v>172</v>
+        <v>664</v>
       </c>
     </row>
     <row r="604" spans="1:3">
@@ -12840,7 +12813,7 @@
         <v>18</v>
       </c>
       <c r="B607" s="2" t="s">
-        <v>108</v>
+        <v>665</v>
       </c>
       <c r="C607" s="2" t="s">
         <v>20</v>
@@ -12851,10 +12824,10 @@
         <v>18</v>
       </c>
       <c r="B608" s="2" t="s">
-        <v>814</v>
+        <v>667</v>
       </c>
       <c r="C608" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="609" spans="1:3">
@@ -12862,32 +12835,53 @@
         <v>18</v>
       </c>
       <c r="B609" s="2" t="s">
-        <v>59</v>
+        <v>669</v>
       </c>
       <c r="C609" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="610" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5">
       <c r="A610" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B610" s="2" t="s">
-        <v>24</v>
+        <v>819</v>
       </c>
       <c r="C610" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="611" spans="1:3">
+        <v>20</v>
+      </c>
+      <c r="D610" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="E610" s="3" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8">
       <c r="A611" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>110</v>
+        <v>806</v>
       </c>
       <c r="C611" s="2" t="s">
-        <v>20</v>
+        <v>822</v>
+      </c>
+      <c r="D611" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="E611" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F611" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="G611" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="H611" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="612" spans="1:3">
@@ -12895,80 +12889,77 @@
         <v>18</v>
       </c>
       <c r="B612" s="2" t="s">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="C612" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="613" spans="1:3">
+    <row r="613" spans="1:4">
       <c r="A613" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B613" s="2" t="s">
-        <v>573</v>
+        <v>100</v>
       </c>
       <c r="C613" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="614" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="D613" s="3" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4">
       <c r="A614" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B614" s="2" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="C614" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="615" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="D614" s="3" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4">
       <c r="A615" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B615" s="2" t="s">
-        <v>190</v>
+        <v>828</v>
       </c>
       <c r="C615" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="616" spans="1:3">
+      <c r="D615" s="3" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4">
       <c r="A616" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B616" s="2" t="s">
-        <v>192</v>
+        <v>830</v>
       </c>
       <c r="C616" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="617" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="D616" s="3" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3">
       <c r="A617" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B617" s="2" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="C617" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="D617" s="3" t="s">
-        <v>838</v>
-      </c>
-      <c r="E617" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F617" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="G617" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="H617" s="2" t="s">
-        <v>423</v>
+        <v>20</v>
       </c>
     </row>
     <row r="618" spans="1:3">
@@ -12976,7 +12967,7 @@
         <v>18</v>
       </c>
       <c r="B618" s="2" t="s">
-        <v>198</v>
+        <v>114</v>
       </c>
       <c r="C618" s="2" t="s">
         <v>20</v>
@@ -12987,91 +12978,127 @@
         <v>18</v>
       </c>
       <c r="B619" s="2" t="s">
-        <v>570</v>
+        <v>111</v>
       </c>
       <c r="C619" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="620" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8">
       <c r="A620" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B620" s="2" t="s">
-        <v>117</v>
+        <v>806</v>
       </c>
       <c r="C620" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="621" spans="1:3">
+        <v>832</v>
+      </c>
+      <c r="D620" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="E620" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F620" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="G620" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="H620" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5">
       <c r="A621" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B621" s="2" t="s">
-        <v>114</v>
+        <v>835</v>
       </c>
       <c r="C621" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="622" spans="1:3">
+      <c r="D621" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="E621" s="3" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4">
       <c r="A622" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B622" s="2" t="s">
-        <v>111</v>
+        <v>838</v>
       </c>
       <c r="C622" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="623" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="D622" s="3" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5">
       <c r="A623" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C623" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D623" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="E623" s="3" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="624" ht="28.8" spans="1:5">
+      <c r="A624" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C624" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D624" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="E624" s="3" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8">
+      <c r="A625" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B623" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C623" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="D623" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="E623" s="3" t="s">
+      <c r="B625" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C625" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D625" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="E625" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F623" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="G623" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="H623" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="624" spans="1:3">
-      <c r="A624" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B624" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C624" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="625" spans="1:3">
-      <c r="A625" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B625" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C625" s="2" t="s">
-        <v>20</v>
+      <c r="F625" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="G625" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="H625" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="626" spans="1:3">
@@ -13079,10 +13106,10 @@
         <v>18</v>
       </c>
       <c r="B626" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C626" s="2" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
     </row>
     <row r="627" spans="1:3">
@@ -13090,10 +13117,10 @@
         <v>18</v>
       </c>
       <c r="B627" s="2" t="s">
-        <v>347</v>
+        <v>114</v>
       </c>
       <c r="C627" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="628" spans="1:3">
@@ -13101,10 +13128,10 @@
         <v>18</v>
       </c>
       <c r="B628" s="2" t="s">
-        <v>349</v>
+        <v>111</v>
       </c>
       <c r="C628" s="2" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
     </row>
     <row r="629" spans="1:3">
@@ -13112,7 +13139,7 @@
         <v>18</v>
       </c>
       <c r="B629" s="2" t="s">
-        <v>546</v>
+        <v>108</v>
       </c>
       <c r="C629" s="2" t="s">
         <v>20</v>
@@ -13123,55 +13150,46 @@
         <v>18</v>
       </c>
       <c r="B630" s="2" t="s">
-        <v>542</v>
+        <v>826</v>
       </c>
       <c r="C630" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="631" spans="1:4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3">
       <c r="A631" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B631" s="2" t="s">
-        <v>843</v>
+        <v>59</v>
       </c>
       <c r="C631" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D631" s="3" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="632" spans="1:4">
+    </row>
+    <row r="632" spans="1:3">
       <c r="A632" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B632" s="2" t="s">
-        <v>409</v>
+        <v>24</v>
       </c>
       <c r="C632" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D632" s="3" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="633" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3">
       <c r="A633" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B633" s="2" t="s">
-        <v>626</v>
+        <v>110</v>
       </c>
       <c r="C633" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D633" s="3" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="634" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3">
       <c r="A634" s="1" t="s">
         <v>18</v>
       </c>
@@ -13181,53 +13199,334 @@
       <c r="C634" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D634" s="3" t="s">
+    </row>
+    <row r="635" spans="1:3">
+      <c r="A635" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="C635" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="A636" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C636" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3">
+      <c r="A637" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C637" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3">
+      <c r="A638" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C638" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8">
+      <c r="A639" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C639" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="D639" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="E639" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F639" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="G639" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="H639" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3">
+      <c r="A640" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C640" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3">
+      <c r="A641" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C641" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3">
+      <c r="A642" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C642" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3">
+      <c r="A643" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C643" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3">
+      <c r="A644" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C644" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8">
+      <c r="A645" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C645" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="D645" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="E645" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F645" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="G645" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="H645" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="A646" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C646" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3">
+      <c r="A647" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C647" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3">
+      <c r="A648" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C648" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3">
+      <c r="A649" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C649" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3">
+      <c r="A650" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C650" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3">
+      <c r="A651" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C651" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3">
+      <c r="A652" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C652" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4">
+      <c r="A653" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="C653" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D653" s="3" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4">
+      <c r="A654" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C654" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D654" s="3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4">
+      <c r="A655" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C655" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D655" s="3" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5">
+      <c r="A656" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C656" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D656" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E634" s="3" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="635" spans="1:4">
-      <c r="A635" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B635" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="C635" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D635" s="3" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="636" spans="1:4">
-      <c r="A636" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B636" s="2" t="s">
+      <c r="E656" s="3" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4">
+      <c r="A657" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C657" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D657" s="3" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4">
+      <c r="A658" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B658" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C636" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D636" s="3" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="637" spans="1:4">
-      <c r="A637" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B637" s="2" t="s">
+      <c r="C658" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D658" s="3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4">
+      <c r="A659" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B659" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="C637" s="2" t="s">
+      <c r="C659" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D637" s="3" t="s">
-        <v>850</v>
+      <c r="D659" s="3" t="s">
+        <v>862</v>
       </c>
     </row>
   </sheetData>
@@ -13269,28 +13568,28 @@
       <formula>NOT(ISERROR(SEARCH("类",A386)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A529:A532">
+  <conditionalFormatting sqref="A551:A554">
     <cfRule type="containsText" dxfId="2" priority="13" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A529)))</formula>
+      <formula>NOT(ISERROR(SEARCH("字段",A551)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="14" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A529)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A551)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A595:A597">
+  <conditionalFormatting sqref="A617:A619">
     <cfRule type="containsText" dxfId="2" priority="9" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A595)))</formula>
+      <formula>NOT(ISERROR(SEARCH("字段",A617)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="10" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A595)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A617)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A604:A606">
+  <conditionalFormatting sqref="A626:A628">
     <cfRule type="containsText" dxfId="2" priority="6" operator="between" text="字段">
-      <formula>NOT(ISERROR(SEARCH("字段",A604)))</formula>
+      <formula>NOT(ISERROR(SEARCH("字段",A626)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="3" priority="7" operator="between" text="类">
-      <formula>NOT(ISERROR(SEARCH("类",A604)))</formula>
+      <formula>NOT(ISERROR(SEARCH("类",A626)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45:C47">
@@ -13308,34 +13607,34 @@
       <formula>AND($A386="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C499:C502">
+  <conditionalFormatting sqref="C521:C524">
     <cfRule type="expression" dxfId="0" priority="19">
-      <formula>AND($A499="类")</formula>
+      <formula>AND($A521="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C517:C519">
+  <conditionalFormatting sqref="C539:C541">
     <cfRule type="expression" dxfId="0" priority="17">
-      <formula>AND($A517="类")</formula>
+      <formula>AND($A539="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C523:C527">
+  <conditionalFormatting sqref="C545:C549">
     <cfRule type="expression" dxfId="0" priority="16">
-      <formula>AND($A523="类")</formula>
+      <formula>AND($A545="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C529:C532">
+  <conditionalFormatting sqref="C551:C554">
     <cfRule type="expression" dxfId="0" priority="12">
-      <formula>AND($A529="类")</formula>
+      <formula>AND($A551="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C595:C597">
+  <conditionalFormatting sqref="C617:C619">
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>AND($A595="类")</formula>
+      <formula>AND($A617="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C604:C606">
+  <conditionalFormatting sqref="C626:C628">
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>AND($A604="类")</formula>
+      <formula>AND($A626="类")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:D47">
@@ -13353,22 +13652,22 @@
       <formula>AND($A386="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D517:D519">
+  <conditionalFormatting sqref="D539:D541">
     <cfRule type="expression" dxfId="1" priority="18">
-      <formula>AND($A517="类")</formula>
+      <formula>AND($A539="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D523:D527">
+  <conditionalFormatting sqref="D545:D549">
     <cfRule type="expression" dxfId="1" priority="15">
-      <formula>AND($A523="类")</formula>
+      <formula>AND($A545="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D529:D532">
+  <conditionalFormatting sqref="D551:D554">
     <cfRule type="expression" dxfId="1" priority="11">
-      <formula>AND($A529="类")</formula>
+      <formula>AND($A551="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A44 A598:A603 A533:A594 A607:A1048576 A392:A528 A346:A385 A48:A342">
+  <conditionalFormatting sqref="A1:A44 A48:A342 A346:A385 A392:A550 A620:A625 A555:A616 A629:A1048576">
     <cfRule type="containsText" dxfId="2" priority="37" operator="between" text="字段">
       <formula>NOT(ISERROR(SEARCH("字段",A1)))</formula>
     </cfRule>
@@ -13376,12 +13675,12 @@
       <formula>NOT(ISERROR(SEARCH("类",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C44 C48:C209 C212:C342 C346:C385 C392:C498 C503:C516 C520:C522 C528 C533:C594 C598:C603 C607:C1048576">
+  <conditionalFormatting sqref="C2:C44 C48:C209 C212:C342 C346:C385 C392:C520 C525:C538 C542:C544 C550 C555:C616 C620:C625 C629:C1048576">
     <cfRule type="expression" dxfId="0" priority="32">
       <formula>AND($A2="类")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D44 D48:D209 D212:D342 D346:D385 D392:D516 D520:D522 D528 D533:D1048576">
+  <conditionalFormatting sqref="D2:D44 D48:D209 D212:D342 D346:D385 D392:D538 D542:D544 D550 D555:D1048576">
     <cfRule type="expression" dxfId="1" priority="28">
       <formula>AND($A2="类")</formula>
     </cfRule>

--- a/model.xlsx
+++ b/model.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2953" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="877">
   <si>
     <t>实体登记表</t>
   </si>
@@ -908,9 +908,6 @@
     <t>姓名</t>
   </si>
   <si>
-    <t>@NotBlank-姓名不能为空</t>
-  </si>
-  <si>
     <t>昵称</t>
   </si>
   <si>
@@ -926,592 +923,589 @@
     <t>联系电话</t>
   </si>
   <si>
+    <t>identity</t>
+  </si>
+  <si>
+    <t>身份证号</t>
+  </si>
+  <si>
+    <t>省级代码</t>
+  </si>
+  <si>
+    <t>省级名称</t>
+  </si>
+  <si>
+    <t>市级代码</t>
+  </si>
+  <si>
+    <t>市级名称</t>
+  </si>
+  <si>
+    <t>县级代码</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>街道地址</t>
+  </si>
+  <si>
+    <t>addressIndex</t>
+  </si>
+  <si>
+    <t>小程序选择地址的序号</t>
+  </si>
+  <si>
+    <t>如：0-0-1，表示第一个省；第一个市；第二个县区</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>1-男；2-女</t>
+  </si>
+  <si>
+    <t>hasExperience</t>
+  </si>
+  <si>
+    <t>是否有经验，即是否做过微商</t>
+  </si>
+  <si>
+    <t>0-否；1-是</t>
+  </si>
+  <si>
+    <t>leaderId</t>
+  </si>
+  <si>
+    <t>上级AgentID</t>
+  </si>
+  <si>
+    <t>leaderOpenid</t>
+  </si>
+  <si>
+    <t>上级代理Openid</t>
+  </si>
+  <si>
+    <t>leaderName</t>
+  </si>
+  <si>
+    <t>上级代理姓名</t>
+  </si>
+  <si>
+    <t>leaderPhone</t>
+  </si>
+  <si>
+    <t>上级代理电话</t>
+  </si>
+  <si>
+    <t>paperCount=0</t>
+  </si>
+  <si>
+    <t>证件数量</t>
+  </si>
+  <si>
+    <t>对应AgentPaper</t>
+  </si>
+  <si>
+    <t>verifyCount=0</t>
+  </si>
+  <si>
+    <t>审核次数</t>
+  </si>
+  <si>
+    <t>relationCount=0</t>
+  </si>
+  <si>
+    <t>级别调整次数</t>
+  </si>
+  <si>
+    <t>subCount=0</t>
+  </si>
+  <si>
+    <t>下级代理人数</t>
+  </si>
+  <si>
+    <t>ordersCount=0</t>
+  </si>
+  <si>
+    <t>订单数量</t>
+  </si>
+  <si>
+    <t>levelId</t>
+  </si>
+  <si>
+    <t>当前等级ID</t>
+  </si>
+  <si>
+    <t>levelName</t>
+  </si>
+  <si>
+    <t>当前等级名称</t>
+  </si>
+  <si>
+    <t>AgentPaper</t>
+  </si>
+  <si>
+    <t>代理证件</t>
+  </si>
+  <si>
+    <t>agentId</t>
+  </si>
+  <si>
+    <t>代理ID</t>
+  </si>
+  <si>
+    <t>agentName</t>
+  </si>
+  <si>
+    <t>代理姓名</t>
+  </si>
+  <si>
+    <t>mediumId</t>
+  </si>
+  <si>
+    <t>媒介ID</t>
+  </si>
+  <si>
+    <t>filePath</t>
+  </si>
+  <si>
+    <t>文件路径</t>
+  </si>
+  <si>
+    <t>fileName</t>
+  </si>
+  <si>
+    <t>证件名称</t>
+  </si>
+  <si>
+    <t>如：身份证正面</t>
+  </si>
+  <si>
+    <t>AgentApplyVerify</t>
+  </si>
+  <si>
+    <t>代理申请审核</t>
+  </si>
+  <si>
+    <t>verifyOperator</t>
+  </si>
+  <si>
+    <t>审核人员信息</t>
+  </si>
+  <si>
+    <t>verifyDay</t>
+  </si>
+  <si>
+    <t>审核日期</t>
+  </si>
+  <si>
+    <t>verifyTime</t>
+  </si>
+  <si>
+    <t>审核时间</t>
+  </si>
+  <si>
+    <t>verifyLong</t>
+  </si>
+  <si>
+    <t>审核时间Long类型</t>
+  </si>
+  <si>
+    <t>审核内容</t>
+  </si>
+  <si>
+    <t>verifyRes</t>
+  </si>
+  <si>
+    <t>审核结果</t>
+  </si>
+  <si>
+    <t>1-通过审核；2-驳回申请</t>
+  </si>
+  <si>
+    <t>AgentLevel</t>
+  </si>
+  <si>
+    <t>代理等级</t>
+  </si>
+  <si>
+    <t>/admin/agentLevel</t>
+  </si>
+  <si>
+    <t>等级名称</t>
+  </si>
+  <si>
+    <t>如：铜牌代理、银牌代理、金牌代理</t>
+  </si>
+  <si>
+    <t>@NotBlank-等级名称不能为空</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>级别</t>
+  </si>
+  <si>
+    <t>数值越大，等级越高，提成标准越高</t>
+  </si>
+  <si>
+    <t>AgentLevelRelation</t>
+  </si>
+  <si>
+    <t>代理等级关系</t>
+  </si>
+  <si>
+    <t>等级ID</t>
+  </si>
+  <si>
+    <t>AgentLevelRecord</t>
+  </si>
+  <si>
+    <t>代理等级变化记录</t>
+  </si>
+  <si>
+    <t>beforeLevelId</t>
+  </si>
+  <si>
+    <t>变化前等级ID</t>
+  </si>
+  <si>
+    <t>beforeLevelName</t>
+  </si>
+  <si>
+    <t>变化前等级名称</t>
+  </si>
+  <si>
+    <t>curLevelId</t>
+  </si>
+  <si>
+    <t>变化后等级ID</t>
+  </si>
+  <si>
+    <t>curLevelName</t>
+  </si>
+  <si>
+    <t>变化后等级名称</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>变化标识</t>
+  </si>
+  <si>
+    <t>1-升级；2-降级</t>
+  </si>
+  <si>
+    <t>变化日期</t>
+  </si>
+  <si>
+    <t>变化时间</t>
+  </si>
+  <si>
+    <t>Long格式</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>变化原因</t>
+  </si>
+  <si>
+    <t>AgentLevelSpecsRate</t>
+  </si>
+  <si>
+    <t>代理提成标准</t>
+  </si>
+  <si>
+    <t>/admin/agentLevelSpecsRate</t>
+  </si>
+  <si>
+    <t>specsId</t>
+  </si>
+  <si>
+    <t>产品规格ID</t>
+  </si>
+  <si>
+    <t>specsName</t>
+  </si>
+  <si>
+    <t>产品规格名称</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>提成金额</t>
+  </si>
+  <si>
+    <t>@Range-min=0-提成金额不能小于0</t>
+  </si>
+  <si>
+    <t>leaderAmount</t>
+  </si>
+  <si>
+    <t>上级提成金额</t>
+  </si>
+  <si>
+    <t>AgentRateDefault</t>
+  </si>
+  <si>
+    <t>代理默认提成标准</t>
+  </si>
+  <si>
+    <t>/admin/agentRateDefault</t>
+  </si>
+  <si>
+    <t>默认提成标准</t>
+  </si>
+  <si>
+    <t>leaderAmount=0f</t>
+  </si>
+  <si>
+    <t>上级默认提成标准</t>
+  </si>
+  <si>
+    <t>Fund</t>
+  </si>
+  <si>
+    <t>基金</t>
+  </si>
+  <si>
+    <t>/admin/fund</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>totalCount</t>
+  </si>
+  <si>
+    <t>总基金笔数</t>
+  </si>
+  <si>
+    <t>totalMoney</t>
+  </si>
+  <si>
+    <t>总基金金额</t>
+  </si>
+  <si>
+    <t>ShoppingBasket</t>
+  </si>
+  <si>
+    <t>购物车</t>
+  </si>
+  <si>
+    <t>/admin/shoppingBasket</t>
+  </si>
+  <si>
+    <t>数量</t>
+  </si>
+  <si>
+    <t>价格，单条记录总价</t>
+  </si>
+  <si>
+    <t>加入购物车日期</t>
+  </si>
+  <si>
+    <t>加入购物车时间</t>
+  </si>
+  <si>
+    <t>修改时间</t>
+  </si>
+  <si>
+    <t>Coupon</t>
+  </si>
+  <si>
+    <t>优惠券</t>
+  </si>
+  <si>
+    <t>/admin/coupon</t>
+  </si>
+  <si>
+    <t>@NotBlank-名称不能为空</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>价值</t>
+  </si>
+  <si>
+    <t>一张优惠券抵价多少钱，单位元</t>
+  </si>
+  <si>
+    <t>canRepeat</t>
+  </si>
+  <si>
+    <t>可否重复</t>
+  </si>
+  <si>
+    <t>0-不能重复使用；1-可重复使用</t>
+  </si>
+  <si>
+    <t>可获取状态</t>
+  </si>
+  <si>
+    <t>0-不可获取；1-可以获取</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>有效时长</t>
+  </si>
+  <si>
+    <t>优惠券的有效时长，单位秒，0表示长期有效</t>
+  </si>
+  <si>
+    <t>指定产品ID</t>
+  </si>
+  <si>
+    <t>0-全场通用；非0则指定产品使用</t>
+  </si>
+  <si>
+    <t>指定产品标题</t>
+  </si>
+  <si>
+    <t>proId为0时，则“通用券”</t>
+  </si>
+  <si>
+    <t>reachMoney</t>
+  </si>
+  <si>
+    <t>满减</t>
+  </si>
+  <si>
+    <t>达到某值可以使用，0表示均可使用，单位元</t>
+  </si>
+  <si>
+    <t>剩余数量</t>
+  </si>
+  <si>
+    <t>receiveCount=0</t>
+  </si>
+  <si>
+    <t>已领取数量</t>
+  </si>
+  <si>
+    <t>CouponRule</t>
+  </si>
+  <si>
+    <t>优惠券规则</t>
+  </si>
+  <si>
+    <t>/admin/couponRule</t>
+  </si>
+  <si>
+    <t>couponId</t>
+  </si>
+  <si>
+    <t>优惠券ID</t>
+  </si>
+  <si>
+    <t>couponName</t>
+  </si>
+  <si>
+    <t>优惠券名称</t>
+  </si>
+  <si>
+    <t>ruleSn</t>
+  </si>
+  <si>
+    <t>规则SN，唯一，不可修改</t>
+  </si>
+  <si>
+    <t>CustomCoupon</t>
+  </si>
+  <si>
+    <t>客户优惠券</t>
+  </si>
+  <si>
+    <t>/admin/customCoupon</t>
+  </si>
+  <si>
+    <t>优惠券说明</t>
+  </si>
+  <si>
+    <t>优惠券的价值，单位元</t>
+  </si>
+  <si>
+    <t>endTime</t>
+  </si>
+  <si>
+    <t>有效截止时间</t>
+  </si>
+  <si>
+    <t>endLong</t>
+  </si>
+  <si>
+    <t>有效截止时间Long格式</t>
+  </si>
+  <si>
+    <t>status="1"</t>
+  </si>
+  <si>
+    <t>1-可使用；2-过期；3-已使用</t>
+  </si>
+  <si>
+    <t>领取日期</t>
+  </si>
+  <si>
+    <t>领取时间</t>
+  </si>
+  <si>
+    <t>规则SN，通过这个判断是否领取</t>
+  </si>
+  <si>
+    <t>receiveKey</t>
+  </si>
+  <si>
+    <t>获取时的key</t>
+  </si>
+  <si>
+    <t>每一次获取都对应一个Key，为了防止重复领取</t>
+  </si>
+  <si>
+    <t>hasRead="0"</t>
+  </si>
+  <si>
+    <t>是否查看</t>
+  </si>
+  <si>
+    <t>CustomAddress</t>
+  </si>
+  <si>
+    <t>客户收货地址</t>
+  </si>
+  <si>
+    <t>/admin/customAddress</t>
+  </si>
+  <si>
+    <t>@NotBlank-省份不能为空</t>
+  </si>
+  <si>
+    <t>@NotBlank-市不能为空</t>
+  </si>
+  <si>
+    <t>@NotBlank-县区不能为空</t>
+  </si>
+  <si>
+    <t>县级名称</t>
+  </si>
+  <si>
+    <t>@NotBlank-街道不能为空；@Length-min=4-街道至少4个字</t>
+  </si>
+  <si>
+    <t>@NotBlank-联系人不能为空</t>
+  </si>
+  <si>
     <t>@NotBlank-联系电话不能为空</t>
-  </si>
-  <si>
-    <t>identity</t>
-  </si>
-  <si>
-    <t>身份证号</t>
-  </si>
-  <si>
-    <t>@NotBlank-身份证号不能为空</t>
-  </si>
-  <si>
-    <t>省级代码</t>
-  </si>
-  <si>
-    <t>省级名称</t>
-  </si>
-  <si>
-    <t>市级代码</t>
-  </si>
-  <si>
-    <t>市级名称</t>
-  </si>
-  <si>
-    <t>县级代码</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>街道地址</t>
-  </si>
-  <si>
-    <t>addressIndex</t>
-  </si>
-  <si>
-    <t>小程序选择地址的序号</t>
-  </si>
-  <si>
-    <t>如：0-0-1，表示第一个省；第一个市；第二个县区</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>1-男；2-女</t>
-  </si>
-  <si>
-    <t>hasExperience</t>
-  </si>
-  <si>
-    <t>是否有经验，即是否做过微商</t>
-  </si>
-  <si>
-    <t>0-否；1-是</t>
-  </si>
-  <si>
-    <t>leaderId</t>
-  </si>
-  <si>
-    <t>上级AgentID</t>
-  </si>
-  <si>
-    <t>leaderOpenid</t>
-  </si>
-  <si>
-    <t>上级代理Openid</t>
-  </si>
-  <si>
-    <t>leaderName</t>
-  </si>
-  <si>
-    <t>上级代理姓名</t>
-  </si>
-  <si>
-    <t>leaderPhone</t>
-  </si>
-  <si>
-    <t>上级代理电话</t>
-  </si>
-  <si>
-    <t>paperCount=0</t>
-  </si>
-  <si>
-    <t>证件数量</t>
-  </si>
-  <si>
-    <t>对应AgentPaper</t>
-  </si>
-  <si>
-    <t>verifyCount=0</t>
-  </si>
-  <si>
-    <t>审核次数</t>
-  </si>
-  <si>
-    <t>relationCount=0</t>
-  </si>
-  <si>
-    <t>级别调整次数</t>
-  </si>
-  <si>
-    <t>subCount=0</t>
-  </si>
-  <si>
-    <t>下级代理人数</t>
-  </si>
-  <si>
-    <t>ordersCount=0</t>
-  </si>
-  <si>
-    <t>订单数量</t>
-  </si>
-  <si>
-    <t>levelId</t>
-  </si>
-  <si>
-    <t>当前等级ID</t>
-  </si>
-  <si>
-    <t>levelName</t>
-  </si>
-  <si>
-    <t>当前等级名称</t>
-  </si>
-  <si>
-    <t>AgentPaper</t>
-  </si>
-  <si>
-    <t>代理证件</t>
-  </si>
-  <si>
-    <t>agentId</t>
-  </si>
-  <si>
-    <t>代理ID</t>
-  </si>
-  <si>
-    <t>agentName</t>
-  </si>
-  <si>
-    <t>代理姓名</t>
-  </si>
-  <si>
-    <t>mediumId</t>
-  </si>
-  <si>
-    <t>媒介ID</t>
-  </si>
-  <si>
-    <t>filePath</t>
-  </si>
-  <si>
-    <t>文件路径</t>
-  </si>
-  <si>
-    <t>fileName</t>
-  </si>
-  <si>
-    <t>证件名称</t>
-  </si>
-  <si>
-    <t>如：身份证正面</t>
-  </si>
-  <si>
-    <t>AgentApplyVerify</t>
-  </si>
-  <si>
-    <t>代理申请审核</t>
-  </si>
-  <si>
-    <t>verifyOperator</t>
-  </si>
-  <si>
-    <t>审核人员信息</t>
-  </si>
-  <si>
-    <t>verifyDay</t>
-  </si>
-  <si>
-    <t>审核日期</t>
-  </si>
-  <si>
-    <t>verifyTime</t>
-  </si>
-  <si>
-    <t>审核时间</t>
-  </si>
-  <si>
-    <t>verifyLong</t>
-  </si>
-  <si>
-    <t>审核时间Long类型</t>
-  </si>
-  <si>
-    <t>审核内容</t>
-  </si>
-  <si>
-    <t>verifyRes</t>
-  </si>
-  <si>
-    <t>审核结果</t>
-  </si>
-  <si>
-    <t>1-通过审核；2-驳回申请</t>
-  </si>
-  <si>
-    <t>AgentLevel</t>
-  </si>
-  <si>
-    <t>代理等级</t>
-  </si>
-  <si>
-    <t>/admin/agentLevel</t>
-  </si>
-  <si>
-    <t>等级名称</t>
-  </si>
-  <si>
-    <t>如：铜牌代理、银牌代理、金牌代理</t>
-  </si>
-  <si>
-    <t>@NotBlank-等级名称不能为空</t>
-  </si>
-  <si>
-    <t>level</t>
-  </si>
-  <si>
-    <t>级别</t>
-  </si>
-  <si>
-    <t>数值越大，等级越高，提成标准越高</t>
-  </si>
-  <si>
-    <t>AgentLevelRelation</t>
-  </si>
-  <si>
-    <t>代理等级关系</t>
-  </si>
-  <si>
-    <t>等级ID</t>
-  </si>
-  <si>
-    <t>AgentLevelRecord</t>
-  </si>
-  <si>
-    <t>代理等级变化记录</t>
-  </si>
-  <si>
-    <t>beforeLevelId</t>
-  </si>
-  <si>
-    <t>变化前等级ID</t>
-  </si>
-  <si>
-    <t>beforeLevelName</t>
-  </si>
-  <si>
-    <t>变化前等级名称</t>
-  </si>
-  <si>
-    <t>curLevelId</t>
-  </si>
-  <si>
-    <t>变化后等级ID</t>
-  </si>
-  <si>
-    <t>curLevelName</t>
-  </si>
-  <si>
-    <t>变化后等级名称</t>
-  </si>
-  <si>
-    <t>flag</t>
-  </si>
-  <si>
-    <t>变化标识</t>
-  </si>
-  <si>
-    <t>1-升级；2-降级</t>
-  </si>
-  <si>
-    <t>变化日期</t>
-  </si>
-  <si>
-    <t>变化时间</t>
-  </si>
-  <si>
-    <t>Long格式</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>变化原因</t>
-  </si>
-  <si>
-    <t>AgentLevelSpecsRate</t>
-  </si>
-  <si>
-    <t>代理提成标准</t>
-  </si>
-  <si>
-    <t>/admin/agentLevelSpecsRate</t>
-  </si>
-  <si>
-    <t>specsId</t>
-  </si>
-  <si>
-    <t>产品规格ID</t>
-  </si>
-  <si>
-    <t>specsName</t>
-  </si>
-  <si>
-    <t>产品规格名称</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>提成金额</t>
-  </si>
-  <si>
-    <t>@Range-min=0-提成金额不能小于0</t>
-  </si>
-  <si>
-    <t>leaderAmount</t>
-  </si>
-  <si>
-    <t>上级提成金额</t>
-  </si>
-  <si>
-    <t>AgentRateDefault</t>
-  </si>
-  <si>
-    <t>代理默认提成标准</t>
-  </si>
-  <si>
-    <t>/admin/agentRateDefault</t>
-  </si>
-  <si>
-    <t>默认提成标准</t>
-  </si>
-  <si>
-    <t>leaderAmount=0f</t>
-  </si>
-  <si>
-    <t>上级默认提成标准</t>
-  </si>
-  <si>
-    <t>Fund</t>
-  </si>
-  <si>
-    <t>基金</t>
-  </si>
-  <si>
-    <t>/admin/fund</t>
-  </si>
-  <si>
-    <t>RL</t>
-  </si>
-  <si>
-    <t>totalCount</t>
-  </si>
-  <si>
-    <t>总基金笔数</t>
-  </si>
-  <si>
-    <t>totalMoney</t>
-  </si>
-  <si>
-    <t>总基金金额</t>
-  </si>
-  <si>
-    <t>ShoppingBasket</t>
-  </si>
-  <si>
-    <t>购物车</t>
-  </si>
-  <si>
-    <t>/admin/shoppingBasket</t>
-  </si>
-  <si>
-    <t>数量</t>
-  </si>
-  <si>
-    <t>价格，单条记录总价</t>
-  </si>
-  <si>
-    <t>加入购物车日期</t>
-  </si>
-  <si>
-    <t>加入购物车时间</t>
-  </si>
-  <si>
-    <t>修改时间</t>
-  </si>
-  <si>
-    <t>Coupon</t>
-  </si>
-  <si>
-    <t>优惠券</t>
-  </si>
-  <si>
-    <t>/admin/coupon</t>
-  </si>
-  <si>
-    <t>@NotBlank-名称不能为空</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>价值</t>
-  </si>
-  <si>
-    <t>一张优惠券抵价多少钱，单位元</t>
-  </si>
-  <si>
-    <t>canRepeat</t>
-  </si>
-  <si>
-    <t>可否重复</t>
-  </si>
-  <si>
-    <t>0-不能重复使用；1-可重复使用</t>
-  </si>
-  <si>
-    <t>可获取状态</t>
-  </si>
-  <si>
-    <t>0-不可获取；1-可以获取</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>有效时长</t>
-  </si>
-  <si>
-    <t>优惠券的有效时长，单位秒，0表示长期有效</t>
-  </si>
-  <si>
-    <t>指定产品ID</t>
-  </si>
-  <si>
-    <t>0-全场通用；非0则指定产品使用</t>
-  </si>
-  <si>
-    <t>指定产品标题</t>
-  </si>
-  <si>
-    <t>proId为0时，则“通用券”</t>
-  </si>
-  <si>
-    <t>reachMoney</t>
-  </si>
-  <si>
-    <t>满减</t>
-  </si>
-  <si>
-    <t>达到某值可以使用，0表示均可使用，单位元</t>
-  </si>
-  <si>
-    <t>剩余数量</t>
-  </si>
-  <si>
-    <t>receiveCount=0</t>
-  </si>
-  <si>
-    <t>已领取数量</t>
-  </si>
-  <si>
-    <t>CouponRule</t>
-  </si>
-  <si>
-    <t>优惠券规则</t>
-  </si>
-  <si>
-    <t>/admin/couponRule</t>
-  </si>
-  <si>
-    <t>couponId</t>
-  </si>
-  <si>
-    <t>优惠券ID</t>
-  </si>
-  <si>
-    <t>couponName</t>
-  </si>
-  <si>
-    <t>优惠券名称</t>
-  </si>
-  <si>
-    <t>ruleSn</t>
-  </si>
-  <si>
-    <t>规则SN，唯一，不可修改</t>
-  </si>
-  <si>
-    <t>CustomCoupon</t>
-  </si>
-  <si>
-    <t>客户优惠券</t>
-  </si>
-  <si>
-    <t>/admin/customCoupon</t>
-  </si>
-  <si>
-    <t>优惠券说明</t>
-  </si>
-  <si>
-    <t>优惠券的价值，单位元</t>
-  </si>
-  <si>
-    <t>endTime</t>
-  </si>
-  <si>
-    <t>有效截止时间</t>
-  </si>
-  <si>
-    <t>endLong</t>
-  </si>
-  <si>
-    <t>有效截止时间Long格式</t>
-  </si>
-  <si>
-    <t>status="1"</t>
-  </si>
-  <si>
-    <t>1-可使用；2-过期；3-已使用</t>
-  </si>
-  <si>
-    <t>领取日期</t>
-  </si>
-  <si>
-    <t>领取时间</t>
-  </si>
-  <si>
-    <t>规则SN，通过这个判断是否领取</t>
-  </si>
-  <si>
-    <t>receiveKey</t>
-  </si>
-  <si>
-    <t>获取时的key</t>
-  </si>
-  <si>
-    <t>每一次获取都对应一个Key，为了防止重复领取</t>
-  </si>
-  <si>
-    <t>hasRead="0"</t>
-  </si>
-  <si>
-    <t>是否查看</t>
-  </si>
-  <si>
-    <t>CustomAddress</t>
-  </si>
-  <si>
-    <t>客户收货地址</t>
-  </si>
-  <si>
-    <t>/admin/customAddress</t>
-  </si>
-  <si>
-    <t>@NotBlank-省份不能为空</t>
-  </si>
-  <si>
-    <t>@NotBlank-市不能为空</t>
-  </si>
-  <si>
-    <t>@NotBlank-县区不能为空</t>
-  </si>
-  <si>
-    <t>县级名称</t>
-  </si>
-  <si>
-    <t>@NotBlank-街道不能为空；@Length-min=4-街道至少4个字</t>
-  </si>
-  <si>
-    <t>@NotBlank-联系人不能为空</t>
   </si>
   <si>
     <t>postCode</t>
@@ -2663,9 +2657,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2684,37 +2678,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2728,7 +2701,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2742,8 +2760,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2760,69 +2809,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2837,13 +2831,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2861,25 +2903,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2891,31 +2969,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2927,85 +2993,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3017,7 +3011,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3047,41 +3041,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3096,26 +3055,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3143,6 +3102,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3151,10 +3145,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3163,133 +3157,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3678,8 +3672,8 @@
   <sheetPr/>
   <dimension ref="A1:N689"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A644" workbookViewId="0">
-      <selection activeCell="B667" sqref="B667"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="G162" sqref="G162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6166,7 +6160,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
         <v>18</v>
       </c>
@@ -6179,9 +6173,6 @@
       <c r="D154" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="G154" s="3" t="s">
-        <v>296</v>
-      </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
@@ -6194,7 +6185,7 @@
         <v>20</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -6208,44 +6199,38 @@
         <v>20</v>
       </c>
       <c r="D156" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E156" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="E156" s="3" t="s">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="157" spans="1:7">
-      <c r="A157" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B157" s="2" t="s">
+      <c r="C157" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D157" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D157" s="3" t="s">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G157" s="3" t="s">
+      <c r="C158" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D158" s="3" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7">
-      <c r="A158" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="G158" s="3" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -6259,7 +6244,7 @@
         <v>20</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -6273,7 +6258,7 @@
         <v>20</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -6287,7 +6272,7 @@
         <v>20</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -6301,7 +6286,7 @@
         <v>20</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -6315,7 +6300,7 @@
         <v>20</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -6329,7 +6314,7 @@
         <v>20</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -6337,13 +6322,13 @@
         <v>18</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="166" ht="28.8" spans="1:5">
@@ -6351,16 +6336,16 @@
         <v>18</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -6368,16 +6353,16 @@
         <v>18</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -6385,16 +6370,16 @@
         <v>18</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -6435,13 +6420,13 @@
         <v>18</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -6449,13 +6434,13 @@
         <v>18</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -6463,13 +6448,13 @@
         <v>18</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -6477,13 +6462,13 @@
         <v>18</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6491,16 +6476,16 @@
         <v>18</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -6508,13 +6493,13 @@
         <v>18</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -6522,13 +6507,13 @@
         <v>18</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -6536,13 +6521,13 @@
         <v>18</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -6550,13 +6535,13 @@
         <v>18</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -6564,13 +6549,13 @@
         <v>18</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -6578,13 +6563,13 @@
         <v>18</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6595,10 +6580,10 @@
         <v>11</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>14</v>
@@ -6609,13 +6594,13 @@
         <v>18</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -6623,13 +6608,13 @@
         <v>18</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -6637,13 +6622,13 @@
         <v>18</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -6651,13 +6636,13 @@
         <v>18</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6665,16 +6650,16 @@
         <v>18</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6685,10 +6670,10 @@
         <v>11</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>14</v>
@@ -6699,13 +6684,13 @@
         <v>18</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -6735,13 +6720,13 @@
         <v>18</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6749,13 +6734,13 @@
         <v>18</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>122</v>
@@ -6766,13 +6751,13 @@
         <v>18</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>120</v>
@@ -6783,13 +6768,13 @@
         <v>18</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -6803,7 +6788,7 @@
         <v>25</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6811,16 +6796,16 @@
         <v>18</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6831,10 +6816,10 @@
         <v>11</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>14</v>
@@ -6843,7 +6828,7 @@
         <v>293</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H199" s="2" t="s">
         <v>17</v>
@@ -6860,13 +6845,13 @@
         <v>20</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6874,16 +6859,16 @@
         <v>18</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6894,10 +6879,10 @@
         <v>11</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E202" s="3" t="s">
         <v>14</v>
@@ -6908,13 +6893,13 @@
         <v>18</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -6944,13 +6929,13 @@
         <v>18</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6961,10 +6946,10 @@
         <v>11</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>14</v>
@@ -6975,13 +6960,13 @@
         <v>18</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -6989,13 +6974,13 @@
         <v>18</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -7003,13 +6988,13 @@
         <v>18</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -7017,13 +7002,13 @@
         <v>18</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -7031,13 +7016,13 @@
         <v>18</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -7045,16 +7030,16 @@
         <v>18</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -7068,7 +7053,7 @@
         <v>20</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E214" s="3" t="s">
         <v>122</v>
@@ -7085,7 +7070,7 @@
         <v>20</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E215" s="3" t="s">
         <v>120</v>
@@ -7102,10 +7087,10 @@
         <v>101</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -7113,13 +7098,13 @@
         <v>18</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7130,10 +7115,10 @@
         <v>11</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E218" s="3" t="s">
         <v>14</v>
@@ -7142,7 +7127,7 @@
         <v>293</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H218" s="2" t="s">
         <v>17</v>
@@ -7153,13 +7138,13 @@
         <v>18</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -7167,13 +7152,13 @@
         <v>18</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -7209,13 +7194,13 @@
         <v>18</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -7223,13 +7208,13 @@
         <v>18</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -7237,16 +7222,16 @@
         <v>18</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -7254,13 +7239,13 @@
         <v>18</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7271,10 +7256,10 @@
         <v>11</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E227" s="3" t="s">
         <v>14</v>
@@ -7283,7 +7268,7 @@
         <v>293</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H227" s="2" t="s">
         <v>17</v>
@@ -7294,13 +7279,13 @@
         <v>18</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -7308,13 +7293,13 @@
         <v>18</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -7322,13 +7307,13 @@
         <v>18</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -7336,13 +7321,13 @@
         <v>18</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7353,10 +7338,10 @@
         <v>11</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E232" s="3" t="s">
         <v>14</v>
@@ -7365,10 +7350,10 @@
         <v>293</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -7376,13 +7361,13 @@
         <v>18</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D233" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -7390,13 +7375,13 @@
         <v>18</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7407,10 +7392,10 @@
         <v>11</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E235" s="3" t="s">
         <v>14</v>
@@ -7419,10 +7404,10 @@
         <v>293</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -7472,13 +7457,13 @@
         <v>18</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -7486,13 +7471,13 @@
         <v>18</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D240" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -7500,13 +7485,13 @@
         <v>18</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D241" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -7520,7 +7505,7 @@
         <v>69</v>
       </c>
       <c r="D242" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -7545,7 +7530,7 @@
         <v>20</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>122</v>
@@ -7562,7 +7547,7 @@
         <v>20</v>
       </c>
       <c r="D245" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E245" s="3" t="s">
         <v>120</v>
@@ -7579,10 +7564,10 @@
         <v>101</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7596,7 +7581,7 @@
         <v>20</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E247" s="3" t="s">
         <v>122</v>
@@ -7613,7 +7598,7 @@
         <v>20</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E248" s="3" t="s">
         <v>120</v>
@@ -7630,10 +7615,10 @@
         <v>101</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -7688,10 +7673,10 @@
         <v>11</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D254" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E254" s="3" t="s">
         <v>14</v>
@@ -7700,7 +7685,7 @@
         <v>293</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H254" s="2" t="s">
         <v>17</v>
@@ -7720,7 +7705,7 @@
         <v>164</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -7742,16 +7727,16 @@
         <v>18</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7759,16 +7744,16 @@
         <v>18</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D258" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7782,10 +7767,10 @@
         <v>20</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7793,16 +7778,16 @@
         <v>18</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7816,10 +7801,10 @@
         <v>33</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7833,10 +7818,10 @@
         <v>20</v>
       </c>
       <c r="D262" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7844,16 +7829,16 @@
         <v>18</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -7867,7 +7852,7 @@
         <v>33</v>
       </c>
       <c r="D264" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -7875,13 +7860,13 @@
         <v>18</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D265" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7892,10 +7877,10 @@
         <v>11</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>14</v>
@@ -7904,7 +7889,7 @@
         <v>293</v>
       </c>
       <c r="G266" s="3" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H266" s="2" t="s">
         <v>17</v>
@@ -7929,13 +7914,13 @@
         <v>18</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D268" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -7943,13 +7928,13 @@
         <v>18</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -7957,13 +7942,13 @@
         <v>18</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7974,10 +7959,10 @@
         <v>11</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D271" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E271" s="3" t="s">
         <v>14</v>
@@ -7986,10 +7971,10 @@
         <v>293</v>
       </c>
       <c r="G271" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -8041,13 +8026,13 @@
         <v>18</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D276" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -8055,13 +8040,13 @@
         <v>18</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -8075,7 +8060,7 @@
         <v>20</v>
       </c>
       <c r="D278" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -8083,16 +8068,16 @@
         <v>18</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -8100,16 +8085,16 @@
         <v>18</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D280" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -8117,13 +8102,13 @@
         <v>18</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D281" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E281" s="3" t="s">
         <v>120</v>
@@ -8134,13 +8119,13 @@
         <v>18</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -8148,16 +8133,16 @@
         <v>18</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D283" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -8171,10 +8156,10 @@
         <v>33</v>
       </c>
       <c r="D284" s="3" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -8188,10 +8173,10 @@
         <v>20</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -8205,7 +8190,7 @@
         <v>20</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E286" s="3" t="s">
         <v>122</v>
@@ -8222,7 +8207,7 @@
         <v>20</v>
       </c>
       <c r="D287" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E287" s="3" t="s">
         <v>120</v>
@@ -8239,10 +8224,10 @@
         <v>101</v>
       </c>
       <c r="D288" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -8250,13 +8235,13 @@
         <v>18</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="290" ht="28.8" spans="1:5">
@@ -8264,16 +8249,16 @@
         <v>18</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D290" s="3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -8281,13 +8266,13 @@
         <v>18</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D291" s="3" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -8295,13 +8280,13 @@
         <v>18</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8312,10 +8297,10 @@
         <v>11</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D293" s="3" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E293" s="3" t="s">
         <v>14</v>
@@ -8324,10 +8309,10 @@
         <v>293</v>
       </c>
       <c r="G293" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H293" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -8385,10 +8370,10 @@
         <v>20</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G298" s="3" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -8402,7 +8387,7 @@
         <v>20</v>
       </c>
       <c r="D299" s="3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -8416,10 +8401,10 @@
         <v>20</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G300" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -8433,7 +8418,7 @@
         <v>20</v>
       </c>
       <c r="D301" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -8447,10 +8432,10 @@
         <v>20</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G302" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -8464,7 +8449,7 @@
         <v>20</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="304" ht="28.8" spans="1:7">
@@ -8472,16 +8457,16 @@
         <v>18</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G304" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="305" ht="28.8" spans="1:5">
@@ -8489,16 +8474,16 @@
         <v>18</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -8515,7 +8500,7 @@
         <v>295</v>
       </c>
       <c r="G306" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -8523,16 +8508,16 @@
         <v>18</v>
       </c>
       <c r="B307" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D307" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="C307" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D307" s="3" t="s">
-        <v>301</v>
-      </c>
       <c r="G307" s="3" t="s">
-        <v>302</v>
+        <v>495</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -8540,13 +8525,13 @@
         <v>18</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8554,16 +8539,16 @@
         <v>18</v>
       </c>
       <c r="B309" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="E309" s="3" t="s">
         <v>500</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D309" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="E309" s="3" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8571,16 +8556,16 @@
         <v>18</v>
       </c>
       <c r="B310" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="E310" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D310" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="E310" s="3" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8591,10 +8576,10 @@
         <v>11</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E311" s="3" t="s">
         <v>14</v>
@@ -8603,10 +8588,10 @@
         <v>293</v>
       </c>
       <c r="G311" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H311" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -8620,7 +8605,7 @@
         <v>20</v>
       </c>
       <c r="D312" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="313" spans="1:3">
@@ -8656,7 +8641,7 @@
         <v>20</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -8692,13 +8677,13 @@
         <v>18</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -8706,13 +8691,13 @@
         <v>18</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -8726,7 +8711,7 @@
         <v>33</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -8734,13 +8719,13 @@
         <v>18</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D321" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -8748,13 +8733,13 @@
         <v>18</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D322" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8762,16 +8747,16 @@
         <v>18</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D323" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8779,16 +8764,16 @@
         <v>18</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -8796,13 +8781,13 @@
         <v>18</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D325" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -8810,13 +8795,13 @@
         <v>18</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D326" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8830,7 +8815,7 @@
         <v>20</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E327" s="3" t="s">
         <v>122</v>
@@ -8847,7 +8832,7 @@
         <v>20</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E328" s="3" t="s">
         <v>120</v>
@@ -8864,10 +8849,10 @@
         <v>101</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -8875,13 +8860,13 @@
         <v>18</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D330" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -8889,13 +8874,13 @@
         <v>18</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D331" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -8903,13 +8888,13 @@
         <v>18</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="333" ht="28.8" spans="1:5">
@@ -8923,10 +8908,10 @@
         <v>20</v>
       </c>
       <c r="D333" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E333" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8934,16 +8919,16 @@
         <v>18</v>
       </c>
       <c r="B334" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E334" s="3" t="s">
         <v>537</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D334" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="E334" s="3" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -8951,13 +8936,13 @@
         <v>18</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D335" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -8965,13 +8950,13 @@
         <v>18</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D336" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -8979,13 +8964,13 @@
         <v>18</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -8993,13 +8978,13 @@
         <v>18</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D338" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -9007,13 +8992,13 @@
         <v>18</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D339" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -9021,13 +9006,13 @@
         <v>18</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D340" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -9035,16 +9020,16 @@
         <v>18</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D341" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -9052,16 +9037,16 @@
         <v>18</v>
       </c>
       <c r="B342" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="E342" s="3" t="s">
         <v>551</v>
-      </c>
-      <c r="C342" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D342" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="E342" s="3" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -9069,13 +9054,13 @@
         <v>18</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D343" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -9083,16 +9068,16 @@
         <v>18</v>
       </c>
       <c r="B344" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="E344" s="3" t="s">
         <v>556</v>
-      </c>
-      <c r="C344" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D344" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="E344" s="3" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -9106,7 +9091,7 @@
         <v>25</v>
       </c>
       <c r="D345" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -9114,13 +9099,13 @@
         <v>18</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D346" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="347" spans="1:3">
@@ -9128,7 +9113,7 @@
         <v>18</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>20</v>
@@ -9139,7 +9124,7 @@
         <v>18</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>101</v>
@@ -9150,13 +9135,13 @@
         <v>18</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D349" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="350" spans="1:3">
@@ -9164,7 +9149,7 @@
         <v>18</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>20</v>
@@ -9175,7 +9160,7 @@
         <v>18</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>101</v>
@@ -9189,10 +9174,10 @@
         <v>261</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E352" s="3" t="s">
         <v>14</v>
@@ -9201,10 +9186,10 @@
         <v>293</v>
       </c>
       <c r="G352" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="353" spans="1:3">
@@ -9212,7 +9197,7 @@
         <v>18</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>33</v>
@@ -9245,7 +9230,7 @@
         <v>18</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>20</v>
@@ -9284,7 +9269,7 @@
         <v>25</v>
       </c>
       <c r="D359" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="360" spans="1:3">
@@ -9325,7 +9310,7 @@
         <v>18</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>25</v>
@@ -9378,7 +9363,7 @@
         <v>20</v>
       </c>
       <c r="D367" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -9386,13 +9371,13 @@
         <v>18</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D368" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9403,10 +9388,10 @@
         <v>261</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D369" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E369" s="3" t="s">
         <v>14</v>
@@ -9461,13 +9446,13 @@
         <v>18</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D374" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9481,10 +9466,10 @@
         <v>20</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -9498,7 +9483,7 @@
         <v>20</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -9506,13 +9491,13 @@
         <v>18</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9520,16 +9505,16 @@
         <v>18</v>
       </c>
       <c r="B378" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E378" s="3" t="s">
         <v>583</v>
-      </c>
-      <c r="C378" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D378" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="E378" s="3" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9537,16 +9522,16 @@
         <v>18</v>
       </c>
       <c r="B379" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="E379" s="3" t="s">
         <v>586</v>
-      </c>
-      <c r="C379" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D379" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="E379" s="3" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="380" spans="1:3">
@@ -9587,13 +9572,13 @@
         <v>18</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -9604,10 +9589,10 @@
         <v>11</v>
       </c>
       <c r="C384" s="2" t="s